--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -1005,13 +1005,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
@@ -1033,68 +1032,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13"/>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,17 +7,21 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="CPU Applications 2016-10-XX" sheetId="1" r:id="rId1"/>
-    <sheet name="GPU Applications 2016-10-XX" sheetId="3" r:id="rId2"/>
-    <sheet name="User Walltime 2016-10-XX" sheetId="4" r:id="rId3"/>
-    <sheet name="Org Walltime 2016-10-XX" sheetId="5" r:id="rId4"/>
+    <sheet name="CPU Applications 2016-11-08" sheetId="1" r:id="rId1"/>
+    <sheet name="GPU Applications 2016-11-08" sheetId="3" r:id="rId2"/>
+    <sheet name="User Walltime 2016-10" sheetId="4" r:id="rId3"/>
+    <sheet name="Org HighLevel CPU 2016-10" sheetId="7" r:id="rId4"/>
+    <sheet name="Org HighLevel GPU 2016-10" sheetId="8" r:id="rId5"/>
+    <sheet name="Org Breakdown CPU 2016-10" sheetId="5" r:id="rId6"/>
+    <sheet name="Org Breakdown GPU 2016-10" sheetId="9" r:id="rId7"/>
+    <sheet name="Largest Jobs 2016-10" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Rank</t>
   </si>
@@ -41,6 +45,24 @@
   </si>
   <si>
     <t>Organization</t>
+  </si>
+  <si>
+    <t>Core Hours</t>
+  </si>
+  <si>
+    <t>Job ID</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Wall time</t>
+  </si>
+  <si>
+    <t>Wait time</t>
   </si>
 </sst>
 </file>
@@ -528,7 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,6 +562,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -885,7 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1045,4 +1081,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,21 +7,23 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="CPU Applications 2016-11-08" sheetId="1" r:id="rId1"/>
-    <sheet name="GPU Applications 2016-11-08" sheetId="3" r:id="rId2"/>
-    <sheet name="User Walltime 2016-10" sheetId="4" r:id="rId3"/>
-    <sheet name="Org HighLevel CPU 2016-10" sheetId="7" r:id="rId4"/>
-    <sheet name="Org HighLevel GPU 2016-10" sheetId="8" r:id="rId5"/>
-    <sheet name="Org Breakdown CPU 2016-10" sheetId="5" r:id="rId6"/>
-    <sheet name="Org Breakdown GPU 2016-10" sheetId="9" r:id="rId7"/>
-    <sheet name="Largest Jobs 2016-10" sheetId="6" r:id="rId8"/>
+    <sheet name="Applications CPU 2016-11-08" sheetId="1" r:id="rId1"/>
+    <sheet name="User Walltime CPU 2016-10" sheetId="4" r:id="rId2"/>
+    <sheet name="Org HighLevel CPU 2016-10" sheetId="7" r:id="rId3"/>
+    <sheet name="Org Breakdown CPU 2016-10" sheetId="5" r:id="rId4"/>
+    <sheet name="Largest Jobs CPU 2016-10" sheetId="6" r:id="rId5"/>
+    <sheet name="Applications GPU 2016-10" sheetId="3" r:id="rId6"/>
+    <sheet name="User Walltime GPU 2016-10" sheetId="10" r:id="rId7"/>
+    <sheet name="Org HighLevel GPU 2016-10" sheetId="8" r:id="rId8"/>
+    <sheet name="Org Breakdown GPU 2016-10" sheetId="9" r:id="rId9"/>
+    <sheet name="Largest Jobs GPU 2016-10" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Rank</t>
   </si>
@@ -919,9 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -955,49 +955,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1032,6 +1044,50 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,138 +1141,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1267,4 +1191,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,23 +7,24 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Applications CPU 2016-11-08" sheetId="1" r:id="rId1"/>
-    <sheet name="User Walltime CPU 2016-10" sheetId="4" r:id="rId2"/>
-    <sheet name="Org HighLevel CPU 2016-10" sheetId="7" r:id="rId3"/>
-    <sheet name="Org Breakdown CPU 2016-10" sheetId="5" r:id="rId4"/>
-    <sheet name="Largest Jobs CPU 2016-10" sheetId="6" r:id="rId5"/>
-    <sheet name="Applications GPU 2016-10" sheetId="3" r:id="rId6"/>
-    <sheet name="User Walltime GPU 2016-10" sheetId="10" r:id="rId7"/>
-    <sheet name="Org HighLevel GPU 2016-10" sheetId="8" r:id="rId8"/>
-    <sheet name="Org Breakdown GPU 2016-10" sheetId="9" r:id="rId9"/>
-    <sheet name="Largest Jobs GPU 2016-10" sheetId="11" r:id="rId10"/>
+    <sheet name="Applications CPU 2016-12-06" sheetId="1" r:id="rId1"/>
+    <sheet name="User Walltime CPU 2016-12-06" sheetId="4" r:id="rId2"/>
+    <sheet name="Org HighLevel CPU 2016-12-06" sheetId="7" r:id="rId3"/>
+    <sheet name="Org Breakdown CPU 2016-12-06" sheetId="5" r:id="rId4"/>
+    <sheet name="Largest Jobs CPU 2016-12-06" sheetId="6" r:id="rId5"/>
+    <sheet name="Applications GPU 2016-12-06" sheetId="3" r:id="rId6"/>
+    <sheet name="User Walltime GPU 2016-12-06" sheetId="10" r:id="rId7"/>
+    <sheet name="Org HighLevel GPU 2016-12-06" sheetId="8" r:id="rId8"/>
+    <sheet name="Org Breakdown GPU 2016-12-06" sheetId="9" r:id="rId9"/>
+    <sheet name="Largest Jobs GPU 2016-12-06" sheetId="11" r:id="rId10"/>
+    <sheet name="Cumulative 2016-12-06 " sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Rank</t>
   </si>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t>Wait time</t>
+  </si>
+  <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>A*STAR</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (CPU nodes)</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (GPU Nodes)</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (Total)</t>
   </si>
 </sst>
 </file>
@@ -552,7 +577,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,6 +602,8 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -630,6 +657,761 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2016-12-06 '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Core Hours (CPU nodes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40330490.090555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42272318.338611163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61272817.936388962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80419405.701388955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91797570.830833361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105082245.94444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121867569.14833337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125709252.57027781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2016-12-06 '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Core Hours (GPU Nodes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5033947.3422222203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5180112.3222222207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6788200.1555555509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8659560.7688888814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11262494.555555552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13249154.188888881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15551657.535555551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16024845.195555551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109089920"/>
+        <c:axId val="109091456"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="109089920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109091456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="109091456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109089920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2016-12-06 '!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23684370.820555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25114494.81444449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34275807.027222268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41874775.00250005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45743559.290000051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49915318.677222274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56129899.423611164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57343464.365000054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2016-12-06 '!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12013985.7005556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12117030.835000044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17592846.070277825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24181683.087500043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28231926.511388935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34904363.028333388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40616298.492777824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42044918.803055607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2016-12-06 '!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NTU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7310391.2061111098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7746515.088333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12743684.413611112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18131719.079166673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20946688.638888892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24377322.916666672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29517978.718888894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30959033.800555564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2016-12-06 '!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2016-12-06 '!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2355689.7055554884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2474389.9230554923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3448680.5808332525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4890789.3011109931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8137890.9461109843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9134395.5111109316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11155050.048610983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11386680.797222083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109331200"/>
+        <c:axId val="109332736"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="109331200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109332736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="109332736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109331200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1009,6 +1791,399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>42457</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>42457</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>42538</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40330490.090555601</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5033947.3422222203</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45364437.4327778</v>
+      </c>
+      <c r="G3" s="13">
+        <v>42538</v>
+      </c>
+      <c r="H3" s="1">
+        <v>23684370.820555601</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12013985.7005556</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7310391.2061111098</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2355689.7055554884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>42551</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42272318.338611163</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5180112.3222222207</v>
+      </c>
+      <c r="D4" s="1">
+        <v>47452430.660833359</v>
+      </c>
+      <c r="G4" s="13">
+        <v>42551</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25114494.81444449</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12117030.835000044</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7746515.088333332</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2474389.9230554923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>42582</v>
+      </c>
+      <c r="B5" s="1">
+        <v>61272817.936388962</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6788200.1555555509</v>
+      </c>
+      <c r="D5" s="1">
+        <v>68061018.091944456</v>
+      </c>
+      <c r="G5" s="13">
+        <v>42582</v>
+      </c>
+      <c r="H5" s="1">
+        <v>34275807.027222268</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17592846.070277825</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12743684.413611112</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3448680.5808332525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>42613</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80419405.701388955</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8659560.7688888814</v>
+      </c>
+      <c r="D6" s="1">
+        <v>89078966.470277756</v>
+      </c>
+      <c r="G6" s="13">
+        <v>42613</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41874775.00250005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>24181683.087500043</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18131719.079166673</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4890789.3011109931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>42643</v>
+      </c>
+      <c r="B7" s="1">
+        <v>91797570.830833361</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11262494.555555552</v>
+      </c>
+      <c r="D7" s="1">
+        <v>103060065.38638885</v>
+      </c>
+      <c r="G7" s="13">
+        <v>42643</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45743559.290000051</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28231926.511388935</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20946688.638888892</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8137890.9461109843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>42674</v>
+      </c>
+      <c r="B8" s="1">
+        <v>105082245.94444446</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13249154.188888881</v>
+      </c>
+      <c r="D8" s="1">
+        <v>118331400.13333325</v>
+      </c>
+      <c r="G8" s="13">
+        <v>42674</v>
+      </c>
+      <c r="H8" s="1">
+        <v>49915318.677222274</v>
+      </c>
+      <c r="I8" s="1">
+        <v>34904363.028333388</v>
+      </c>
+      <c r="J8" s="1">
+        <v>24377322.916666672</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9134395.5111109316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>42704</v>
+      </c>
+      <c r="B9" s="1">
+        <v>121867569.14833337</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15551657.535555551</v>
+      </c>
+      <c r="D9" s="1">
+        <v>137419226.68388885</v>
+      </c>
+      <c r="G9" s="13">
+        <v>42704</v>
+      </c>
+      <c r="H9" s="1">
+        <v>56129899.423611164</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40616298.492777824</v>
+      </c>
+      <c r="J9" s="1">
+        <v>29517978.718888894</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11155050.048610983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>42710</v>
+      </c>
+      <c r="B10" s="1">
+        <v>125709252.57027781</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16024845.195555551</v>
+      </c>
+      <c r="D10" s="1">
+        <v>141734097.76583329</v>
+      </c>
+      <c r="G10" s="13">
+        <v>42710</v>
+      </c>
+      <c r="H10" s="1">
+        <v>57343464.365000054</v>
+      </c>
+      <c r="I10" s="1">
+        <v>42044918.803055607</v>
+      </c>
+      <c r="J10" s="1">
+        <v>30959033.800555564</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11386680.797222083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,24 +7,23 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Applications CPU 2016-12-06" sheetId="1" r:id="rId1"/>
-    <sheet name="User Walltime CPU 2016-12-06" sheetId="4" r:id="rId2"/>
-    <sheet name="Org HighLevel CPU 2016-12-06" sheetId="7" r:id="rId3"/>
-    <sheet name="Org Breakdown CPU 2016-12-06" sheetId="5" r:id="rId4"/>
-    <sheet name="Largest Jobs CPU 2016-12-06" sheetId="6" r:id="rId5"/>
-    <sheet name="Applications GPU 2016-12-06" sheetId="3" r:id="rId6"/>
-    <sheet name="User Walltime GPU 2016-12-06" sheetId="10" r:id="rId7"/>
-    <sheet name="Org HighLevel GPU 2016-12-06" sheetId="8" r:id="rId8"/>
-    <sheet name="Org Breakdown GPU 2016-12-06" sheetId="9" r:id="rId9"/>
-    <sheet name="Largest Jobs GPU 2016-12-06" sheetId="11" r:id="rId10"/>
-    <sheet name="Cumulative 2016-12-06 " sheetId="13" r:id="rId11"/>
+    <sheet name="Applications CPU 2016-12-27" sheetId="1" r:id="rId1"/>
+    <sheet name="User Walltime CPU 2016-12-27" sheetId="4" r:id="rId2"/>
+    <sheet name="Org HighLevel CPU 2016-12-27" sheetId="7" r:id="rId3"/>
+    <sheet name="Org Breakdown CPU 2016-12-27" sheetId="5" r:id="rId4"/>
+    <sheet name="Largest Jobs CPU 2016-12-27" sheetId="6" r:id="rId5"/>
+    <sheet name="Applications GPU 2016-12-27" sheetId="3" r:id="rId6"/>
+    <sheet name="User Walltime GPU 2016-12-27" sheetId="10" r:id="rId7"/>
+    <sheet name="Org HighLevel GPU 2016-12-27" sheetId="8" r:id="rId8"/>
+    <sheet name="Org Breakdown GPU 2016-12-27" sheetId="9" r:id="rId9"/>
+    <sheet name="Largest Jobs GPU 2016-12-27" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Rank</t>
   </si>
@@ -66,30 +65,6 @@
   </si>
   <si>
     <t>Wait time</t>
-  </si>
-  <si>
-    <t>NUS</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>A*STAR</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Cumulative Core Hours (CPU nodes)</t>
-  </si>
-  <si>
-    <t>Cumulative Core Hours (GPU Nodes)</t>
-  </si>
-  <si>
-    <t>Cumulative Core Hours (Total)</t>
   </si>
 </sst>
 </file>
@@ -577,7 +552,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,8 +577,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -657,761 +630,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2016-12-06 '!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cumulative Core Hours (CPU nodes)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42710</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40330490.090555601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42272318.338611163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61272817.936388962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80419405.701388955</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91797570.830833361</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105082245.94444446</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121867569.14833337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125709252.57027781</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2016-12-06 '!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cumulative Core Hours (GPU Nodes)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42710</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5033947.3422222203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5180112.3222222207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6788200.1555555509</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8659560.7688888814</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11262494.555555552</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13249154.188888881</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15551657.535555551</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16024845.195555551</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="109089920"/>
-        <c:axId val="109091456"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="109089920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109091456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="109091456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109089920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2016-12-06 '!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A*STAR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42710</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$H$2:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23684370.820555601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25114494.81444449</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34275807.027222268</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41874775.00250005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45743559.290000051</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49915318.677222274</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56129899.423611164</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57343464.365000054</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2016-12-06 '!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NUS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42710</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$I$2:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12013985.7005556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12117030.835000044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17592846.070277825</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24181683.087500043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28231926.511388935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34904363.028333388</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40616298.492777824</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42044918.803055607</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2016-12-06 '!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NTU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42710</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$J$2:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7310391.2061111098</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7746515.088333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12743684.413611112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18131719.079166673</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20946688.638888892</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24377322.916666672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29517978.718888894</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30959033.800555564</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2016-12-06 '!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42710</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2016-12-06 '!$K$2:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2355689.7055554884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2474389.9230554923</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3448680.5808332525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4890789.3011109931</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8137890.9461109843</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9134395.5111109316</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11155050.048610983</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11386680.797222083</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="109331200"/>
-        <c:axId val="109332736"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="109331200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109332736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="109332736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109331200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1791,399 +1009,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>42457</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>42457</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>42538</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40330490.090555601</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5033947.3422222203</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45364437.4327778</v>
-      </c>
-      <c r="G3" s="13">
-        <v>42538</v>
-      </c>
-      <c r="H3" s="1">
-        <v>23684370.820555601</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12013985.7005556</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7310391.2061111098</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2355689.7055554884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>42551</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42272318.338611163</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5180112.3222222207</v>
-      </c>
-      <c r="D4" s="1">
-        <v>47452430.660833359</v>
-      </c>
-      <c r="G4" s="13">
-        <v>42551</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25114494.81444449</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12117030.835000044</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7746515.088333332</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2474389.9230554923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>42582</v>
-      </c>
-      <c r="B5" s="1">
-        <v>61272817.936388962</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6788200.1555555509</v>
-      </c>
-      <c r="D5" s="1">
-        <v>68061018.091944456</v>
-      </c>
-      <c r="G5" s="13">
-        <v>42582</v>
-      </c>
-      <c r="H5" s="1">
-        <v>34275807.027222268</v>
-      </c>
-      <c r="I5" s="1">
-        <v>17592846.070277825</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12743684.413611112</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3448680.5808332525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>42613</v>
-      </c>
-      <c r="B6" s="1">
-        <v>80419405.701388955</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8659560.7688888814</v>
-      </c>
-      <c r="D6" s="1">
-        <v>89078966.470277756</v>
-      </c>
-      <c r="G6" s="13">
-        <v>42613</v>
-      </c>
-      <c r="H6" s="1">
-        <v>41874775.00250005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>24181683.087500043</v>
-      </c>
-      <c r="J6" s="1">
-        <v>18131719.079166673</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4890789.3011109931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>42643</v>
-      </c>
-      <c r="B7" s="1">
-        <v>91797570.830833361</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11262494.555555552</v>
-      </c>
-      <c r="D7" s="1">
-        <v>103060065.38638885</v>
-      </c>
-      <c r="G7" s="13">
-        <v>42643</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45743559.290000051</v>
-      </c>
-      <c r="I7" s="1">
-        <v>28231926.511388935</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20946688.638888892</v>
-      </c>
-      <c r="K7" s="1">
-        <v>8137890.9461109843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>42674</v>
-      </c>
-      <c r="B8" s="1">
-        <v>105082245.94444446</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13249154.188888881</v>
-      </c>
-      <c r="D8" s="1">
-        <v>118331400.13333325</v>
-      </c>
-      <c r="G8" s="13">
-        <v>42674</v>
-      </c>
-      <c r="H8" s="1">
-        <v>49915318.677222274</v>
-      </c>
-      <c r="I8" s="1">
-        <v>34904363.028333388</v>
-      </c>
-      <c r="J8" s="1">
-        <v>24377322.916666672</v>
-      </c>
-      <c r="K8" s="1">
-        <v>9134395.5111109316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>42704</v>
-      </c>
-      <c r="B9" s="1">
-        <v>121867569.14833337</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15551657.535555551</v>
-      </c>
-      <c r="D9" s="1">
-        <v>137419226.68388885</v>
-      </c>
-      <c r="G9" s="13">
-        <v>42704</v>
-      </c>
-      <c r="H9" s="1">
-        <v>56129899.423611164</v>
-      </c>
-      <c r="I9" s="1">
-        <v>40616298.492777824</v>
-      </c>
-      <c r="J9" s="1">
-        <v>29517978.718888894</v>
-      </c>
-      <c r="K9" s="1">
-        <v>11155050.048610983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>42710</v>
-      </c>
-      <c r="B10" s="1">
-        <v>125709252.57027781</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16024845.195555551</v>
-      </c>
-      <c r="D10" s="1">
-        <v>141734097.76583329</v>
-      </c>
-      <c r="G10" s="13">
-        <v>42710</v>
-      </c>
-      <c r="H10" s="1">
-        <v>57343464.365000054</v>
-      </c>
-      <c r="I10" s="1">
-        <v>42044918.803055607</v>
-      </c>
-      <c r="J10" s="1">
-        <v>30959033.800555564</v>
-      </c>
-      <c r="K10" s="1">
-        <v>11386680.797222083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Applications CPU 2016-12-27" sheetId="1" r:id="rId1"/>
-    <sheet name="User Walltime CPU 2016-12-27" sheetId="4" r:id="rId2"/>
-    <sheet name="Org HighLevel CPU 2016-12-27" sheetId="7" r:id="rId3"/>
-    <sheet name="Org Breakdown CPU 2016-12-27" sheetId="5" r:id="rId4"/>
-    <sheet name="Largest Jobs CPU 2016-12-27" sheetId="6" r:id="rId5"/>
-    <sheet name="Applications GPU 2016-12-27" sheetId="3" r:id="rId6"/>
-    <sheet name="User Walltime GPU 2016-12-27" sheetId="10" r:id="rId7"/>
-    <sheet name="Org HighLevel GPU 2016-12-27" sheetId="8" r:id="rId8"/>
-    <sheet name="Org Breakdown GPU 2016-12-27" sheetId="9" r:id="rId9"/>
-    <sheet name="Largest Jobs GPU 2016-12-27" sheetId="11" r:id="rId10"/>
+    <sheet name="By Cores CPU 2016-12" sheetId="15" r:id="rId1"/>
+    <sheet name="Applications CPU 2016-12" sheetId="1" r:id="rId2"/>
+    <sheet name="User Walltime CPU 2016-12" sheetId="4" r:id="rId3"/>
+    <sheet name="Org HighLevel CPU 2016-12-27" sheetId="7" r:id="rId4"/>
+    <sheet name="Org Breakdown CPU 2016-12-27" sheetId="5" r:id="rId5"/>
+    <sheet name="Largest Jobs CPU 2016-12-27" sheetId="6" r:id="rId6"/>
+    <sheet name="By Cores GPU 2016-12" sheetId="16" r:id="rId7"/>
+    <sheet name="Applications GPU 2016-12-27" sheetId="3" r:id="rId8"/>
+    <sheet name="User Walltime GPU 2016-12-27" sheetId="10" r:id="rId9"/>
+    <sheet name="Org HighLevel GPU 2016-12-27" sheetId="8" r:id="rId10"/>
+    <sheet name="Org Breakdown GPU 2016-12-27" sheetId="9" r:id="rId11"/>
+    <sheet name="Largest Jobs GPU 2016-12-27" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>Rank</t>
   </si>
@@ -65,6 +67,30 @@
   </si>
   <si>
     <t>Wait time</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-24</t>
+  </si>
+  <si>
+    <t>25-96</t>
+  </si>
+  <si>
+    <t>97-240</t>
+  </si>
+  <si>
+    <t>241-960</t>
+  </si>
+  <si>
+    <t>&gt;960</t>
+  </si>
+  <si>
+    <t>Median Wait (hrs)</t>
+  </si>
+  <si>
+    <t>Mean Wait (hrs)</t>
   </si>
 </sst>
 </file>
@@ -552,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,6 +603,13 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,34 +952,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -957,9 +1020,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1011,6 +1162,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1044,50 +1233,6 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1141,6 +1286,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1193,7 +1382,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -1235,7 +1494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1275,92 +1534,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="By Cores CPU 2016-12" sheetId="15" r:id="rId1"/>
-    <sheet name="Applications CPU 2016-12" sheetId="1" r:id="rId2"/>
-    <sheet name="User Walltime CPU 2016-12" sheetId="4" r:id="rId3"/>
-    <sheet name="Org HighLevel CPU 2016-12-27" sheetId="7" r:id="rId4"/>
-    <sheet name="Org Breakdown CPU 2016-12-27" sheetId="5" r:id="rId5"/>
-    <sheet name="Largest Jobs CPU 2016-12-27" sheetId="6" r:id="rId6"/>
-    <sheet name="By Cores GPU 2016-12" sheetId="16" r:id="rId7"/>
-    <sheet name="Applications GPU 2016-12-27" sheetId="3" r:id="rId8"/>
-    <sheet name="User Walltime GPU 2016-12-27" sheetId="10" r:id="rId9"/>
-    <sheet name="Org HighLevel GPU 2016-12-27" sheetId="8" r:id="rId10"/>
-    <sheet name="Org Breakdown GPU 2016-12-27" sheetId="9" r:id="rId11"/>
-    <sheet name="Largest Jobs GPU 2016-12-27" sheetId="11" r:id="rId12"/>
+    <sheet name="By Cores CPU 2017-01" sheetId="15" r:id="rId1"/>
+    <sheet name="Applications CPU 2017-01" sheetId="1" r:id="rId2"/>
+    <sheet name="User Walltime CPU 2017-01" sheetId="4" r:id="rId3"/>
+    <sheet name="Org HighLevel CPU 2017-01" sheetId="7" r:id="rId4"/>
+    <sheet name="Org Breakdown CPU 2017-01" sheetId="5" r:id="rId5"/>
+    <sheet name="Largest Jobs CPU 2017-01" sheetId="6" r:id="rId6"/>
+    <sheet name="By Cores GPU 2017-01" sheetId="16" r:id="rId7"/>
+    <sheet name="Applications GPU 2017-01" sheetId="3" r:id="rId8"/>
+    <sheet name="User Walltime GPU 2017-01" sheetId="10" r:id="rId9"/>
+    <sheet name="Org HighLevel GPU 2017-01" sheetId="8" r:id="rId10"/>
+    <sheet name="Org Breakdown GPU 2017-01" sheetId="9" r:id="rId11"/>
+    <sheet name="Largest Jobs GPU 2017-01" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>Rank</t>
   </si>
@@ -72,9 +72,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2-24</t>
-  </si>
-  <si>
     <t>25-96</t>
   </si>
   <si>
@@ -91,6 +88,21 @@
   </si>
   <si>
     <t>Mean Wait (hrs)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>48-96</t>
+  </si>
+  <si>
+    <t>120-240</t>
+  </si>
+  <si>
+    <t>264-960</t>
+  </si>
+  <si>
+    <t>2-23</t>
   </si>
 </sst>
 </file>
@@ -952,9 +964,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -976,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -989,27 +1001,32 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1384,11 +1401,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1410,40 +1425,35 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,18 +7,18 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="By Cores CPU 2017-01" sheetId="15" r:id="rId1"/>
-    <sheet name="Applications CPU 2017-01" sheetId="1" r:id="rId2"/>
-    <sheet name="User Walltime CPU 2017-01" sheetId="4" r:id="rId3"/>
-    <sheet name="Org HighLevel CPU 2017-01" sheetId="7" r:id="rId4"/>
-    <sheet name="Org Breakdown CPU 2017-01" sheetId="5" r:id="rId5"/>
-    <sheet name="Largest Jobs CPU 2017-01" sheetId="6" r:id="rId6"/>
-    <sheet name="By Cores GPU 2017-01" sheetId="16" r:id="rId7"/>
-    <sheet name="Applications GPU 2017-01" sheetId="3" r:id="rId8"/>
-    <sheet name="User Walltime GPU 2017-01" sheetId="10" r:id="rId9"/>
-    <sheet name="Org HighLevel GPU 2017-01" sheetId="8" r:id="rId10"/>
-    <sheet name="Org Breakdown GPU 2017-01" sheetId="9" r:id="rId11"/>
-    <sheet name="Largest Jobs GPU 2017-01" sheetId="11" r:id="rId12"/>
+    <sheet name="By Cores CPU 2017-03-28" sheetId="15" r:id="rId1"/>
+    <sheet name="Applications CPU 2017-03-28" sheetId="1" r:id="rId2"/>
+    <sheet name="User Walltime CPU 2017-03-28" sheetId="4" r:id="rId3"/>
+    <sheet name="Org HighLevel CPU 2017-03-28" sheetId="7" r:id="rId4"/>
+    <sheet name="Org Breakdown CPU 2017-03-28" sheetId="5" r:id="rId5"/>
+    <sheet name="Largest Jobs CPU 2017-03-28" sheetId="6" r:id="rId6"/>
+    <sheet name="By Cores GPU 2017-03-28" sheetId="16" r:id="rId7"/>
+    <sheet name="Applications GPU 2017-03-28" sheetId="3" r:id="rId8"/>
+    <sheet name="User Walltime GPU 2017-03-28" sheetId="10" r:id="rId9"/>
+    <sheet name="Org HighLevel GPU 2017-03-28" sheetId="8" r:id="rId10"/>
+    <sheet name="Org Breakdown GPU 2017-03-28" sheetId="9" r:id="rId11"/>
+    <sheet name="Largest Jobs GPU 2017-03-28" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
+    <workbookView xWindow="2700" yWindow="-105" windowWidth="19155" windowHeight="7620" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="By Cores CPU 2017-03-28" sheetId="15" r:id="rId1"/>
-    <sheet name="Applications CPU 2017-03-28" sheetId="1" r:id="rId2"/>
-    <sheet name="User Walltime CPU 2017-03-28" sheetId="4" r:id="rId3"/>
-    <sheet name="Org HighLevel CPU 2017-03-28" sheetId="7" r:id="rId4"/>
-    <sheet name="Org Breakdown CPU 2017-03-28" sheetId="5" r:id="rId5"/>
-    <sheet name="Largest Jobs CPU 2017-03-28" sheetId="6" r:id="rId6"/>
-    <sheet name="By Cores GPU 2017-03-28" sheetId="16" r:id="rId7"/>
-    <sheet name="Applications GPU 2017-03-28" sheetId="3" r:id="rId8"/>
-    <sheet name="User Walltime GPU 2017-03-28" sheetId="10" r:id="rId9"/>
-    <sheet name="Org HighLevel GPU 2017-03-28" sheetId="8" r:id="rId10"/>
-    <sheet name="Org Breakdown GPU 2017-03-28" sheetId="9" r:id="rId11"/>
-    <sheet name="Largest Jobs GPU 2017-03-28" sheetId="11" r:id="rId12"/>
+    <sheet name="Active Users 2017-04-25" sheetId="17" r:id="rId1"/>
+    <sheet name="By Cores CPU 2017-04-25" sheetId="15" r:id="rId2"/>
+    <sheet name="Applications CPU 2017-04-25" sheetId="1" r:id="rId3"/>
+    <sheet name="User Walltime CPU 2017-04-25" sheetId="4" r:id="rId4"/>
+    <sheet name="Org HighLevel CPU 2017-04-25" sheetId="7" r:id="rId5"/>
+    <sheet name="Org Breakdown CPU 2017-04-25" sheetId="5" r:id="rId6"/>
+    <sheet name="Largest Jobs CPU 2017-04-25" sheetId="6" r:id="rId7"/>
+    <sheet name="By GPU 2017-04-25" sheetId="16" r:id="rId8"/>
+    <sheet name="Applications GPU 2017-04-25" sheetId="3" r:id="rId9"/>
+    <sheet name="User Walltime GPU 2017-04-25" sheetId="10" r:id="rId10"/>
+    <sheet name="Org HighLevel GPU 2017-04-25" sheetId="8" r:id="rId11"/>
+    <sheet name="Org Breakdown GPU 2017-04-25" sheetId="9" r:id="rId12"/>
+    <sheet name="Largest Jobs GPU 2017-04-25" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Rank</t>
   </si>
@@ -93,16 +94,52 @@
     <t>24</t>
   </si>
   <si>
-    <t>48-96</t>
-  </si>
-  <si>
-    <t>120-240</t>
-  </si>
-  <si>
-    <t>264-960</t>
-  </si>
-  <si>
     <t>2-23</t>
+  </si>
+  <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>SUTD</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>A*STAR</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>GPUs</t>
+  </si>
+  <si>
+    <t>GPUs*walltime(hrs)</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>11-40</t>
+  </si>
+  <si>
+    <t>&gt;40</t>
+  </si>
+  <si>
+    <t>GPU Hours</t>
+  </si>
+  <si>
+    <t>Active Users</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -430,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -545,6 +582,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -590,7 +656,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,6 +688,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,70 +1035,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,41 +1102,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1112,6 +1178,9 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
@@ -1124,6 +1193,367 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1177,231 +1607,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,15 +1622,15 @@
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>19</v>
@@ -1431,30 +1639,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,9 +1674,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1485,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1498,47 +1710,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="5"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,29 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="-105" windowWidth="19155" windowHeight="7620" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Users 2017-04-25" sheetId="17" r:id="rId1"/>
-    <sheet name="By Cores CPU 2017-04-25" sheetId="15" r:id="rId2"/>
-    <sheet name="Applications CPU 2017-04-25" sheetId="1" r:id="rId3"/>
-    <sheet name="User Walltime CPU 2017-04-25" sheetId="4" r:id="rId4"/>
-    <sheet name="Org HighLevel CPU 2017-04-25" sheetId="7" r:id="rId5"/>
-    <sheet name="Org Breakdown CPU 2017-04-25" sheetId="5" r:id="rId6"/>
-    <sheet name="Largest Jobs CPU 2017-04-25" sheetId="6" r:id="rId7"/>
-    <sheet name="By GPU 2017-04-25" sheetId="16" r:id="rId8"/>
-    <sheet name="Applications GPU 2017-04-25" sheetId="3" r:id="rId9"/>
-    <sheet name="User Walltime GPU 2017-04-25" sheetId="10" r:id="rId10"/>
-    <sheet name="Org HighLevel GPU 2017-04-25" sheetId="8" r:id="rId11"/>
-    <sheet name="Org Breakdown GPU 2017-04-25" sheetId="9" r:id="rId12"/>
-    <sheet name="Largest Jobs GPU 2017-04-25" sheetId="11" r:id="rId13"/>
+    <sheet name="Storage By Org 2017-06-20" sheetId="19" r:id="rId1"/>
+    <sheet name="Active Users 2017-06-20" sheetId="18" r:id="rId2"/>
+    <sheet name="By Cores CPU 2017-06-20" sheetId="15" r:id="rId3"/>
+    <sheet name="Applications CPU 2017-06-20" sheetId="1" r:id="rId4"/>
+    <sheet name="User Walltime CPU 2017-06-20" sheetId="4" r:id="rId5"/>
+    <sheet name="Org HighLevel CPU 2017-06-20" sheetId="7" r:id="rId6"/>
+    <sheet name="Org Breakdown CPU 2017-06-20" sheetId="5" r:id="rId7"/>
+    <sheet name="Largest Jobs CPU 2017-06-20" sheetId="6" r:id="rId8"/>
+    <sheet name="By Cores GPU 2017-06-20" sheetId="16" r:id="rId9"/>
+    <sheet name="Applications GPU 2017-06-20" sheetId="3" r:id="rId10"/>
+    <sheet name="User Walltime GPU 2017-06-20" sheetId="10" r:id="rId11"/>
+    <sheet name="Org HighLevel GPU 2017-06-20" sheetId="8" r:id="rId12"/>
+    <sheet name="Org Breakdown GPU 2017-06-20" sheetId="9" r:id="rId13"/>
+    <sheet name="Largest Jobs GPU 2017-06-20" sheetId="11" r:id="rId14"/>
+    <sheet name="Cumulative 2017-06" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>Rank</t>
   </si>
@@ -70,6 +72,18 @@
     <t>Wait time</t>
   </si>
   <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>A*STAR</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -97,10 +111,7 @@
     <t>2-23</t>
   </si>
   <si>
-    <t>NUS</t>
-  </si>
-  <si>
-    <t>NTU</t>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>SUTD</t>
@@ -109,18 +120,39 @@
     <t>CREATE</t>
   </si>
   <si>
-    <t>A*STAR</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Active Users</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>seq (TB)</t>
+  </si>
+  <si>
+    <t>home (TB)</t>
+  </si>
+  <si>
+    <t>home1 (TB)</t>
+  </si>
+  <si>
+    <t>scratch (TB)</t>
+  </si>
+  <si>
+    <t>secure (TB)</t>
+  </si>
+  <si>
+    <t>Total (TB)</t>
+  </si>
+  <si>
+    <t>Top Application</t>
+  </si>
+  <si>
+    <t>GPUs*walltime(hrs)</t>
   </si>
   <si>
     <t>GPUs</t>
   </si>
   <si>
-    <t>GPUs*walltime(hrs)</t>
-  </si>
-  <si>
     <t>2-4</t>
   </si>
   <si>
@@ -136,18 +168,25 @@
     <t>GPU Hours</t>
   </si>
   <si>
-    <t>Active Users</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (Total)</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (GPU Nodes)</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (CPU nodes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -467,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -596,6 +635,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -603,9 +651,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -656,7 +710,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,9 +744,18 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -746,6 +809,761 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-06'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Core Hours (CPU nodes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40330490.090555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42272318.338611163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61272817.936388962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80419405.701388955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91797570.830833361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105082245.94444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121867569.14833337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125709252.57027781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-06'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Core Hours (GPU Nodes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5033947.3422222203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5180112.3222222207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6788200.1555555509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8659560.7688888814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11262494.555555552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13249154.188888881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15551657.535555551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16024845.195555551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="129661952"/>
+        <c:axId val="129684224"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="129661952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129684224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="129684224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129661952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-06'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23684370.820555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25114494.81444449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34275807.027222268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41874775.00250005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45743559.290000051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49915318.677222274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56129899.423611164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57343464.365000054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-06'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12013985.7005556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12117030.835000044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17592846.070277825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24181683.087500043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28231926.511388935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34904363.028333388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40616298.492777824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42044918.803055607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-06'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NTU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7310391.2061111098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7746515.088333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12743684.413611112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18131719.079166673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20946688.638888892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24377322.916666672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29517978.718888894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30959033.800555564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-06'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-06'!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2355689.7055554884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2474389.9230554923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3448680.5808332525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4890789.3011109931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8137890.9461109843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9134395.5111109316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11155050.048610983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11386680.797222083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="129772160"/>
+        <c:axId val="129786240"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="129772160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129786240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="129786240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129772160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,64 +1853,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="F1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21" t="e">
+        <f t="shared" ref="H2:H7" si="0">G2/G$8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="18"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="23">
+        <f t="shared" ref="B8:G8" si="1">SUM(B2:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,7 +2019,49 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,9 +2073,10 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1130,61 +2090,17 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1225,10 +2141,6 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
@@ -1241,223 +2153,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -1468,7 +2163,6 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1480,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1491,9 +2185,6 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
@@ -1505,55 +2196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1578,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -1593,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>12</v>
@@ -1607,9 +2250,766 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>42457</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>42457</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>42538</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40330490.090555601</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5033947.3422222203</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45364437.4327778</v>
+      </c>
+      <c r="G3" s="26">
+        <v>42538</v>
+      </c>
+      <c r="H3" s="1">
+        <v>23684370.820555601</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12013985.7005556</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7310391.2061111098</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2355689.7055554884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>42551</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42272318.338611163</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5180112.3222222207</v>
+      </c>
+      <c r="D4" s="1">
+        <v>47452430.660833359</v>
+      </c>
+      <c r="G4" s="26">
+        <v>42551</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25114494.81444449</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12117030.835000044</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7746515.088333332</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2474389.9230554923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>42582</v>
+      </c>
+      <c r="B5" s="1">
+        <v>61272817.936388962</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6788200.1555555509</v>
+      </c>
+      <c r="D5" s="1">
+        <v>68061018.091944456</v>
+      </c>
+      <c r="G5" s="26">
+        <v>42582</v>
+      </c>
+      <c r="H5" s="1">
+        <v>34275807.027222268</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17592846.070277825</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12743684.413611112</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3448680.5808332525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>42613</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80419405.701388955</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8659560.7688888814</v>
+      </c>
+      <c r="D6" s="1">
+        <v>89078966.470277756</v>
+      </c>
+      <c r="G6" s="26">
+        <v>42613</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41874775.00250005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>24181683.087500043</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18131719.079166673</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4890789.3011109931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>42643</v>
+      </c>
+      <c r="B7" s="1">
+        <v>91797570.830833361</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11262494.555555552</v>
+      </c>
+      <c r="D7" s="1">
+        <v>103060065.38638885</v>
+      </c>
+      <c r="G7" s="26">
+        <v>42643</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45743559.290000051</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28231926.511388935</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20946688.638888892</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8137890.9461109843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>42674</v>
+      </c>
+      <c r="B8" s="1">
+        <v>105082245.94444446</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13249154.188888881</v>
+      </c>
+      <c r="D8" s="1">
+        <v>118331400.13333325</v>
+      </c>
+      <c r="G8" s="26">
+        <v>42674</v>
+      </c>
+      <c r="H8" s="1">
+        <v>49915318.677222274</v>
+      </c>
+      <c r="I8" s="1">
+        <v>34904363.028333388</v>
+      </c>
+      <c r="J8" s="1">
+        <v>24377322.916666672</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9134395.5111109316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>42704</v>
+      </c>
+      <c r="B9" s="1">
+        <v>121867569.14833337</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15551657.535555551</v>
+      </c>
+      <c r="D9" s="1">
+        <v>137419226.68388885</v>
+      </c>
+      <c r="G9" s="26">
+        <v>42704</v>
+      </c>
+      <c r="H9" s="1">
+        <v>56129899.423611164</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40616298.492777824</v>
+      </c>
+      <c r="J9" s="1">
+        <v>29517978.718888894</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11155050.048610983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>42710</v>
+      </c>
+      <c r="B10" s="1">
+        <v>125709252.57027781</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16024845.195555551</v>
+      </c>
+      <c r="D10" s="1">
+        <v>141734097.76583329</v>
+      </c>
+      <c r="G10" s="26">
+        <v>42710</v>
+      </c>
+      <c r="H10" s="1">
+        <v>57343464.365000054</v>
+      </c>
+      <c r="I10" s="1">
+        <v>42044918.803055607</v>
+      </c>
+      <c r="J10" s="1">
+        <v>30959033.800555564</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11386680.797222083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,96 +3022,47 @@
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="1"/>
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,28 +7,29 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Storage By Org 2017-06-20" sheetId="19" r:id="rId1"/>
-    <sheet name="Active Users 2017-06-20" sheetId="18" r:id="rId2"/>
-    <sheet name="By Cores CPU 2017-06-20" sheetId="15" r:id="rId3"/>
-    <sheet name="Applications CPU 2017-06-20" sheetId="1" r:id="rId4"/>
-    <sheet name="User Walltime CPU 2017-06-20" sheetId="4" r:id="rId5"/>
-    <sheet name="Org HighLevel CPU 2017-06-20" sheetId="7" r:id="rId6"/>
-    <sheet name="Org Breakdown CPU 2017-06-20" sheetId="5" r:id="rId7"/>
-    <sheet name="Largest Jobs CPU 2017-06-20" sheetId="6" r:id="rId8"/>
-    <sheet name="By Cores GPU 2017-06-20" sheetId="16" r:id="rId9"/>
-    <sheet name="Applications GPU 2017-06-20" sheetId="3" r:id="rId10"/>
-    <sheet name="User Walltime GPU 2017-06-20" sheetId="10" r:id="rId11"/>
-    <sheet name="Org HighLevel GPU 2017-06-20" sheetId="8" r:id="rId12"/>
-    <sheet name="Org Breakdown GPU 2017-06-20" sheetId="9" r:id="rId13"/>
-    <sheet name="Largest Jobs GPU 2017-06-20" sheetId="11" r:id="rId14"/>
-    <sheet name="Cumulative 2017-06" sheetId="20" r:id="rId15"/>
+    <sheet name="Projects 2017-06-20" sheetId="21" r:id="rId1"/>
+    <sheet name="Storage By Org 2017-06-20" sheetId="19" r:id="rId2"/>
+    <sheet name="Active Users 2017-06-20" sheetId="18" r:id="rId3"/>
+    <sheet name="By Cores CPU 2017-06-20" sheetId="15" r:id="rId4"/>
+    <sheet name="Applications CPU 2017-06-20" sheetId="1" r:id="rId5"/>
+    <sheet name="User Walltime CPU 2017-06-20" sheetId="4" r:id="rId6"/>
+    <sheet name="Org HighLevel CPU 2017-06-20" sheetId="7" r:id="rId7"/>
+    <sheet name="Org Breakdown CPU 2017-06-20" sheetId="5" r:id="rId8"/>
+    <sheet name="Largest Jobs CPU 2017-06-20" sheetId="6" r:id="rId9"/>
+    <sheet name="By Cores GPU 2017-06-20" sheetId="16" r:id="rId10"/>
+    <sheet name="Applications GPU 2017-06-20" sheetId="3" r:id="rId11"/>
+    <sheet name="User Walltime GPU 2017-06-20" sheetId="10" r:id="rId12"/>
+    <sheet name="Org HighLevel GPU 2017-06-20" sheetId="8" r:id="rId13"/>
+    <sheet name="Org Breakdown GPU 2017-06-20" sheetId="9" r:id="rId14"/>
+    <sheet name="Largest Jobs GPU 2017-06-20" sheetId="11" r:id="rId15"/>
+    <sheet name="Cumulative 2017-06" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>Rank</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>Cumulative Core Hours (CPU nodes)</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129661952"/>
-        <c:axId val="129684224"/>
+        <c:axId val="100384128"/>
+        <c:axId val="100385920"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129661952"/>
+        <c:axId val="100384128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,14 +1031,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129684224"/>
+        <c:crossAx val="100385920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129684224"/>
+        <c:axId val="100385920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,14 +1049,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129661952"/>
+        <c:crossAx val="100384128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1443,11 +1446,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129772160"/>
-        <c:axId val="129786240"/>
+        <c:axId val="100555776"/>
+        <c:axId val="100565760"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129772160"/>
+        <c:axId val="100555776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,14 +1460,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129786240"/>
+        <c:crossAx val="100565760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129786240"/>
+        <c:axId val="100565760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,14 +1478,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129772160"/>
+        <c:crossAx val="100555776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1853,163 +1855,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="e">
-        <f t="shared" ref="H2:H7" si="0">G2/G$8</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="23">
-        <f t="shared" ref="B8:G8" si="1">SUM(B2:B7)</f>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="21"/>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,6 +1945,69 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2059,7 +2049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2101,50 +2091,6 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,6 +2144,50 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2250,7 +2240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -2645,6 +2635,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21" t="e">
+        <f t="shared" ref="H2:H7" si="0">G2/G$8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="23">
+        <f t="shared" ref="B8:G8" si="1">SUM(B2:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2708,7 +2864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2781,7 +2937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2819,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -2858,50 +3014,6 @@
       <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,6 +3067,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3005,67 +3161,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,32 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects 2017-06-20" sheetId="21" r:id="rId1"/>
-    <sheet name="Storage By Org 2017-06-20" sheetId="19" r:id="rId2"/>
-    <sheet name="Active Users 2017-06-20" sheetId="18" r:id="rId3"/>
-    <sheet name="By Cores CPU 2017-06-20" sheetId="15" r:id="rId4"/>
-    <sheet name="Applications CPU 2017-06-20" sheetId="1" r:id="rId5"/>
-    <sheet name="User Walltime CPU 2017-06-20" sheetId="4" r:id="rId6"/>
-    <sheet name="Org HighLevel CPU 2017-06-20" sheetId="7" r:id="rId7"/>
-    <sheet name="Org Breakdown CPU 2017-06-20" sheetId="5" r:id="rId8"/>
-    <sheet name="Largest Jobs CPU 2017-06-20" sheetId="6" r:id="rId9"/>
-    <sheet name="By Cores GPU 2017-06-20" sheetId="16" r:id="rId10"/>
-    <sheet name="Applications GPU 2017-06-20" sheetId="3" r:id="rId11"/>
-    <sheet name="User Walltime GPU 2017-06-20" sheetId="10" r:id="rId12"/>
-    <sheet name="Org HighLevel GPU 2017-06-20" sheetId="8" r:id="rId13"/>
-    <sheet name="Org Breakdown GPU 2017-06-20" sheetId="9" r:id="rId14"/>
-    <sheet name="Largest Jobs GPU 2017-06-20" sheetId="11" r:id="rId15"/>
-    <sheet name="Cumulative 2017-06" sheetId="20" r:id="rId16"/>
+    <sheet name="Projects 2017-07-25" sheetId="21" r:id="rId1"/>
+    <sheet name="Storage By Org 2017-07-25" sheetId="19" r:id="rId2"/>
+    <sheet name="Active Users 2017-07-25" sheetId="18" r:id="rId3"/>
+    <sheet name="By Cores CPU 2017-07-25" sheetId="15" r:id="rId4"/>
+    <sheet name="Applications CPU 2017-07-25" sheetId="1" r:id="rId5"/>
+    <sheet name="User Walltime CPU 2017-07-25" sheetId="4" r:id="rId6"/>
+    <sheet name="Org HighLevel CPU 2017-07-25" sheetId="7" r:id="rId7"/>
+    <sheet name="Org Breakdown CPU 2017-07-25" sheetId="5" r:id="rId8"/>
+    <sheet name="Largest Jobs CPU 2017-07-25" sheetId="6" r:id="rId9"/>
+    <sheet name="By Cores GPU 2017-07-25" sheetId="16" r:id="rId10"/>
+    <sheet name="Applications GPU 2017-07-25" sheetId="3" r:id="rId11"/>
+    <sheet name="User Walltime GPU 2017-07-25" sheetId="10" r:id="rId12"/>
+    <sheet name="Org HighLevel GPU 2017-07-25" sheetId="8" r:id="rId13"/>
+    <sheet name="Org Breakdown GPU 2017-07-25" sheetId="9" r:id="rId14"/>
+    <sheet name="Largest Jobs GPU 2017-07-25" sheetId="11" r:id="rId15"/>
+    <sheet name="Cumulative 2017-07" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Rank</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-06'!$B$1</c:f>
+              <c:f>'Cumulative 2017-07'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +857,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$A$2:$A$10</c:f>
+              <c:f>'Cumulative 2017-07'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -887,7 +893,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$B$2:$B$10</c:f>
+              <c:f>'Cumulative 2017-07'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -927,7 +933,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-06'!$C$1</c:f>
+              <c:f>'Cumulative 2017-07'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -938,7 +944,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$A$2:$A$10</c:f>
+              <c:f>'Cumulative 2017-07'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -974,7 +980,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$C$2:$C$10</c:f>
+              <c:f>'Cumulative 2017-07'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1017,11 +1023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100384128"/>
-        <c:axId val="100385920"/>
+        <c:axId val="53291648"/>
+        <c:axId val="53305728"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="100384128"/>
+        <c:axId val="53291648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,14 +1037,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100385920"/>
+        <c:crossAx val="53305728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100385920"/>
+        <c:axId val="53305728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,13 +1055,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100384128"/>
+        <c:crossAx val="53291648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1095,7 +1102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-06'!$H$1</c:f>
+              <c:f>'Cumulative 2017-07'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1106,7 +1113,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1142,7 +1149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$H$2:$H$10</c:f>
+              <c:f>'Cumulative 2017-07'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1182,7 +1189,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-06'!$I$1</c:f>
+              <c:f>'Cumulative 2017-07'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1193,7 +1200,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1229,7 +1236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$I$2:$I$10</c:f>
+              <c:f>'Cumulative 2017-07'!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1269,7 +1276,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-06'!$J$1</c:f>
+              <c:f>'Cumulative 2017-07'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,7 +1287,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1316,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$J$2:$J$10</c:f>
+              <c:f>'Cumulative 2017-07'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1356,7 +1363,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-06'!$K$1</c:f>
+              <c:f>'Cumulative 2017-07'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1367,7 +1374,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1403,7 +1410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-06'!$K$2:$K$10</c:f>
+              <c:f>'Cumulative 2017-07'!$K$2:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1446,11 +1453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100555776"/>
-        <c:axId val="100565760"/>
+        <c:axId val="53340416"/>
+        <c:axId val="53342208"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="100555776"/>
+        <c:axId val="53340416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,14 +1467,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100565760"/>
+        <c:crossAx val="53342208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100565760"/>
+        <c:axId val="53342208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,13 +1485,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100555776"/>
+        <c:crossAx val="53340416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1857,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2635,9 +2643,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2684,13 +2692,13 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21" t="e">
-        <f t="shared" ref="H2:H7" si="0">G2/G$8</f>
+        <f>G2/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -2699,43 +2707,43 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>G3/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="23"/>
       <c r="H4" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>G4/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>G5/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2744,54 +2752,84 @@
       <c r="F6" s="24"/>
       <c r="G6" s="23"/>
       <c r="H6" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>G6/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="23"/>
       <c r="H7" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>G7/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21" t="e">
+        <f>G8/G$10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="21" t="e">
+        <f>G9/G$10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="23">
-        <f t="shared" ref="B8:G8" si="1">SUM(B2:B7)</f>
+      <c r="B10" s="23">
+        <f>SUM(B2:B9)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="23">
-        <f t="shared" si="1"/>
+      <c r="C10" s="23">
+        <f>SUM(C2:C9)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="23">
-        <f t="shared" si="1"/>
+      <c r="D10" s="23">
+        <f>SUM(D2:D9)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="23">
-        <f t="shared" si="1"/>
+      <c r="E10" s="23">
+        <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="23">
-        <f t="shared" si="1"/>
+      <c r="F10" s="23">
+        <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="23">
-        <f t="shared" si="1"/>
+      <c r="G10" s="23">
+        <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,62 +2839,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="18"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Projects 2017-07-25" sheetId="21" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="Org HighLevel GPU 2017-07-25" sheetId="8" r:id="rId13"/>
     <sheet name="Org Breakdown GPU 2017-07-25" sheetId="9" r:id="rId14"/>
     <sheet name="Largest Jobs GPU 2017-07-25" sheetId="11" r:id="rId15"/>
-    <sheet name="Cumulative 2017-07" sheetId="20" r:id="rId16"/>
+    <sheet name="Cumulative 2017-07" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Rank</t>
   </si>
@@ -188,6 +188,39 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>Storage (GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A*STAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Previous</t>
   </si>
 </sst>
 </file>
@@ -837,7 +870,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16387806175390868"/>
+          <c:y val="4.6044656805630302E-2"/>
+          <c:w val="0.52474812741430577"/>
+          <c:h val="0.72330329479134559"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -857,10 +900,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$A$2:$A$10</c:f>
+              <c:f>'Cumulative 2017-07'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -886,17 +929,35 @@
                   <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42710</c:v>
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$B$2:$B$10</c:f>
+              <c:f>'Cumulative 2017-07'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -922,7 +983,25 @@
                   <c:v>121867569.14833337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125709252.57027781</c:v>
+                  <c:v>137922998.10805556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156262981.36555555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174114339.18638885</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192592009.19805557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>211568883.18305558</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226659790.61666819</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245881690.686946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,10 +1023,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$A$2:$A$10</c:f>
+              <c:f>'Cumulative 2017-07'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -973,17 +1052,35 @@
                   <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42710</c:v>
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$C$2:$C$10</c:f>
+              <c:f>'Cumulative 2017-07'!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1009,7 +1106,25 @@
                   <c:v>15551657.535555551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16024845.195555551</c:v>
+                  <c:v>17511470.715555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19717272.542222224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21764947.835555553</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23752267.388888884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25778205.522222213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26610563.646666702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28704362.3866667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,11 +1138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53291648"/>
-        <c:axId val="53305728"/>
+        <c:axId val="55122560"/>
+        <c:axId val="55153408"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="53291648"/>
+        <c:axId val="55122560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,14 +1152,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53305728"/>
+        <c:crossAx val="55153408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53305728"/>
+        <c:axId val="55153408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,14 +1170,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53291648"/>
+        <c:crossAx val="55122560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73845234298983653"/>
+          <c:y val="0.37489550297032809"/>
+          <c:w val="0.24908659782013229"/>
+          <c:h val="0.25020899405934388"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1113,10 +1237,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1142,17 +1266,35 @@
                   <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42710</c:v>
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$H$2:$H$10</c:f>
+              <c:f>'Cumulative 2017-07'!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1178,7 +1320,25 @@
                   <c:v>56129899.423611164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57343464.365000054</c:v>
+                  <c:v>60554829.003055602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66247671.173611164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70614611.267500058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74901323.018888935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79776601.656666711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83518589.493611202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88154913.305000097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,10 +1360,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1229,17 +1389,35 @@
                   <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42710</c:v>
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$I$2:$I$10</c:f>
+              <c:f>'Cumulative 2017-07'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1265,7 +1443,25 @@
                   <c:v>40616298.492777824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42044918.803055607</c:v>
+                  <c:v>48041206.091111153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56812092.011388935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63683853.709444493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69507614.865833387</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75992999.807222307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81687050.070277631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87960766.501944304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,10 +1483,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1316,17 +1512,35 @@
                   <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42710</c:v>
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$J$2:$J$10</c:f>
+              <c:f>'Cumulative 2017-07'!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1352,14 +1566,32 @@
                   <c:v>29517978.718888894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30959033.800555564</c:v>
+                  <c:v>34937705.823333338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40292729.719166666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48397740.013055556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57636326.165555552</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65927763.532499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72051418.945833415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81626418.667222306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -1367,6 +1599,134 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>CREATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2017-07'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1537410.0674999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1574657.4275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2421318.8180555562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3712510.3030555565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4952788.9955555564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5618095.3063888894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7307236.9716666695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7782450.9227777803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7895666.0694444478</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8005647.182777781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8300878.7127777813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8597754.3050000034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8837448.7316666711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8502304.8916666619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2017-07'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
@@ -1374,10 +1734,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1403,43 +1763,79 @@
                   <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42710</c:v>
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$K$2:$K$10</c:f>
+              <c:f>'Cumulative 2017-07'!$L$2:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2355689.7055554884</c:v>
+                  <c:v>818279.63805548102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2474389.9230554923</c:v>
+                  <c:v>899732.49555549026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3448680.5808332525</c:v>
+                  <c:v>1027361.7627776936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4890789.3011109931</c:v>
+                  <c:v>1178278.9980554283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8137890.9461109843</c:v>
+                  <c:v>3185101.9505554289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9134395.5111109316</c:v>
+                  <c:v>3516300.204722032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11155050.048610983</c:v>
+                  <c:v>3282949.8524998575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11386680.797222083</c:v>
+                  <c:v>3553413.7588888109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4167231.7097221613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4612571.6247220635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5433270.5994443297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6487106.1794442721</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7175847.0219452381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8341649.7077786326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,11 +1849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53340416"/>
-        <c:axId val="53342208"/>
+        <c:axId val="57345536"/>
+        <c:axId val="57347072"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="53340416"/>
+        <c:axId val="57345536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,14 +1863,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53342208"/>
+        <c:crossAx val="57347072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53342208"/>
+        <c:axId val="57347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,14 +1881,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53340416"/>
+        <c:crossAx val="57345536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1512,15 +1907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1544,15 +1939,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1863,9 +2258,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1873,9 +2268,10 @@
     <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1888,50 +2284,53 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -2250,11 +2649,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2262,14 +2659,15 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="25" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="1" customWidth="1"/>
+    <col min="10" max="12" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
@@ -2295,10 +2693,13 @@
         <v>15</v>
       </c>
       <c r="K1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>42457</v>
       </c>
@@ -2326,8 +2727,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>42538</v>
       </c>
@@ -2353,10 +2757,13 @@
         <v>7310391.2061111098</v>
       </c>
       <c r="K3" s="1">
-        <v>2355689.7055554884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1537410.0674999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>818279.63805548102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>42551</v>
       </c>
@@ -2382,10 +2789,13 @@
         <v>7746515.088333332</v>
       </c>
       <c r="K4" s="1">
-        <v>2474389.9230554923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1574657.4275</v>
+      </c>
+      <c r="L4" s="1">
+        <v>899732.49555549026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>42582</v>
       </c>
@@ -2411,10 +2821,13 @@
         <v>12743684.413611112</v>
       </c>
       <c r="K5" s="1">
-        <v>3448680.5808332525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2421318.8180555562</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1027361.7627776936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>42613</v>
       </c>
@@ -2440,10 +2853,13 @@
         <v>18131719.079166673</v>
       </c>
       <c r="K6" s="1">
-        <v>4890789.3011109931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3712510.3030555565</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1178278.9980554283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>42643</v>
       </c>
@@ -2469,10 +2885,13 @@
         <v>20946688.638888892</v>
       </c>
       <c r="K7" s="1">
-        <v>8137890.9461109843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4952788.9955555564</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3185101.9505554289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>42674</v>
       </c>
@@ -2498,10 +2917,13 @@
         <v>24377322.916666672</v>
       </c>
       <c r="K8" s="1">
-        <v>9134395.5111109316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5618095.3063888894</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3516300.204722032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>42704</v>
       </c>
@@ -2527,113 +2949,309 @@
         <v>29517978.718888894</v>
       </c>
       <c r="K9" s="1">
-        <v>11155050.048610983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7307236.9716666695</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3282949.8524998575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
-        <v>42710</v>
+        <v>42735</v>
       </c>
       <c r="B10" s="1">
-        <v>125709252.57027781</v>
+        <v>137922998.10805556</v>
       </c>
       <c r="C10" s="1">
-        <v>16024845.195555551</v>
+        <v>17511470.715555552</v>
       </c>
       <c r="D10" s="1">
-        <v>141734097.76583329</v>
+        <v>155434468.82361111</v>
       </c>
       <c r="G10" s="26">
-        <v>42710</v>
+        <v>42735</v>
       </c>
       <c r="H10" s="1">
-        <v>57343464.365000054</v>
+        <v>60554829.003055602</v>
       </c>
       <c r="I10" s="1">
-        <v>42044918.803055607</v>
+        <v>48041206.091111153</v>
       </c>
       <c r="J10" s="1">
-        <v>30959033.800555564</v>
+        <v>34937705.823333338</v>
       </c>
       <c r="K10" s="1">
-        <v>11386680.797222083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>7782450.9227777803</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3553413.7588888109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>42766</v>
+      </c>
+      <c r="B11" s="1">
+        <v>156262981.36555555</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19717272.542222224</v>
+      </c>
+      <c r="D11" s="1">
+        <v>175980253.90777782</v>
+      </c>
+      <c r="G11" s="26">
+        <v>42766</v>
+      </c>
+      <c r="H11" s="1">
+        <v>66247671.173611164</v>
+      </c>
+      <c r="I11" s="1">
+        <v>56812092.011388935</v>
+      </c>
+      <c r="J11" s="1">
+        <v>40292729.719166666</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7895666.0694444478</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4167231.7097221613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>42794</v>
+      </c>
+      <c r="B12" s="1">
+        <v>174114339.18638885</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21764947.835555553</v>
+      </c>
+      <c r="D12" s="1">
+        <v>195879287.0219444</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="26">
+        <v>42794</v>
+      </c>
+      <c r="H12" s="1">
+        <v>70614611.267500058</v>
+      </c>
+      <c r="I12" s="1">
+        <v>63683853.709444493</v>
+      </c>
+      <c r="J12" s="1">
+        <v>48397740.013055556</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8005647.182777781</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4612571.6247220635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>42825</v>
+      </c>
+      <c r="B13" s="1">
+        <v>192592009.19805557</v>
+      </c>
+      <c r="C13" s="1">
+        <v>23752267.388888884</v>
+      </c>
+      <c r="D13" s="1">
+        <v>216344276.58694443</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="26">
+        <v>42825</v>
+      </c>
+      <c r="H13" s="1">
+        <v>74901323.018888935</v>
+      </c>
+      <c r="I13" s="1">
+        <v>69507614.865833387</v>
+      </c>
+      <c r="J13" s="1">
+        <v>57636326.165555552</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8300878.7127777813</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5433270.5994443297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>42855</v>
+      </c>
+      <c r="B14" s="1">
+        <v>211568883.18305558</v>
+      </c>
+      <c r="C14" s="1">
+        <v>25778205.522222213</v>
+      </c>
+      <c r="D14" s="1">
+        <v>237347088.70527774</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="26">
+        <v>42855</v>
+      </c>
+      <c r="H14" s="1">
+        <v>79776601.656666711</v>
+      </c>
+      <c r="I14" s="1">
+        <v>75992999.807222307</v>
+      </c>
+      <c r="J14" s="1">
+        <v>65927763.532499999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8597754.3050000034</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6487106.1794442721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>42886</v>
+      </c>
+      <c r="B15" s="1">
+        <v>226659790.61666819</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26610563.646666702</v>
+      </c>
+      <c r="D15" s="1">
+        <v>253270354.26333418</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="26">
+        <v>42886</v>
+      </c>
+      <c r="H15" s="1">
+        <v>83518589.493611202</v>
+      </c>
+      <c r="I15" s="1">
+        <v>81687050.070277631</v>
+      </c>
+      <c r="J15" s="1">
+        <v>72051418.945833415</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8837448.7316666711</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7175847.0219452381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>42916</v>
+      </c>
+      <c r="B16" s="1">
+        <v>245881690.686946</v>
+      </c>
+      <c r="C16" s="1">
+        <v>28704362.3866667</v>
+      </c>
+      <c r="D16" s="1">
+        <v>274586053.07361197</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="26">
+        <v>42916</v>
+      </c>
+      <c r="H16" s="1">
+        <v>88154913.305000097</v>
+      </c>
+      <c r="I16" s="1">
+        <v>87960766.501944304</v>
+      </c>
+      <c r="J16" s="1">
+        <v>81626418.667222306</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8502304.8916666619</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8341649.7077786326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2692,7 +3310,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21" t="e">
-        <f>G2/G$10</f>
+        <f t="shared" ref="H2:H9" si="0">G2/G$10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2707,7 +3325,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="21" t="e">
-        <f>G3/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2722,7 +3340,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="23"/>
       <c r="H4" s="21" t="e">
-        <f>G4/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2737,7 +3355,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="21" t="e">
-        <f>G5/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2752,7 +3370,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="23"/>
       <c r="H6" s="21" t="e">
-        <f>G6/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2767,7 +3385,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="23"/>
       <c r="H7" s="21" t="e">
-        <f>G7/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2782,7 +3400,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="23"/>
       <c r="H8" s="21" t="e">
-        <f>G8/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2797,7 +3415,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="21" t="e">
-        <f>G9/G$10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2806,27 +3424,27 @@
         <v>27</v>
       </c>
       <c r="B10" s="23">
-        <f>SUM(B2:B9)</f>
+        <f t="shared" ref="B10:G10" si="1">SUM(B2:B9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="23">
-        <f>SUM(C2:C9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10" s="23">
-        <f>SUM(D2:D9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="23">
-        <f>SUM(E2:E9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="23">
-        <f>SUM(F2:F9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="23">
-        <f>SUM(G2:G9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="21"/>
@@ -2839,11 +3457,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2853,7 +3469,9 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
     </row>
@@ -2865,45 +3483,57 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,29 +7,29 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects 2017-07-25" sheetId="21" r:id="rId1"/>
-    <sheet name="Storage By Org 2017-07-25" sheetId="19" r:id="rId2"/>
-    <sheet name="Active Users 2017-07-25" sheetId="18" r:id="rId3"/>
-    <sheet name="By Cores CPU 2017-07-25" sheetId="15" r:id="rId4"/>
-    <sheet name="Applications CPU 2017-07-25" sheetId="1" r:id="rId5"/>
-    <sheet name="User Walltime CPU 2017-07-25" sheetId="4" r:id="rId6"/>
-    <sheet name="Org HighLevel CPU 2017-07-25" sheetId="7" r:id="rId7"/>
-    <sheet name="Org Breakdown CPU 2017-07-25" sheetId="5" r:id="rId8"/>
-    <sheet name="Largest Jobs CPU 2017-07-25" sheetId="6" r:id="rId9"/>
-    <sheet name="By Cores GPU 2017-07-25" sheetId="16" r:id="rId10"/>
-    <sheet name="Applications GPU 2017-07-25" sheetId="3" r:id="rId11"/>
-    <sheet name="User Walltime GPU 2017-07-25" sheetId="10" r:id="rId12"/>
-    <sheet name="Org HighLevel GPU 2017-07-25" sheetId="8" r:id="rId13"/>
-    <sheet name="Org Breakdown GPU 2017-07-25" sheetId="9" r:id="rId14"/>
-    <sheet name="Largest Jobs GPU 2017-07-25" sheetId="11" r:id="rId15"/>
-    <sheet name="Cumulative 2017-07" sheetId="22" r:id="rId16"/>
+    <sheet name="Projects 2017-08-08" sheetId="21" r:id="rId1"/>
+    <sheet name="Storage By Org 2017-08-08" sheetId="19" r:id="rId2"/>
+    <sheet name="Active Users 2017-08-08" sheetId="18" r:id="rId3"/>
+    <sheet name="By Cores CPU 2017-08-08" sheetId="15" r:id="rId4"/>
+    <sheet name="Applications CPU 2017-08-08" sheetId="1" r:id="rId5"/>
+    <sheet name="User Walltime CPU 2017-08-08" sheetId="4" r:id="rId6"/>
+    <sheet name="Org HighLevel CPU 2017-08-08" sheetId="7" r:id="rId7"/>
+    <sheet name="Org Breakdown CPU 2017-08-08" sheetId="5" r:id="rId8"/>
+    <sheet name="Largest Jobs CPU 2017-08-08" sheetId="6" r:id="rId9"/>
+    <sheet name="By Cores GPU 2017-08-08" sheetId="16" r:id="rId10"/>
+    <sheet name="Applications GPU 2017-08-08" sheetId="3" r:id="rId11"/>
+    <sheet name="User Walltime GPU 2017-08-08" sheetId="10" r:id="rId12"/>
+    <sheet name="Org HighLevel GPU 2017-08-08" sheetId="8" r:id="rId13"/>
+    <sheet name="Org Breakdown GPU 2017-08-08" sheetId="9" r:id="rId14"/>
+    <sheet name="Largest Jobs GPU 2017-08-08" sheetId="11" r:id="rId15"/>
+    <sheet name="Cumulative 2017-08" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>Rank</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Previous</t>
+  </si>
+  <si>
+    <t>Industry &amp; Other</t>
   </si>
 </sst>
 </file>
@@ -889,7 +892,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$B$1</c:f>
+              <c:f>'Cumulative 2017-08'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -900,10 +903,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$A$2:$A$16</c:f>
+              <c:f>'Cumulative 2017-08'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -948,16 +951,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$B$2:$B$16</c:f>
+              <c:f>'Cumulative 2017-08'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1002,6 +1011,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>245881690.686946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>263816022.00194401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>263816022.00194401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1027,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$C$1</c:f>
+              <c:f>'Cumulative 2017-08'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1023,10 +1038,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$A$2:$A$16</c:f>
+              <c:f>'Cumulative 2017-08'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1071,16 +1086,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$C$2:$C$16</c:f>
+              <c:f>'Cumulative 2017-08'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1125,6 +1146,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>28704362.3866667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30758876.0466667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30758876.0466667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,11 +1165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55122560"/>
-        <c:axId val="55153408"/>
+        <c:axId val="147727104"/>
+        <c:axId val="147728640"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="55122560"/>
+        <c:axId val="147727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,14 +1179,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55153408"/>
+        <c:crossAx val="147728640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55153408"/>
+        <c:axId val="147728640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55122560"/>
+        <c:crossAx val="147727104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,7 +1253,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$H$1</c:f>
+              <c:f>'Cumulative 2017-08'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,10 +1264,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
+              <c:f>'Cumulative 2017-08'!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1285,16 +1312,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$H$2:$H$16</c:f>
+              <c:f>'Cumulative 2017-08'!$H$2:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1339,6 +1372,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>88154913.305000097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94166930.472499996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94166930.472499996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,7 +1388,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$I$1</c:f>
+              <c:f>'Cumulative 2017-08'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1360,10 +1399,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
+              <c:f>'Cumulative 2017-08'!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1408,16 +1447,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$I$2:$I$16</c:f>
+              <c:f>'Cumulative 2017-08'!$I$2:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1462,6 +1507,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>87960766.501944304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94531556.233888805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94531556.233888805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,7 +1523,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$J$1</c:f>
+              <c:f>'Cumulative 2017-08'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1483,10 +1534,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
+              <c:f>'Cumulative 2017-08'!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1531,16 +1582,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$J$2:$J$16</c:f>
+              <c:f>'Cumulative 2017-08'!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1585,6 +1642,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>81626418.667222306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87135611.386389002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87135611.386389002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +1658,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$K$1</c:f>
+              <c:f>'Cumulative 2017-08'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1611,10 +1674,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
+              <c:f>'Cumulative 2017-08'!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1659,16 +1722,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$K$2:$K$16</c:f>
+              <c:f>'Cumulative 2017-08'!$K$2:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1713,6 +1782,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8502304.8916666619</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9206129.6316666696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9206129.6316666696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,21 +1798,21 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-07'!$L$1</c:f>
+              <c:f>'Cumulative 2017-08'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other</c:v>
+                  <c:v>Industry &amp; Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$G$2:$G$16</c:f>
+              <c:f>'Cumulative 2017-08'!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1782,16 +1857,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-07'!$L$2:$L$16</c:f>
+              <c:f>'Cumulative 2017-08'!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1836,6 +1917,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8341649.7077786326</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9534670.3241665363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9534670.3241665363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,11 +1936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="57345536"/>
-        <c:axId val="57347072"/>
+        <c:axId val="147772544"/>
+        <c:axId val="147774080"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="57345536"/>
+        <c:axId val="147772544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,14 +1950,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57347072"/>
+        <c:crossAx val="147774080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57347072"/>
+        <c:axId val="147774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,13 +1968,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57345536"/>
+        <c:crossAx val="147772544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1907,15 +1995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>714374</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1939,15 +2027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2268,23 +2356,23 @@
     <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2651,7 +2739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2696,7 +2786,7 @@
         <v>29</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3184,64 +3274,114 @@
         <v>8341649.7077786326</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>42947</v>
+      </c>
+      <c r="B17" s="1">
+        <v>263816022.00194401</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30758876.0466667</v>
+      </c>
+      <c r="D17" s="1">
+        <v>294574898.04861099</v>
+      </c>
+      <c r="G17" s="26">
+        <v>42947</v>
+      </c>
+      <c r="H17" s="1">
+        <v>94166930.472499996</v>
+      </c>
+      <c r="I17" s="1">
+        <v>94531556.233888805</v>
+      </c>
+      <c r="J17" s="1">
+        <v>87135611.386389002</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9206129.6316666696</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9534670.3241665363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>42978</v>
+      </c>
+      <c r="B18" s="1">
+        <v>263816022.00194401</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30758876.0466667</v>
+      </c>
+      <c r="D18" s="1">
+        <v>294574898.04861099</v>
+      </c>
+      <c r="G18" s="26">
+        <v>42978</v>
+      </c>
+      <c r="H18" s="1">
+        <v>94166930.472499996</v>
+      </c>
+      <c r="I18" s="1">
+        <v>94531556.233888805</v>
+      </c>
+      <c r="J18" s="1">
+        <v>87135611.386389002</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9206129.6316666696</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9534670.3241665363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>Rank</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Industry &amp; Other</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Project Description</t>
   </si>
 </sst>
 </file>
@@ -1165,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147727104"/>
-        <c:axId val="147728640"/>
+        <c:axId val="94285824"/>
+        <c:axId val="94287360"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="147727104"/>
+        <c:axId val="94285824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,14 +1185,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147728640"/>
+        <c:crossAx val="94287360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147728640"/>
+        <c:axId val="94287360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147727104"/>
+        <c:crossAx val="94285824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1936,11 +1942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147772544"/>
-        <c:axId val="147774080"/>
+        <c:axId val="112067712"/>
+        <c:axId val="112101248"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="147772544"/>
+        <c:axId val="112067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,14 +1956,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147774080"/>
+        <c:crossAx val="112101248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147774080"/>
+        <c:axId val="112101248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,14 +1974,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147772544"/>
+        <c:crossAx val="112067712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2346,7 +2351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2357,9 +2362,11 @@
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="139.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2375,50 +2382,56 @@
       <c r="E1" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -808,6 +808,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1022,7 +1025,7 @@
                   <c:v>263816022.00194401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>263816022.00194401</c:v>
+                  <c:v>280450971.30000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1160,7 @@
                   <c:v>30758876.0466667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30758876.0466667</c:v>
+                  <c:v>32596395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,11 +1174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94285824"/>
-        <c:axId val="94287360"/>
+        <c:axId val="114027520"/>
+        <c:axId val="115835648"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="94285824"/>
+        <c:axId val="114027520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,14 +1188,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94287360"/>
+        <c:crossAx val="115835648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94287360"/>
+        <c:axId val="115835648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94285824"/>
+        <c:crossAx val="114027520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1263,7 +1266,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A*STAR</c:v>
+                  <c:v>NUS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,52 +1341,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23684370.820555601</c:v>
+                  <c:v>12013985.7005556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25114494.81444449</c:v>
+                  <c:v>12117030.835000044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34275807.027222268</c:v>
+                  <c:v>17592846.070277825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41874775.00250005</c:v>
+                  <c:v>24181683.087500043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45743559.290000051</c:v>
+                  <c:v>28231926.511388935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49915318.677222274</c:v>
+                  <c:v>34904363.028333388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56129899.423611164</c:v>
+                  <c:v>40616298.492777824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60554829.003055602</c:v>
+                  <c:v>48041206.091111153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66247671.173611164</c:v>
+                  <c:v>56812092.011388935</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70614611.267500058</c:v>
+                  <c:v>63683853.709444493</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74901323.018888935</c:v>
+                  <c:v>69507614.865833387</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79776601.656666711</c:v>
+                  <c:v>75992999.807222307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83518589.493611202</c:v>
+                  <c:v>81687050.070277631</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88154913.305000097</c:v>
+                  <c:v>87960766.501944304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94166930.472499996</c:v>
+                  <c:v>94531556.233888805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94166930.472499996</c:v>
+                  <c:v>100828025.17777769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1401,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NUS</c:v>
+                  <c:v>A*STAR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1473,52 +1476,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12013985.7005556</c:v>
+                  <c:v>23684370.820555601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12117030.835000044</c:v>
+                  <c:v>25114494.81444449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17592846.070277825</c:v>
+                  <c:v>34275807.027222268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24181683.087500043</c:v>
+                  <c:v>41874775.00250005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28231926.511388935</c:v>
+                  <c:v>45743559.290000051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34904363.028333388</c:v>
+                  <c:v>49915318.677222274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40616298.492777824</c:v>
+                  <c:v>56129899.423611164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48041206.091111153</c:v>
+                  <c:v>60554829.003055602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56812092.011388935</c:v>
+                  <c:v>66247671.173611164</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63683853.709444493</c:v>
+                  <c:v>70614611.267500058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69507614.865833387</c:v>
+                  <c:v>74901323.018888935</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75992999.807222307</c:v>
+                  <c:v>79776601.656666711</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81687050.070277631</c:v>
+                  <c:v>83518589.493611202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87960766.501944304</c:v>
+                  <c:v>88154913.305000097</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94531556.233888805</c:v>
+                  <c:v>94166930.472499996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94531556.233888805</c:v>
+                  <c:v>100209070.955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1656,7 @@
                   <c:v>87135611.386389002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87135611.386389002</c:v>
+                  <c:v>91559747.163333446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,7 +1796,7 @@
                   <c:v>9206129.6316666696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9206129.6316666696</c:v>
+                  <c:v>9752514.411666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,7 +1931,7 @@
                   <c:v>9534670.3241665363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9534670.3241665363</c:v>
+                  <c:v>10698008.565555394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,11 +1945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112067712"/>
-        <c:axId val="112101248"/>
+        <c:axId val="116002176"/>
+        <c:axId val="116008064"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="112067712"/>
+        <c:axId val="116002176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,14 +1959,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112101248"/>
+        <c:crossAx val="116008064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112101248"/>
+        <c:axId val="116008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,13 +1977,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112067712"/>
+        <c:crossAx val="116002176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2351,19 +2355,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="13" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="139.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="139.85546875" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2388,63 +2392,6 @@
       <c r="G1" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2524,7 +2471,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -2534,7 +2481,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2566,25 +2513,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14" style="25" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2593,7 +2540,7 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2614,7 +2561,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2624,7 +2571,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2658,7 +2605,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2668,7 +2615,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2704,10 +2651,10 @@
   <cols>
     <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="27" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="9"/>
@@ -2752,9 +2699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2787,10 +2732,10 @@
         <v>46</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>15</v>
@@ -2851,10 +2796,10 @@
         <v>42538</v>
       </c>
       <c r="H3" s="1">
+        <v>12013985.7005556</v>
+      </c>
+      <c r="I3" s="1">
         <v>23684370.820555601</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12013985.7005556</v>
       </c>
       <c r="J3" s="1">
         <v>7310391.2061111098</v>
@@ -2883,10 +2828,10 @@
         <v>42551</v>
       </c>
       <c r="H4" s="1">
+        <v>12117030.835000044</v>
+      </c>
+      <c r="I4" s="1">
         <v>25114494.81444449</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12117030.835000044</v>
       </c>
       <c r="J4" s="1">
         <v>7746515.088333332</v>
@@ -2915,10 +2860,10 @@
         <v>42582</v>
       </c>
       <c r="H5" s="1">
+        <v>17592846.070277825</v>
+      </c>
+      <c r="I5" s="1">
         <v>34275807.027222268</v>
-      </c>
-      <c r="I5" s="1">
-        <v>17592846.070277825</v>
       </c>
       <c r="J5" s="1">
         <v>12743684.413611112</v>
@@ -2947,10 +2892,10 @@
         <v>42613</v>
       </c>
       <c r="H6" s="1">
+        <v>24181683.087500043</v>
+      </c>
+      <c r="I6" s="1">
         <v>41874775.00250005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>24181683.087500043</v>
       </c>
       <c r="J6" s="1">
         <v>18131719.079166673</v>
@@ -2979,10 +2924,10 @@
         <v>42643</v>
       </c>
       <c r="H7" s="1">
+        <v>28231926.511388935</v>
+      </c>
+      <c r="I7" s="1">
         <v>45743559.290000051</v>
-      </c>
-      <c r="I7" s="1">
-        <v>28231926.511388935</v>
       </c>
       <c r="J7" s="1">
         <v>20946688.638888892</v>
@@ -3011,10 +2956,10 @@
         <v>42674</v>
       </c>
       <c r="H8" s="1">
+        <v>34904363.028333388</v>
+      </c>
+      <c r="I8" s="1">
         <v>49915318.677222274</v>
-      </c>
-      <c r="I8" s="1">
-        <v>34904363.028333388</v>
       </c>
       <c r="J8" s="1">
         <v>24377322.916666672</v>
@@ -3043,10 +2988,10 @@
         <v>42704</v>
       </c>
       <c r="H9" s="1">
+        <v>40616298.492777824</v>
+      </c>
+      <c r="I9" s="1">
         <v>56129899.423611164</v>
-      </c>
-      <c r="I9" s="1">
-        <v>40616298.492777824</v>
       </c>
       <c r="J9" s="1">
         <v>29517978.718888894</v>
@@ -3075,10 +3020,10 @@
         <v>42735</v>
       </c>
       <c r="H10" s="1">
+        <v>48041206.091111153</v>
+      </c>
+      <c r="I10" s="1">
         <v>60554829.003055602</v>
-      </c>
-      <c r="I10" s="1">
-        <v>48041206.091111153</v>
       </c>
       <c r="J10" s="1">
         <v>34937705.823333338</v>
@@ -3107,10 +3052,10 @@
         <v>42766</v>
       </c>
       <c r="H11" s="1">
+        <v>56812092.011388935</v>
+      </c>
+      <c r="I11" s="1">
         <v>66247671.173611164</v>
-      </c>
-      <c r="I11" s="1">
-        <v>56812092.011388935</v>
       </c>
       <c r="J11" s="1">
         <v>40292729.719166666</v>
@@ -3140,10 +3085,10 @@
         <v>42794</v>
       </c>
       <c r="H12" s="1">
+        <v>63683853.709444493</v>
+      </c>
+      <c r="I12" s="1">
         <v>70614611.267500058</v>
-      </c>
-      <c r="I12" s="1">
-        <v>63683853.709444493</v>
       </c>
       <c r="J12" s="1">
         <v>48397740.013055556</v>
@@ -3173,10 +3118,10 @@
         <v>42825</v>
       </c>
       <c r="H13" s="1">
+        <v>69507614.865833387</v>
+      </c>
+      <c r="I13" s="1">
         <v>74901323.018888935</v>
-      </c>
-      <c r="I13" s="1">
-        <v>69507614.865833387</v>
       </c>
       <c r="J13" s="1">
         <v>57636326.165555552</v>
@@ -3206,10 +3151,10 @@
         <v>42855</v>
       </c>
       <c r="H14" s="1">
+        <v>75992999.807222307</v>
+      </c>
+      <c r="I14" s="1">
         <v>79776601.656666711</v>
-      </c>
-      <c r="I14" s="1">
-        <v>75992999.807222307</v>
       </c>
       <c r="J14" s="1">
         <v>65927763.532499999</v>
@@ -3239,10 +3184,10 @@
         <v>42886</v>
       </c>
       <c r="H15" s="1">
+        <v>81687050.070277631</v>
+      </c>
+      <c r="I15" s="1">
         <v>83518589.493611202</v>
-      </c>
-      <c r="I15" s="1">
-        <v>81687050.070277631</v>
       </c>
       <c r="J15" s="1">
         <v>72051418.945833415</v>
@@ -3272,10 +3217,10 @@
         <v>42916</v>
       </c>
       <c r="H16" s="1">
+        <v>87960766.501944304</v>
+      </c>
+      <c r="I16" s="1">
         <v>88154913.305000097</v>
-      </c>
-      <c r="I16" s="1">
-        <v>87960766.501944304</v>
       </c>
       <c r="J16" s="1">
         <v>81626418.667222306</v>
@@ -3304,10 +3249,10 @@
         <v>42947</v>
       </c>
       <c r="H17" s="1">
+        <v>94531556.233888805</v>
+      </c>
+      <c r="I17" s="1">
         <v>94166930.472499996</v>
-      </c>
-      <c r="I17" s="1">
-        <v>94531556.233888805</v>
       </c>
       <c r="J17" s="1">
         <v>87135611.386389002</v>
@@ -3324,31 +3269,31 @@
         <v>42978</v>
       </c>
       <c r="B18" s="1">
-        <v>263816022.00194401</v>
+        <v>280450971.30000001</v>
       </c>
       <c r="C18" s="1">
-        <v>30758876.0466667</v>
+        <v>32596395</v>
       </c>
       <c r="D18" s="1">
-        <v>294574898.04861099</v>
+        <v>313047366.30000001</v>
       </c>
       <c r="G18" s="26">
         <v>42978</v>
       </c>
       <c r="H18" s="1">
-        <v>94166930.472499996</v>
+        <v>100828025.17777769</v>
       </c>
       <c r="I18" s="1">
-        <v>94531556.233888805</v>
+        <v>100209070.955</v>
       </c>
       <c r="J18" s="1">
-        <v>87135611.386389002</v>
+        <v>91559747.163333446</v>
       </c>
       <c r="K18" s="1">
-        <v>9206129.6316666696</v>
+        <v>9752514.411666669</v>
       </c>
       <c r="L18" s="1">
-        <v>9534670.3241665363</v>
+        <v>10698008.565555394</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3776,7 +3721,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -3786,7 +3731,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3814,25 +3759,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14" style="25" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -3841,7 +3786,7 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3859,7 +3804,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -3869,7 +3814,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3903,7 +3848,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -3913,7 +3858,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3949,10 +3894,10 @@
   <cols>
     <col min="1" max="1" width="6.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="27" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="27" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="9"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -25,7 +25,7 @@
     <sheet name="Org HighLevel GPU 2017-12-19" sheetId="8" r:id="rId16"/>
     <sheet name="Org Breakdown GPU 2017-12-19" sheetId="9" r:id="rId17"/>
     <sheet name="Largest Jobs GPU 2017-12-19" sheetId="11" r:id="rId18"/>
-    <sheet name="Cumulative 2017-12" sheetId="22" r:id="rId19"/>
+    <sheet name="Cumulative 2017-12" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -977,10 +977,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$A$2:$A$18</c:f>
+              <c:f>'Cumulative 2017-12'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1031,16 +1031,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$B$2:$B$18</c:f>
+              <c:f>'Cumulative 2017-12'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1091,6 +1100,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>280450971.30000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>297279299.16250002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>313422593.7475</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>331100858.15694499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,10 +1130,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$A$2:$A$18</c:f>
+              <c:f>'Cumulative 2017-12'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1166,16 +1184,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$C$2:$C$18</c:f>
+              <c:f>'Cumulative 2017-12'!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1226,6 +1253,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32596395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34193265.740000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35749341.660000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37371548.899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,11 +1275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107357696"/>
-        <c:axId val="107864448"/>
+        <c:axId val="54119424"/>
+        <c:axId val="58012416"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="107357696"/>
+        <c:axId val="54119424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,14 +1289,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107864448"/>
+        <c:crossAx val="58012416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="107864448"/>
+        <c:axId val="58012416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107357696"/>
+        <c:crossAx val="54119424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1318,7 +1354,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15963526403859712"/>
+          <c:y val="4.926241928152654E-2"/>
+          <c:w val="0.59398924648981988"/>
+          <c:h val="0.70396675637423956"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -1338,10 +1384,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$18</c:f>
+              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1392,16 +1438,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$H$2:$H$18</c:f>
+              <c:f>'Cumulative 2017-12'!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1452,6 +1507,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100828025.17777769</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107408326.50111103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114217490.28194436</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119955403.646667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,10 +1537,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$18</c:f>
+              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1527,16 +1591,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$I$2:$I$18</c:f>
+              <c:f>'Cumulative 2017-12'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1587,6 +1660,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100209070.955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106591358.48472221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111872456.89833333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118886368.058056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,10 +1690,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$18</c:f>
+              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1662,16 +1744,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$J$2:$J$18</c:f>
+              <c:f>'Cumulative 2017-12'!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1722,6 +1813,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>91559747.163333446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94860394.774166778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99321493.94416678</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103673521.449167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,10 +1848,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$18</c:f>
+              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1802,16 +1902,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$K$2:$K$18</c:f>
+              <c:f>'Cumulative 2017-12'!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1862,6 +1971,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9752514.411666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10778998.817499999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11059281.107222222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12288510.884722199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,10 +2001,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$18</c:f>
+              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1937,16 +2055,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$L$2:$L$18</c:f>
+              <c:f>'Cumulative 2017-12'!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1997,6 +2124,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10698008.565555394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11833486.325000048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12701213.175833344</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13668603.018331826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,11 +2146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108030976"/>
-        <c:axId val="108032768"/>
+        <c:axId val="54628352"/>
+        <c:axId val="54629888"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="108030976"/>
+        <c:axId val="54628352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,14 +2160,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108032768"/>
+        <c:crossAx val="54629888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108032768"/>
+        <c:axId val="54629888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,13 +2178,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108030976"/>
+        <c:crossAx val="54628352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2068,15 +2205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>714374</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,15 +2237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3361,9 +3498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3961,20 +4096,107 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="26">
+        <v>43008</v>
+      </c>
+      <c r="B19" s="1">
+        <v>297279299.16250002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>34193265.740000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>331472564.90250003</v>
+      </c>
+      <c r="G19" s="26">
+        <v>43008</v>
+      </c>
+      <c r="H19" s="1">
+        <v>107408326.50111103</v>
+      </c>
+      <c r="I19" s="1">
+        <v>106591358.48472221</v>
+      </c>
+      <c r="J19" s="1">
+        <v>94860394.774166778</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10778998.817499999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>11833486.325000048</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="A20" s="26">
+        <v>43039</v>
+      </c>
+      <c r="B20" s="1">
+        <v>313422593.7475</v>
+      </c>
+      <c r="C20" s="1">
+        <v>35749341.660000004</v>
+      </c>
+      <c r="D20" s="1">
+        <v>349171935.40750003</v>
+      </c>
+      <c r="G20" s="26">
+        <v>43039</v>
+      </c>
+      <c r="H20" s="1">
+        <v>114217490.28194436</v>
+      </c>
+      <c r="I20" s="1">
+        <v>111872456.89833333</v>
+      </c>
+      <c r="J20" s="1">
+        <v>99321493.94416678</v>
+      </c>
+      <c r="K20" s="1">
+        <v>11059281.107222222</v>
+      </c>
+      <c r="L20" s="1">
+        <v>12701213.175833344</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="A21" s="26">
+        <v>43069</v>
+      </c>
+      <c r="B21" s="1">
+        <v>331100858.15694499</v>
+      </c>
+      <c r="C21" s="1">
+        <v>37371548.899999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>368472407.05694401</v>
+      </c>
+      <c r="G21" s="26">
+        <v>43069</v>
+      </c>
+      <c r="H21" s="1">
+        <v>119955403.646667</v>
+      </c>
+      <c r="I21" s="1">
+        <v>118886368.058056</v>
+      </c>
+      <c r="J21" s="1">
+        <v>103673521.449167</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12288510.884722199</v>
+      </c>
+      <c r="L21" s="1">
+        <v>13668603.018331826</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
       <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,26 +7,29 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2017-12-19" sheetId="26" r:id="rId1"/>
-    <sheet name="Project Usage 2017-12-19" sheetId="23" r:id="rId2"/>
-    <sheet name="Project Status 2017-12-19" sheetId="25" r:id="rId3"/>
-    <sheet name="Personal Status 2017-12-19" sheetId="24" r:id="rId4"/>
-    <sheet name="Storage By Org 2017-12-19" sheetId="19" r:id="rId5"/>
-    <sheet name="Active Users 2017-12-19" sheetId="18" r:id="rId6"/>
-    <sheet name="By Cores CPU 2017-12-19" sheetId="15" r:id="rId7"/>
-    <sheet name="Applications CPU 2017-12-19" sheetId="1" r:id="rId8"/>
-    <sheet name="User Walltime CPU 2017-12-19" sheetId="4" r:id="rId9"/>
-    <sheet name="Org HighLevel CPU 2017-12-19" sheetId="7" r:id="rId10"/>
-    <sheet name="Org Breakdown CPU 2017-12-19" sheetId="5" r:id="rId11"/>
-    <sheet name="Largest Jobs CPU 2017-12-19" sheetId="6" r:id="rId12"/>
-    <sheet name="By Cores GPU 2017-12-19" sheetId="16" r:id="rId13"/>
-    <sheet name="Applications GPU 2017-12-19" sheetId="3" r:id="rId14"/>
-    <sheet name="User Walltime GPU 2017-12-19" sheetId="10" r:id="rId15"/>
-    <sheet name="Org HighLevel GPU 2017-12-19" sheetId="8" r:id="rId16"/>
-    <sheet name="Org Breakdown GPU 2017-12-19" sheetId="9" r:id="rId17"/>
-    <sheet name="Largest Jobs GPU 2017-12-19" sheetId="11" r:id="rId18"/>
-    <sheet name="Cumulative 2017-12" sheetId="27" r:id="rId19"/>
+    <sheet name="Queue First Job 2018-01-02" sheetId="26" r:id="rId1"/>
+    <sheet name="Project Usage 2018-01-02" sheetId="23" r:id="rId2"/>
+    <sheet name="Project Status 2018-01-02" sheetId="25" r:id="rId3"/>
+    <sheet name="Personal Status 2018-01-02" sheetId="24" r:id="rId4"/>
+    <sheet name="Storage By Org 2018-01-02" sheetId="19" r:id="rId5"/>
+    <sheet name="Active Users 2018-01-02" sheetId="18" r:id="rId6"/>
+    <sheet name="By Cores CPU 2018-01-02" sheetId="15" r:id="rId7"/>
+    <sheet name="Applications CPU 2018-01-02" sheetId="1" r:id="rId8"/>
+    <sheet name="User Walltime CPU 2018-01-02" sheetId="4" r:id="rId9"/>
+    <sheet name="Org HighLevel CPU 2018-01-02" sheetId="7" r:id="rId10"/>
+    <sheet name="Org Breakdown CPU 2018-01-02" sheetId="5" r:id="rId11"/>
+    <sheet name="Largest Jobs CPU 2018-01-02" sheetId="6" r:id="rId12"/>
+    <sheet name="By Cores GPU 2018-01-02" sheetId="16" r:id="rId13"/>
+    <sheet name="Applications GPU 2018-01-02" sheetId="3" r:id="rId14"/>
+    <sheet name="User Walltime GPU 2018-01-02" sheetId="10" r:id="rId15"/>
+    <sheet name="Org HighLevel GPU 2018-01-02" sheetId="8" r:id="rId16"/>
+    <sheet name="Org Breakdown GPU 2018-01-02" sheetId="9" r:id="rId17"/>
+    <sheet name="Largest Jobs GPU 2018-01-02" sheetId="11" r:id="rId18"/>
+    <sheet name="Cumulative 2018-01" sheetId="28" r:id="rId19"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId20"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -966,7 +969,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$B$1</c:f>
+              <c:f>'Cumulative 2018-01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,10 +980,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$A$2:$A$21</c:f>
+              <c:f>'Cumulative 2018-01'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1040,16 +1043,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$B$2:$B$21</c:f>
+              <c:f>'Cumulative 2018-01'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1109,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>331100858.15694499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346769086.50111169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1128,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$C$1</c:f>
+              <c:f>'Cumulative 2018-01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1130,10 +1139,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$A$2:$A$21</c:f>
+              <c:f>'Cumulative 2018-01'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1193,16 +1202,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$C$2:$C$21</c:f>
+              <c:f>'Cumulative 2018-01'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1262,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37371548.899999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38785999.413333327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,11 +1290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54119424"/>
-        <c:axId val="58012416"/>
+        <c:axId val="144216064"/>
+        <c:axId val="144217600"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="54119424"/>
+        <c:axId val="144216064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,14 +1304,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58012416"/>
+        <c:crossAx val="144217600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58012416"/>
+        <c:axId val="144217600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54119424"/>
+        <c:crossAx val="144216064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1373,7 +1388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$H$1</c:f>
+              <c:f>'Cumulative 2018-01'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1384,10 +1399,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
+              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1447,16 +1462,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$H$2:$H$21</c:f>
+              <c:f>'Cumulative 2018-01'!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1516,6 +1534,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>119955403.646667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125954191.616667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1547,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$I$1</c:f>
+              <c:f>'Cumulative 2018-01'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1537,10 +1558,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
+              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1600,16 +1621,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$I$2:$I$21</c:f>
+              <c:f>'Cumulative 2018-01'!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1669,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>118886368.058056</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>124731632.29944488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1706,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$J$1</c:f>
+              <c:f>'Cumulative 2018-01'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1690,10 +1717,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
+              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1753,16 +1780,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$J$2:$J$21</c:f>
+              <c:f>'Cumulative 2018-01'!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1822,6 +1852,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>103673521.449167</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107667639.84222256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,7 +1865,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$K$1</c:f>
+              <c:f>'Cumulative 2018-01'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1848,10 +1881,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
+              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1911,16 +1944,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$K$2:$K$21</c:f>
+              <c:f>'Cumulative 2018-01'!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1980,6 +2016,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12288510.884722199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13105940.984722199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1990,7 +2029,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2017-12'!$L$1</c:f>
+              <c:f>'Cumulative 2018-01'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2001,10 +2040,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$G$2:$G$21</c:f>
+              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2064,16 +2103,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2017-12'!$L$2:$L$21</c:f>
+              <c:f>'Cumulative 2018-01'!$L$2:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2132,6 +2174,9 @@
                   <c:v>12701213.175833344</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>13668603.018331826</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>13668603.018331826</c:v>
                 </c:pt>
               </c:numCache>
@@ -2146,11 +2191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54628352"/>
-        <c:axId val="54629888"/>
+        <c:axId val="144149504"/>
+        <c:axId val="144155392"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="54628352"/>
+        <c:axId val="144149504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,14 +2205,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54629888"/>
+        <c:crossAx val="144155392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54629888"/>
+        <c:axId val="144155392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54628352"/>
+        <c:crossAx val="144149504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2206,13 +2251,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2238,13 +2283,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2267,6 +2312,688 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Queue First Job 2017-12"/>
+      <sheetName val="Project Usage 2017-12"/>
+      <sheetName val="Project Status 2017-12"/>
+      <sheetName val="Personal Status 2017-12"/>
+      <sheetName val="Storage By Org 2017-12"/>
+      <sheetName val="Active Users 2017-12"/>
+      <sheetName val="By Cores CPU 2017-12"/>
+      <sheetName val="Applications CPU 2017-12"/>
+      <sheetName val="User Walltime CPU 2017-12"/>
+      <sheetName val="Org HighLevel CPU 2017-12"/>
+      <sheetName val="Org Breakdown CPU 2017-12"/>
+      <sheetName val="Largest Jobs CPU 2017-12"/>
+      <sheetName val="By Cores GPU 2017-12"/>
+      <sheetName val="Applications GPU 2017-12"/>
+      <sheetName val="User Walltime GPU 2017-12"/>
+      <sheetName val="Org HighLevel GPU 2017-12"/>
+      <sheetName val="Org Breakdown GPU 2017-12"/>
+      <sheetName val="Largest Jobs GPU 2017-12"/>
+      <sheetName val="Cumulative 2017-12"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Cumulative Core Hours (CPU nodes)</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Cumulative Core Hours (GPU Nodes)</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>NUS</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>A*STAR</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>NTU</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>CREATE</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Industry &amp; Other</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>42457</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>42457</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>42538</v>
+          </cell>
+          <cell r="B3">
+            <v>40330490.090555601</v>
+          </cell>
+          <cell r="C3">
+            <v>5033947.3422222203</v>
+          </cell>
+          <cell r="G3">
+            <v>42538</v>
+          </cell>
+          <cell r="H3">
+            <v>12013985.7005556</v>
+          </cell>
+          <cell r="I3">
+            <v>23684370.820555601</v>
+          </cell>
+          <cell r="J3">
+            <v>7310391.2061111098</v>
+          </cell>
+          <cell r="K3">
+            <v>1537410.0674999999</v>
+          </cell>
+          <cell r="L3">
+            <v>818279.63805548102</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>42551</v>
+          </cell>
+          <cell r="B4">
+            <v>42272318.338611163</v>
+          </cell>
+          <cell r="C4">
+            <v>5180112.3222222207</v>
+          </cell>
+          <cell r="G4">
+            <v>42551</v>
+          </cell>
+          <cell r="H4">
+            <v>12117030.835000044</v>
+          </cell>
+          <cell r="I4">
+            <v>25114494.81444449</v>
+          </cell>
+          <cell r="J4">
+            <v>7746515.088333332</v>
+          </cell>
+          <cell r="K4">
+            <v>1574657.4275</v>
+          </cell>
+          <cell r="L4">
+            <v>899732.49555549026</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>42582</v>
+          </cell>
+          <cell r="B5">
+            <v>61272817.936388962</v>
+          </cell>
+          <cell r="C5">
+            <v>6788200.1555555509</v>
+          </cell>
+          <cell r="G5">
+            <v>42582</v>
+          </cell>
+          <cell r="H5">
+            <v>17592846.070277825</v>
+          </cell>
+          <cell r="I5">
+            <v>34275807.027222268</v>
+          </cell>
+          <cell r="J5">
+            <v>12743684.413611112</v>
+          </cell>
+          <cell r="K5">
+            <v>2421318.8180555562</v>
+          </cell>
+          <cell r="L5">
+            <v>1027361.7627776936</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42613</v>
+          </cell>
+          <cell r="B6">
+            <v>80419405.701388955</v>
+          </cell>
+          <cell r="C6">
+            <v>8659560.7688888814</v>
+          </cell>
+          <cell r="G6">
+            <v>42613</v>
+          </cell>
+          <cell r="H6">
+            <v>24181683.087500043</v>
+          </cell>
+          <cell r="I6">
+            <v>41874775.00250005</v>
+          </cell>
+          <cell r="J6">
+            <v>18131719.079166673</v>
+          </cell>
+          <cell r="K6">
+            <v>3712510.3030555565</v>
+          </cell>
+          <cell r="L6">
+            <v>1178278.9980554283</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>42643</v>
+          </cell>
+          <cell r="B7">
+            <v>91797570.830833361</v>
+          </cell>
+          <cell r="C7">
+            <v>11262494.555555552</v>
+          </cell>
+          <cell r="G7">
+            <v>42643</v>
+          </cell>
+          <cell r="H7">
+            <v>28231926.511388935</v>
+          </cell>
+          <cell r="I7">
+            <v>45743559.290000051</v>
+          </cell>
+          <cell r="J7">
+            <v>20946688.638888892</v>
+          </cell>
+          <cell r="K7">
+            <v>4952788.9955555564</v>
+          </cell>
+          <cell r="L7">
+            <v>3185101.9505554289</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>42674</v>
+          </cell>
+          <cell r="B8">
+            <v>105082245.94444446</v>
+          </cell>
+          <cell r="C8">
+            <v>13249154.188888881</v>
+          </cell>
+          <cell r="G8">
+            <v>42674</v>
+          </cell>
+          <cell r="H8">
+            <v>34904363.028333388</v>
+          </cell>
+          <cell r="I8">
+            <v>49915318.677222274</v>
+          </cell>
+          <cell r="J8">
+            <v>24377322.916666672</v>
+          </cell>
+          <cell r="K8">
+            <v>5618095.3063888894</v>
+          </cell>
+          <cell r="L8">
+            <v>3516300.204722032</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>42704</v>
+          </cell>
+          <cell r="B9">
+            <v>121867569.14833337</v>
+          </cell>
+          <cell r="C9">
+            <v>15551657.535555551</v>
+          </cell>
+          <cell r="G9">
+            <v>42704</v>
+          </cell>
+          <cell r="H9">
+            <v>40616298.492777824</v>
+          </cell>
+          <cell r="I9">
+            <v>56129899.423611164</v>
+          </cell>
+          <cell r="J9">
+            <v>29517978.718888894</v>
+          </cell>
+          <cell r="K9">
+            <v>7307236.9716666695</v>
+          </cell>
+          <cell r="L9">
+            <v>3282949.8524998575</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>42735</v>
+          </cell>
+          <cell r="B10">
+            <v>137922998.10805556</v>
+          </cell>
+          <cell r="C10">
+            <v>17511470.715555552</v>
+          </cell>
+          <cell r="G10">
+            <v>42735</v>
+          </cell>
+          <cell r="H10">
+            <v>48041206.091111153</v>
+          </cell>
+          <cell r="I10">
+            <v>60554829.003055602</v>
+          </cell>
+          <cell r="J10">
+            <v>34937705.823333338</v>
+          </cell>
+          <cell r="K10">
+            <v>7782450.9227777803</v>
+          </cell>
+          <cell r="L10">
+            <v>3553413.7588888109</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>42766</v>
+          </cell>
+          <cell r="B11">
+            <v>156262981.36555555</v>
+          </cell>
+          <cell r="C11">
+            <v>19717272.542222224</v>
+          </cell>
+          <cell r="G11">
+            <v>42766</v>
+          </cell>
+          <cell r="H11">
+            <v>56812092.011388935</v>
+          </cell>
+          <cell r="I11">
+            <v>66247671.173611164</v>
+          </cell>
+          <cell r="J11">
+            <v>40292729.719166666</v>
+          </cell>
+          <cell r="K11">
+            <v>7895666.0694444478</v>
+          </cell>
+          <cell r="L11">
+            <v>4167231.7097221613</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>42794</v>
+          </cell>
+          <cell r="B12">
+            <v>174114339.18638885</v>
+          </cell>
+          <cell r="C12">
+            <v>21764947.835555553</v>
+          </cell>
+          <cell r="G12">
+            <v>42794</v>
+          </cell>
+          <cell r="H12">
+            <v>63683853.709444493</v>
+          </cell>
+          <cell r="I12">
+            <v>70614611.267500058</v>
+          </cell>
+          <cell r="J12">
+            <v>48397740.013055556</v>
+          </cell>
+          <cell r="K12">
+            <v>8005647.182777781</v>
+          </cell>
+          <cell r="L12">
+            <v>4612571.6247220635</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>42825</v>
+          </cell>
+          <cell r="B13">
+            <v>192592009.19805557</v>
+          </cell>
+          <cell r="C13">
+            <v>23752267.388888884</v>
+          </cell>
+          <cell r="G13">
+            <v>42825</v>
+          </cell>
+          <cell r="H13">
+            <v>69507614.865833387</v>
+          </cell>
+          <cell r="I13">
+            <v>74901323.018888935</v>
+          </cell>
+          <cell r="J13">
+            <v>57636326.165555552</v>
+          </cell>
+          <cell r="K13">
+            <v>8300878.7127777813</v>
+          </cell>
+          <cell r="L13">
+            <v>5433270.5994443297</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>42855</v>
+          </cell>
+          <cell r="B14">
+            <v>211568883.18305558</v>
+          </cell>
+          <cell r="C14">
+            <v>25778205.522222213</v>
+          </cell>
+          <cell r="G14">
+            <v>42855</v>
+          </cell>
+          <cell r="H14">
+            <v>75992999.807222307</v>
+          </cell>
+          <cell r="I14">
+            <v>79776601.656666711</v>
+          </cell>
+          <cell r="J14">
+            <v>65927763.532499999</v>
+          </cell>
+          <cell r="K14">
+            <v>8597754.3050000034</v>
+          </cell>
+          <cell r="L14">
+            <v>6487106.1794442721</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>42886</v>
+          </cell>
+          <cell r="B15">
+            <v>226659790.61666819</v>
+          </cell>
+          <cell r="C15">
+            <v>26610563.646666702</v>
+          </cell>
+          <cell r="G15">
+            <v>42886</v>
+          </cell>
+          <cell r="H15">
+            <v>81687050.070277631</v>
+          </cell>
+          <cell r="I15">
+            <v>83518589.493611202</v>
+          </cell>
+          <cell r="J15">
+            <v>72051418.945833415</v>
+          </cell>
+          <cell r="K15">
+            <v>8837448.7316666711</v>
+          </cell>
+          <cell r="L15">
+            <v>7175847.0219452381</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>42916</v>
+          </cell>
+          <cell r="B16">
+            <v>245881690.686946</v>
+          </cell>
+          <cell r="C16">
+            <v>28704362.3866667</v>
+          </cell>
+          <cell r="G16">
+            <v>42916</v>
+          </cell>
+          <cell r="H16">
+            <v>87960766.501944304</v>
+          </cell>
+          <cell r="I16">
+            <v>88154913.305000097</v>
+          </cell>
+          <cell r="J16">
+            <v>81626418.667222306</v>
+          </cell>
+          <cell r="K16">
+            <v>8502304.8916666619</v>
+          </cell>
+          <cell r="L16">
+            <v>8341649.7077786326</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>42947</v>
+          </cell>
+          <cell r="B17">
+            <v>263816022.00194401</v>
+          </cell>
+          <cell r="C17">
+            <v>30758876.0466667</v>
+          </cell>
+          <cell r="G17">
+            <v>42947</v>
+          </cell>
+          <cell r="H17">
+            <v>94531556.233888805</v>
+          </cell>
+          <cell r="I17">
+            <v>94166930.472499996</v>
+          </cell>
+          <cell r="J17">
+            <v>87135611.386389002</v>
+          </cell>
+          <cell r="K17">
+            <v>9206129.6316666696</v>
+          </cell>
+          <cell r="L17">
+            <v>9534670.3241665363</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>42978</v>
+          </cell>
+          <cell r="B18">
+            <v>280450971.30000001</v>
+          </cell>
+          <cell r="C18">
+            <v>32596395</v>
+          </cell>
+          <cell r="G18">
+            <v>42978</v>
+          </cell>
+          <cell r="H18">
+            <v>100828025.17777769</v>
+          </cell>
+          <cell r="I18">
+            <v>100209070.955</v>
+          </cell>
+          <cell r="J18">
+            <v>91559747.163333446</v>
+          </cell>
+          <cell r="K18">
+            <v>9752514.411666669</v>
+          </cell>
+          <cell r="L18">
+            <v>10698008.565555394</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43008</v>
+          </cell>
+          <cell r="B19">
+            <v>297279299.16250002</v>
+          </cell>
+          <cell r="C19">
+            <v>34193265.740000002</v>
+          </cell>
+          <cell r="G19">
+            <v>43008</v>
+          </cell>
+          <cell r="H19">
+            <v>107408326.50111103</v>
+          </cell>
+          <cell r="I19">
+            <v>106591358.48472221</v>
+          </cell>
+          <cell r="J19">
+            <v>94860394.774166778</v>
+          </cell>
+          <cell r="K19">
+            <v>10778998.817499999</v>
+          </cell>
+          <cell r="L19">
+            <v>11833486.325000048</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43039</v>
+          </cell>
+          <cell r="B20">
+            <v>313422593.7475</v>
+          </cell>
+          <cell r="C20">
+            <v>35749341.660000004</v>
+          </cell>
+          <cell r="G20">
+            <v>43039</v>
+          </cell>
+          <cell r="H20">
+            <v>114217490.28194436</v>
+          </cell>
+          <cell r="I20">
+            <v>111872456.89833333</v>
+          </cell>
+          <cell r="J20">
+            <v>99321493.94416678</v>
+          </cell>
+          <cell r="K20">
+            <v>11059281.107222222</v>
+          </cell>
+          <cell r="L20">
+            <v>12701213.175833344</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43069</v>
+          </cell>
+          <cell r="B21">
+            <v>331100858.15694499</v>
+          </cell>
+          <cell r="C21">
+            <v>37371548.899999999</v>
+          </cell>
+          <cell r="G21">
+            <v>43069</v>
+          </cell>
+          <cell r="H21">
+            <v>119955403.646667</v>
+          </cell>
+          <cell r="I21">
+            <v>118886368.058056</v>
+          </cell>
+          <cell r="J21">
+            <v>103673521.449167</v>
+          </cell>
+          <cell r="K21">
+            <v>12288510.884722199</v>
+          </cell>
+          <cell r="L21">
+            <v>13668603.018331826</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43100</v>
+          </cell>
+          <cell r="B22">
+            <v>346769086.50111169</v>
+          </cell>
+          <cell r="C22">
+            <v>38785999.413333327</v>
+          </cell>
+          <cell r="G22">
+            <v>43100</v>
+          </cell>
+          <cell r="H22">
+            <v>125954191.616667</v>
+          </cell>
+          <cell r="I22">
+            <v>124731632.29944488</v>
+          </cell>
+          <cell r="J22">
+            <v>107667639.84222256</v>
+          </cell>
+          <cell r="K22">
+            <v>13105940.984722199</v>
+          </cell>
+          <cell r="L22">
+            <v>13668603.018331826</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3496,7 +4223,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4192,14 +4919,43 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="G22" s="26"/>
+      <c r="A22" s="26">
+        <v>43100</v>
+      </c>
+      <c r="B22" s="1">
+        <v>346769086.50111169</v>
+      </c>
+      <c r="C22" s="1">
+        <v>38785999.413333327</v>
+      </c>
+      <c r="D22" s="1">
+        <v>385555085.91444403</v>
+      </c>
+      <c r="G22" s="26">
+        <v>43100</v>
+      </c>
+      <c r="H22" s="1">
+        <v>125954191.616667</v>
+      </c>
+      <c r="I22" s="1">
+        <v>124731632.29944488</v>
+      </c>
+      <c r="J22" s="1">
+        <v>107667639.84222256</v>
+      </c>
+      <c r="K22" s="1">
+        <v>13105940.984722199</v>
+      </c>
+      <c r="L22" s="1">
+        <v>13668603.018331826</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
       <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -4236,6 +4992,9 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,25 +7,25 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-01-02" sheetId="26" r:id="rId1"/>
-    <sheet name="Project Usage 2018-01-02" sheetId="23" r:id="rId2"/>
-    <sheet name="Project Status 2018-01-02" sheetId="25" r:id="rId3"/>
-    <sheet name="Personal Status 2018-01-02" sheetId="24" r:id="rId4"/>
-    <sheet name="Storage By Org 2018-01-02" sheetId="19" r:id="rId5"/>
-    <sheet name="Active Users 2018-01-02" sheetId="18" r:id="rId6"/>
-    <sheet name="By Cores CPU 2018-01-02" sheetId="15" r:id="rId7"/>
-    <sheet name="Applications CPU 2018-01-02" sheetId="1" r:id="rId8"/>
-    <sheet name="User Walltime CPU 2018-01-02" sheetId="4" r:id="rId9"/>
-    <sheet name="Org HighLevel CPU 2018-01-02" sheetId="7" r:id="rId10"/>
-    <sheet name="Org Breakdown CPU 2018-01-02" sheetId="5" r:id="rId11"/>
-    <sheet name="Largest Jobs CPU 2018-01-02" sheetId="6" r:id="rId12"/>
-    <sheet name="By Cores GPU 2018-01-02" sheetId="16" r:id="rId13"/>
-    <sheet name="Applications GPU 2018-01-02" sheetId="3" r:id="rId14"/>
-    <sheet name="User Walltime GPU 2018-01-02" sheetId="10" r:id="rId15"/>
-    <sheet name="Org HighLevel GPU 2018-01-02" sheetId="8" r:id="rId16"/>
-    <sheet name="Org Breakdown GPU 2018-01-02" sheetId="9" r:id="rId17"/>
-    <sheet name="Largest Jobs GPU 2018-01-02" sheetId="11" r:id="rId18"/>
-    <sheet name="Cumulative 2018-01" sheetId="28" r:id="rId19"/>
+    <sheet name="Queue First Job 2018-03-06" sheetId="26" r:id="rId1"/>
+    <sheet name="Project Usage 2018-03-06" sheetId="23" r:id="rId2"/>
+    <sheet name="Project Status 2018-03-06" sheetId="25" r:id="rId3"/>
+    <sheet name="Personal Status 2018-03-06" sheetId="24" r:id="rId4"/>
+    <sheet name="Storage By Org 2018-03-06" sheetId="19" r:id="rId5"/>
+    <sheet name="Active Users 2018-03-06" sheetId="18" r:id="rId6"/>
+    <sheet name="By Cores CPU 2018-03-06" sheetId="15" r:id="rId7"/>
+    <sheet name="Applications CPU 2018-03-06" sheetId="1" r:id="rId8"/>
+    <sheet name="User Walltime CPU 2018-03-06" sheetId="4" r:id="rId9"/>
+    <sheet name="Org HighLevel CPU 2018-03-06" sheetId="7" r:id="rId10"/>
+    <sheet name="Org Breakdown CPU 2018-03-06" sheetId="5" r:id="rId11"/>
+    <sheet name="Largest Jobs CPU 2018-03-06" sheetId="6" r:id="rId12"/>
+    <sheet name="By Cores GPU 2018-03-06" sheetId="16" r:id="rId13"/>
+    <sheet name="Applications GPU 2018-03-06" sheetId="3" r:id="rId14"/>
+    <sheet name="User Walltime GPU 2018-03-06" sheetId="10" r:id="rId15"/>
+    <sheet name="Org HighLevel GPU 2018-03-06" sheetId="8" r:id="rId16"/>
+    <sheet name="Org Breakdown GPU 2018-03-06" sheetId="9" r:id="rId17"/>
+    <sheet name="Largest Jobs GPU 2018-03-06" sheetId="11" r:id="rId18"/>
+    <sheet name="Cumulative 2018-03" sheetId="29" r:id="rId19"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId20"/>
@@ -969,7 +969,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$B$1</c:f>
+              <c:f>'Cumulative 2018-03'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -980,10 +980,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$A$2:$A$22</c:f>
+              <c:f>'Cumulative 2018-03'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1046,16 +1046,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$B$2:$B$22</c:f>
+              <c:f>'Cumulative 2018-03'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1118,6 +1124,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>346769086.50111169</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>362932806.50527841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>376900638.57722199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1140,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$C$1</c:f>
+              <c:f>'Cumulative 2018-03'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1139,10 +1151,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$A$2:$A$22</c:f>
+              <c:f>'Cumulative 2018-03'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1205,16 +1217,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$C$2:$C$22</c:f>
+              <c:f>'Cumulative 2018-03'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1277,6 +1295,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38785999.413333327</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40272353.407222219</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41917944.731944397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,28 +1314,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144216064"/>
-        <c:axId val="144217600"/>
+        <c:axId val="112548864"/>
+        <c:axId val="112550656"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="144216064"/>
+        <c:axId val="112548864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144217600"/>
+        <c:crossAx val="112550656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="144217600"/>
+        <c:axId val="112550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144216064"/>
+        <c:crossAx val="112548864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1388,7 +1412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$H$1</c:f>
+              <c:f>'Cumulative 2018-03'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1399,10 +1423,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
+              <c:f>'Cumulative 2018-03'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1465,16 +1489,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$H$2:$H$22</c:f>
+              <c:f>'Cumulative 2018-03'!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1537,6 +1567,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>125954191.616667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132003352.55583367</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138146044.161111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,7 +1583,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$I$1</c:f>
+              <c:f>'Cumulative 2018-03'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1558,10 +1594,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
+              <c:f>'Cumulative 2018-03'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1624,16 +1660,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$I$2:$I$22</c:f>
+              <c:f>'Cumulative 2018-03'!$I$2:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1696,6 +1738,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>124731632.29944488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132017368.83972266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138120694.40111101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,7 +1754,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$J$1</c:f>
+              <c:f>'Cumulative 2018-03'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1717,10 +1765,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
+              <c:f>'Cumulative 2018-03'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1783,16 +1831,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$J$2:$J$22</c:f>
+              <c:f>'Cumulative 2018-03'!$J$2:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1855,6 +1909,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>107667639.84222256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111257785.60222256</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113915163.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,7 +1925,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$K$1</c:f>
+              <c:f>'Cumulative 2018-03'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1881,10 +1941,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
+              <c:f>'Cumulative 2018-03'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1947,16 +2007,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$K$2:$K$22</c:f>
+              <c:f>'Cumulative 2018-03'!$K$2:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2019,6 +2085,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>13105940.984722199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13219455.658055533</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13418010.044722199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,7 +2101,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-01'!$L$1</c:f>
+              <c:f>'Cumulative 2018-03'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2040,10 +2112,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$G$2:$G$22</c:f>
+              <c:f>'Cumulative 2018-03'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2106,16 +2178,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-01'!$L$2:$L$22</c:f>
+              <c:f>'Cumulative 2018-03'!$L$2:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2178,6 +2256,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>13668603.018331826</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14707197.25666517</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15218671.322222829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,28 +2275,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144149504"/>
-        <c:axId val="144155392"/>
+        <c:axId val="112627712"/>
+        <c:axId val="112629248"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="144149504"/>
+        <c:axId val="112627712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144155392"/>
+        <c:crossAx val="112629248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="144155392"/>
+        <c:axId val="112629248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144149504"/>
+        <c:crossAx val="112627712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2251,13 +2335,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2282,15 +2366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2318,25 +2402,25 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Queue First Job 2017-12"/>
-      <sheetName val="Project Usage 2017-12"/>
-      <sheetName val="Project Status 2017-12"/>
-      <sheetName val="Personal Status 2017-12"/>
-      <sheetName val="Storage By Org 2017-12"/>
-      <sheetName val="Active Users 2017-12"/>
-      <sheetName val="By Cores CPU 2017-12"/>
-      <sheetName val="Applications CPU 2017-12"/>
-      <sheetName val="User Walltime CPU 2017-12"/>
-      <sheetName val="Org HighLevel CPU 2017-12"/>
-      <sheetName val="Org Breakdown CPU 2017-12"/>
-      <sheetName val="Largest Jobs CPU 2017-12"/>
-      <sheetName val="By Cores GPU 2017-12"/>
-      <sheetName val="Applications GPU 2017-12"/>
-      <sheetName val="User Walltime GPU 2017-12"/>
-      <sheetName val="Org HighLevel GPU 2017-12"/>
-      <sheetName val="Org Breakdown GPU 2017-12"/>
-      <sheetName val="Largest Jobs GPU 2017-12"/>
-      <sheetName val="Cumulative 2017-12"/>
+      <sheetName val="Queue First Job 2018-02"/>
+      <sheetName val="Project Usage 2018-02"/>
+      <sheetName val="Project Status 2018-02"/>
+      <sheetName val="Personal Status 2018-02"/>
+      <sheetName val="Storage By Org 2018-02"/>
+      <sheetName val="Active Users 2018-02"/>
+      <sheetName val="By Cores CPU 2018-02"/>
+      <sheetName val="Applications CPU 2018-02"/>
+      <sheetName val="User Walltime CPU 2018-02"/>
+      <sheetName val="Org HighLevel CPU 2018-02"/>
+      <sheetName val="Org Breakdown CPU 2018-02"/>
+      <sheetName val="Largest Jobs CPU 2018-02"/>
+      <sheetName val="By Cores GPU 2018-02"/>
+      <sheetName val="Applications GPU 2018-02"/>
+      <sheetName val="User Walltime GPU 2018-02"/>
+      <sheetName val="Org HighLevel GPU 2018-02"/>
+      <sheetName val="Org Breakdown GPU 2018-02"/>
+      <sheetName val="Largest Jobs GPU 2018-02"/>
+      <sheetName val="Cumulative 2018-02"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2988,6 +3072,64 @@
           </cell>
           <cell r="L22">
             <v>13668603.018331826</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43131</v>
+          </cell>
+          <cell r="B23">
+            <v>362932806.50527841</v>
+          </cell>
+          <cell r="C23">
+            <v>40272353.407222219</v>
+          </cell>
+          <cell r="G23">
+            <v>43131</v>
+          </cell>
+          <cell r="H23">
+            <v>132003352.55583367</v>
+          </cell>
+          <cell r="I23">
+            <v>132017368.83972266</v>
+          </cell>
+          <cell r="J23">
+            <v>111257785.60222256</v>
+          </cell>
+          <cell r="K23">
+            <v>13219455.658055533</v>
+          </cell>
+          <cell r="L23">
+            <v>14707197.25666517</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43159</v>
+          </cell>
+          <cell r="B24">
+            <v>376900638.57722199</v>
+          </cell>
+          <cell r="C24">
+            <v>41917944.731944397</v>
+          </cell>
+          <cell r="G24">
+            <v>43159</v>
+          </cell>
+          <cell r="H24">
+            <v>138146044.161111</v>
+          </cell>
+          <cell r="I24">
+            <v>138120694.40111101</v>
+          </cell>
+          <cell r="J24">
+            <v>113915163.38</v>
+          </cell>
+          <cell r="K24">
+            <v>13418010.044722199</v>
+          </cell>
+          <cell r="L24">
+            <v>15218671.322222829</v>
           </cell>
         </row>
       </sheetData>
@@ -4223,7 +4365,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4951,20 +5093,82 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="G23" s="26"/>
+      <c r="A23" s="26">
+        <v>43131</v>
+      </c>
+      <c r="B23" s="1">
+        <v>362932806.50527841</v>
+      </c>
+      <c r="C23" s="1">
+        <v>40272353.407222219</v>
+      </c>
+      <c r="D23" s="1">
+        <v>403205159.91249961</v>
+      </c>
+      <c r="G23" s="26">
+        <v>43131</v>
+      </c>
+      <c r="H23" s="1">
+        <v>132003352.55583367</v>
+      </c>
+      <c r="I23" s="1">
+        <v>132017368.83972266</v>
+      </c>
+      <c r="J23" s="1">
+        <v>111257785.60222256</v>
+      </c>
+      <c r="K23" s="1">
+        <v>13219455.658055533</v>
+      </c>
+      <c r="L23" s="1">
+        <v>14707197.25666517</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="A24" s="26">
+        <v>43159</v>
+      </c>
+      <c r="B24" s="1">
+        <v>376900638.57722199</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41917944.731944397</v>
+      </c>
+      <c r="D24" s="1">
+        <v>418818583.30916703</v>
+      </c>
+      <c r="G24" s="26">
+        <v>43159</v>
+      </c>
+      <c r="H24" s="1">
+        <v>138146044.161111</v>
+      </c>
+      <c r="I24" s="1">
+        <v>138120694.40111101</v>
+      </c>
+      <c r="J24" s="1">
+        <v>113915163.38</v>
+      </c>
+      <c r="K24" s="1">
+        <v>13418010.044722199</v>
+      </c>
+      <c r="L24" s="1">
+        <v>15218671.322222829</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
       <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
       <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -4995,6 +5199,15 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -7,27 +7,27 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-03-06" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-04-01" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-04-01" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2018-04-01" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-04-01" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-04-01" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage By Org 2018-04-01" sheetId="19" r:id="rId7"/>
-    <sheet name="Active Users 2018-04-01" sheetId="18" r:id="rId8"/>
-    <sheet name="By Cores CPU 2018-04-01" sheetId="15" r:id="rId9"/>
-    <sheet name="Applications CPU 2018-04-01" sheetId="1" r:id="rId10"/>
-    <sheet name="User Walltime CPU 2018-04-01" sheetId="4" r:id="rId11"/>
-    <sheet name="Org HighLevel CPU 2018-04-01" sheetId="7" r:id="rId12"/>
-    <sheet name="Org Breakdown CPU 2018-04-01" sheetId="5" r:id="rId13"/>
-    <sheet name="Largest Jobs CPU 2018-04-01" sheetId="6" r:id="rId14"/>
-    <sheet name="By Cores GPU 2018-04-01" sheetId="16" r:id="rId15"/>
-    <sheet name="Applications GPU 2018-04-01" sheetId="3" r:id="rId16"/>
-    <sheet name="User Walltime GPU 2018-04-01" sheetId="10" r:id="rId17"/>
-    <sheet name="Org HighLevel GPU 2018-04-01" sheetId="8" r:id="rId18"/>
-    <sheet name="Org Breakdown GPU 2018-04-01" sheetId="9" r:id="rId19"/>
-    <sheet name="Largest Jobs GPU 2018-04-01" sheetId="11" r:id="rId20"/>
-    <sheet name="Cumulative 2018-04" sheetId="29" r:id="rId21"/>
+    <sheet name="Queue First Job 2018-05-01" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2018-05-01" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2018-05-01" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2018-05-01" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2018-05-01" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2018-05-01" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage By Org 2018-05-01" sheetId="19" r:id="rId7"/>
+    <sheet name="Active Users 2018-05-01" sheetId="18" r:id="rId8"/>
+    <sheet name="By Cores CPU 2018-05-01" sheetId="15" r:id="rId9"/>
+    <sheet name="Applications CPU 2018-05-01" sheetId="1" r:id="rId10"/>
+    <sheet name="User Walltime CPU 2018-05-01" sheetId="4" r:id="rId11"/>
+    <sheet name="Org HighLevel CPU 2018-05-01" sheetId="7" r:id="rId12"/>
+    <sheet name="Org Breakdown CPU 2018-05-01" sheetId="5" r:id="rId13"/>
+    <sheet name="Largest Jobs CPU 2018-05-01" sheetId="6" r:id="rId14"/>
+    <sheet name="By Cores GPU 2018-05-01" sheetId="16" r:id="rId15"/>
+    <sheet name="Applications GPU 2018-05-01" sheetId="3" r:id="rId16"/>
+    <sheet name="User Walltime GPU 2018-05-01" sheetId="10" r:id="rId17"/>
+    <sheet name="Org HighLevel GPU 2018-05-01" sheetId="8" r:id="rId18"/>
+    <sheet name="Org Breakdown GPU 2018-05-01" sheetId="9" r:id="rId19"/>
+    <sheet name="Largest Jobs GPU 2018-05-01" sheetId="11" r:id="rId20"/>
+    <sheet name="Cumulative 2018-05" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1010,7 +1010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$B$1</c:f>
+              <c:f>'Cumulative 2018-05'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,7 +1021,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$A$2:$A$26</c:f>
+              <c:f>'Cumulative 2018-05'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1094,12 +1094,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$B$2:$B$26</c:f>
+              <c:f>'Cumulative 2018-05'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1131,46 +1137,52 @@
                   <c:v>137922998.10805556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156262981.36555555</c:v>
+                  <c:v>157230950.66666701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174114339.18638885</c:v>
+                  <c:v>174764740.83388901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192592009.19805557</c:v>
+                  <c:v>192916055.90444401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>211568883.18305558</c:v>
+                  <c:v>211720916.744167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>226659790.61666819</c:v>
+                  <c:v>230919864.221111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>245881690.686946</c:v>
+                  <c:v>249005189.67611101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>263816022.00194401</c:v>
+                  <c:v>266936676.198333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>280450971.30000001</c:v>
+                  <c:v>283593104.57305598</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297279299.16250002</c:v>
+                  <c:v>300152017.509444</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>313422593.7475</c:v>
+                  <c:v>315965584.54722202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>331100858.15694499</c:v>
+                  <c:v>333997098.63277799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>346769086.50111169</c:v>
+                  <c:v>348846197.60861099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>362932806.50527841</c:v>
+                  <c:v>364624503.01027799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>376900638.57722199</c:v>
+                  <c:v>381574647.875278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398824226.78027803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416307445.14555597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,7 +1193,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$C$1</c:f>
+              <c:f>'Cumulative 2018-05'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1192,7 +1204,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$A$2:$A$26</c:f>
+              <c:f>'Cumulative 2018-05'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1265,12 +1277,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$C$2:$C$26</c:f>
+              <c:f>'Cumulative 2018-05'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1302,46 +1320,52 @@
                   <c:v>17511470.715555552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19717272.542222224</c:v>
+                  <c:v>19036381.719999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21764947.835555553</c:v>
+                  <c:v>20859964.006666701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23752267.388888884</c:v>
+                  <c:v>22772028.053333301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25778205.522222213</c:v>
+                  <c:v>24724853.393333301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26610563.646666702</c:v>
+                  <c:v>26808345.413333301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28704362.3866667</c:v>
+                  <c:v>28703917.5666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30758876.0466667</c:v>
+                  <c:v>30758431.2266667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32596395</c:v>
+                  <c:v>32609443.153333299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34193265.740000002</c:v>
+                  <c:v>34178264.460000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35749341.660000004</c:v>
+                  <c:v>35718879.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37371548.899999999</c:v>
+                  <c:v>37371036.293333299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38785999.413333327</c:v>
+                  <c:v>38729788.68</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40272353.407222219</c:v>
+                  <c:v>40145114.227222197</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>41917944.731944397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43499917.205277801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45446290.738611102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,11 +1379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113054848"/>
-        <c:axId val="113056384"/>
+        <c:axId val="86480000"/>
+        <c:axId val="86481536"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="113054848"/>
+        <c:axId val="86480000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,14 +1393,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113056384"/>
+        <c:crossAx val="86481536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113056384"/>
+        <c:axId val="86481536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113054848"/>
+        <c:crossAx val="86480000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1453,18 +1477,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$H$1</c:f>
+              <c:f>'Cumulative 2018-05'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NUS</c:v>
+                  <c:v>A*STAR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1537,12 +1561,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$H$2:$H$26</c:f>
+              <c:f>'Cumulative 2018-05'!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1550,70 +1580,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12013985.7005556</c:v>
+                  <c:v>23684370.820555601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12117030.835000044</c:v>
+                  <c:v>25114494.81444449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17592846.070277825</c:v>
+                  <c:v>34275807.027222268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24181683.087500043</c:v>
+                  <c:v>41874775.00250005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28231926.511388935</c:v>
+                  <c:v>45743559.290000051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34904363.028333388</c:v>
+                  <c:v>49915318.677222274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40616298.492777824</c:v>
+                  <c:v>56129899.423611164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48041206.091111153</c:v>
+                  <c:v>60554829.003055602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56812092.011388935</c:v>
+                  <c:v>67549377.876944393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63683853.709444493</c:v>
+                  <c:v>71947097.201944396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69507614.865833387</c:v>
+                  <c:v>76357104.516388893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75992999.807222307</c:v>
+                  <c:v>81375155.1875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81687050.070277631</c:v>
+                  <c:v>86161436.9491667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87960766.501944304</c:v>
+                  <c:v>91275614.107777804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94531556.233888805</c:v>
+                  <c:v>97287676.206944406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100828025.17777769</c:v>
+                  <c:v>103347500.76222201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>107408326.50111103</c:v>
+                  <c:v>109591660.463889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114217490.28194436</c:v>
+                  <c:v>114790148.4025</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119955403.646667</c:v>
+                  <c:v>121782633.35111099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>125954191.616667</c:v>
+                  <c:v>127386474.815833</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132003352.55583367</c:v>
+                  <c:v>134477576.67833301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>138146044.161111</c:v>
+                  <c:v>142794104.42583299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150222427.68472201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157273143.93583301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,18 +1660,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$I$1</c:f>
+              <c:f>'Cumulative 2018-05'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A*STAR</c:v>
+                  <c:v>NUS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1708,12 +1744,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$I$2:$I$26</c:f>
+              <c:f>'Cumulative 2018-05'!$I$2:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1721,70 +1763,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23684370.820555601</c:v>
+                  <c:v>12013985.7005556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25114494.81444449</c:v>
+                  <c:v>12117030.835000044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34275807.027222268</c:v>
+                  <c:v>17592846.070277825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41874775.00250005</c:v>
+                  <c:v>24181683.087500043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45743559.290000051</c:v>
+                  <c:v>28231926.511388935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49915318.677222274</c:v>
+                  <c:v>34904363.028333388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56129899.423611164</c:v>
+                  <c:v>40616298.492777824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60554829.003055602</c:v>
+                  <c:v>48041206.091111153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66247671.173611164</c:v>
+                  <c:v>55768722.152777798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70614611.267500058</c:v>
+                  <c:v>62004571.033611096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74901323.018888935</c:v>
+                  <c:v>67740808.998611093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79776601.656666711</c:v>
+                  <c:v>74111826.151944295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83518589.493611202</c:v>
+                  <c:v>80462450.331666604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88154913.305000097</c:v>
+                  <c:v>87141287.7444444</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94166930.472499996</c:v>
+                  <c:v>94531390.963055506</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100209070.955</c:v>
+                  <c:v>100799107.66722199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>106591358.48472221</c:v>
+                  <c:v>107399896.805555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>111872456.89833333</c:v>
+                  <c:v>113964339.644722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118886368.058056</c:v>
+                  <c:v>119955238.375833</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>124731632.29944488</c:v>
+                  <c:v>125851241.096111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132017368.83972266</c:v>
+                  <c:v>131696426.081389</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>138120694.40111101</c:v>
+                  <c:v>138146044.161111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145921210.45444399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153957364.223611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,7 +1843,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$J$1</c:f>
+              <c:f>'Cumulative 2018-05'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1806,7 +1854,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1879,12 +1927,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$J$2:$J$26</c:f>
+              <c:f>'Cumulative 2018-05'!$J$2:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1916,46 +1970,52 @@
                   <c:v>34937705.823333338</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40292729.719166666</c:v>
+                  <c:v>39697985.619166702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48397740.013055556</c:v>
+                  <c:v>47850468.612222202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57636326.165555552</c:v>
+                  <c:v>56683705.698611103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65927763.532499999</c:v>
+                  <c:v>64764006.681111097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72051418.945833415</c:v>
+                  <c:v>74105917.465833396</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81626418.667222306</c:v>
+                  <c:v>81629134.457777798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87135611.386389002</c:v>
+                  <c:v>87135446.443611205</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91559747.163333446</c:v>
+                  <c:v>91598582.373611197</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94860394.774166778</c:v>
+                  <c:v>94740092.928055599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99321493.94416678</c:v>
+                  <c:v>99203029.090833396</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103673521.449167</c:v>
+                  <c:v>103673356.33499999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107667639.84222256</c:v>
+                  <c:v>107563684.542778</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111257785.60222256</c:v>
+                  <c:v>111098146.941945</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>113915163.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116192065.97972199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118968182.76444501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,7 +2026,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$K$1</c:f>
+              <c:f>'Cumulative 2018-05'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1982,7 +2042,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2055,12 +2115,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$K$2:$K$26</c:f>
+              <c:f>'Cumulative 2018-05'!$K$2:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2092,46 +2158,52 @@
                   <c:v>7782450.9227777803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7895666.0694444478</c:v>
+                  <c:v>7789645.5427777804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8005647.182777781</c:v>
+                  <c:v>7905387.9894444402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8300878.7127777813</c:v>
+                  <c:v>8194858.1861111103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8597754.3050000034</c:v>
+                  <c:v>8472312.8783333302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8837448.7316666711</c:v>
+                  <c:v>8699092.5716666691</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8502304.8916666619</c:v>
+                  <c:v>8741999.3183333296</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9206129.6316666696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9752514.411666669</c:v>
+                  <c:v>9752514.4116666708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10778998.817499999</c:v>
+                  <c:v>10793443.284166699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11059281.107222222</c:v>
+                  <c:v>11056978.467222201</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12288510.884722199</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13105940.984722199</c:v>
+                  <c:v>12709121.3647222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13219455.658055533</c:v>
+                  <c:v>12822636.038055601</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13418010.044722199</c:v>
+                  <c:v>13019589.838055599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13232770.5391667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13427362.826388899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,7 +2214,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-04'!$L$1</c:f>
+              <c:f>'Cumulative 2018-05'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2153,7 +2225,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2226,12 +2298,18 @@
                 <c:pt idx="22">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-04'!$L$2:$L$26</c:f>
+              <c:f>'Cumulative 2018-05'!$L$2:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2257,52 +2335,58 @@
                   <c:v>3516300.204722032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3282949.8524998575</c:v>
+                  <c:v>3847813.0769443065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3553413.7588888109</c:v>
+                  <c:v>4118276.9833332598</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4167231.7097221613</c:v>
+                  <c:v>5461601.1950000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4612571.6247220635</c:v>
+                  <c:v>5917180.0033299997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5433270.5994443297</c:v>
+                  <c:v>6711606.5580599997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6487106.1794442721</c:v>
+                  <c:v>7722469.2386100003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7175847.0219452381</c:v>
+                  <c:v>8299312.31611</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8341649.7077786326</c:v>
+                  <c:v>8921071.6144399997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9534670.3241665363</c:v>
+                  <c:v>9534464.1797199994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10698008.565555394</c:v>
+                  <c:v>10704842.511670001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11833486.325000048</c:v>
+                  <c:v>11805188.487779999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12701213.175833344</c:v>
+                  <c:v>12669968.261940001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13668603.018331826</c:v>
+                  <c:v>13668395.97944</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13668603.018331826</c:v>
+                  <c:v>14065464.46917</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14707197.25666517</c:v>
+                  <c:v>14674831.497780001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15218671.322222829</c:v>
+                  <c:v>15617690.80222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16755669.327500001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18127682.133889999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,11 +2400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113100288"/>
-        <c:axId val="113101824"/>
+        <c:axId val="90253184"/>
+        <c:axId val="90254720"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="113100288"/>
+        <c:axId val="90253184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,14 +2414,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113101824"/>
+        <c:crossAx val="90254720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113101824"/>
+        <c:axId val="90254720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,7 +2432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113100288"/>
+        <c:crossAx val="90253184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2375,15 +2459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2407,15 +2491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3889,7 +3973,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3905,9 +3989,10 @@
     <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
@@ -3924,10 +4009,10 @@
         <v>46</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>15</v>
@@ -3939,7 +4024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>42457</v>
       </c>
@@ -3952,6 +4037,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="G2" s="26">
         <v>42457</v>
       </c>
@@ -3971,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>42538</v>
       </c>
@@ -3988,10 +4074,10 @@
         <v>42538</v>
       </c>
       <c r="H3" s="1">
+        <v>23684370.820555601</v>
+      </c>
+      <c r="I3" s="1">
         <v>12013985.7005556</v>
-      </c>
-      <c r="I3" s="1">
-        <v>23684370.820555601</v>
       </c>
       <c r="J3" s="1">
         <v>7310391.2061111098</v>
@@ -4002,8 +4088,9 @@
       <c r="L3" s="1">
         <v>818279.63805548102</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>42551</v>
       </c>
@@ -4020,10 +4107,10 @@
         <v>42551</v>
       </c>
       <c r="H4" s="1">
+        <v>25114494.81444449</v>
+      </c>
+      <c r="I4" s="1">
         <v>12117030.835000044</v>
-      </c>
-      <c r="I4" s="1">
-        <v>25114494.81444449</v>
       </c>
       <c r="J4" s="1">
         <v>7746515.088333332</v>
@@ -4034,8 +4121,9 @@
       <c r="L4" s="1">
         <v>899732.49555549026</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>42582</v>
       </c>
@@ -4052,10 +4140,10 @@
         <v>42582</v>
       </c>
       <c r="H5" s="1">
+        <v>34275807.027222268</v>
+      </c>
+      <c r="I5" s="1">
         <v>17592846.070277825</v>
-      </c>
-      <c r="I5" s="1">
-        <v>34275807.027222268</v>
       </c>
       <c r="J5" s="1">
         <v>12743684.413611112</v>
@@ -4066,8 +4154,9 @@
       <c r="L5" s="1">
         <v>1027361.7627776936</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>42613</v>
       </c>
@@ -4084,10 +4173,10 @@
         <v>42613</v>
       </c>
       <c r="H6" s="1">
+        <v>41874775.00250005</v>
+      </c>
+      <c r="I6" s="1">
         <v>24181683.087500043</v>
-      </c>
-      <c r="I6" s="1">
-        <v>41874775.00250005</v>
       </c>
       <c r="J6" s="1">
         <v>18131719.079166673</v>
@@ -4098,8 +4187,9 @@
       <c r="L6" s="1">
         <v>1178278.9980554283</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>42643</v>
       </c>
@@ -4116,10 +4206,10 @@
         <v>42643</v>
       </c>
       <c r="H7" s="1">
+        <v>45743559.290000051</v>
+      </c>
+      <c r="I7" s="1">
         <v>28231926.511388935</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45743559.290000051</v>
       </c>
       <c r="J7" s="1">
         <v>20946688.638888892</v>
@@ -4130,8 +4220,9 @@
       <c r="L7" s="1">
         <v>3185101.9505554289</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>42674</v>
       </c>
@@ -4148,10 +4239,10 @@
         <v>42674</v>
       </c>
       <c r="H8" s="1">
+        <v>49915318.677222274</v>
+      </c>
+      <c r="I8" s="1">
         <v>34904363.028333388</v>
-      </c>
-      <c r="I8" s="1">
-        <v>49915318.677222274</v>
       </c>
       <c r="J8" s="1">
         <v>24377322.916666672</v>
@@ -4162,8 +4253,9 @@
       <c r="L8" s="1">
         <v>3516300.204722032</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>42704</v>
       </c>
@@ -4180,10 +4272,10 @@
         <v>42704</v>
       </c>
       <c r="H9" s="1">
+        <v>56129899.423611164</v>
+      </c>
+      <c r="I9" s="1">
         <v>40616298.492777824</v>
-      </c>
-      <c r="I9" s="1">
-        <v>56129899.423611164</v>
       </c>
       <c r="J9" s="1">
         <v>29517978.718888894</v>
@@ -4192,10 +4284,11 @@
         <v>7307236.9716666695</v>
       </c>
       <c r="L9" s="1">
-        <v>3282949.8524998575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3847813.0769443065</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>42735</v>
       </c>
@@ -4212,10 +4305,10 @@
         <v>42735</v>
       </c>
       <c r="H10" s="1">
+        <v>60554829.003055602</v>
+      </c>
+      <c r="I10" s="1">
         <v>48041206.091111153</v>
-      </c>
-      <c r="I10" s="1">
-        <v>60554829.003055602</v>
       </c>
       <c r="J10" s="1">
         <v>34937705.823333338</v>
@@ -4224,492 +4317,559 @@
         <v>7782450.9227777803</v>
       </c>
       <c r="L10" s="1">
-        <v>3553413.7588888109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4118276.9833332598</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>42766</v>
       </c>
       <c r="B11" s="1">
-        <v>156262981.36555555</v>
+        <v>157230950.66666701</v>
       </c>
       <c r="C11" s="1">
-        <v>19717272.542222224</v>
+        <v>19036381.719999999</v>
       </c>
       <c r="D11" s="1">
-        <v>175980253.90777782</v>
+        <v>176267332.38666701</v>
       </c>
       <c r="G11" s="26">
         <v>42766</v>
       </c>
       <c r="H11" s="1">
-        <v>56812092.011388935</v>
+        <v>67549377.876944393</v>
       </c>
       <c r="I11" s="1">
-        <v>66247671.173611164</v>
+        <v>55768722.152777798</v>
       </c>
       <c r="J11" s="1">
-        <v>40292729.719166666</v>
+        <v>39697985.619166702</v>
       </c>
       <c r="K11" s="1">
-        <v>7895666.0694444478</v>
+        <v>7789645.5427777804</v>
       </c>
       <c r="L11" s="1">
-        <v>4167231.7097221613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5461601.1950000003</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>42794</v>
       </c>
       <c r="B12" s="1">
-        <v>174114339.18638885</v>
+        <v>174764740.83388901</v>
       </c>
       <c r="C12" s="1">
-        <v>21764947.835555553</v>
+        <v>20859964.006666701</v>
       </c>
       <c r="D12" s="1">
-        <v>195879287.0219444</v>
+        <v>195624704.840556</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="26">
         <v>42794</v>
       </c>
       <c r="H12" s="1">
-        <v>63683853.709444493</v>
+        <v>71947097.201944396</v>
       </c>
       <c r="I12" s="1">
-        <v>70614611.267500058</v>
+        <v>62004571.033611096</v>
       </c>
       <c r="J12" s="1">
-        <v>48397740.013055556</v>
+        <v>47850468.612222202</v>
       </c>
       <c r="K12" s="1">
-        <v>8005647.182777781</v>
+        <v>7905387.9894444402</v>
       </c>
       <c r="L12" s="1">
-        <v>4612571.6247220635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5917180.0033299997</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>42825</v>
       </c>
       <c r="B13" s="1">
-        <v>192592009.19805557</v>
+        <v>192916055.90444401</v>
       </c>
       <c r="C13" s="1">
-        <v>23752267.388888884</v>
+        <v>22772028.053333301</v>
       </c>
       <c r="D13" s="1">
-        <v>216344276.58694443</v>
+        <v>215688083.95777801</v>
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="26">
         <v>42825</v>
       </c>
       <c r="H13" s="1">
-        <v>69507614.865833387</v>
+        <v>76357104.516388893</v>
       </c>
       <c r="I13" s="1">
-        <v>74901323.018888935</v>
+        <v>67740808.998611093</v>
       </c>
       <c r="J13" s="1">
-        <v>57636326.165555552</v>
+        <v>56683705.698611103</v>
       </c>
       <c r="K13" s="1">
-        <v>8300878.7127777813</v>
+        <v>8194858.1861111103</v>
       </c>
       <c r="L13" s="1">
-        <v>5433270.5994443297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6711606.5580599997</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>42855</v>
       </c>
       <c r="B14" s="1">
-        <v>211568883.18305558</v>
+        <v>211720916.744167</v>
       </c>
       <c r="C14" s="1">
-        <v>25778205.522222213</v>
+        <v>24724853.393333301</v>
       </c>
       <c r="D14" s="1">
-        <v>237347088.70527774</v>
+        <v>236445770.13749999</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="26">
         <v>42855</v>
       </c>
       <c r="H14" s="1">
-        <v>75992999.807222307</v>
+        <v>81375155.1875</v>
       </c>
       <c r="I14" s="1">
-        <v>79776601.656666711</v>
+        <v>74111826.151944295</v>
       </c>
       <c r="J14" s="1">
-        <v>65927763.532499999</v>
+        <v>64764006.681111097</v>
       </c>
       <c r="K14" s="1">
-        <v>8597754.3050000034</v>
+        <v>8472312.8783333302</v>
       </c>
       <c r="L14" s="1">
-        <v>6487106.1794442721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7722469.2386100003</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>42886</v>
       </c>
       <c r="B15" s="1">
-        <v>226659790.61666819</v>
+        <v>230919864.221111</v>
       </c>
       <c r="C15" s="1">
-        <v>26610563.646666702</v>
+        <v>26808345.413333301</v>
       </c>
       <c r="D15" s="1">
-        <v>253270354.26333418</v>
+        <v>257728209.634444</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="26">
         <v>42886</v>
       </c>
       <c r="H15" s="1">
-        <v>81687050.070277631</v>
+        <v>86161436.9491667</v>
       </c>
       <c r="I15" s="1">
-        <v>83518589.493611202</v>
+        <v>80462450.331666604</v>
       </c>
       <c r="J15" s="1">
-        <v>72051418.945833415</v>
+        <v>74105917.465833396</v>
       </c>
       <c r="K15" s="1">
-        <v>8837448.7316666711</v>
+        <v>8699092.5716666691</v>
       </c>
       <c r="L15" s="1">
-        <v>7175847.0219452381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8299312.31611</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42916</v>
       </c>
       <c r="B16" s="1">
-        <v>245881690.686946</v>
+        <v>249005189.67611101</v>
       </c>
       <c r="C16" s="1">
-        <v>28704362.3866667</v>
+        <v>28703917.5666667</v>
       </c>
       <c r="D16" s="1">
-        <v>274586053.07361197</v>
+        <v>277709107.242778</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="26">
         <v>42916</v>
       </c>
       <c r="H16" s="1">
-        <v>87960766.501944304</v>
+        <v>91275614.107777804</v>
       </c>
       <c r="I16" s="1">
-        <v>88154913.305000097</v>
+        <v>87141287.7444444</v>
       </c>
       <c r="J16" s="1">
-        <v>81626418.667222306</v>
+        <v>81629134.457777798</v>
       </c>
       <c r="K16" s="1">
-        <v>8502304.8916666619</v>
+        <v>8741999.3183333296</v>
       </c>
       <c r="L16" s="1">
-        <v>8341649.7077786326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8921071.6144399997</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42947</v>
       </c>
       <c r="B17" s="1">
-        <v>263816022.00194401</v>
+        <v>266936676.198333</v>
       </c>
       <c r="C17" s="1">
-        <v>30758876.0466667</v>
+        <v>30758431.2266667</v>
       </c>
       <c r="D17" s="1">
-        <v>294574898.04861099</v>
+        <v>297695107.42500001</v>
       </c>
       <c r="G17" s="26">
         <v>42947</v>
       </c>
       <c r="H17" s="1">
-        <v>94531556.233888805</v>
+        <v>97287676.206944406</v>
       </c>
       <c r="I17" s="1">
-        <v>94166930.472499996</v>
+        <v>94531390.963055506</v>
       </c>
       <c r="J17" s="1">
-        <v>87135611.386389002</v>
+        <v>87135446.443611205</v>
       </c>
       <c r="K17" s="1">
         <v>9206129.6316666696</v>
       </c>
       <c r="L17" s="1">
-        <v>9534670.3241665363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9534464.1797199994</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42978</v>
       </c>
       <c r="B18" s="1">
-        <v>280450971.30000001</v>
+        <v>283593104.57305598</v>
       </c>
       <c r="C18" s="1">
-        <v>32596395</v>
+        <v>32609443.153333299</v>
       </c>
       <c r="D18" s="1">
-        <v>313047366.30000001</v>
+        <v>316202547.72638899</v>
       </c>
       <c r="G18" s="26">
         <v>42978</v>
       </c>
       <c r="H18" s="1">
-        <v>100828025.17777769</v>
+        <v>103347500.76222201</v>
       </c>
       <c r="I18" s="1">
-        <v>100209070.955</v>
+        <v>100799107.66722199</v>
       </c>
       <c r="J18" s="1">
-        <v>91559747.163333446</v>
+        <v>91598582.373611197</v>
       </c>
       <c r="K18" s="1">
-        <v>9752514.411666669</v>
+        <v>9752514.4116666708</v>
       </c>
       <c r="L18" s="1">
-        <v>10698008.565555394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10704842.511670001</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>43008</v>
       </c>
       <c r="B19" s="1">
-        <v>297279299.16250002</v>
+        <v>300152017.509444</v>
       </c>
       <c r="C19" s="1">
-        <v>34193265.740000002</v>
+        <v>34178264.460000001</v>
       </c>
       <c r="D19" s="1">
-        <v>331472564.90250003</v>
+        <v>334330281.96944398</v>
       </c>
       <c r="G19" s="26">
         <v>43008</v>
       </c>
       <c r="H19" s="1">
-        <v>107408326.50111103</v>
+        <v>109591660.463889</v>
       </c>
       <c r="I19" s="1">
-        <v>106591358.48472221</v>
+        <v>107399896.805555</v>
       </c>
       <c r="J19" s="1">
-        <v>94860394.774166778</v>
+        <v>94740092.928055599</v>
       </c>
       <c r="K19" s="1">
-        <v>10778998.817499999</v>
+        <v>10793443.284166699</v>
       </c>
       <c r="L19" s="1">
-        <v>11833486.325000048</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11805188.487779999</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>43039</v>
       </c>
       <c r="B20" s="1">
-        <v>313422593.7475</v>
+        <v>315965584.54722202</v>
       </c>
       <c r="C20" s="1">
-        <v>35749341.660000004</v>
+        <v>35718879.32</v>
       </c>
       <c r="D20" s="1">
-        <v>349171935.40750003</v>
+        <v>351684463.86722201</v>
       </c>
       <c r="G20" s="26">
         <v>43039</v>
       </c>
       <c r="H20" s="1">
-        <v>114217490.28194436</v>
+        <v>114790148.4025</v>
       </c>
       <c r="I20" s="1">
-        <v>111872456.89833333</v>
+        <v>113964339.644722</v>
       </c>
       <c r="J20" s="1">
-        <v>99321493.94416678</v>
+        <v>99203029.090833396</v>
       </c>
       <c r="K20" s="1">
-        <v>11059281.107222222</v>
+        <v>11056978.467222201</v>
       </c>
       <c r="L20" s="1">
-        <v>12701213.175833344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12669968.261940001</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>43069</v>
       </c>
       <c r="B21" s="1">
-        <v>331100858.15694499</v>
+        <v>333997098.63277799</v>
       </c>
       <c r="C21" s="1">
-        <v>37371548.899999999</v>
+        <v>37371036.293333299</v>
       </c>
       <c r="D21" s="1">
-        <v>368472407.05694401</v>
+        <v>371368134.92611098</v>
       </c>
       <c r="G21" s="26">
         <v>43069</v>
       </c>
       <c r="H21" s="1">
-        <v>119955403.646667</v>
+        <v>121782633.35111099</v>
       </c>
       <c r="I21" s="1">
-        <v>118886368.058056</v>
+        <v>119955238.375833</v>
       </c>
       <c r="J21" s="1">
-        <v>103673521.449167</v>
+        <v>103673356.33499999</v>
       </c>
       <c r="K21" s="1">
         <v>12288510.884722199</v>
       </c>
       <c r="L21" s="1">
-        <v>13668603.018331826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13668395.97944</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>43100</v>
       </c>
       <c r="B22" s="1">
-        <v>346769086.50111169</v>
+        <v>348846197.60861099</v>
       </c>
       <c r="C22" s="1">
-        <v>38785999.413333327</v>
+        <v>38729788.68</v>
       </c>
       <c r="D22" s="1">
-        <v>385555085.91444403</v>
+        <v>387575986.28861099</v>
       </c>
       <c r="G22" s="26">
         <v>43100</v>
       </c>
       <c r="H22" s="1">
-        <v>125954191.616667</v>
+        <v>127386474.815833</v>
       </c>
       <c r="I22" s="1">
-        <v>124731632.29944488</v>
+        <v>125851241.096111</v>
       </c>
       <c r="J22" s="1">
-        <v>107667639.84222256</v>
+        <v>107563684.542778</v>
       </c>
       <c r="K22" s="1">
-        <v>13105940.984722199</v>
+        <v>12709121.3647222</v>
       </c>
       <c r="L22" s="1">
-        <v>13668603.018331826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14065464.46917</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>43131</v>
       </c>
       <c r="B23" s="1">
-        <v>362932806.50527841</v>
+        <v>364624503.01027799</v>
       </c>
       <c r="C23" s="1">
-        <v>40272353.407222219</v>
+        <v>40145114.227222197</v>
       </c>
       <c r="D23" s="1">
-        <v>403205159.91249961</v>
+        <v>404769617.23750001</v>
       </c>
       <c r="G23" s="26">
         <v>43131</v>
       </c>
       <c r="H23" s="1">
-        <v>132003352.55583367</v>
+        <v>134477576.67833301</v>
       </c>
       <c r="I23" s="1">
-        <v>132017368.83972266</v>
+        <v>131696426.081389</v>
       </c>
       <c r="J23" s="1">
-        <v>111257785.60222256</v>
+        <v>111098146.941945</v>
       </c>
       <c r="K23" s="1">
-        <v>13219455.658055533</v>
+        <v>12822636.038055601</v>
       </c>
       <c r="L23" s="1">
-        <v>14707197.25666517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14674831.497780001</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>43159</v>
       </c>
       <c r="B24" s="1">
-        <v>376900638.57722199</v>
+        <v>381574647.875278</v>
       </c>
       <c r="C24" s="1">
         <v>41917944.731944397</v>
       </c>
       <c r="D24" s="1">
-        <v>418818583.30916703</v>
+        <v>423492592.60722202</v>
       </c>
       <c r="G24" s="26">
         <v>43159</v>
       </c>
       <c r="H24" s="1">
+        <v>142794104.42583299</v>
+      </c>
+      <c r="I24" s="1">
         <v>138146044.161111</v>
-      </c>
-      <c r="I24" s="1">
-        <v>138120694.40111101</v>
       </c>
       <c r="J24" s="1">
         <v>113915163.38</v>
       </c>
       <c r="K24" s="1">
-        <v>13418010.044722199</v>
+        <v>13019589.838055599</v>
       </c>
       <c r="L24" s="1">
-        <v>15218671.322222829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15617690.80222</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>43190</v>
+      </c>
+      <c r="B25" s="1">
+        <v>398824226.78027803</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43499917.205277801</v>
+      </c>
+      <c r="D25" s="1">
+        <v>442324143.98555601</v>
+      </c>
+      <c r="G25" s="26">
+        <v>43190</v>
+      </c>
+      <c r="H25" s="1">
+        <v>150222427.68472201</v>
+      </c>
+      <c r="I25" s="1">
+        <v>145921210.45444399</v>
+      </c>
+      <c r="J25" s="1">
+        <v>116192065.97972199</v>
+      </c>
+      <c r="K25" s="1">
+        <v>13232770.5391667</v>
+      </c>
+      <c r="L25" s="1">
+        <v>16755669.327500001</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>43220</v>
+      </c>
+      <c r="B26" s="1">
+        <v>416307445.14555597</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45446290.738611102</v>
+      </c>
+      <c r="D26" s="1">
+        <v>461753735.88416702</v>
+      </c>
+      <c r="G26" s="26">
+        <v>43220</v>
+      </c>
+      <c r="H26" s="1">
+        <v>157273143.93583301</v>
+      </c>
+      <c r="I26" s="1">
+        <v>153957364.223611</v>
+      </c>
+      <c r="J26" s="1">
+        <v>118968182.76444501</v>
+      </c>
+      <c r="K26" s="1">
+        <v>13427362.826388899</v>
+      </c>
+      <c r="L26" s="1">
+        <v>18127682.133889999</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Queue First Job 2018-05-01" sheetId="26" r:id="rId1"/>
@@ -1113,28 +1113,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40330490.090555601</c:v>
+                  <c:v>41515601.188611098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42272318.338611163</c:v>
+                  <c:v>43498600.438611098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61272817.936388962</c:v>
+                  <c:v>62390934.264722198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80419405.701388955</c:v>
+                  <c:v>81475607.481944397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91797570.830833361</c:v>
+                  <c:v>92635599.422777802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105082245.94444446</c:v>
+                  <c:v>106419986.16944399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121867569.14833337</c:v>
+                  <c:v>122841353.38249999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137922998.10805556</c:v>
+                  <c:v>138637852.47166699</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>157230950.66666701</c:v>
@@ -1296,28 +1296,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5033947.3422222203</c:v>
+                  <c:v>4660208.0666666701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5180112.3222222207</c:v>
+                  <c:v>4805520.4666666696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6788200.1555555509</c:v>
+                  <c:v>6358490.3399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8659560.7688888814</c:v>
+                  <c:v>8241452.8133333297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11262494.555555552</c:v>
+                  <c:v>10736001.206666701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13249154.188888881</c:v>
+                  <c:v>12901314.813333301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15551657.535555551</c:v>
+                  <c:v>15094269.893333299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17511470.715555552</c:v>
+                  <c:v>16949466.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19036381.719999999</c:v>
@@ -1379,11 +1379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86480000"/>
-        <c:axId val="86481536"/>
+        <c:axId val="113592576"/>
+        <c:axId val="113606656"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="86480000"/>
+        <c:axId val="113592576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,14 +1393,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86481536"/>
+        <c:crossAx val="113606656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86481536"/>
+        <c:axId val="113606656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86480000"/>
+        <c:crossAx val="113592576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,28 +1580,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23684370.820555601</c:v>
+                  <c:v>24562569.515277799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25114494.81444449</c:v>
+                  <c:v>26033013.509166699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34275807.027222268</c:v>
+                  <c:v>35247387.720833302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41874775.00250005</c:v>
+                  <c:v>42825018.751111098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45743559.290000051</c:v>
+                  <c:v>46666274.1297222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49915318.677222274</c:v>
+                  <c:v>51249853.161666699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56129899.423611164</c:v>
+                  <c:v>57154144.860277802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60554829.003055602</c:v>
+                  <c:v>61703314.560555503</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>67549377.876944393</c:v>
@@ -1763,28 +1763,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12013985.7005556</c:v>
+                  <c:v>11228948.621111101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12117030.835000044</c:v>
+                  <c:v>11331993.7555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17592846.070277825</c:v>
+                  <c:v>16744875.6163889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24181683.087500043</c:v>
+                  <c:v>23370843.7341667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28231926.511388935</c:v>
+                  <c:v>27266987.3172222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34904363.028333388</c:v>
+                  <c:v>34068271.007222198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40616298.492777824</c:v>
+                  <c:v>39740736.366388902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48041206.091111153</c:v>
+                  <c:v>46925795.598611102</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>55768722.152777798</c:v>
@@ -1946,28 +1946,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7310391.2061111098</c:v>
+                  <c:v>7310084.4550000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7746515.088333332</c:v>
+                  <c:v>7746208.3372222204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12743684.413611112</c:v>
+                  <c:v>12579036.4344444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18131719.079166673</c:v>
+                  <c:v>17946711.326388899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20946688.638888892</c:v>
+                  <c:v>20640594.2938889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24377322.916666672</c:v>
+                  <c:v>24174804.7658333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29517978.718888894</c:v>
+                  <c:v>29212454.633055601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34937705.823333338</c:v>
+                  <c:v>34400492.978888899</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>39697985.619166702</c:v>
@@ -2140,22 +2140,22 @@
                   <c:v>1574657.4275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2421318.8180555562</c:v>
+                  <c:v>2415334.6847222201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3712510.3030555565</c:v>
+                  <c:v>3662462.9030555598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4952788.9955555564</c:v>
+                  <c:v>4880822.5555555597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5618095.3063888894</c:v>
+                  <c:v>5552614.5863888897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7307236.9716666695</c:v>
+                  <c:v>7232936.4583333302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7782450.9227777803</c:v>
+                  <c:v>7695489.9961111099</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7789645.5427777804</c:v>
@@ -2317,28 +2317,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>818279.63805548102</c:v>
+                  <c:v>1536796.5963900001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>899732.49555549026</c:v>
+                  <c:v>1618247.87583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1027361.7627776936</c:v>
+                  <c:v>1762790.14833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1178278.9980554283</c:v>
+                  <c:v>1912023.5805599999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3185101.9505554289</c:v>
+                  <c:v>3916922.3330600001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3516300.204722032</c:v>
+                  <c:v>4275757.4616700001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3847813.0769443065</c:v>
+                  <c:v>4595350.9577799998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4118276.9833332598</c:v>
+                  <c:v>4862225.8375000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5461601.1950000003</c:v>
@@ -2400,11 +2400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90253184"/>
-        <c:axId val="90254720"/>
+        <c:axId val="114104960"/>
+        <c:axId val="114106752"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="90253184"/>
+        <c:axId val="114104960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,14 +2414,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90254720"/>
+        <c:crossAx val="114106752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90254720"/>
+        <c:axId val="114106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90253184"/>
+        <c:crossAx val="114104960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2812,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3975,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4062,31 +4062,31 @@
         <v>42538</v>
       </c>
       <c r="B3" s="1">
-        <v>40330490.090555601</v>
+        <v>41515601.188611098</v>
       </c>
       <c r="C3" s="1">
-        <v>5033947.3422222203</v>
+        <v>4660208.0666666701</v>
       </c>
       <c r="D3" s="1">
-        <v>45364437.4327778</v>
+        <v>46175809.255277798</v>
       </c>
       <c r="G3" s="26">
         <v>42538</v>
       </c>
       <c r="H3" s="1">
-        <v>23684370.820555601</v>
+        <v>24562569.515277799</v>
       </c>
       <c r="I3" s="1">
-        <v>12013985.7005556</v>
+        <v>11228948.621111101</v>
       </c>
       <c r="J3" s="1">
-        <v>7310391.2061111098</v>
+        <v>7310084.4550000001</v>
       </c>
       <c r="K3" s="1">
         <v>1537410.0674999999</v>
       </c>
       <c r="L3" s="1">
-        <v>818279.63805548102</v>
+        <v>1536796.5963900001</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -4095,31 +4095,31 @@
         <v>42551</v>
       </c>
       <c r="B4" s="1">
-        <v>42272318.338611163</v>
+        <v>43498600.438611098</v>
       </c>
       <c r="C4" s="1">
-        <v>5180112.3222222207</v>
+        <v>4805520.4666666696</v>
       </c>
       <c r="D4" s="1">
-        <v>47452430.660833359</v>
+        <v>48304120.905277804</v>
       </c>
       <c r="G4" s="26">
         <v>42551</v>
       </c>
       <c r="H4" s="1">
-        <v>25114494.81444449</v>
+        <v>26033013.509166699</v>
       </c>
       <c r="I4" s="1">
-        <v>12117030.835000044</v>
+        <v>11331993.7555556</v>
       </c>
       <c r="J4" s="1">
-        <v>7746515.088333332</v>
+        <v>7746208.3372222204</v>
       </c>
       <c r="K4" s="1">
         <v>1574657.4275</v>
       </c>
       <c r="L4" s="1">
-        <v>899732.49555549026</v>
+        <v>1618247.87583</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -4128,31 +4128,31 @@
         <v>42582</v>
       </c>
       <c r="B5" s="1">
-        <v>61272817.936388962</v>
+        <v>62390934.264722198</v>
       </c>
       <c r="C5" s="1">
-        <v>6788200.1555555509</v>
+        <v>6358490.3399999999</v>
       </c>
       <c r="D5" s="1">
-        <v>68061018.091944456</v>
+        <v>68749424.604722202</v>
       </c>
       <c r="G5" s="26">
         <v>42582</v>
       </c>
       <c r="H5" s="1">
-        <v>34275807.027222268</v>
+        <v>35247387.720833302</v>
       </c>
       <c r="I5" s="1">
-        <v>17592846.070277825</v>
+        <v>16744875.6163889</v>
       </c>
       <c r="J5" s="1">
-        <v>12743684.413611112</v>
+        <v>12579036.4344444</v>
       </c>
       <c r="K5" s="1">
-        <v>2421318.8180555562</v>
+        <v>2415334.6847222201</v>
       </c>
       <c r="L5" s="1">
-        <v>1027361.7627776936</v>
+        <v>1762790.14833</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -4161,31 +4161,31 @@
         <v>42613</v>
       </c>
       <c r="B6" s="1">
-        <v>80419405.701388955</v>
+        <v>81475607.481944397</v>
       </c>
       <c r="C6" s="1">
-        <v>8659560.7688888814</v>
+        <v>8241452.8133333297</v>
       </c>
       <c r="D6" s="1">
-        <v>89078966.470277756</v>
+        <v>89717060.295277804</v>
       </c>
       <c r="G6" s="26">
         <v>42613</v>
       </c>
       <c r="H6" s="1">
-        <v>41874775.00250005</v>
+        <v>42825018.751111098</v>
       </c>
       <c r="I6" s="1">
-        <v>24181683.087500043</v>
+        <v>23370843.7341667</v>
       </c>
       <c r="J6" s="1">
-        <v>18131719.079166673</v>
+        <v>17946711.326388899</v>
       </c>
       <c r="K6" s="1">
-        <v>3712510.3030555565</v>
+        <v>3662462.9030555598</v>
       </c>
       <c r="L6" s="1">
-        <v>1178278.9980554283</v>
+        <v>1912023.5805599999</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -4194,31 +4194,31 @@
         <v>42643</v>
       </c>
       <c r="B7" s="1">
-        <v>91797570.830833361</v>
+        <v>92635599.422777802</v>
       </c>
       <c r="C7" s="1">
-        <v>11262494.555555552</v>
+        <v>10736001.206666701</v>
       </c>
       <c r="D7" s="1">
-        <v>103060065.38638885</v>
+        <v>103371600.629444</v>
       </c>
       <c r="G7" s="26">
         <v>42643</v>
       </c>
       <c r="H7" s="1">
-        <v>45743559.290000051</v>
+        <v>46666274.1297222</v>
       </c>
       <c r="I7" s="1">
-        <v>28231926.511388935</v>
+        <v>27266987.3172222</v>
       </c>
       <c r="J7" s="1">
-        <v>20946688.638888892</v>
+        <v>20640594.2938889</v>
       </c>
       <c r="K7" s="1">
-        <v>4952788.9955555564</v>
+        <v>4880822.5555555597</v>
       </c>
       <c r="L7" s="1">
-        <v>3185101.9505554289</v>
+        <v>3916922.3330600001</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -4227,31 +4227,31 @@
         <v>42674</v>
       </c>
       <c r="B8" s="1">
-        <v>105082245.94444446</v>
+        <v>106419986.16944399</v>
       </c>
       <c r="C8" s="1">
-        <v>13249154.188888881</v>
+        <v>12901314.813333301</v>
       </c>
       <c r="D8" s="1">
-        <v>118331400.13333325</v>
+        <v>119321300.982778</v>
       </c>
       <c r="G8" s="26">
         <v>42674</v>
       </c>
       <c r="H8" s="1">
-        <v>49915318.677222274</v>
+        <v>51249853.161666699</v>
       </c>
       <c r="I8" s="1">
-        <v>34904363.028333388</v>
+        <v>34068271.007222198</v>
       </c>
       <c r="J8" s="1">
-        <v>24377322.916666672</v>
+        <v>24174804.7658333</v>
       </c>
       <c r="K8" s="1">
-        <v>5618095.3063888894</v>
+        <v>5552614.5863888897</v>
       </c>
       <c r="L8" s="1">
-        <v>3516300.204722032</v>
+        <v>4275757.4616700001</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -4260,31 +4260,31 @@
         <v>42704</v>
       </c>
       <c r="B9" s="1">
-        <v>121867569.14833337</v>
+        <v>122841353.38249999</v>
       </c>
       <c r="C9" s="1">
-        <v>15551657.535555551</v>
+        <v>15094269.893333299</v>
       </c>
       <c r="D9" s="1">
-        <v>137419226.68388885</v>
+        <v>137935623.27583301</v>
       </c>
       <c r="G9" s="26">
         <v>42704</v>
       </c>
       <c r="H9" s="1">
-        <v>56129899.423611164</v>
+        <v>57154144.860277802</v>
       </c>
       <c r="I9" s="1">
-        <v>40616298.492777824</v>
+        <v>39740736.366388902</v>
       </c>
       <c r="J9" s="1">
-        <v>29517978.718888894</v>
+        <v>29212454.633055601</v>
       </c>
       <c r="K9" s="1">
-        <v>7307236.9716666695</v>
+        <v>7232936.4583333302</v>
       </c>
       <c r="L9" s="1">
-        <v>3847813.0769443065</v>
+        <v>4595350.9577799998</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -4293,31 +4293,31 @@
         <v>42735</v>
       </c>
       <c r="B10" s="1">
-        <v>137922998.10805556</v>
+        <v>138637852.47166699</v>
       </c>
       <c r="C10" s="1">
-        <v>17511470.715555552</v>
+        <v>16949466.5</v>
       </c>
       <c r="D10" s="1">
-        <v>155434468.82361111</v>
+        <v>155587318.97166699</v>
       </c>
       <c r="G10" s="26">
         <v>42735</v>
       </c>
       <c r="H10" s="1">
-        <v>60554829.003055602</v>
+        <v>61703314.560555503</v>
       </c>
       <c r="I10" s="1">
-        <v>48041206.091111153</v>
+        <v>46925795.598611102</v>
       </c>
       <c r="J10" s="1">
-        <v>34937705.823333338</v>
+        <v>34400492.978888899</v>
       </c>
       <c r="K10" s="1">
-        <v>7782450.9227777803</v>
+        <v>7695489.9961111099</v>
       </c>
       <c r="L10" s="1">
-        <v>4118276.9833332598</v>
+        <v>4862225.8375000004</v>
       </c>
       <c r="M10" s="1"/>
     </row>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -1,40 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilsonn\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-05-01" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-05-01" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-05-01" sheetId="23" r:id="rId3"/>
+    <sheet name="Queue First Job 2018-06-05" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2018-06-05" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2018-06-05" sheetId="23" r:id="rId3"/>
     <sheet name="Project Stakeholder 2018-05-01" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-05-01" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-05-01" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage By Org 2018-05-01" sheetId="19" r:id="rId7"/>
-    <sheet name="Active Users 2018-05-01" sheetId="18" r:id="rId8"/>
-    <sheet name="By Cores CPU 2018-05-01" sheetId="15" r:id="rId9"/>
-    <sheet name="Applications CPU 2018-05-01" sheetId="1" r:id="rId10"/>
-    <sheet name="User Walltime CPU 2018-05-01" sheetId="4" r:id="rId11"/>
-    <sheet name="Org HighLevel CPU 2018-05-01" sheetId="7" r:id="rId12"/>
-    <sheet name="Org Breakdown CPU 2018-05-01" sheetId="5" r:id="rId13"/>
-    <sheet name="Largest Jobs CPU 2018-05-01" sheetId="6" r:id="rId14"/>
-    <sheet name="By Cores GPU 2018-05-01" sheetId="16" r:id="rId15"/>
-    <sheet name="Applications GPU 2018-05-01" sheetId="3" r:id="rId16"/>
-    <sheet name="User Walltime GPU 2018-05-01" sheetId="10" r:id="rId17"/>
-    <sheet name="Org HighLevel GPU 2018-05-01" sheetId="8" r:id="rId18"/>
-    <sheet name="Org Breakdown GPU 2018-05-01" sheetId="9" r:id="rId19"/>
-    <sheet name="Largest Jobs GPU 2018-05-01" sheetId="11" r:id="rId20"/>
-    <sheet name="Cumulative 2018-05" sheetId="32" r:id="rId21"/>
+    <sheet name="Project Status 2018-06-05" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2018-06-05" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage By Org 2018-06-05" sheetId="19" r:id="rId7"/>
+    <sheet name="Active Users 2018-06-05" sheetId="18" r:id="rId8"/>
+    <sheet name="By Cores CPU 2018-06-05" sheetId="15" r:id="rId9"/>
+    <sheet name="Applications CPU 2018-06-05" sheetId="1" r:id="rId10"/>
+    <sheet name="User Walltime CPU 2018-06-05" sheetId="4" r:id="rId11"/>
+    <sheet name="Org HighLevel CPU 2018-06-05" sheetId="7" r:id="rId12"/>
+    <sheet name="Org Breakdown CPU 2018-06-05" sheetId="5" r:id="rId13"/>
+    <sheet name="Largest Jobs CPU 2018-06-05" sheetId="6" r:id="rId14"/>
+    <sheet name="By Cores GPU 2018-06-05" sheetId="16" r:id="rId15"/>
+    <sheet name="Applications GPU 2018-06-05" sheetId="3" r:id="rId16"/>
+    <sheet name="User Walltime GPU 2018-06-05" sheetId="10" r:id="rId17"/>
+    <sheet name="Org HighLevel GPU 2018-06-05" sheetId="8" r:id="rId18"/>
+    <sheet name="Org Breakdown GPU 2018-06-05" sheetId="9" r:id="rId19"/>
+    <sheet name="Largest Jobs GPU 2018-06-05" sheetId="11" r:id="rId20"/>
+    <sheet name="Cumulative 2018-06" sheetId="32" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>Rank</t>
   </si>
@@ -90,31 +95,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>25-96</t>
-  </si>
-  <si>
-    <t>97-240</t>
-  </si>
-  <si>
-    <t>241-960</t>
-  </si>
-  <si>
-    <t>&gt;960</t>
-  </si>
-  <si>
     <t>Median Wait (hrs)</t>
   </si>
   <si>
     <t>Mean Wait (hrs)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2-23</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -157,18 +141,6 @@
   </si>
   <si>
     <t>GPUs</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>11-40</t>
-  </si>
-  <si>
-    <t>&gt;40</t>
   </si>
   <si>
     <t>GPU Hours</t>
@@ -327,10 +299,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -861,7 +834,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,6 +892,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -971,14 +945,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1010,7 +987,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$B$1</c:f>
+              <c:f>'Cumulative 2018-06'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,10 +998,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$A$2:$A$26</c:f>
+              <c:f>'Cumulative 2018-06'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1099,16 +1076,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$B$2:$B$26</c:f>
+              <c:f>'Cumulative 2018-06'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1183,17 +1166,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>416307445.14555597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>434557785.78250003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>434557785.78250003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F364-40A7-BD0A-76023CC3B753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$C$1</c:f>
+              <c:f>'Cumulative 2018-06'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,10 +1198,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$A$2:$A$26</c:f>
+              <c:f>'Cumulative 2018-06'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1282,16 +1276,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$C$2:$C$26</c:f>
+              <c:f>'Cumulative 2018-06'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1366,10 +1366,21 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45446290.738611102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47136106.211944401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47136106.211944401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F364-40A7-BD0A-76023CC3B753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1443,9 +1454,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1477,7 +1488,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$H$1</c:f>
+              <c:f>'Cumulative 2018-06'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1488,10 +1499,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1566,16 +1577,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$H$2:$H$26</c:f>
+              <c:f>'Cumulative 2018-06'!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1650,17 +1667,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>157273143.93583301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163186233.11277801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>163186233.11277801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0741-48B7-AC44-E614DA39C55A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$I$1</c:f>
+              <c:f>'Cumulative 2018-06'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1671,10 +1699,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1749,16 +1777,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$I$2:$I$26</c:f>
+              <c:f>'Cumulative 2018-06'!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1833,17 +1867,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>153957364.223611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163148270.90916699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>163148270.90916699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0741-48B7-AC44-E614DA39C55A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$J$1</c:f>
+              <c:f>'Cumulative 2018-06'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1854,10 +1899,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1932,16 +1977,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$J$2:$J$26</c:f>
+              <c:f>'Cumulative 2018-06'!$J$2:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2016,17 +2067,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>118968182.76444501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>121669606.1925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121669606.1925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0741-48B7-AC44-E614DA39C55A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$K$1</c:f>
+              <c:f>'Cumulative 2018-06'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2042,10 +2104,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2120,16 +2182,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$K$2:$K$26</c:f>
+              <c:f>'Cumulative 2018-06'!$K$2:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2204,17 +2272,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>13427362.826388899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13988384.3458333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13988384.3458333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0741-48B7-AC44-E614DA39C55A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-05'!$L$1</c:f>
+              <c:f>'Cumulative 2018-06'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2225,10 +2304,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$G$2:$G$26</c:f>
+              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2303,16 +2382,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-05'!$L$2:$L$26</c:f>
+              <c:f>'Cumulative 2018-06'!$L$2:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2387,10 +2472,21 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>18127682.133889999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19701397.434166599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19701397.434166599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0741-48B7-AC44-E614DA39C55A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2459,15 +2555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2491,15 +2587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2566,7 +2662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2601,7 +2697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2812,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2825,31 +2921,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3345,6 +3441,7 @@
     <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3363,10 +3460,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
@@ -3389,6 +3490,7 @@
     <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3407,6 +3509,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3478,7 +3581,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3493,104 +3596,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3601,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,7 +3632,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3622,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -3631,9 +3649,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3658,7 +3675,7 @@
     <col min="7" max="7" width="24.7109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3672,17 +3689,14 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" s="1"/>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3712,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -3756,13 +3770,14 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,31 +3807,31 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B6" s="30" t="e">
         <f>B$5/B2</f>
@@ -3825,7 +3840,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B7" s="30" t="e">
         <f>B$5/B3</f>
@@ -3834,7 +3849,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B8" s="30" t="e">
         <f>B$5/B4</f>
@@ -3843,31 +3858,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B14" s="30" t="e">
         <f>B$13/B10</f>
@@ -3876,7 +3891,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B15" s="30" t="e">
         <f>B$13/B11</f>
@@ -3885,7 +3900,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B16" s="30" t="e">
         <f>B$13/B12</f>
@@ -3894,22 +3909,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3942,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -3957,7 +3972,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>12</v>
@@ -3973,9 +3988,9 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3990,23 +4005,24 @@
     <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>16</v>
@@ -4018,13 +4034,16 @@
         <v>15</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>42457</v>
       </c>
@@ -4056,8 +4075,11 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>42538</v>
       </c>
@@ -4089,8 +4111,10 @@
         <v>1536796.5963900001</v>
       </c>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>42551</v>
       </c>
@@ -4122,8 +4146,10 @@
         <v>1618247.87583</v>
       </c>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>42582</v>
       </c>
@@ -4155,8 +4181,10 @@
         <v>1762790.14833</v>
       </c>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>42613</v>
       </c>
@@ -4188,8 +4216,10 @@
         <v>1912023.5805599999</v>
       </c>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>42643</v>
       </c>
@@ -4221,8 +4251,10 @@
         <v>3916922.3330600001</v>
       </c>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>42674</v>
       </c>
@@ -4254,8 +4286,10 @@
         <v>4275757.4616700001</v>
       </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>42704</v>
       </c>
@@ -4287,8 +4321,10 @@
         <v>4595350.9577799998</v>
       </c>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>42735</v>
       </c>
@@ -4320,8 +4356,10 @@
         <v>4862225.8375000004</v>
       </c>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>42766</v>
       </c>
@@ -4353,8 +4391,10 @@
         <v>5461601.1950000003</v>
       </c>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>42794</v>
       </c>
@@ -4387,8 +4427,10 @@
         <v>5917180.0033299997</v>
       </c>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>42825</v>
       </c>
@@ -4421,8 +4463,10 @@
         <v>6711606.5580599997</v>
       </c>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>42855</v>
       </c>
@@ -4455,8 +4499,10 @@
         <v>7722469.2386100003</v>
       </c>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>42886</v>
       </c>
@@ -4489,8 +4535,10 @@
         <v>8299312.31611</v>
       </c>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42916</v>
       </c>
@@ -4523,8 +4571,10 @@
         <v>8921071.6144399997</v>
       </c>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42947</v>
       </c>
@@ -4556,8 +4606,10 @@
         <v>9534464.1797199994</v>
       </c>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42978</v>
       </c>
@@ -4589,8 +4641,10 @@
         <v>10704842.511670001</v>
       </c>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>43008</v>
       </c>
@@ -4622,8 +4676,10 @@
         <v>11805188.487779999</v>
       </c>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>43039</v>
       </c>
@@ -4655,8 +4711,10 @@
         <v>12669968.261940001</v>
       </c>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>43069</v>
       </c>
@@ -4688,8 +4746,10 @@
         <v>13668395.97944</v>
       </c>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>43100</v>
       </c>
@@ -4721,8 +4781,10 @@
         <v>14065464.46917</v>
       </c>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>43131</v>
       </c>
@@ -4754,8 +4816,10 @@
         <v>14674831.497780001</v>
       </c>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>43159</v>
       </c>
@@ -4787,8 +4851,10 @@
         <v>15617690.80222</v>
       </c>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>43190</v>
       </c>
@@ -4820,8 +4886,10 @@
         <v>16755669.327500001</v>
       </c>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>43220</v>
       </c>
@@ -4853,23 +4921,89 @@
         <v>18127682.133889999</v>
       </c>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>43251</v>
+      </c>
+      <c r="B27" s="1">
+        <v>434557785.78250003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>47136106.211944401</v>
+      </c>
+      <c r="D27" s="1">
+        <v>481693891.99444503</v>
+      </c>
+      <c r="G27" s="26">
+        <v>43251</v>
+      </c>
+      <c r="H27" s="1">
+        <v>163186233.11277801</v>
+      </c>
+      <c r="I27" s="1">
+        <v>163148270.90916699</v>
+      </c>
+      <c r="J27" s="1">
+        <v>121669606.1925</v>
+      </c>
+      <c r="K27" s="1">
+        <v>13988384.3458333</v>
+      </c>
+      <c r="L27" s="1">
+        <v>19701397.434166599</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>43281</v>
+      </c>
+      <c r="B28" s="1">
+        <v>434557785.78250003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>47136106.211944401</v>
+      </c>
+      <c r="D28" s="1">
+        <v>481693891.99444503</v>
+      </c>
+      <c r="G28" s="26">
+        <v>43281</v>
+      </c>
+      <c r="H28" s="1">
+        <v>163186233.11277801</v>
+      </c>
+      <c r="I28" s="1">
+        <v>163148270.90916699</v>
+      </c>
+      <c r="J28" s="1">
+        <v>121669606.1925</v>
+      </c>
+      <c r="K28" s="1">
+        <v>13988384.3458333</v>
+      </c>
+      <c r="L28" s="1">
+        <v>19701397.434166599</v>
+      </c>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -4921,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>5</v>
@@ -4930,13 +5064,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>5</v>
@@ -5032,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5113,22 +5247,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10957,22 +11091,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -16805,25 +16939,25 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -16873,7 +17007,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -16888,7 +17022,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -16903,7 +17037,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -16918,7 +17052,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -16948,7 +17082,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="23">
         <f t="shared" ref="B10:G10" si="1">SUM(B2:B9)</f>
@@ -17003,60 +17137,60 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15"/>
     </row>
@@ -17068,7 +17202,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17092,129 +17226,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -12,26 +12,26 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-06-05" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-06-05" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-06-05" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2018-05-01" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-06-05" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-06-05" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage By Org 2018-06-05" sheetId="19" r:id="rId7"/>
-    <sheet name="Active Users 2018-06-05" sheetId="18" r:id="rId8"/>
-    <sheet name="By Cores CPU 2018-06-05" sheetId="15" r:id="rId9"/>
-    <sheet name="Applications CPU 2018-06-05" sheetId="1" r:id="rId10"/>
-    <sheet name="User Walltime CPU 2018-06-05" sheetId="4" r:id="rId11"/>
-    <sheet name="Org HighLevel CPU 2018-06-05" sheetId="7" r:id="rId12"/>
-    <sheet name="Org Breakdown CPU 2018-06-05" sheetId="5" r:id="rId13"/>
-    <sheet name="Largest Jobs CPU 2018-06-05" sheetId="6" r:id="rId14"/>
-    <sheet name="By Cores GPU 2018-06-05" sheetId="16" r:id="rId15"/>
-    <sheet name="Applications GPU 2018-06-05" sheetId="3" r:id="rId16"/>
-    <sheet name="User Walltime GPU 2018-06-05" sheetId="10" r:id="rId17"/>
-    <sheet name="Org HighLevel GPU 2018-06-05" sheetId="8" r:id="rId18"/>
-    <sheet name="Org Breakdown GPU 2018-06-05" sheetId="9" r:id="rId19"/>
-    <sheet name="Largest Jobs GPU 2018-06-05" sheetId="11" r:id="rId20"/>
+    <sheet name="Queue First Job 2018-06-12" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2018-06-12" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2018-06-12" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2018-06-12" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2018-06-12" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2018-06-12" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage By Org 2018-06-12" sheetId="19" r:id="rId7"/>
+    <sheet name="Active Users 2018-06-12" sheetId="18" r:id="rId8"/>
+    <sheet name="By Cores CPU 2018-06-12" sheetId="15" r:id="rId9"/>
+    <sheet name="Applications CPU 2018-06-12" sheetId="1" r:id="rId10"/>
+    <sheet name="User Walltime CPU 2018-06-12" sheetId="4" r:id="rId11"/>
+    <sheet name="Org HighLevel CPU 2018-06-12" sheetId="7" r:id="rId12"/>
+    <sheet name="Org Breakdown CPU 2018-06-12" sheetId="5" r:id="rId13"/>
+    <sheet name="Largest Jobs CPU 2018-06-12" sheetId="6" r:id="rId14"/>
+    <sheet name="By Cores GPU 2018-06-12" sheetId="16" r:id="rId15"/>
+    <sheet name="Applications GPU 2018-06-12" sheetId="3" r:id="rId16"/>
+    <sheet name="User Walltime GPU 2018-06-12" sheetId="10" r:id="rId17"/>
+    <sheet name="Org HighLevel GPU 2018-06-12" sheetId="8" r:id="rId18"/>
+    <sheet name="Org Breakdown GPU 2018-06-12" sheetId="9" r:id="rId19"/>
+    <sheet name="Largest Jobs GPU 2018-06-12" sheetId="11" r:id="rId20"/>
     <sheet name="Cumulative 2018-06" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>Rank</t>
   </si>
@@ -294,6 +294,39 @@
   </si>
   <si>
     <t>All CPU cores on GPU node are considered as being used if GPU is being used</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25-96</t>
+  </si>
+  <si>
+    <t>97-240</t>
+  </si>
+  <si>
+    <t>241-960</t>
+  </si>
+  <si>
+    <t>&gt;960</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>11-40</t>
+  </si>
+  <si>
+    <t>&gt;40</t>
   </si>
 </sst>
 </file>
@@ -3581,7 +3614,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3609,6 +3642,31 @@
       </c>
       <c r="E1" s="14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -17202,7 +17260,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17232,6 +17290,41 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -12,34 +12,35 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-06-12" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-06-12" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-06-12" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2018-06-12" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-06-12" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-06-12" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage By Org 2018-06-12" sheetId="19" r:id="rId7"/>
-    <sheet name="Active Users 2018-06-12" sheetId="18" r:id="rId8"/>
-    <sheet name="By Cores CPU 2018-06-12" sheetId="15" r:id="rId9"/>
-    <sheet name="Applications CPU 2018-06-12" sheetId="1" r:id="rId10"/>
-    <sheet name="User Walltime CPU 2018-06-12" sheetId="4" r:id="rId11"/>
-    <sheet name="Org HighLevel CPU 2018-06-12" sheetId="7" r:id="rId12"/>
-    <sheet name="Org Breakdown CPU 2018-06-12" sheetId="5" r:id="rId13"/>
-    <sheet name="Largest Jobs CPU 2018-06-12" sheetId="6" r:id="rId14"/>
-    <sheet name="By Cores GPU 2018-06-12" sheetId="16" r:id="rId15"/>
-    <sheet name="Applications GPU 2018-06-12" sheetId="3" r:id="rId16"/>
-    <sheet name="User Walltime GPU 2018-06-12" sheetId="10" r:id="rId17"/>
-    <sheet name="Org HighLevel GPU 2018-06-12" sheetId="8" r:id="rId18"/>
-    <sheet name="Org Breakdown GPU 2018-06-12" sheetId="9" r:id="rId19"/>
-    <sheet name="Largest Jobs GPU 2018-06-12" sheetId="11" r:id="rId20"/>
-    <sheet name="Cumulative 2018-06" sheetId="32" r:id="rId21"/>
+    <sheet name="Queue First Job 2018-07-17" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2018-07-17" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2018-07-17" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2018-07-17" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2018-07-17" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2018-07-17" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage By Org 2018-07-17" sheetId="19" r:id="rId7"/>
+    <sheet name="Storage by Fileset 2018-07-17" sheetId="33" r:id="rId8"/>
+    <sheet name="Active Users 2018-07-17" sheetId="18" r:id="rId9"/>
+    <sheet name="By Cores CPU 2018-07-17" sheetId="15" r:id="rId10"/>
+    <sheet name="Applications CPU 2018-07-17" sheetId="1" r:id="rId11"/>
+    <sheet name="User Walltime CPU 2018-07-17" sheetId="4" r:id="rId12"/>
+    <sheet name="Org HighLevel CPU 2018-07-17" sheetId="7" r:id="rId13"/>
+    <sheet name="Org Breakdown CPU 2018-07-17" sheetId="5" r:id="rId14"/>
+    <sheet name="Largest Jobs CPU 2018-07-17" sheetId="6" r:id="rId15"/>
+    <sheet name="By Cores GPU 2018-07-17" sheetId="16" r:id="rId16"/>
+    <sheet name="Applications GPU 2018-07-17" sheetId="3" r:id="rId17"/>
+    <sheet name="User Walltime GPU 2018-07-17" sheetId="10" r:id="rId18"/>
+    <sheet name="Org HighLevel GPU 2018-07-17" sheetId="8" r:id="rId19"/>
+    <sheet name="Org Breakdown GPU 2018-07-17" sheetId="9" r:id="rId20"/>
+    <sheet name="Largest Jobs GPU 2018-07-17" sheetId="11" r:id="rId21"/>
+    <sheet name="Cumulative 2018-07" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
   <si>
     <t>Rank</t>
   </si>
@@ -327,6 +328,15 @@
   </si>
   <si>
     <t>&gt;40</t>
+  </si>
+  <si>
+    <t>Fileset</t>
+  </si>
+  <si>
+    <t>Used (GB)</t>
+  </si>
+  <si>
+    <t>Quota (GB)</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1030,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$B$1</c:f>
+              <c:f>'Cumulative 2018-07'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1031,7 +1041,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$A$2:$A$28</c:f>
+              <c:f>'Cumulative 2018-07'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1121,7 +1131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$B$2:$B$28</c:f>
+              <c:f>'Cumulative 2018-07'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1220,7 +1230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$C$1</c:f>
+              <c:f>'Cumulative 2018-07'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1231,7 +1241,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$A$2:$A$28</c:f>
+              <c:f>'Cumulative 2018-07'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1321,7 +1331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$C$2:$C$28</c:f>
+              <c:f>'Cumulative 2018-07'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1521,7 +1531,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$H$1</c:f>
+              <c:f>'Cumulative 2018-07'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1532,7 +1542,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
+              <c:f>'Cumulative 2018-07'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1622,7 +1632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$H$2:$H$28</c:f>
+              <c:f>'Cumulative 2018-07'!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1721,7 +1731,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$I$1</c:f>
+              <c:f>'Cumulative 2018-07'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1732,7 +1742,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
+              <c:f>'Cumulative 2018-07'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1822,7 +1832,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$I$2:$I$28</c:f>
+              <c:f>'Cumulative 2018-07'!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1921,7 +1931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$J$1</c:f>
+              <c:f>'Cumulative 2018-07'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1932,7 +1942,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
+              <c:f>'Cumulative 2018-07'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2022,7 +2032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$J$2:$J$28</c:f>
+              <c:f>'Cumulative 2018-07'!$J$2:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2121,7 +2131,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$K$1</c:f>
+              <c:f>'Cumulative 2018-07'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2137,7 +2147,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
+              <c:f>'Cumulative 2018-07'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2227,7 +2237,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$K$2:$K$28</c:f>
+              <c:f>'Cumulative 2018-07'!$K$2:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2326,7 +2336,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-06'!$L$1</c:f>
+              <c:f>'Cumulative 2018-07'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2337,7 +2347,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$G$2:$G$28</c:f>
+              <c:f>'Cumulative 2018-07'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2427,7 +2437,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-06'!$L$2:$L$28</c:f>
+              <c:f>'Cumulative 2018-07'!$L$2:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3381,6 +3391,79 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3456,55 +3539,6 @@
       <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="35"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3548,6 +3582,9 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
@@ -3559,6 +3596,52 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3612,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3675,7 +3758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3716,7 +3799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3755,50 +3838,6 @@
       <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3835,7 +3874,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3991,6 +4029,51 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -4044,7 +4127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -5199,7 +5282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17176,6 +17261,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="25" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17256,77 +17372,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -9,38 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-07-17" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-07-17" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-07-17" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2018-07-17" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-07-17" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-07-17" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage By Org 2018-07-17" sheetId="19" r:id="rId7"/>
-    <sheet name="Storage by Fileset 2018-07-17" sheetId="33" r:id="rId8"/>
-    <sheet name="Active Users 2018-07-17" sheetId="18" r:id="rId9"/>
-    <sheet name="By Cores CPU 2018-07-17" sheetId="15" r:id="rId10"/>
-    <sheet name="Applications CPU 2018-07-17" sheetId="1" r:id="rId11"/>
-    <sheet name="User Walltime CPU 2018-07-17" sheetId="4" r:id="rId12"/>
-    <sheet name="Org HighLevel CPU 2018-07-17" sheetId="7" r:id="rId13"/>
-    <sheet name="Org Breakdown CPU 2018-07-17" sheetId="5" r:id="rId14"/>
-    <sheet name="Largest Jobs CPU 2018-07-17" sheetId="6" r:id="rId15"/>
-    <sheet name="By Cores GPU 2018-07-17" sheetId="16" r:id="rId16"/>
-    <sheet name="Applications GPU 2018-07-17" sheetId="3" r:id="rId17"/>
-    <sheet name="User Walltime GPU 2018-07-17" sheetId="10" r:id="rId18"/>
-    <sheet name="Org HighLevel GPU 2018-07-17" sheetId="8" r:id="rId19"/>
-    <sheet name="Org Breakdown GPU 2018-07-17" sheetId="9" r:id="rId20"/>
-    <sheet name="Largest Jobs GPU 2018-07-17" sheetId="11" r:id="rId21"/>
-    <sheet name="Cumulative 2018-07" sheetId="32" r:id="rId22"/>
+    <sheet name="Queue First Job 2018-07-24" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2018-07-24" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2018-07-24" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2018-07-24" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2018-07-24" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2018-07-24" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage Summary 2018-07-24" sheetId="34" r:id="rId7"/>
+    <sheet name="Storage by Fileset 2018-07-24" sheetId="33" r:id="rId8"/>
+    <sheet name="Storage By Org 2018-07-24" sheetId="19" r:id="rId9"/>
+    <sheet name="Active Users 2018-07-24" sheetId="18" r:id="rId10"/>
+    <sheet name="By Cores CPU 2018-07-24" sheetId="15" r:id="rId11"/>
+    <sheet name="Applications CPU 2018-07-24" sheetId="1" r:id="rId12"/>
+    <sheet name="User Walltime CPU 2018-07-24" sheetId="4" r:id="rId13"/>
+    <sheet name="Org HighLevel CPU 2018-07-24" sheetId="7" r:id="rId14"/>
+    <sheet name="Org Breakdown CPU 2018-07-24" sheetId="5" r:id="rId15"/>
+    <sheet name="Largest Jobs CPU 2018-07-24" sheetId="6" r:id="rId16"/>
+    <sheet name="By Cores GPU 2018-07-24" sheetId="16" r:id="rId17"/>
+    <sheet name="Applications GPU 2018-07-24" sheetId="3" r:id="rId18"/>
+    <sheet name="User Walltime GPU 2018-07-24" sheetId="10" r:id="rId19"/>
+    <sheet name="Org HighLevel GPU 2018-07-24" sheetId="8" r:id="rId20"/>
+    <sheet name="Org Breakdown GPU 2018-07-24" sheetId="9" r:id="rId21"/>
+    <sheet name="Largest Jobs GPU 2018-07-24" sheetId="11" r:id="rId22"/>
+    <sheet name="Cumulative 2018-07" sheetId="32" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>Rank</t>
   </si>
@@ -337,6 +338,9 @@
   </si>
   <si>
     <t>Quota (GB)</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -2951,7 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3390,6 +3394,90 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3462,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3500,7 +3588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3539,55 +3627,6 @@
       <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="35"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3631,6 +3670,9 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
@@ -3642,6 +3684,52 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3695,7 +3783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3758,7 +3846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3799,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3838,50 +3926,6 @@
       <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4057,7 +4101,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4074,6 +4117,51 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -4127,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -17065,193 +17153,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="25" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="e">
-        <f t="shared" ref="H2:H9" si="0">G2/G$10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="23">
-        <f t="shared" ref="B10:G10" si="1">SUM(B2:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="21"/>
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17292,81 +17213,193 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="15"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21" t="e">
+        <f t="shared" ref="H2:H9" si="0">G2/G$10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23">
+        <f t="shared" ref="B10:G10" si="1">SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -12,36 +12,35 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-08" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-08" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-08" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2018-08" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-08" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-08" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage Summary 2018-08" sheetId="34" r:id="rId7"/>
-    <sheet name="Storage by Fileset 2018-08" sheetId="33" r:id="rId8"/>
-    <sheet name="Storage By Org 2018-08" sheetId="19" r:id="rId9"/>
-    <sheet name="Active Users 2018-08" sheetId="18" r:id="rId10"/>
-    <sheet name="By Cores CPU 2018-08" sheetId="15" r:id="rId11"/>
-    <sheet name="Applications CPU 2018-08" sheetId="1" r:id="rId12"/>
-    <sheet name="User Walltime CPU 2018-08" sheetId="4" r:id="rId13"/>
-    <sheet name="Org HighLevel CPU 2018-08" sheetId="7" r:id="rId14"/>
-    <sheet name="Org Breakdown CPU 2018-08" sheetId="5" r:id="rId15"/>
-    <sheet name="Largest Jobs CPU 2018-08" sheetId="6" r:id="rId16"/>
-    <sheet name="By Cores GPU 2018-08" sheetId="16" r:id="rId17"/>
-    <sheet name="Applications GPU 2018-08" sheetId="3" r:id="rId18"/>
-    <sheet name="User Walltime GPU 2018-08" sheetId="10" r:id="rId19"/>
-    <sheet name="Org HighLevel GPU 2018-08" sheetId="8" r:id="rId20"/>
-    <sheet name="Org Breakdown GPU 2018-08" sheetId="9" r:id="rId21"/>
-    <sheet name="Largest Jobs GPU 2018-08" sheetId="11" r:id="rId22"/>
-    <sheet name="Cumulative 2018-08" sheetId="32" r:id="rId23"/>
+    <sheet name="Queue First Job 2018-09-18" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2018-09-18" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2018-09-18" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2018-09-18" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2018-09-18" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2018-09-18" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage Summary 2018-09-18" sheetId="34" r:id="rId7"/>
+    <sheet name="Storage by Fileset 2018-09-18" sheetId="33" r:id="rId8"/>
+    <sheet name="Storage By Org 2018-09-18" sheetId="19" r:id="rId9"/>
+    <sheet name="Active Users 2018-09-18" sheetId="18" r:id="rId10"/>
+    <sheet name="By Cores CPU 2018-09-18" sheetId="15" r:id="rId11"/>
+    <sheet name="Applications CPU 2018-09-18" sheetId="1" r:id="rId12"/>
+    <sheet name="User Walltime CPU 2018-09-18" sheetId="4" r:id="rId13"/>
+    <sheet name="Org HighLevel CPU 2018-09-18" sheetId="7" r:id="rId14"/>
+    <sheet name="Org Breakdown CPU 2018-09-18" sheetId="5" r:id="rId15"/>
+    <sheet name="Largest Jobs CPU 2018-09-18" sheetId="6" r:id="rId16"/>
+    <sheet name="By Cores GPU 2018-09-18" sheetId="16" r:id="rId17"/>
+    <sheet name="Applications GPU 2018-09-18" sheetId="3" r:id="rId18"/>
+    <sheet name="User Walltime GPU 2018-09-18" sheetId="10" r:id="rId19"/>
+    <sheet name="Org HighLevel GPU 2018-09-18" sheetId="8" r:id="rId20"/>
+    <sheet name="Org Breakdown GPU 2018-09-18" sheetId="9" r:id="rId21"/>
+    <sheet name="Largest Jobs GPU 2018-09-18" sheetId="11" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Rank</t>
   </si>
@@ -92,9 +91,6 @@
   </si>
   <si>
     <t>A*STAR</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Median Wait (hrs)</t>
@@ -148,18 +144,6 @@
     <t>GPU Hours</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Cumulative Core Hours (Total)</t>
-  </si>
-  <si>
-    <t>Cumulative Core Hours (GPU Nodes)</t>
-  </si>
-  <si>
-    <t>Cumulative Core Hours (CPU nodes)</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -170,9 +154,6 @@
   </si>
   <si>
     <t>Storage (GB)</t>
-  </si>
-  <si>
-    <t>Industry &amp; Other</t>
   </si>
   <si>
     <t>Principal Investigator</t>
@@ -323,9 +304,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -988,1757 +966,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16387806175390868"/>
-          <c:y val="4.6044656805630302E-2"/>
-          <c:w val="0.52474812741430577"/>
-          <c:h val="0.72330329479134559"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cumulative Core Hours (CPU nodes)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41515601.188611098</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43498600.438611098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62390934.264722198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81475607.481944397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92635599.422777802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>106419986.16944399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>122841353.38249999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>138637852.47166699</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>157230950.66666701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>174764740.83388901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>192916055.90444401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>211720916.744167</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>230919864.221111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>249005189.67611101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>266936676.198333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>283593104.57305598</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300152017.509444</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>315965584.54722202</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>333997098.63277799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>348846197.60861099</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>364624503.01027799</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>381574647.875278</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>398824226.78027803</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>416307445.14555597</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>434557785.78250003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>450423475.024167</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>469270269.675556</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>488706241.62138933</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F364-40A7-BD0A-76023CC3B753}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cumulative Core Hours (GPU Nodes)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$C$2:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4660208.0666666701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4805520.4666666696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6358490.3399999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8241452.8133333297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10736001.206666701</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12901314.813333301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15094269.893333299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16949466.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19036381.719999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20859964.006666701</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22772028.053333301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24724853.393333301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26808345.413333301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28703917.5666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30758431.2266667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32609443.153333299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34178264.460000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35718879.32</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37371036.293333299</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38729788.68</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40145114.227222197</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41917944.731944397</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43499917.205277801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45446290.738611102</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>47136106.211944401</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48215932.985277802</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49511659.351944402</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50577905.091944404</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F364-40A7-BD0A-76023CC3B753}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="113592576"/>
-        <c:axId val="113606656"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="113592576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113606656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="113606656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113592576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.73845234298983653"/>
-          <c:y val="0.37489550297032809"/>
-          <c:w val="0.24908659782013229"/>
-          <c:h val="0.25020899405934388"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15963526403859712"/>
-          <c:y val="4.926241928152654E-2"/>
-          <c:w val="0.59398924648981988"/>
-          <c:h val="0.70396675637423956"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A*STAR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$H$2:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24562569.515277799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26033013.509166699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35247387.720833302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42825018.751111098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46666274.1297222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51249853.161666699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57154144.860277802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61703314.560555503</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67549377.876944393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71947097.201944396</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>76357104.516388893</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>81375155.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86161436.9491667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91275614.107777804</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>97287676.206944406</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>103347500.76222201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>109591660.463889</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>114790148.4025</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>121782633.35111099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>127386474.815833</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>134477576.67833301</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>142794104.42583299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150222427.68472201</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>157273143.93583301</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>163186233.11277801</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>169853770.068333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>179359531.591389</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>187883964.14583343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0741-48B7-AC44-E614DA39C55A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NUS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$I$2:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11228948.621111101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11331993.7555556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16744875.6163889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23370843.7341667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27266987.3172222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34068271.007222198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39740736.366388902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46925795.598611102</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55768722.152777798</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62004571.033611096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67740808.998611093</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>74111826.151944295</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80462450.331666604</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>87141287.7444444</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94531390.963055506</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100799107.66722199</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>107399896.805555</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>113964339.644722</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>119955238.375833</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>125851241.096111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>131696426.081389</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>138146044.161111</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>145921210.45444399</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>153957364.223611</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>163148270.90916699</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>169781806.67222199</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>176869249.916944</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>185464750.9841662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0741-48B7-AC44-E614DA39C55A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NTU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$J$2:$J$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7310084.4550000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7746208.3372222204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12579036.4344444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17946711.326388899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20640594.2938889</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24174804.7658333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29212454.633055601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34400492.978888899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39697985.619166702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47850468.612222202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56683705.698611103</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64764006.681111097</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>74105917.465833396</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81629134.457777798</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>87135446.443611205</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91598582.373611197</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>94740092.928055599</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99203029.090833396</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>103673356.33499999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>107563684.542778</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>111098146.941945</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>113915163.38</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>116192065.97972199</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>118968182.76444501</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121669606.1925</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>123969022.83611099</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>125884336.710833</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>128260702.37666632</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0741-48B7-AC44-E614DA39C55A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CREATE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$K$2:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1537410.0674999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1574657.4275</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2415334.6847222201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3662462.9030555598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4880822.5555555597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5552614.5863888897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7232936.4583333302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7695489.9961111099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7789645.5427777804</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7905387.9894444402</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8194858.1861111103</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8472312.8783333302</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8699092.5716666691</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8741999.3183333296</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9206129.6316666696</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9752514.4116666708</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10793443.284166699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11056978.467222201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12288510.884722199</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12709121.3647222</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12822636.038055601</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13019589.838055599</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13232770.5391667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13427362.826388899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13988384.3458333</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14299679.685000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14393674.0033333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14524236.5233333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0741-48B7-AC44-E614DA39C55A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cumulative 2018-08'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Industry &amp; Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>42457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative 2018-08'!$L$2:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1536796.5963900001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1618247.87583</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1762790.14833</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1912023.5805599999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3916922.3330600001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4275757.4616700001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4595350.9577799998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4862225.8375000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5461601.1950000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5917180.0033299997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6711606.5580599997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7722469.2386100003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8299312.31611</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8921071.6144399997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9534464.1797199994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10704842.511670001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11805188.487779999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12669968.261940001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13668395.97944</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14065464.46917</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14674831.497780001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15617690.80222</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16755669.327500001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18127682.133889999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19701397.434166599</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20735128.747779999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22275136.805</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23150492.68333447</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0741-48B7-AC44-E614DA39C55A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="114104960"/>
-        <c:axId val="114106752"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="114104960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114106752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="114106752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114104960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3041,31 +1268,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,7 +1713,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,43 +1736,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B12" s="34"/>
     </row>
@@ -3581,45 +1808,45 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3750,6 +1977,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="30"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
@@ -3877,44 +2109,44 @@
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -4047,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4076,31 +2308,31 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B6" s="25" t="e">
         <f>B$5/B2</f>
@@ -4109,7 +2341,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" s="25" t="e">
         <f>B$5/B3</f>
@@ -4118,7 +2350,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" s="25" t="e">
         <f>B$5/B4</f>
@@ -4127,31 +2359,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="25" t="e">
         <f>B$13/B10</f>
@@ -4160,7 +2392,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B15" s="25" t="e">
         <f>B$13/B11</f>
@@ -4169,7 +2401,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="25" t="e">
         <f>B$13/B12</f>
@@ -4178,22 +2410,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4223,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -4252,7 +2484,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4261,10 +2493,10 @@
     <col min="2" max="2" width="19.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4272,22 +2504,20 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4320,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -4335,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>12</v>
@@ -4346,1134 +2576,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>42457</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="21">
-        <v>42457</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>42538</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41515601.188611098</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4660208.0666666701</v>
-      </c>
-      <c r="D3" s="1">
-        <v>46175809.255277798</v>
-      </c>
-      <c r="G3" s="21">
-        <v>42538</v>
-      </c>
-      <c r="H3" s="1">
-        <v>24562569.515277799</v>
-      </c>
-      <c r="I3" s="1">
-        <v>11228948.621111101</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7310084.4550000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1537410.0674999999</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1536796.5963900001</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>42551</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43498600.438611098</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4805520.4666666696</v>
-      </c>
-      <c r="D4" s="1">
-        <v>48304120.905277804</v>
-      </c>
-      <c r="G4" s="21">
-        <v>42551</v>
-      </c>
-      <c r="H4" s="1">
-        <v>26033013.509166699</v>
-      </c>
-      <c r="I4" s="1">
-        <v>11331993.7555556</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7746208.3372222204</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1574657.4275</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1618247.87583</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>42582</v>
-      </c>
-      <c r="B5" s="1">
-        <v>62390934.264722198</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6358490.3399999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>68749424.604722202</v>
-      </c>
-      <c r="G5" s="21">
-        <v>42582</v>
-      </c>
-      <c r="H5" s="1">
-        <v>35247387.720833302</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16744875.6163889</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12579036.4344444</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2415334.6847222201</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1762790.14833</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>42613</v>
-      </c>
-      <c r="B6" s="1">
-        <v>81475607.481944397</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8241452.8133333297</v>
-      </c>
-      <c r="D6" s="1">
-        <v>89717060.295277804</v>
-      </c>
-      <c r="G6" s="21">
-        <v>42613</v>
-      </c>
-      <c r="H6" s="1">
-        <v>42825018.751111098</v>
-      </c>
-      <c r="I6" s="1">
-        <v>23370843.7341667</v>
-      </c>
-      <c r="J6" s="1">
-        <v>17946711.326388899</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3662462.9030555598</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1912023.5805599999</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>42643</v>
-      </c>
-      <c r="B7" s="1">
-        <v>92635599.422777802</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10736001.206666701</v>
-      </c>
-      <c r="D7" s="1">
-        <v>103371600.629444</v>
-      </c>
-      <c r="G7" s="21">
-        <v>42643</v>
-      </c>
-      <c r="H7" s="1">
-        <v>46666274.1297222</v>
-      </c>
-      <c r="I7" s="1">
-        <v>27266987.3172222</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20640594.2938889</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4880822.5555555597</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3916922.3330600001</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>42674</v>
-      </c>
-      <c r="B8" s="1">
-        <v>106419986.16944399</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12901314.813333301</v>
-      </c>
-      <c r="D8" s="1">
-        <v>119321300.982778</v>
-      </c>
-      <c r="G8" s="21">
-        <v>42674</v>
-      </c>
-      <c r="H8" s="1">
-        <v>51249853.161666699</v>
-      </c>
-      <c r="I8" s="1">
-        <v>34068271.007222198</v>
-      </c>
-      <c r="J8" s="1">
-        <v>24174804.7658333</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5552614.5863888897</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4275757.4616700001</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>42704</v>
-      </c>
-      <c r="B9" s="1">
-        <v>122841353.38249999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15094269.893333299</v>
-      </c>
-      <c r="D9" s="1">
-        <v>137935623.27583301</v>
-      </c>
-      <c r="G9" s="21">
-        <v>42704</v>
-      </c>
-      <c r="H9" s="1">
-        <v>57154144.860277802</v>
-      </c>
-      <c r="I9" s="1">
-        <v>39740736.366388902</v>
-      </c>
-      <c r="J9" s="1">
-        <v>29212454.633055601</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7232936.4583333302</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4595350.9577799998</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>42735</v>
-      </c>
-      <c r="B10" s="1">
-        <v>138637852.47166699</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16949466.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>155587318.97166699</v>
-      </c>
-      <c r="G10" s="21">
-        <v>42735</v>
-      </c>
-      <c r="H10" s="1">
-        <v>61703314.560555503</v>
-      </c>
-      <c r="I10" s="1">
-        <v>46925795.598611102</v>
-      </c>
-      <c r="J10" s="1">
-        <v>34400492.978888899</v>
-      </c>
-      <c r="K10" s="1">
-        <v>7695489.9961111099</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4862225.8375000004</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>42766</v>
-      </c>
-      <c r="B11" s="1">
-        <v>157230950.66666701</v>
-      </c>
-      <c r="C11" s="1">
-        <v>19036381.719999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>176267332.38666701</v>
-      </c>
-      <c r="G11" s="21">
-        <v>42766</v>
-      </c>
-      <c r="H11" s="1">
-        <v>67549377.876944393</v>
-      </c>
-      <c r="I11" s="1">
-        <v>55768722.152777798</v>
-      </c>
-      <c r="J11" s="1">
-        <v>39697985.619166702</v>
-      </c>
-      <c r="K11" s="1">
-        <v>7789645.5427777804</v>
-      </c>
-      <c r="L11" s="1">
-        <v>5461601.1950000003</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>42794</v>
-      </c>
-      <c r="B12" s="1">
-        <v>174764740.83388901</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20859964.006666701</v>
-      </c>
-      <c r="D12" s="1">
-        <v>195624704.840556</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="21">
-        <v>42794</v>
-      </c>
-      <c r="H12" s="1">
-        <v>71947097.201944396</v>
-      </c>
-      <c r="I12" s="1">
-        <v>62004571.033611096</v>
-      </c>
-      <c r="J12" s="1">
-        <v>47850468.612222202</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7905387.9894444402</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5917180.0033299997</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>42825</v>
-      </c>
-      <c r="B13" s="1">
-        <v>192916055.90444401</v>
-      </c>
-      <c r="C13" s="1">
-        <v>22772028.053333301</v>
-      </c>
-      <c r="D13" s="1">
-        <v>215688083.95777801</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="G13" s="21">
-        <v>42825</v>
-      </c>
-      <c r="H13" s="1">
-        <v>76357104.516388893</v>
-      </c>
-      <c r="I13" s="1">
-        <v>67740808.998611093</v>
-      </c>
-      <c r="J13" s="1">
-        <v>56683705.698611103</v>
-      </c>
-      <c r="K13" s="1">
-        <v>8194858.1861111103</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6711606.5580599997</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>42855</v>
-      </c>
-      <c r="B14" s="1">
-        <v>211720916.744167</v>
-      </c>
-      <c r="C14" s="1">
-        <v>24724853.393333301</v>
-      </c>
-      <c r="D14" s="1">
-        <v>236445770.13749999</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="G14" s="21">
-        <v>42855</v>
-      </c>
-      <c r="H14" s="1">
-        <v>81375155.1875</v>
-      </c>
-      <c r="I14" s="1">
-        <v>74111826.151944295</v>
-      </c>
-      <c r="J14" s="1">
-        <v>64764006.681111097</v>
-      </c>
-      <c r="K14" s="1">
-        <v>8472312.8783333302</v>
-      </c>
-      <c r="L14" s="1">
-        <v>7722469.2386100003</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>42886</v>
-      </c>
-      <c r="B15" s="1">
-        <v>230919864.221111</v>
-      </c>
-      <c r="C15" s="1">
-        <v>26808345.413333301</v>
-      </c>
-      <c r="D15" s="1">
-        <v>257728209.634444</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="G15" s="21">
-        <v>42886</v>
-      </c>
-      <c r="H15" s="1">
-        <v>86161436.9491667</v>
-      </c>
-      <c r="I15" s="1">
-        <v>80462450.331666604</v>
-      </c>
-      <c r="J15" s="1">
-        <v>74105917.465833396</v>
-      </c>
-      <c r="K15" s="1">
-        <v>8699092.5716666691</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8299312.31611</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>42916</v>
-      </c>
-      <c r="B16" s="1">
-        <v>249005189.67611101</v>
-      </c>
-      <c r="C16" s="1">
-        <v>28703917.5666667</v>
-      </c>
-      <c r="D16" s="1">
-        <v>277709107.242778</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="G16" s="21">
-        <v>42916</v>
-      </c>
-      <c r="H16" s="1">
-        <v>91275614.107777804</v>
-      </c>
-      <c r="I16" s="1">
-        <v>87141287.7444444</v>
-      </c>
-      <c r="J16" s="1">
-        <v>81629134.457777798</v>
-      </c>
-      <c r="K16" s="1">
-        <v>8741999.3183333296</v>
-      </c>
-      <c r="L16" s="1">
-        <v>8921071.6144399997</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>42947</v>
-      </c>
-      <c r="B17" s="1">
-        <v>266936676.198333</v>
-      </c>
-      <c r="C17" s="1">
-        <v>30758431.2266667</v>
-      </c>
-      <c r="D17" s="1">
-        <v>297695107.42500001</v>
-      </c>
-      <c r="G17" s="21">
-        <v>42947</v>
-      </c>
-      <c r="H17" s="1">
-        <v>97287676.206944406</v>
-      </c>
-      <c r="I17" s="1">
-        <v>94531390.963055506</v>
-      </c>
-      <c r="J17" s="1">
-        <v>87135446.443611205</v>
-      </c>
-      <c r="K17" s="1">
-        <v>9206129.6316666696</v>
-      </c>
-      <c r="L17" s="1">
-        <v>9534464.1797199994</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>42978</v>
-      </c>
-      <c r="B18" s="1">
-        <v>283593104.57305598</v>
-      </c>
-      <c r="C18" s="1">
-        <v>32609443.153333299</v>
-      </c>
-      <c r="D18" s="1">
-        <v>316202547.72638899</v>
-      </c>
-      <c r="G18" s="21">
-        <v>42978</v>
-      </c>
-      <c r="H18" s="1">
-        <v>103347500.76222201</v>
-      </c>
-      <c r="I18" s="1">
-        <v>100799107.66722199</v>
-      </c>
-      <c r="J18" s="1">
-        <v>91598582.373611197</v>
-      </c>
-      <c r="K18" s="1">
-        <v>9752514.4116666708</v>
-      </c>
-      <c r="L18" s="1">
-        <v>10704842.511670001</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>43008</v>
-      </c>
-      <c r="B19" s="1">
-        <v>300152017.509444</v>
-      </c>
-      <c r="C19" s="1">
-        <v>34178264.460000001</v>
-      </c>
-      <c r="D19" s="1">
-        <v>334330281.96944398</v>
-      </c>
-      <c r="G19" s="21">
-        <v>43008</v>
-      </c>
-      <c r="H19" s="1">
-        <v>109591660.463889</v>
-      </c>
-      <c r="I19" s="1">
-        <v>107399896.805555</v>
-      </c>
-      <c r="J19" s="1">
-        <v>94740092.928055599</v>
-      </c>
-      <c r="K19" s="1">
-        <v>10793443.284166699</v>
-      </c>
-      <c r="L19" s="1">
-        <v>11805188.487779999</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>43039</v>
-      </c>
-      <c r="B20" s="1">
-        <v>315965584.54722202</v>
-      </c>
-      <c r="C20" s="1">
-        <v>35718879.32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>351684463.86722201</v>
-      </c>
-      <c r="G20" s="21">
-        <v>43039</v>
-      </c>
-      <c r="H20" s="1">
-        <v>114790148.4025</v>
-      </c>
-      <c r="I20" s="1">
-        <v>113964339.644722</v>
-      </c>
-      <c r="J20" s="1">
-        <v>99203029.090833396</v>
-      </c>
-      <c r="K20" s="1">
-        <v>11056978.467222201</v>
-      </c>
-      <c r="L20" s="1">
-        <v>12669968.261940001</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>43069</v>
-      </c>
-      <c r="B21" s="1">
-        <v>333997098.63277799</v>
-      </c>
-      <c r="C21" s="1">
-        <v>37371036.293333299</v>
-      </c>
-      <c r="D21" s="1">
-        <v>371368134.92611098</v>
-      </c>
-      <c r="G21" s="21">
-        <v>43069</v>
-      </c>
-      <c r="H21" s="1">
-        <v>121782633.35111099</v>
-      </c>
-      <c r="I21" s="1">
-        <v>119955238.375833</v>
-      </c>
-      <c r="J21" s="1">
-        <v>103673356.33499999</v>
-      </c>
-      <c r="K21" s="1">
-        <v>12288510.884722199</v>
-      </c>
-      <c r="L21" s="1">
-        <v>13668395.97944</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>43100</v>
-      </c>
-      <c r="B22" s="1">
-        <v>348846197.60861099</v>
-      </c>
-      <c r="C22" s="1">
-        <v>38729788.68</v>
-      </c>
-      <c r="D22" s="1">
-        <v>387575986.28861099</v>
-      </c>
-      <c r="G22" s="21">
-        <v>43100</v>
-      </c>
-      <c r="H22" s="1">
-        <v>127386474.815833</v>
-      </c>
-      <c r="I22" s="1">
-        <v>125851241.096111</v>
-      </c>
-      <c r="J22" s="1">
-        <v>107563684.542778</v>
-      </c>
-      <c r="K22" s="1">
-        <v>12709121.3647222</v>
-      </c>
-      <c r="L22" s="1">
-        <v>14065464.46917</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>43131</v>
-      </c>
-      <c r="B23" s="1">
-        <v>364624503.01027799</v>
-      </c>
-      <c r="C23" s="1">
-        <v>40145114.227222197</v>
-      </c>
-      <c r="D23" s="1">
-        <v>404769617.23750001</v>
-      </c>
-      <c r="G23" s="21">
-        <v>43131</v>
-      </c>
-      <c r="H23" s="1">
-        <v>134477576.67833301</v>
-      </c>
-      <c r="I23" s="1">
-        <v>131696426.081389</v>
-      </c>
-      <c r="J23" s="1">
-        <v>111098146.941945</v>
-      </c>
-      <c r="K23" s="1">
-        <v>12822636.038055601</v>
-      </c>
-      <c r="L23" s="1">
-        <v>14674831.497780001</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>43159</v>
-      </c>
-      <c r="B24" s="1">
-        <v>381574647.875278</v>
-      </c>
-      <c r="C24" s="1">
-        <v>41917944.731944397</v>
-      </c>
-      <c r="D24" s="1">
-        <v>423492592.60722202</v>
-      </c>
-      <c r="G24" s="21">
-        <v>43159</v>
-      </c>
-      <c r="H24" s="1">
-        <v>142794104.42583299</v>
-      </c>
-      <c r="I24" s="1">
-        <v>138146044.161111</v>
-      </c>
-      <c r="J24" s="1">
-        <v>113915163.38</v>
-      </c>
-      <c r="K24" s="1">
-        <v>13019589.838055599</v>
-      </c>
-      <c r="L24" s="1">
-        <v>15617690.80222</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>43190</v>
-      </c>
-      <c r="B25" s="1">
-        <v>398824226.78027803</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43499917.205277801</v>
-      </c>
-      <c r="D25" s="1">
-        <v>442324143.98555601</v>
-      </c>
-      <c r="G25" s="21">
-        <v>43190</v>
-      </c>
-      <c r="H25" s="1">
-        <v>150222427.68472201</v>
-      </c>
-      <c r="I25" s="1">
-        <v>145921210.45444399</v>
-      </c>
-      <c r="J25" s="1">
-        <v>116192065.97972199</v>
-      </c>
-      <c r="K25" s="1">
-        <v>13232770.5391667</v>
-      </c>
-      <c r="L25" s="1">
-        <v>16755669.327500001</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>43220</v>
-      </c>
-      <c r="B26" s="1">
-        <v>416307445.14555597</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45446290.738611102</v>
-      </c>
-      <c r="D26" s="1">
-        <v>461753735.88416702</v>
-      </c>
-      <c r="G26" s="21">
-        <v>43220</v>
-      </c>
-      <c r="H26" s="1">
-        <v>157273143.93583301</v>
-      </c>
-      <c r="I26" s="1">
-        <v>153957364.223611</v>
-      </c>
-      <c r="J26" s="1">
-        <v>118968182.76444501</v>
-      </c>
-      <c r="K26" s="1">
-        <v>13427362.826388899</v>
-      </c>
-      <c r="L26" s="1">
-        <v>18127682.133889999</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>43251</v>
-      </c>
-      <c r="B27" s="1">
-        <v>434557785.78250003</v>
-      </c>
-      <c r="C27" s="1">
-        <v>47136106.211944401</v>
-      </c>
-      <c r="D27" s="1">
-        <v>481693891.99444503</v>
-      </c>
-      <c r="G27" s="21">
-        <v>43251</v>
-      </c>
-      <c r="H27" s="1">
-        <v>163186233.11277801</v>
-      </c>
-      <c r="I27" s="1">
-        <v>163148270.90916699</v>
-      </c>
-      <c r="J27" s="1">
-        <v>121669606.1925</v>
-      </c>
-      <c r="K27" s="1">
-        <v>13988384.3458333</v>
-      </c>
-      <c r="L27" s="1">
-        <v>19701397.434166599</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>43281</v>
-      </c>
-      <c r="B28" s="1">
-        <v>450423475.024167</v>
-      </c>
-      <c r="C28" s="1">
-        <v>48215932.985277802</v>
-      </c>
-      <c r="D28" s="1">
-        <v>498639408.009444</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="21">
-        <v>43281</v>
-      </c>
-      <c r="H28" s="1">
-        <v>169853770.068333</v>
-      </c>
-      <c r="I28" s="1">
-        <v>169781806.67222199</v>
-      </c>
-      <c r="J28" s="1">
-        <v>123969022.83611099</v>
-      </c>
-      <c r="K28" s="1">
-        <v>14299679.685000001</v>
-      </c>
-      <c r="L28" s="1">
-        <v>20735128.747779999</v>
-      </c>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>43312</v>
-      </c>
-      <c r="B29" s="32">
-        <v>469270269.675556</v>
-      </c>
-      <c r="C29" s="32">
-        <v>49511659.351944402</v>
-      </c>
-      <c r="D29" s="32">
-        <v>518781929.02749997</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="21">
-        <v>43312</v>
-      </c>
-      <c r="H29" s="32">
-        <v>179359531.591389</v>
-      </c>
-      <c r="I29" s="32">
-        <v>176869249.916944</v>
-      </c>
-      <c r="J29" s="32">
-        <v>125884336.710833</v>
-      </c>
-      <c r="K29" s="32">
-        <v>14393674.0033333</v>
-      </c>
-      <c r="L29" s="32">
-        <v>22275136.805</v>
-      </c>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>43343</v>
-      </c>
-      <c r="B30" s="32">
-        <v>488706241.62138933</v>
-      </c>
-      <c r="C30" s="32">
-        <v>50577905.091944404</v>
-      </c>
-      <c r="D30" s="32">
-        <v>539284146.71333373</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="21">
-        <v>43343</v>
-      </c>
-      <c r="H30" s="32">
-        <v>187883964.14583343</v>
-      </c>
-      <c r="I30" s="32">
-        <v>185464750.9841662</v>
-      </c>
-      <c r="J30" s="32">
-        <v>128260702.37666632</v>
-      </c>
-      <c r="K30" s="32">
-        <v>14524236.5233333</v>
-      </c>
-      <c r="L30" s="32">
-        <v>23150492.68333447</v>
-      </c>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5499,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>5</v>
@@ -5508,13 +2610,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5601,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>5</v>
@@ -5610,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5642,6 +2744,9 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
@@ -5694,22 +2799,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11525,7 +8630,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2271"/>
+  <dimension ref="A1:F3957"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11538,30 +8643,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
     </row>
@@ -11574,24 +8682,21 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
     </row>
@@ -11601,6 +8706,9 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
     </row>
@@ -11634,8 +8742,8 @@
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
@@ -11652,14 +8760,14 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-    </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
@@ -11667,14 +8775,11 @@
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-    </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -11682,8 +8787,11 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
@@ -11706,8 +8814,8 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
@@ -11733,8 +8841,8 @@
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
@@ -11826,8 +8934,8 @@
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
@@ -11838,12 +8946,12 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-    </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
     </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
+    </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
     </row>
@@ -11859,12 +8967,12 @@
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-    </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
     </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="39"/>
+    </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
     </row>
@@ -11874,15 +8982,15 @@
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-    </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
     </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="39"/>
+    </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
     </row>
@@ -11910,12 +9018,12 @@
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-    </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
     </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+    </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
     </row>
@@ -11940,12 +9048,12 @@
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
-    </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
     </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="39"/>
+    </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
     </row>
@@ -11955,11 +9063,11 @@
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="39"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="39"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
@@ -12015,17 +9123,14 @@
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-    </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="39"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
@@ -12033,8 +9138,11 @@
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="39"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="39"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
@@ -12042,24 +9150,21 @@
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
-    </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
     </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="39"/>
+    </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
-    </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
     </row>
@@ -12078,6 +9183,9 @@
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
     </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="39"/>
+    </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
     </row>
@@ -12099,9 +9207,6 @@
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
-    </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
     </row>
@@ -12111,35 +9216,41 @@
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-    </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
     </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="39"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="39"/>
+    </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
-    </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="39"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="39"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="39"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="39"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="39"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
@@ -12429,9 +9540,6 @@
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="20"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="20"/>
-    </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="20"/>
     </row>
@@ -12465,9 +9573,6 @@
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="20"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="20"/>
-    </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="20"/>
     </row>
@@ -12537,9 +9642,6 @@
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="20"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="20"/>
-    </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="20"/>
     </row>
@@ -12840,9 +9942,6 @@
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="20"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="20"/>
-    </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="20"/>
     </row>
@@ -12861,87 +9960,33 @@
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="20"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="20"/>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="20"/>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="20"/>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="20"/>
-    </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="20"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="20"/>
-    </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="20"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="20"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="20"/>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="20"/>
-    </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="20"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="20"/>
-    </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="20"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="20"/>
-    </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="20"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="20"/>
-    </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="20"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="20"/>
-    </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="20"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="20"/>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="20"/>
-    </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="20"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="20"/>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="20"/>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="20"/>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="20"/>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="20"/>
-    </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="20"/>
     </row>
@@ -12954,33 +9999,12 @@
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="20"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="20"/>
-    </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="20"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="20"/>
-    </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="20"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="20"/>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="20"/>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="20"/>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="20"/>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="20"/>
-    </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="20"/>
     </row>
@@ -12990,27 +10014,12 @@
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="20"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="20"/>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="20"/>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="20"/>
-    </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="20"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="20"/>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="20"/>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="20"/>
-    </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="20"/>
     </row>
@@ -13035,54 +10044,18 @@
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="20"/>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="20"/>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="20"/>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="20"/>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="20"/>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="20"/>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="20"/>
-    </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="20"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="20"/>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="20"/>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="20"/>
-    </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="20"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="20"/>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="20"/>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="20"/>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="20"/>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="20"/>
-    </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="20"/>
     </row>
@@ -13104,36 +10077,15 @@
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="20"/>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="20"/>
-    </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="20"/>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="20"/>
-    </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="20"/>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="20"/>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="20"/>
-    </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="20"/>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="20"/>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="20"/>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="20"/>
-    </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="20"/>
     </row>
@@ -13146,24 +10098,12 @@
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="20"/>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="20"/>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="20"/>
-    </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="20"/>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="20"/>
-    </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="20"/>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="20"/>
-    </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="20"/>
     </row>
@@ -13173,162 +10113,66 @@
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="20"/>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="20"/>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="20"/>
-    </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="20"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="20"/>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="20"/>
-    </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="20"/>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="20"/>
-    </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="20"/>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="20"/>
-    </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="20"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="20"/>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="20"/>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="20"/>
-    </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="20"/>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="20"/>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="20"/>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="20"/>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="20"/>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="20"/>
-    </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="20"/>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="20"/>
-    </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="20"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="20"/>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="20"/>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="20"/>
-    </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="20"/>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="20"/>
-    </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="20"/>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="20"/>
-    </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="20"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="20"/>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="20"/>
-    </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="20"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="20"/>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="20"/>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="20"/>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="20"/>
-    </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="20"/>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="20"/>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="20"/>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="20"/>
-    </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="20"/>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="20"/>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="20"/>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="20"/>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="20"/>
-    </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="20"/>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="20"/>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="20"/>
-    </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="20"/>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="20"/>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="20"/>
-    </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="20"/>
     </row>
@@ -13341,12 +10185,6 @@
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="20"/>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="20"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="20"/>
-    </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="20"/>
     </row>
@@ -13359,51 +10197,18 @@
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="20"/>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="20"/>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="20"/>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="20"/>
-    </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="20"/>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="20"/>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="20"/>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="20"/>
-    </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="20"/>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="20"/>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="20"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="20"/>
-    </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="20"/>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="20"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="20"/>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="20"/>
-    </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="20"/>
     </row>
@@ -13413,90 +10218,30 @@
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="20"/>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="20"/>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957" s="20"/>
-    </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="20"/>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="20"/>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="20"/>
-    </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="20"/>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" s="20"/>
-    </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="20"/>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="20"/>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" s="20"/>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" s="20"/>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" s="20"/>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" s="20"/>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="20"/>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="20"/>
-    </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="20"/>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" s="20"/>
-    </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="20"/>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="20"/>
-    </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="20"/>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="20"/>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" s="20"/>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" s="20"/>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" s="20"/>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="20"/>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="20"/>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" s="20"/>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="20"/>
-    </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="20"/>
     </row>
@@ -13509,18 +10254,6 @@
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="20"/>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" s="20"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" s="20"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" s="20"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" s="20"/>
-    </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="20"/>
     </row>
@@ -13533,24 +10266,12 @@
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="20"/>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="20"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="20"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="20"/>
-    </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="20"/>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="20"/>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="20"/>
-    </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="20"/>
     </row>
@@ -13563,30 +10284,6 @@
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="20"/>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="20"/>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="20"/>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="20"/>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="20"/>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="20"/>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="20"/>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="20"/>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" s="20"/>
-    </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="20"/>
     </row>
@@ -13599,18 +10296,6 @@
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="20"/>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" s="20"/>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" s="20"/>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" s="20"/>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" s="20"/>
-    </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="20"/>
     </row>
@@ -13620,153 +10305,18 @@
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="20"/>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="20"/>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" s="20"/>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="20"/>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="20"/>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" s="20"/>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" s="20"/>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" s="20"/>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="20"/>
-    </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="20"/>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="20"/>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="20"/>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="20"/>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="20"/>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" s="20"/>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" s="20"/>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" s="20"/>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" s="20"/>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" s="20"/>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="20"/>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" s="20"/>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" s="20"/>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" s="20"/>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047" s="20"/>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" s="20"/>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" s="20"/>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" s="20"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" s="20"/>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" s="20"/>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="20"/>
-    </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="20"/>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="20"/>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" s="20"/>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="20"/>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="20"/>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="20"/>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" s="20"/>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" s="20"/>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="20"/>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="20"/>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="20"/>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="20"/>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" s="20"/>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" s="20"/>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" s="20"/>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" s="20"/>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" s="20"/>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="20"/>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="20"/>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="20"/>
-    </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="20"/>
     </row>
@@ -13800,129 +10350,6 @@
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="20"/>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" s="20"/>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="20"/>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="20"/>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="20"/>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="20"/>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="20"/>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="20"/>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="20"/>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="20"/>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="20"/>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="20"/>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" s="20"/>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="20"/>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" s="20"/>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="20"/>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="20"/>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="20"/>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" s="20"/>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="20"/>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" s="20"/>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="20"/>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="20"/>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="20"/>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="20"/>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="20"/>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="20"/>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="20"/>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="20"/>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="20"/>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="20"/>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="20"/>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="20"/>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" s="20"/>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" s="20"/>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" s="20"/>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" s="20"/>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="20"/>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" s="20"/>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" s="20"/>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" s="20"/>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" s="20"/>
-    </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="20"/>
     </row>
@@ -17361,7 +13788,688 @@
     <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2271" s="20"/>
     </row>
+    <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2272" s="39"/>
+    </row>
+    <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2273" s="39"/>
+    </row>
+    <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2274" s="39"/>
+    </row>
+    <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2275" s="39"/>
+    </row>
+    <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2276" s="39"/>
+    </row>
+    <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2277" s="39"/>
+    </row>
+    <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2278" s="39"/>
+    </row>
+    <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2279" s="39"/>
+    </row>
+    <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2280" s="39"/>
+    </row>
+    <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2281" s="39"/>
+    </row>
+    <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2282" s="39"/>
+    </row>
+    <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2283" s="39"/>
+    </row>
+    <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2284" s="39"/>
+    </row>
+    <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2285" s="39"/>
+    </row>
+    <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2286" s="39"/>
+    </row>
+    <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2287" s="39"/>
+    </row>
+    <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2288" s="39"/>
+    </row>
+    <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2289" s="39"/>
+    </row>
+    <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2290" s="39"/>
+    </row>
+    <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2291" s="39"/>
+    </row>
+    <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2292" s="39"/>
+    </row>
+    <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2293" s="39"/>
+    </row>
+    <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2294" s="39"/>
+    </row>
+    <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2295" s="39"/>
+    </row>
+    <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2296" s="39"/>
+    </row>
+    <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2297" s="39"/>
+    </row>
+    <row r="2298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2298" s="39"/>
+    </row>
+    <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2299" s="39"/>
+    </row>
+    <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2300" s="39"/>
+    </row>
+    <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2301" s="39"/>
+    </row>
+    <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2302" s="39"/>
+    </row>
+    <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2303" s="39"/>
+    </row>
+    <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2304" s="39"/>
+    </row>
+    <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2305" s="39"/>
+    </row>
+    <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2306" s="39"/>
+    </row>
+    <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2307" s="39"/>
+    </row>
+    <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2308" s="39"/>
+    </row>
+    <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2309" s="39"/>
+    </row>
+    <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2310" s="39"/>
+    </row>
+    <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2311" s="39"/>
+    </row>
+    <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2312" s="39"/>
+    </row>
+    <row r="2313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2313" s="39"/>
+    </row>
+    <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2314" s="39"/>
+    </row>
+    <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2315" s="39"/>
+    </row>
+    <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2316" s="39"/>
+    </row>
+    <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2317" s="39"/>
+    </row>
+    <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2318" s="39"/>
+    </row>
+    <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2319" s="39"/>
+    </row>
+    <row r="2320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2320" s="39"/>
+    </row>
+    <row r="2321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2321" s="39"/>
+    </row>
+    <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2322" s="39"/>
+    </row>
+    <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2323" s="39"/>
+    </row>
+    <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2324" s="39"/>
+    </row>
+    <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2325" s="39"/>
+    </row>
+    <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2326" s="39"/>
+    </row>
+    <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2327" s="39"/>
+    </row>
+    <row r="2328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2328" s="39"/>
+    </row>
+    <row r="2329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2329" s="39"/>
+    </row>
+    <row r="2330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2330" s="39"/>
+    </row>
+    <row r="2331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2331" s="39"/>
+    </row>
+    <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2332" s="39"/>
+    </row>
+    <row r="2333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2333" s="39"/>
+    </row>
+    <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2334" s="39"/>
+    </row>
+    <row r="2335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2335" s="39"/>
+    </row>
+    <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2336" s="39"/>
+    </row>
+    <row r="2337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2337" s="39"/>
+    </row>
+    <row r="2338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2338" s="39"/>
+    </row>
+    <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2339" s="39"/>
+    </row>
+    <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2340" s="39"/>
+    </row>
+    <row r="2341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2341" s="39"/>
+    </row>
+    <row r="2342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2342" s="39"/>
+    </row>
+    <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2343" s="39"/>
+    </row>
+    <row r="2344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2344" s="39"/>
+    </row>
+    <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2345" s="39"/>
+    </row>
+    <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2346" s="39"/>
+    </row>
+    <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2347" s="39"/>
+    </row>
+    <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2348" s="39"/>
+    </row>
+    <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2349" s="39"/>
+    </row>
+    <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2350" s="39"/>
+    </row>
+    <row r="2351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2351" s="39"/>
+    </row>
+    <row r="2352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2352" s="39"/>
+    </row>
+    <row r="2353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2353" s="39"/>
+    </row>
+    <row r="2354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2354" s="39"/>
+    </row>
+    <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2355" s="39"/>
+    </row>
+    <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2356" s="39"/>
+    </row>
+    <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2357" s="39"/>
+    </row>
+    <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2358" s="39"/>
+    </row>
+    <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2359" s="39"/>
+    </row>
+    <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2360" s="39"/>
+    </row>
+    <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2361" s="39"/>
+    </row>
+    <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2362" s="39"/>
+    </row>
+    <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2363" s="39"/>
+    </row>
+    <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2364" s="39"/>
+    </row>
+    <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2365" s="39"/>
+    </row>
+    <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2366" s="39"/>
+    </row>
+    <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2367" s="39"/>
+    </row>
+    <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2368" s="39"/>
+    </row>
+    <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2369" s="39"/>
+    </row>
+    <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2370" s="39"/>
+    </row>
+    <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2371" s="39"/>
+    </row>
+    <row r="2372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2372" s="39"/>
+    </row>
+    <row r="2373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2373" s="39"/>
+    </row>
+    <row r="2374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2374" s="39"/>
+    </row>
+    <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2375" s="39"/>
+    </row>
+    <row r="2376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2376" s="39"/>
+    </row>
+    <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2377" s="39"/>
+    </row>
+    <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2378" s="39"/>
+    </row>
+    <row r="2379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2379" s="39"/>
+    </row>
+    <row r="2380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2380" s="39"/>
+    </row>
+    <row r="2381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2381" s="39"/>
+    </row>
+    <row r="2382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2382" s="39"/>
+    </row>
+    <row r="2383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2383" s="39"/>
+    </row>
+    <row r="2384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2384" s="39"/>
+    </row>
+    <row r="2385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2385" s="39"/>
+    </row>
+    <row r="2386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2386" s="39"/>
+    </row>
+    <row r="2387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2387" s="39"/>
+    </row>
+    <row r="2388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2388" s="39"/>
+    </row>
+    <row r="2389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2389" s="39"/>
+    </row>
+    <row r="2390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2390" s="39"/>
+    </row>
+    <row r="2391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2391" s="39"/>
+    </row>
+    <row r="2392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2392" s="39"/>
+    </row>
+    <row r="2393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2393" s="39"/>
+    </row>
+    <row r="2394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2394" s="39"/>
+    </row>
+    <row r="2395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2395" s="39"/>
+    </row>
+    <row r="2396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2396" s="39"/>
+    </row>
+    <row r="2397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2397" s="39"/>
+    </row>
+    <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2398" s="39"/>
+    </row>
+    <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2399" s="39"/>
+    </row>
+    <row r="2400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2400" s="39"/>
+    </row>
+    <row r="2401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2401" s="39"/>
+    </row>
+    <row r="2402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2402" s="39"/>
+    </row>
+    <row r="2403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2403" s="39"/>
+    </row>
+    <row r="2404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2404" s="39"/>
+    </row>
+    <row r="2405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2405" s="39"/>
+    </row>
+    <row r="2406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2406" s="39"/>
+    </row>
+    <row r="2407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2407" s="39"/>
+    </row>
+    <row r="2408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2408" s="39"/>
+    </row>
+    <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2409" s="39"/>
+    </row>
+    <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2410" s="39"/>
+    </row>
+    <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2411" s="39"/>
+    </row>
+    <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2412" s="39"/>
+    </row>
+    <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2413" s="39"/>
+    </row>
+    <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2414" s="39"/>
+    </row>
+    <row r="2415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2415" s="39"/>
+    </row>
+    <row r="2416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2416" s="39"/>
+    </row>
+    <row r="2417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2417" s="39"/>
+    </row>
+    <row r="2418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2418" s="39"/>
+    </row>
+    <row r="2419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2419" s="39"/>
+    </row>
+    <row r="2420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2420" s="39"/>
+    </row>
+    <row r="2421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2421" s="39"/>
+    </row>
+    <row r="2422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2422" s="39"/>
+    </row>
+    <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2423" s="39"/>
+    </row>
+    <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2424" s="39"/>
+    </row>
+    <row r="2425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2425" s="39"/>
+    </row>
+    <row r="2426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2426" s="39"/>
+    </row>
+    <row r="2427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2427" s="39"/>
+    </row>
+    <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2428" s="39"/>
+    </row>
+    <row r="2429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2429" s="39"/>
+    </row>
+    <row r="2430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2430" s="39"/>
+    </row>
+    <row r="2431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2431" s="39"/>
+    </row>
+    <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2432" s="39"/>
+    </row>
+    <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2433" s="39"/>
+    </row>
+    <row r="2434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2434" s="39"/>
+    </row>
+    <row r="2435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2435" s="39"/>
+    </row>
+    <row r="2436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2436" s="39"/>
+    </row>
+    <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2437" s="39"/>
+    </row>
+    <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2438" s="39"/>
+    </row>
+    <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2439" s="39"/>
+    </row>
+    <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2440" s="39"/>
+    </row>
+    <row r="2441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2441" s="39"/>
+    </row>
+    <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2442" s="39"/>
+    </row>
+    <row r="2443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2443" s="39"/>
+    </row>
+    <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2444" s="39"/>
+    </row>
+    <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2445" s="39"/>
+    </row>
+    <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2446" s="39"/>
+    </row>
+    <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2447" s="39"/>
+    </row>
+    <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2448" s="39"/>
+    </row>
+    <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2449" s="39"/>
+    </row>
+    <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2450" s="39"/>
+    </row>
+    <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2451" s="39"/>
+    </row>
+    <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2452" s="39"/>
+    </row>
+    <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2453" s="39"/>
+    </row>
+    <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2454" s="39"/>
+    </row>
+    <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2455" s="39"/>
+    </row>
+    <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2456" s="39"/>
+    </row>
+    <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2457" s="39"/>
+    </row>
+    <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2458" s="39"/>
+    </row>
+    <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2459" s="39"/>
+    </row>
+    <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2460" s="39"/>
+    </row>
+    <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2461" s="39"/>
+    </row>
+    <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2462" s="39"/>
+    </row>
+    <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2463" s="39"/>
+    </row>
+    <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2464" s="39"/>
+    </row>
+    <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2465" s="39"/>
+    </row>
+    <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2466" s="39"/>
+    </row>
+    <row r="2467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2467" s="39"/>
+    </row>
+    <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2468" s="39"/>
+    </row>
+    <row r="2469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2469" s="39"/>
+    </row>
+    <row r="2470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2470" s="39"/>
+    </row>
+    <row r="2471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2471" s="39"/>
+    </row>
+    <row r="2472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2472" s="39"/>
+    </row>
+    <row r="2473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2473" s="39"/>
+    </row>
+    <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2474" s="39"/>
+    </row>
+    <row r="2475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2475" s="39"/>
+    </row>
+    <row r="2476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2476" s="39"/>
+    </row>
+    <row r="2477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2477" s="39"/>
+    </row>
+    <row r="2478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2478" s="39"/>
+    </row>
+    <row r="2479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2479" s="39"/>
+    </row>
+    <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2480" s="39"/>
+    </row>
+    <row r="2481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2481" s="39"/>
+    </row>
+    <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2482" s="39"/>
+    </row>
+    <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2483" s="39"/>
+    </row>
+    <row r="2484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2484" s="39"/>
+    </row>
+    <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2485" s="39"/>
+    </row>
+    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2486" s="39"/>
+    </row>
+    <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2487" s="39"/>
+    </row>
+    <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2488" s="39"/>
+    </row>
+    <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2489" s="39"/>
+    </row>
+    <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2490" s="39"/>
+    </row>
+    <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2491" s="39"/>
+    </row>
+    <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2492" s="39"/>
+    </row>
+    <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2493" s="39"/>
+    </row>
+    <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2494" s="39"/>
+    </row>
+    <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2495" s="39"/>
+    </row>
+    <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2496" s="39"/>
+    </row>
+    <row r="3957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3957" s="39"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:F3957">
+    <sortCondition descending="1" ref="B2:B3957"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17381,13 +14489,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -17410,13 +14518,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -17427,7 +14535,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17444,25 +14552,25 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -17476,7 +14584,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="16" t="e">
-        <f t="shared" ref="H2:H9" si="0">G2/G$10</f>
+        <f>G2/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17491,7 +14599,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G3/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17506,13 +14614,13 @@
       <c r="F4" s="19"/>
       <c r="G4" s="18"/>
       <c r="H4" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G4/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -17521,13 +14629,13 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G5/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -17536,13 +14644,13 @@
       <c r="F6" s="19"/>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G6/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -17551,13 +14659,13 @@
       <c r="F7" s="19"/>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G7/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -17566,54 +14674,69 @@
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G8/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f>G9/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="18">
-        <f t="shared" ref="B10:G10" si="1">SUM(B2:B9)</f>
+        <v>85</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="e">
+        <f>G10/G$11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18">
+        <f t="shared" ref="B11:G11" si="0">SUM(B2:B10)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="18">
-        <f t="shared" si="1"/>
+      <c r="C11" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="18">
-        <f t="shared" si="1"/>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="18">
-        <f t="shared" si="1"/>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <f t="shared" si="1"/>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="18">
-        <f t="shared" si="1"/>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -34,13 +34,17 @@
     <sheet name="Org HighLevel GPU 2018-09-18" sheetId="8" r:id="rId20"/>
     <sheet name="Org Breakdown GPU 2018-09-18" sheetId="9" r:id="rId21"/>
     <sheet name="Largest Jobs GPU 2018-09-18" sheetId="11" r:id="rId22"/>
+    <sheet name="Cumulative 2018-09" sheetId="35" r:id="rId23"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId24"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>Rank</t>
   </si>
@@ -304,6 +308,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (CPU nodes)</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (GPU Nodes)</t>
+  </si>
+  <si>
+    <t>Cumulative Core Hours (Total)</t>
+  </si>
+  <si>
+    <t>Industry &amp; Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -966,6 +988,2750 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16387806175390868"/>
+          <c:y val="4.6044656805630302E-2"/>
+          <c:w val="0.52474812741430577"/>
+          <c:h val="0.72330329479134559"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Core Hours (CPU nodes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41515601.188611098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43498600.438611098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62390934.264722198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81475607.481944397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92635599.422777802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106419986.16944399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122841353.38249999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138637852.47166699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>157230950.66666701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174764740.83388901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192916055.90444401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>211720916.744167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230919864.221111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249005189.67611101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>266936676.198333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>283593104.57305598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300152017.509444</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>315965584.54722202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>333997098.63277799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>348846197.60861099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>364624503.01027799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381574647.875278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398824226.78027803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416307445.14555597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>434557785.78250003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450423475.024167</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>469270269.675556</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>488706241.62138933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>503869057.607521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D24B-49B4-AB45-FDF60374071D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Core Hours (GPU Nodes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4660208.0666666701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4805520.4666666696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6358490.3399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8241452.8133333297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10736001.206666701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12901314.813333301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15094269.893333299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16949466.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19036381.719999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20859964.006666701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22772028.053333301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24724853.393333301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26808345.413333301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28703917.5666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30758431.2266667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32609443.153333299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34178264.460000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35718879.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37371036.293333299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38729788.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40145114.227222197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41917944.731944397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43499917.205277801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45446290.738611102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47136106.211944401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48215932.985277802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49511659.351944402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50577905.091944404</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52039647.698611103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D24B-49B4-AB45-FDF60374071D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113592576"/>
+        <c:axId val="113606656"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="113592576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113606656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="113606656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113592576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73845234298983653"/>
+          <c:y val="0.37489550297032809"/>
+          <c:w val="0.24908659782013229"/>
+          <c:h val="0.25020899405934388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15963526403859712"/>
+          <c:y val="4.926241928152654E-2"/>
+          <c:w val="0.59398924648981988"/>
+          <c:h val="0.70396675637423956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24562569.515277799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26033013.509166699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35247387.720833302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42825018.751111098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46666274.1297222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51249853.161666699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57154144.860277802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61703314.560555503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67549377.876944393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71947097.201944396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76357104.516388893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81375155.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86161436.9491667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91275614.107777804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97287676.206944406</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103347500.76222201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>109591660.463889</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114790148.4025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121782633.35111099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>127386474.815833</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>134477576.67833301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>142794104.42583299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150222427.68472201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157273143.93583301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163186233.11277801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>169853770.068333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>179359531.591389</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>187883964.14583343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194280827.72224301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B42A-4019-B390-FEC487DD91F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11228948.621111101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11331993.7555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16744875.6163889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23370843.7341667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27266987.3172222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34068271.007222198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39740736.366388902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46925795.598611102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55768722.152777798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62004571.033611096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67740808.998611093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74111826.151944295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80462450.331666604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87141287.7444444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94531390.963055506</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100799107.66722199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107399896.805555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113964339.644722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119955238.375833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125851241.096111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131696426.081389</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138146044.161111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145921210.45444399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153957364.223611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163148270.90916699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>169781806.67222199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>176869249.916944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185464750.9841662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>191644649.90083301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B42A-4019-B390-FEC487DD91F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NTU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$J$2:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7310084.4550000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7746208.3372222204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12579036.4344444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17946711.326388899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20640594.2938889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24174804.7658333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29212454.633055601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34400492.978888899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39697985.619166702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47850468.612222202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56683705.698611103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64764006.681111097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74105917.465833396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81629134.457777798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87135446.443611205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91598582.373611197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94740092.928055599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99203029.090833396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103673356.33499999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107563684.542778</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111098146.941945</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113915163.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116192065.97972199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118968182.76444501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>121669606.1925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123969022.83611099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>125884336.710833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128260702.37666632</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130808713.873889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B42A-4019-B390-FEC487DD91F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CREATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$K$2:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1537410.0674999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1574657.4275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2415334.6847222201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3662462.9030555598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4880822.5555555597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5552614.5863888897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7232936.4583333302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7695489.9961111099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7789645.5427777804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7905387.9894444402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8194858.1861111103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8472312.8783333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8699092.5716666691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8741999.3183333296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9206129.6316666696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9752514.4116666708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10793443.284166699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11056978.467222201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12288510.884722199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12709121.3647222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12822636.038055601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13019589.838055599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13232770.5391667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13427362.826388899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13988384.3458333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14299679.685000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14393674.0033333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14524236.5233333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14731818.5133333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B42A-4019-B390-FEC487DD91F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2018-09'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry &amp; Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2018-09'!$L$2:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536796.5963900001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1618247.87583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1762790.14833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1912023.5805599999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3916922.3330600001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4275757.4616700001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4595350.9577799998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4862225.8375000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5461601.1950000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5917180.0033299997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6711606.5580599997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7722469.2386100003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8299312.31611</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8921071.6144399997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9534464.1797199994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10704842.511670001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11805188.487779999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12669968.261940001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13668395.97944</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14065464.46917</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14674831.497780001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15617690.80222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16755669.327500001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18127682.133889999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19701397.434166599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20735128.747779999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22275136.805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23150492.68333447</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24442695.29583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B42A-4019-B390-FEC487DD91F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="114104960"/>
+        <c:axId val="114106752"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="114104960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114106752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="114106752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114104960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Queue First Job 2018-09"/>
+      <sheetName val="Core Summary 2018-09"/>
+      <sheetName val="Project Usage 2018-09"/>
+      <sheetName val="Project Stakeholder 2018-09"/>
+      <sheetName val="Project Status 2018-09"/>
+      <sheetName val="Personal Status 2018-09"/>
+      <sheetName val="Storage Summary 2018-09"/>
+      <sheetName val="Storage by Fileset 2018-09"/>
+      <sheetName val="Storage By Org 2018-09"/>
+      <sheetName val="Active Users 2018-09"/>
+      <sheetName val="By Cores CPU 2018-09"/>
+      <sheetName val="Applications CPU 2018-09"/>
+      <sheetName val="User Walltime CPU 2018-09"/>
+      <sheetName val="Org HighLevel CPU 2018-09"/>
+      <sheetName val="Org Breakdown CPU 2018-09"/>
+      <sheetName val="Largest Jobs CPU 2018-09"/>
+      <sheetName val="By Cores GPU 2018-09"/>
+      <sheetName val="Applications GPU 2018-09"/>
+      <sheetName val="User Walltime GPU 2018-09"/>
+      <sheetName val="Org HighLevel GPU 2018-09"/>
+      <sheetName val="Org Breakdown GPU 2018-09"/>
+      <sheetName val="Largest Jobs GPU 2018-09"/>
+      <sheetName val="Cumulative 2018-09"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Cumulative Core Hours (CPU nodes)</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Cumulative Core Hours (GPU Nodes)</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>A*STAR</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>NUS</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>NTU</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>CREATE</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Industry &amp; Other</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>42457</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>42457</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>42538</v>
+          </cell>
+          <cell r="B3">
+            <v>41515601.188611098</v>
+          </cell>
+          <cell r="C3">
+            <v>4660208.0666666701</v>
+          </cell>
+          <cell r="G3">
+            <v>42538</v>
+          </cell>
+          <cell r="H3">
+            <v>24562569.515277799</v>
+          </cell>
+          <cell r="I3">
+            <v>11228948.621111101</v>
+          </cell>
+          <cell r="J3">
+            <v>7310084.4550000001</v>
+          </cell>
+          <cell r="K3">
+            <v>1537410.0674999999</v>
+          </cell>
+          <cell r="L3">
+            <v>1536796.5963900001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>42551</v>
+          </cell>
+          <cell r="B4">
+            <v>43498600.438611098</v>
+          </cell>
+          <cell r="C4">
+            <v>4805520.4666666696</v>
+          </cell>
+          <cell r="G4">
+            <v>42551</v>
+          </cell>
+          <cell r="H4">
+            <v>26033013.509166699</v>
+          </cell>
+          <cell r="I4">
+            <v>11331993.7555556</v>
+          </cell>
+          <cell r="J4">
+            <v>7746208.3372222204</v>
+          </cell>
+          <cell r="K4">
+            <v>1574657.4275</v>
+          </cell>
+          <cell r="L4">
+            <v>1618247.87583</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>42582</v>
+          </cell>
+          <cell r="B5">
+            <v>62390934.264722198</v>
+          </cell>
+          <cell r="C5">
+            <v>6358490.3399999999</v>
+          </cell>
+          <cell r="G5">
+            <v>42582</v>
+          </cell>
+          <cell r="H5">
+            <v>35247387.720833302</v>
+          </cell>
+          <cell r="I5">
+            <v>16744875.6163889</v>
+          </cell>
+          <cell r="J5">
+            <v>12579036.4344444</v>
+          </cell>
+          <cell r="K5">
+            <v>2415334.6847222201</v>
+          </cell>
+          <cell r="L5">
+            <v>1762790.14833</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42613</v>
+          </cell>
+          <cell r="B6">
+            <v>81475607.481944397</v>
+          </cell>
+          <cell r="C6">
+            <v>8241452.8133333297</v>
+          </cell>
+          <cell r="G6">
+            <v>42613</v>
+          </cell>
+          <cell r="H6">
+            <v>42825018.751111098</v>
+          </cell>
+          <cell r="I6">
+            <v>23370843.7341667</v>
+          </cell>
+          <cell r="J6">
+            <v>17946711.326388899</v>
+          </cell>
+          <cell r="K6">
+            <v>3662462.9030555598</v>
+          </cell>
+          <cell r="L6">
+            <v>1912023.5805599999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>42643</v>
+          </cell>
+          <cell r="B7">
+            <v>92635599.422777802</v>
+          </cell>
+          <cell r="C7">
+            <v>10736001.206666701</v>
+          </cell>
+          <cell r="G7">
+            <v>42643</v>
+          </cell>
+          <cell r="H7">
+            <v>46666274.1297222</v>
+          </cell>
+          <cell r="I7">
+            <v>27266987.3172222</v>
+          </cell>
+          <cell r="J7">
+            <v>20640594.2938889</v>
+          </cell>
+          <cell r="K7">
+            <v>4880822.5555555597</v>
+          </cell>
+          <cell r="L7">
+            <v>3916922.3330600001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>42674</v>
+          </cell>
+          <cell r="B8">
+            <v>106419986.16944399</v>
+          </cell>
+          <cell r="C8">
+            <v>12901314.813333301</v>
+          </cell>
+          <cell r="G8">
+            <v>42674</v>
+          </cell>
+          <cell r="H8">
+            <v>51249853.161666699</v>
+          </cell>
+          <cell r="I8">
+            <v>34068271.007222198</v>
+          </cell>
+          <cell r="J8">
+            <v>24174804.7658333</v>
+          </cell>
+          <cell r="K8">
+            <v>5552614.5863888897</v>
+          </cell>
+          <cell r="L8">
+            <v>4275757.4616700001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>42704</v>
+          </cell>
+          <cell r="B9">
+            <v>122841353.38249999</v>
+          </cell>
+          <cell r="C9">
+            <v>15094269.893333299</v>
+          </cell>
+          <cell r="G9">
+            <v>42704</v>
+          </cell>
+          <cell r="H9">
+            <v>57154144.860277802</v>
+          </cell>
+          <cell r="I9">
+            <v>39740736.366388902</v>
+          </cell>
+          <cell r="J9">
+            <v>29212454.633055601</v>
+          </cell>
+          <cell r="K9">
+            <v>7232936.4583333302</v>
+          </cell>
+          <cell r="L9">
+            <v>4595350.9577799998</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>42735</v>
+          </cell>
+          <cell r="B10">
+            <v>138637852.47166699</v>
+          </cell>
+          <cell r="C10">
+            <v>16949466.5</v>
+          </cell>
+          <cell r="G10">
+            <v>42735</v>
+          </cell>
+          <cell r="H10">
+            <v>61703314.560555503</v>
+          </cell>
+          <cell r="I10">
+            <v>46925795.598611102</v>
+          </cell>
+          <cell r="J10">
+            <v>34400492.978888899</v>
+          </cell>
+          <cell r="K10">
+            <v>7695489.9961111099</v>
+          </cell>
+          <cell r="L10">
+            <v>4862225.8375000004</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>42766</v>
+          </cell>
+          <cell r="B11">
+            <v>157230950.66666701</v>
+          </cell>
+          <cell r="C11">
+            <v>19036381.719999999</v>
+          </cell>
+          <cell r="G11">
+            <v>42766</v>
+          </cell>
+          <cell r="H11">
+            <v>67549377.876944393</v>
+          </cell>
+          <cell r="I11">
+            <v>55768722.152777798</v>
+          </cell>
+          <cell r="J11">
+            <v>39697985.619166702</v>
+          </cell>
+          <cell r="K11">
+            <v>7789645.5427777804</v>
+          </cell>
+          <cell r="L11">
+            <v>5461601.1950000003</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>42794</v>
+          </cell>
+          <cell r="B12">
+            <v>174764740.83388901</v>
+          </cell>
+          <cell r="C12">
+            <v>20859964.006666701</v>
+          </cell>
+          <cell r="G12">
+            <v>42794</v>
+          </cell>
+          <cell r="H12">
+            <v>71947097.201944396</v>
+          </cell>
+          <cell r="I12">
+            <v>62004571.033611096</v>
+          </cell>
+          <cell r="J12">
+            <v>47850468.612222202</v>
+          </cell>
+          <cell r="K12">
+            <v>7905387.9894444402</v>
+          </cell>
+          <cell r="L12">
+            <v>5917180.0033299997</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>42825</v>
+          </cell>
+          <cell r="B13">
+            <v>192916055.90444401</v>
+          </cell>
+          <cell r="C13">
+            <v>22772028.053333301</v>
+          </cell>
+          <cell r="G13">
+            <v>42825</v>
+          </cell>
+          <cell r="H13">
+            <v>76357104.516388893</v>
+          </cell>
+          <cell r="I13">
+            <v>67740808.998611093</v>
+          </cell>
+          <cell r="J13">
+            <v>56683705.698611103</v>
+          </cell>
+          <cell r="K13">
+            <v>8194858.1861111103</v>
+          </cell>
+          <cell r="L13">
+            <v>6711606.5580599997</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>42855</v>
+          </cell>
+          <cell r="B14">
+            <v>211720916.744167</v>
+          </cell>
+          <cell r="C14">
+            <v>24724853.393333301</v>
+          </cell>
+          <cell r="G14">
+            <v>42855</v>
+          </cell>
+          <cell r="H14">
+            <v>81375155.1875</v>
+          </cell>
+          <cell r="I14">
+            <v>74111826.151944295</v>
+          </cell>
+          <cell r="J14">
+            <v>64764006.681111097</v>
+          </cell>
+          <cell r="K14">
+            <v>8472312.8783333302</v>
+          </cell>
+          <cell r="L14">
+            <v>7722469.2386100003</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>42886</v>
+          </cell>
+          <cell r="B15">
+            <v>230919864.221111</v>
+          </cell>
+          <cell r="C15">
+            <v>26808345.413333301</v>
+          </cell>
+          <cell r="G15">
+            <v>42886</v>
+          </cell>
+          <cell r="H15">
+            <v>86161436.9491667</v>
+          </cell>
+          <cell r="I15">
+            <v>80462450.331666604</v>
+          </cell>
+          <cell r="J15">
+            <v>74105917.465833396</v>
+          </cell>
+          <cell r="K15">
+            <v>8699092.5716666691</v>
+          </cell>
+          <cell r="L15">
+            <v>8299312.31611</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>42916</v>
+          </cell>
+          <cell r="B16">
+            <v>249005189.67611101</v>
+          </cell>
+          <cell r="C16">
+            <v>28703917.5666667</v>
+          </cell>
+          <cell r="G16">
+            <v>42916</v>
+          </cell>
+          <cell r="H16">
+            <v>91275614.107777804</v>
+          </cell>
+          <cell r="I16">
+            <v>87141287.7444444</v>
+          </cell>
+          <cell r="J16">
+            <v>81629134.457777798</v>
+          </cell>
+          <cell r="K16">
+            <v>8741999.3183333296</v>
+          </cell>
+          <cell r="L16">
+            <v>8921071.6144399997</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>42947</v>
+          </cell>
+          <cell r="B17">
+            <v>266936676.198333</v>
+          </cell>
+          <cell r="C17">
+            <v>30758431.2266667</v>
+          </cell>
+          <cell r="G17">
+            <v>42947</v>
+          </cell>
+          <cell r="H17">
+            <v>97287676.206944406</v>
+          </cell>
+          <cell r="I17">
+            <v>94531390.963055506</v>
+          </cell>
+          <cell r="J17">
+            <v>87135446.443611205</v>
+          </cell>
+          <cell r="K17">
+            <v>9206129.6316666696</v>
+          </cell>
+          <cell r="L17">
+            <v>9534464.1797199994</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>42978</v>
+          </cell>
+          <cell r="B18">
+            <v>283593104.57305598</v>
+          </cell>
+          <cell r="C18">
+            <v>32609443.153333299</v>
+          </cell>
+          <cell r="G18">
+            <v>42978</v>
+          </cell>
+          <cell r="H18">
+            <v>103347500.76222201</v>
+          </cell>
+          <cell r="I18">
+            <v>100799107.66722199</v>
+          </cell>
+          <cell r="J18">
+            <v>91598582.373611197</v>
+          </cell>
+          <cell r="K18">
+            <v>9752514.4116666708</v>
+          </cell>
+          <cell r="L18">
+            <v>10704842.511670001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43008</v>
+          </cell>
+          <cell r="B19">
+            <v>300152017.509444</v>
+          </cell>
+          <cell r="C19">
+            <v>34178264.460000001</v>
+          </cell>
+          <cell r="G19">
+            <v>43008</v>
+          </cell>
+          <cell r="H19">
+            <v>109591660.463889</v>
+          </cell>
+          <cell r="I19">
+            <v>107399896.805555</v>
+          </cell>
+          <cell r="J19">
+            <v>94740092.928055599</v>
+          </cell>
+          <cell r="K19">
+            <v>10793443.284166699</v>
+          </cell>
+          <cell r="L19">
+            <v>11805188.487779999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43039</v>
+          </cell>
+          <cell r="B20">
+            <v>315965584.54722202</v>
+          </cell>
+          <cell r="C20">
+            <v>35718879.32</v>
+          </cell>
+          <cell r="G20">
+            <v>43039</v>
+          </cell>
+          <cell r="H20">
+            <v>114790148.4025</v>
+          </cell>
+          <cell r="I20">
+            <v>113964339.644722</v>
+          </cell>
+          <cell r="J20">
+            <v>99203029.090833396</v>
+          </cell>
+          <cell r="K20">
+            <v>11056978.467222201</v>
+          </cell>
+          <cell r="L20">
+            <v>12669968.261940001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43069</v>
+          </cell>
+          <cell r="B21">
+            <v>333997098.63277799</v>
+          </cell>
+          <cell r="C21">
+            <v>37371036.293333299</v>
+          </cell>
+          <cell r="G21">
+            <v>43069</v>
+          </cell>
+          <cell r="H21">
+            <v>121782633.35111099</v>
+          </cell>
+          <cell r="I21">
+            <v>119955238.375833</v>
+          </cell>
+          <cell r="J21">
+            <v>103673356.33499999</v>
+          </cell>
+          <cell r="K21">
+            <v>12288510.884722199</v>
+          </cell>
+          <cell r="L21">
+            <v>13668395.97944</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43100</v>
+          </cell>
+          <cell r="B22">
+            <v>348846197.60861099</v>
+          </cell>
+          <cell r="C22">
+            <v>38729788.68</v>
+          </cell>
+          <cell r="G22">
+            <v>43100</v>
+          </cell>
+          <cell r="H22">
+            <v>127386474.815833</v>
+          </cell>
+          <cell r="I22">
+            <v>125851241.096111</v>
+          </cell>
+          <cell r="J22">
+            <v>107563684.542778</v>
+          </cell>
+          <cell r="K22">
+            <v>12709121.3647222</v>
+          </cell>
+          <cell r="L22">
+            <v>14065464.46917</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43131</v>
+          </cell>
+          <cell r="B23">
+            <v>364624503.01027799</v>
+          </cell>
+          <cell r="C23">
+            <v>40145114.227222197</v>
+          </cell>
+          <cell r="G23">
+            <v>43131</v>
+          </cell>
+          <cell r="H23">
+            <v>134477576.67833301</v>
+          </cell>
+          <cell r="I23">
+            <v>131696426.081389</v>
+          </cell>
+          <cell r="J23">
+            <v>111098146.941945</v>
+          </cell>
+          <cell r="K23">
+            <v>12822636.038055601</v>
+          </cell>
+          <cell r="L23">
+            <v>14674831.497780001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43159</v>
+          </cell>
+          <cell r="B24">
+            <v>381574647.875278</v>
+          </cell>
+          <cell r="C24">
+            <v>41917944.731944397</v>
+          </cell>
+          <cell r="G24">
+            <v>43159</v>
+          </cell>
+          <cell r="H24">
+            <v>142794104.42583299</v>
+          </cell>
+          <cell r="I24">
+            <v>138146044.161111</v>
+          </cell>
+          <cell r="J24">
+            <v>113915163.38</v>
+          </cell>
+          <cell r="K24">
+            <v>13019589.838055599</v>
+          </cell>
+          <cell r="L24">
+            <v>15617690.80222</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43190</v>
+          </cell>
+          <cell r="B25">
+            <v>398824226.78027803</v>
+          </cell>
+          <cell r="C25">
+            <v>43499917.205277801</v>
+          </cell>
+          <cell r="G25">
+            <v>43190</v>
+          </cell>
+          <cell r="H25">
+            <v>150222427.68472201</v>
+          </cell>
+          <cell r="I25">
+            <v>145921210.45444399</v>
+          </cell>
+          <cell r="J25">
+            <v>116192065.97972199</v>
+          </cell>
+          <cell r="K25">
+            <v>13232770.5391667</v>
+          </cell>
+          <cell r="L25">
+            <v>16755669.327500001</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43220</v>
+          </cell>
+          <cell r="B26">
+            <v>416307445.14555597</v>
+          </cell>
+          <cell r="C26">
+            <v>45446290.738611102</v>
+          </cell>
+          <cell r="G26">
+            <v>43220</v>
+          </cell>
+          <cell r="H26">
+            <v>157273143.93583301</v>
+          </cell>
+          <cell r="I26">
+            <v>153957364.223611</v>
+          </cell>
+          <cell r="J26">
+            <v>118968182.76444501</v>
+          </cell>
+          <cell r="K26">
+            <v>13427362.826388899</v>
+          </cell>
+          <cell r="L26">
+            <v>18127682.133889999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43251</v>
+          </cell>
+          <cell r="B27">
+            <v>434557785.78250003</v>
+          </cell>
+          <cell r="C27">
+            <v>47136106.211944401</v>
+          </cell>
+          <cell r="G27">
+            <v>43251</v>
+          </cell>
+          <cell r="H27">
+            <v>163186233.11277801</v>
+          </cell>
+          <cell r="I27">
+            <v>163148270.90916699</v>
+          </cell>
+          <cell r="J27">
+            <v>121669606.1925</v>
+          </cell>
+          <cell r="K27">
+            <v>13988384.3458333</v>
+          </cell>
+          <cell r="L27">
+            <v>19701397.434166599</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43281</v>
+          </cell>
+          <cell r="B28">
+            <v>450423475.024167</v>
+          </cell>
+          <cell r="C28">
+            <v>48215932.985277802</v>
+          </cell>
+          <cell r="G28">
+            <v>43281</v>
+          </cell>
+          <cell r="H28">
+            <v>169853770.068333</v>
+          </cell>
+          <cell r="I28">
+            <v>169781806.67222199</v>
+          </cell>
+          <cell r="J28">
+            <v>123969022.83611099</v>
+          </cell>
+          <cell r="K28">
+            <v>14299679.685000001</v>
+          </cell>
+          <cell r="L28">
+            <v>20735128.747779999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43312</v>
+          </cell>
+          <cell r="B29">
+            <v>469270269.675556</v>
+          </cell>
+          <cell r="C29">
+            <v>49511659.351944402</v>
+          </cell>
+          <cell r="G29">
+            <v>43312</v>
+          </cell>
+          <cell r="H29">
+            <v>179359531.591389</v>
+          </cell>
+          <cell r="I29">
+            <v>176869249.916944</v>
+          </cell>
+          <cell r="J29">
+            <v>125884336.710833</v>
+          </cell>
+          <cell r="K29">
+            <v>14393674.0033333</v>
+          </cell>
+          <cell r="L29">
+            <v>22275136.805</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43343</v>
+          </cell>
+          <cell r="B30">
+            <v>488706241.62138933</v>
+          </cell>
+          <cell r="C30">
+            <v>50577905.091944404</v>
+          </cell>
+          <cell r="G30">
+            <v>43343</v>
+          </cell>
+          <cell r="H30">
+            <v>187883964.14583343</v>
+          </cell>
+          <cell r="I30">
+            <v>185464750.9841662</v>
+          </cell>
+          <cell r="J30">
+            <v>128260702.37666632</v>
+          </cell>
+          <cell r="K30">
+            <v>14524236.5233333</v>
+          </cell>
+          <cell r="L30">
+            <v>23150492.68333447</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43373</v>
+          </cell>
+          <cell r="B31">
+            <v>503869057.607521</v>
+          </cell>
+          <cell r="C31">
+            <v>52039647.698611103</v>
+          </cell>
+          <cell r="G31">
+            <v>43373</v>
+          </cell>
+          <cell r="H31">
+            <v>194280827.72224301</v>
+          </cell>
+          <cell r="I31">
+            <v>191644649.90083301</v>
+          </cell>
+          <cell r="J31">
+            <v>130808713.873889</v>
+          </cell>
+          <cell r="K31">
+            <v>14731818.5133333</v>
+          </cell>
+          <cell r="L31">
+            <v>24442695.29583</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2579,6 +5345,1165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="32" customWidth="1"/>
+    <col min="10" max="12" width="15" style="32" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>42457</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="G2" s="21">
+        <v>42457</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0</v>
+      </c>
+      <c r="J2" s="32">
+        <v>0</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32">
+        <v>0</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>42538</v>
+      </c>
+      <c r="B3" s="32">
+        <v>41515601.188611098</v>
+      </c>
+      <c r="C3" s="32">
+        <v>4660208.0666666701</v>
+      </c>
+      <c r="D3" s="32">
+        <v>46175809.255277798</v>
+      </c>
+      <c r="G3" s="21">
+        <v>42538</v>
+      </c>
+      <c r="H3" s="32">
+        <v>24562569.515277799</v>
+      </c>
+      <c r="I3" s="32">
+        <v>11228948.621111101</v>
+      </c>
+      <c r="J3" s="32">
+        <v>7310084.4550000001</v>
+      </c>
+      <c r="K3" s="32">
+        <v>1537410.0674999999</v>
+      </c>
+      <c r="L3" s="32">
+        <v>1536796.5963900001</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>42551</v>
+      </c>
+      <c r="B4" s="32">
+        <v>43498600.438611098</v>
+      </c>
+      <c r="C4" s="32">
+        <v>4805520.4666666696</v>
+      </c>
+      <c r="D4" s="32">
+        <v>48304120.905277804</v>
+      </c>
+      <c r="G4" s="21">
+        <v>42551</v>
+      </c>
+      <c r="H4" s="32">
+        <v>26033013.509166699</v>
+      </c>
+      <c r="I4" s="32">
+        <v>11331993.7555556</v>
+      </c>
+      <c r="J4" s="32">
+        <v>7746208.3372222204</v>
+      </c>
+      <c r="K4" s="32">
+        <v>1574657.4275</v>
+      </c>
+      <c r="L4" s="32">
+        <v>1618247.87583</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>42582</v>
+      </c>
+      <c r="B5" s="32">
+        <v>62390934.264722198</v>
+      </c>
+      <c r="C5" s="32">
+        <v>6358490.3399999999</v>
+      </c>
+      <c r="D5" s="32">
+        <v>68749424.604722202</v>
+      </c>
+      <c r="G5" s="21">
+        <v>42582</v>
+      </c>
+      <c r="H5" s="32">
+        <v>35247387.720833302</v>
+      </c>
+      <c r="I5" s="32">
+        <v>16744875.6163889</v>
+      </c>
+      <c r="J5" s="32">
+        <v>12579036.4344444</v>
+      </c>
+      <c r="K5" s="32">
+        <v>2415334.6847222201</v>
+      </c>
+      <c r="L5" s="32">
+        <v>1762790.14833</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>42613</v>
+      </c>
+      <c r="B6" s="32">
+        <v>81475607.481944397</v>
+      </c>
+      <c r="C6" s="32">
+        <v>8241452.8133333297</v>
+      </c>
+      <c r="D6" s="32">
+        <v>89717060.295277804</v>
+      </c>
+      <c r="G6" s="21">
+        <v>42613</v>
+      </c>
+      <c r="H6" s="32">
+        <v>42825018.751111098</v>
+      </c>
+      <c r="I6" s="32">
+        <v>23370843.7341667</v>
+      </c>
+      <c r="J6" s="32">
+        <v>17946711.326388899</v>
+      </c>
+      <c r="K6" s="32">
+        <v>3662462.9030555598</v>
+      </c>
+      <c r="L6" s="32">
+        <v>1912023.5805599999</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>42643</v>
+      </c>
+      <c r="B7" s="32">
+        <v>92635599.422777802</v>
+      </c>
+      <c r="C7" s="32">
+        <v>10736001.206666701</v>
+      </c>
+      <c r="D7" s="32">
+        <v>103371600.629444</v>
+      </c>
+      <c r="G7" s="21">
+        <v>42643</v>
+      </c>
+      <c r="H7" s="32">
+        <v>46666274.1297222</v>
+      </c>
+      <c r="I7" s="32">
+        <v>27266987.3172222</v>
+      </c>
+      <c r="J7" s="32">
+        <v>20640594.2938889</v>
+      </c>
+      <c r="K7" s="32">
+        <v>4880822.5555555597</v>
+      </c>
+      <c r="L7" s="32">
+        <v>3916922.3330600001</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>42674</v>
+      </c>
+      <c r="B8" s="32">
+        <v>106419986.16944399</v>
+      </c>
+      <c r="C8" s="32">
+        <v>12901314.813333301</v>
+      </c>
+      <c r="D8" s="32">
+        <v>119321300.982778</v>
+      </c>
+      <c r="G8" s="21">
+        <v>42674</v>
+      </c>
+      <c r="H8" s="32">
+        <v>51249853.161666699</v>
+      </c>
+      <c r="I8" s="32">
+        <v>34068271.007222198</v>
+      </c>
+      <c r="J8" s="32">
+        <v>24174804.7658333</v>
+      </c>
+      <c r="K8" s="32">
+        <v>5552614.5863888897</v>
+      </c>
+      <c r="L8" s="32">
+        <v>4275757.4616700001</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>42704</v>
+      </c>
+      <c r="B9" s="32">
+        <v>122841353.38249999</v>
+      </c>
+      <c r="C9" s="32">
+        <v>15094269.893333299</v>
+      </c>
+      <c r="D9" s="32">
+        <v>137935623.27583301</v>
+      </c>
+      <c r="G9" s="21">
+        <v>42704</v>
+      </c>
+      <c r="H9" s="32">
+        <v>57154144.860277802</v>
+      </c>
+      <c r="I9" s="32">
+        <v>39740736.366388902</v>
+      </c>
+      <c r="J9" s="32">
+        <v>29212454.633055601</v>
+      </c>
+      <c r="K9" s="32">
+        <v>7232936.4583333302</v>
+      </c>
+      <c r="L9" s="32">
+        <v>4595350.9577799998</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>42735</v>
+      </c>
+      <c r="B10" s="32">
+        <v>138637852.47166699</v>
+      </c>
+      <c r="C10" s="32">
+        <v>16949466.5</v>
+      </c>
+      <c r="D10" s="32">
+        <v>155587318.97166699</v>
+      </c>
+      <c r="G10" s="21">
+        <v>42735</v>
+      </c>
+      <c r="H10" s="32">
+        <v>61703314.560555503</v>
+      </c>
+      <c r="I10" s="32">
+        <v>46925795.598611102</v>
+      </c>
+      <c r="J10" s="32">
+        <v>34400492.978888899</v>
+      </c>
+      <c r="K10" s="32">
+        <v>7695489.9961111099</v>
+      </c>
+      <c r="L10" s="32">
+        <v>4862225.8375000004</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>42766</v>
+      </c>
+      <c r="B11" s="32">
+        <v>157230950.66666701</v>
+      </c>
+      <c r="C11" s="32">
+        <v>19036381.719999999</v>
+      </c>
+      <c r="D11" s="32">
+        <v>176267332.38666701</v>
+      </c>
+      <c r="G11" s="21">
+        <v>42766</v>
+      </c>
+      <c r="H11" s="32">
+        <v>67549377.876944393</v>
+      </c>
+      <c r="I11" s="32">
+        <v>55768722.152777798</v>
+      </c>
+      <c r="J11" s="32">
+        <v>39697985.619166702</v>
+      </c>
+      <c r="K11" s="32">
+        <v>7789645.5427777804</v>
+      </c>
+      <c r="L11" s="32">
+        <v>5461601.1950000003</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>42794</v>
+      </c>
+      <c r="B12" s="32">
+        <v>174764740.83388901</v>
+      </c>
+      <c r="C12" s="32">
+        <v>20859964.006666701</v>
+      </c>
+      <c r="D12" s="32">
+        <v>195624704.840556</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="G12" s="21">
+        <v>42794</v>
+      </c>
+      <c r="H12" s="32">
+        <v>71947097.201944396</v>
+      </c>
+      <c r="I12" s="32">
+        <v>62004571.033611096</v>
+      </c>
+      <c r="J12" s="32">
+        <v>47850468.612222202</v>
+      </c>
+      <c r="K12" s="32">
+        <v>7905387.9894444402</v>
+      </c>
+      <c r="L12" s="32">
+        <v>5917180.0033299997</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>42825</v>
+      </c>
+      <c r="B13" s="32">
+        <v>192916055.90444401</v>
+      </c>
+      <c r="C13" s="32">
+        <v>22772028.053333301</v>
+      </c>
+      <c r="D13" s="32">
+        <v>215688083.95777801</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="G13" s="21">
+        <v>42825</v>
+      </c>
+      <c r="H13" s="32">
+        <v>76357104.516388893</v>
+      </c>
+      <c r="I13" s="32">
+        <v>67740808.998611093</v>
+      </c>
+      <c r="J13" s="32">
+        <v>56683705.698611103</v>
+      </c>
+      <c r="K13" s="32">
+        <v>8194858.1861111103</v>
+      </c>
+      <c r="L13" s="32">
+        <v>6711606.5580599997</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>42855</v>
+      </c>
+      <c r="B14" s="32">
+        <v>211720916.744167</v>
+      </c>
+      <c r="C14" s="32">
+        <v>24724853.393333301</v>
+      </c>
+      <c r="D14" s="32">
+        <v>236445770.13749999</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="G14" s="21">
+        <v>42855</v>
+      </c>
+      <c r="H14" s="32">
+        <v>81375155.1875</v>
+      </c>
+      <c r="I14" s="32">
+        <v>74111826.151944295</v>
+      </c>
+      <c r="J14" s="32">
+        <v>64764006.681111097</v>
+      </c>
+      <c r="K14" s="32">
+        <v>8472312.8783333302</v>
+      </c>
+      <c r="L14" s="32">
+        <v>7722469.2386100003</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>42886</v>
+      </c>
+      <c r="B15" s="32">
+        <v>230919864.221111</v>
+      </c>
+      <c r="C15" s="32">
+        <v>26808345.413333301</v>
+      </c>
+      <c r="D15" s="32">
+        <v>257728209.634444</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="G15" s="21">
+        <v>42886</v>
+      </c>
+      <c r="H15" s="32">
+        <v>86161436.9491667</v>
+      </c>
+      <c r="I15" s="32">
+        <v>80462450.331666604</v>
+      </c>
+      <c r="J15" s="32">
+        <v>74105917.465833396</v>
+      </c>
+      <c r="K15" s="32">
+        <v>8699092.5716666691</v>
+      </c>
+      <c r="L15" s="32">
+        <v>8299312.31611</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>42916</v>
+      </c>
+      <c r="B16" s="32">
+        <v>249005189.67611101</v>
+      </c>
+      <c r="C16" s="32">
+        <v>28703917.5666667</v>
+      </c>
+      <c r="D16" s="32">
+        <v>277709107.242778</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="G16" s="21">
+        <v>42916</v>
+      </c>
+      <c r="H16" s="32">
+        <v>91275614.107777804</v>
+      </c>
+      <c r="I16" s="32">
+        <v>87141287.7444444</v>
+      </c>
+      <c r="J16" s="32">
+        <v>81629134.457777798</v>
+      </c>
+      <c r="K16" s="32">
+        <v>8741999.3183333296</v>
+      </c>
+      <c r="L16" s="32">
+        <v>8921071.6144399997</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>42947</v>
+      </c>
+      <c r="B17" s="32">
+        <v>266936676.198333</v>
+      </c>
+      <c r="C17" s="32">
+        <v>30758431.2266667</v>
+      </c>
+      <c r="D17" s="32">
+        <v>297695107.42500001</v>
+      </c>
+      <c r="G17" s="21">
+        <v>42947</v>
+      </c>
+      <c r="H17" s="32">
+        <v>97287676.206944406</v>
+      </c>
+      <c r="I17" s="32">
+        <v>94531390.963055506</v>
+      </c>
+      <c r="J17" s="32">
+        <v>87135446.443611205</v>
+      </c>
+      <c r="K17" s="32">
+        <v>9206129.6316666696</v>
+      </c>
+      <c r="L17" s="32">
+        <v>9534464.1797199994</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>42978</v>
+      </c>
+      <c r="B18" s="32">
+        <v>283593104.57305598</v>
+      </c>
+      <c r="C18" s="32">
+        <v>32609443.153333299</v>
+      </c>
+      <c r="D18" s="32">
+        <v>316202547.72638899</v>
+      </c>
+      <c r="G18" s="21">
+        <v>42978</v>
+      </c>
+      <c r="H18" s="32">
+        <v>103347500.76222201</v>
+      </c>
+      <c r="I18" s="32">
+        <v>100799107.66722199</v>
+      </c>
+      <c r="J18" s="32">
+        <v>91598582.373611197</v>
+      </c>
+      <c r="K18" s="32">
+        <v>9752514.4116666708</v>
+      </c>
+      <c r="L18" s="32">
+        <v>10704842.511670001</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>43008</v>
+      </c>
+      <c r="B19" s="32">
+        <v>300152017.509444</v>
+      </c>
+      <c r="C19" s="32">
+        <v>34178264.460000001</v>
+      </c>
+      <c r="D19" s="32">
+        <v>334330281.96944398</v>
+      </c>
+      <c r="G19" s="21">
+        <v>43008</v>
+      </c>
+      <c r="H19" s="32">
+        <v>109591660.463889</v>
+      </c>
+      <c r="I19" s="32">
+        <v>107399896.805555</v>
+      </c>
+      <c r="J19" s="32">
+        <v>94740092.928055599</v>
+      </c>
+      <c r="K19" s="32">
+        <v>10793443.284166699</v>
+      </c>
+      <c r="L19" s="32">
+        <v>11805188.487779999</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>43039</v>
+      </c>
+      <c r="B20" s="32">
+        <v>315965584.54722202</v>
+      </c>
+      <c r="C20" s="32">
+        <v>35718879.32</v>
+      </c>
+      <c r="D20" s="32">
+        <v>351684463.86722201</v>
+      </c>
+      <c r="G20" s="21">
+        <v>43039</v>
+      </c>
+      <c r="H20" s="32">
+        <v>114790148.4025</v>
+      </c>
+      <c r="I20" s="32">
+        <v>113964339.644722</v>
+      </c>
+      <c r="J20" s="32">
+        <v>99203029.090833396</v>
+      </c>
+      <c r="K20" s="32">
+        <v>11056978.467222201</v>
+      </c>
+      <c r="L20" s="32">
+        <v>12669968.261940001</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>43069</v>
+      </c>
+      <c r="B21" s="32">
+        <v>333997098.63277799</v>
+      </c>
+      <c r="C21" s="32">
+        <v>37371036.293333299</v>
+      </c>
+      <c r="D21" s="32">
+        <v>371368134.92611098</v>
+      </c>
+      <c r="G21" s="21">
+        <v>43069</v>
+      </c>
+      <c r="H21" s="32">
+        <v>121782633.35111099</v>
+      </c>
+      <c r="I21" s="32">
+        <v>119955238.375833</v>
+      </c>
+      <c r="J21" s="32">
+        <v>103673356.33499999</v>
+      </c>
+      <c r="K21" s="32">
+        <v>12288510.884722199</v>
+      </c>
+      <c r="L21" s="32">
+        <v>13668395.97944</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>43100</v>
+      </c>
+      <c r="B22" s="32">
+        <v>348846197.60861099</v>
+      </c>
+      <c r="C22" s="32">
+        <v>38729788.68</v>
+      </c>
+      <c r="D22" s="32">
+        <v>387575986.28861099</v>
+      </c>
+      <c r="G22" s="21">
+        <v>43100</v>
+      </c>
+      <c r="H22" s="32">
+        <v>127386474.815833</v>
+      </c>
+      <c r="I22" s="32">
+        <v>125851241.096111</v>
+      </c>
+      <c r="J22" s="32">
+        <v>107563684.542778</v>
+      </c>
+      <c r="K22" s="32">
+        <v>12709121.3647222</v>
+      </c>
+      <c r="L22" s="32">
+        <v>14065464.46917</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>43131</v>
+      </c>
+      <c r="B23" s="32">
+        <v>364624503.01027799</v>
+      </c>
+      <c r="C23" s="32">
+        <v>40145114.227222197</v>
+      </c>
+      <c r="D23" s="32">
+        <v>404769617.23750001</v>
+      </c>
+      <c r="G23" s="21">
+        <v>43131</v>
+      </c>
+      <c r="H23" s="32">
+        <v>134477576.67833301</v>
+      </c>
+      <c r="I23" s="32">
+        <v>131696426.081389</v>
+      </c>
+      <c r="J23" s="32">
+        <v>111098146.941945</v>
+      </c>
+      <c r="K23" s="32">
+        <v>12822636.038055601</v>
+      </c>
+      <c r="L23" s="32">
+        <v>14674831.497780001</v>
+      </c>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>43159</v>
+      </c>
+      <c r="B24" s="32">
+        <v>381574647.875278</v>
+      </c>
+      <c r="C24" s="32">
+        <v>41917944.731944397</v>
+      </c>
+      <c r="D24" s="32">
+        <v>423492592.60722202</v>
+      </c>
+      <c r="G24" s="21">
+        <v>43159</v>
+      </c>
+      <c r="H24" s="32">
+        <v>142794104.42583299</v>
+      </c>
+      <c r="I24" s="32">
+        <v>138146044.161111</v>
+      </c>
+      <c r="J24" s="32">
+        <v>113915163.38</v>
+      </c>
+      <c r="K24" s="32">
+        <v>13019589.838055599</v>
+      </c>
+      <c r="L24" s="32">
+        <v>15617690.80222</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>43190</v>
+      </c>
+      <c r="B25" s="32">
+        <v>398824226.78027803</v>
+      </c>
+      <c r="C25" s="32">
+        <v>43499917.205277801</v>
+      </c>
+      <c r="D25" s="32">
+        <v>442324143.98555601</v>
+      </c>
+      <c r="G25" s="21">
+        <v>43190</v>
+      </c>
+      <c r="H25" s="32">
+        <v>150222427.68472201</v>
+      </c>
+      <c r="I25" s="32">
+        <v>145921210.45444399</v>
+      </c>
+      <c r="J25" s="32">
+        <v>116192065.97972199</v>
+      </c>
+      <c r="K25" s="32">
+        <v>13232770.5391667</v>
+      </c>
+      <c r="L25" s="32">
+        <v>16755669.327500001</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>43220</v>
+      </c>
+      <c r="B26" s="32">
+        <v>416307445.14555597</v>
+      </c>
+      <c r="C26" s="32">
+        <v>45446290.738611102</v>
+      </c>
+      <c r="D26" s="32">
+        <v>461753735.88416702</v>
+      </c>
+      <c r="G26" s="21">
+        <v>43220</v>
+      </c>
+      <c r="H26" s="32">
+        <v>157273143.93583301</v>
+      </c>
+      <c r="I26" s="32">
+        <v>153957364.223611</v>
+      </c>
+      <c r="J26" s="32">
+        <v>118968182.76444501</v>
+      </c>
+      <c r="K26" s="32">
+        <v>13427362.826388899</v>
+      </c>
+      <c r="L26" s="32">
+        <v>18127682.133889999</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>43251</v>
+      </c>
+      <c r="B27" s="32">
+        <v>434557785.78250003</v>
+      </c>
+      <c r="C27" s="32">
+        <v>47136106.211944401</v>
+      </c>
+      <c r="D27" s="32">
+        <v>481693891.99444503</v>
+      </c>
+      <c r="G27" s="21">
+        <v>43251</v>
+      </c>
+      <c r="H27" s="32">
+        <v>163186233.11277801</v>
+      </c>
+      <c r="I27" s="32">
+        <v>163148270.90916699</v>
+      </c>
+      <c r="J27" s="32">
+        <v>121669606.1925</v>
+      </c>
+      <c r="K27" s="32">
+        <v>13988384.3458333</v>
+      </c>
+      <c r="L27" s="32">
+        <v>19701397.434166599</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>43281</v>
+      </c>
+      <c r="B28" s="32">
+        <v>450423475.024167</v>
+      </c>
+      <c r="C28" s="32">
+        <v>48215932.985277802</v>
+      </c>
+      <c r="D28" s="32">
+        <v>498639408.009444</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="21">
+        <v>43281</v>
+      </c>
+      <c r="H28" s="32">
+        <v>169853770.068333</v>
+      </c>
+      <c r="I28" s="32">
+        <v>169781806.67222199</v>
+      </c>
+      <c r="J28" s="32">
+        <v>123969022.83611099</v>
+      </c>
+      <c r="K28" s="32">
+        <v>14299679.685000001</v>
+      </c>
+      <c r="L28" s="32">
+        <v>20735128.747779999</v>
+      </c>
+      <c r="N28" s="32"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>43312</v>
+      </c>
+      <c r="B29" s="32">
+        <v>469270269.675556</v>
+      </c>
+      <c r="C29" s="32">
+        <v>49511659.351944402</v>
+      </c>
+      <c r="D29" s="32">
+        <v>518781929.02749997</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="21">
+        <v>43312</v>
+      </c>
+      <c r="H29" s="32">
+        <v>179359531.591389</v>
+      </c>
+      <c r="I29" s="32">
+        <v>176869249.916944</v>
+      </c>
+      <c r="J29" s="32">
+        <v>125884336.710833</v>
+      </c>
+      <c r="K29" s="32">
+        <v>14393674.0033333</v>
+      </c>
+      <c r="L29" s="32">
+        <v>22275136.805</v>
+      </c>
+      <c r="N29" s="32"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>43343</v>
+      </c>
+      <c r="B30" s="32">
+        <v>488706241.62138933</v>
+      </c>
+      <c r="C30" s="32">
+        <v>50577905.091944404</v>
+      </c>
+      <c r="D30" s="32">
+        <v>539284146.71333373</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="21">
+        <v>43343</v>
+      </c>
+      <c r="H30" s="32">
+        <v>187883964.14583343</v>
+      </c>
+      <c r="I30" s="32">
+        <v>185464750.9841662</v>
+      </c>
+      <c r="J30" s="32">
+        <v>128260702.37666632</v>
+      </c>
+      <c r="K30" s="32">
+        <v>14524236.5233333</v>
+      </c>
+      <c r="L30" s="32">
+        <v>23150492.68333447</v>
+      </c>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>43373</v>
+      </c>
+      <c r="B31" s="32">
+        <v>503869057.607521</v>
+      </c>
+      <c r="C31" s="32">
+        <v>52039647.698611103</v>
+      </c>
+      <c r="D31" s="32">
+        <v>555908705.30613196</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="21">
+        <v>43373</v>
+      </c>
+      <c r="H31" s="32">
+        <v>194280827.72224301</v>
+      </c>
+      <c r="I31" s="32">
+        <v>191644649.90083301</v>
+      </c>
+      <c r="J31" s="32">
+        <v>130808713.873889</v>
+      </c>
+      <c r="K31" s="32">
+        <v>14731818.5133333</v>
+      </c>
+      <c r="L31" s="32">
+        <v>24442695.29583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="32"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="32"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="32"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
@@ -14584,7 +18509,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="16" t="e">
-        <f>G2/G$11</f>
+        <f t="shared" ref="H2:H10" si="0">G2/G$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14599,7 +18524,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="e">
-        <f>G3/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14614,7 +18539,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="18"/>
       <c r="H4" s="16" t="e">
-        <f>G4/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14629,7 +18554,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="e">
-        <f>G5/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14644,7 +18569,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="e">
-        <f>G6/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14659,7 +18584,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="e">
-        <f>G7/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14674,7 +18599,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="e">
-        <f>G8/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14689,7 +18614,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="e">
-        <f>G9/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14704,7 +18629,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="e">
-        <f>G10/G$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14713,27 +18638,27 @@
         <v>19</v>
       </c>
       <c r="B11" s="18">
-        <f t="shared" ref="B11:G11" si="0">SUM(B2:B10)</f>
+        <f t="shared" ref="B11:G11" si="1">SUM(B2:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="16"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -12,29 +12,29 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2018-09-18" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2018-09-18" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2018-09-18" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2018-09-18" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2018-09-18" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2018-09-18" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage Summary 2018-09-18" sheetId="34" r:id="rId7"/>
-    <sheet name="Storage by Fileset 2018-09-18" sheetId="33" r:id="rId8"/>
-    <sheet name="Storage By Org 2018-09-18" sheetId="19" r:id="rId9"/>
-    <sheet name="Active Users 2018-09-18" sheetId="18" r:id="rId10"/>
-    <sheet name="By Cores CPU 2018-09-18" sheetId="15" r:id="rId11"/>
-    <sheet name="Applications CPU 2018-09-18" sheetId="1" r:id="rId12"/>
-    <sheet name="User Walltime CPU 2018-09-18" sheetId="4" r:id="rId13"/>
-    <sheet name="Org HighLevel CPU 2018-09-18" sheetId="7" r:id="rId14"/>
-    <sheet name="Org Breakdown CPU 2018-09-18" sheetId="5" r:id="rId15"/>
-    <sheet name="Largest Jobs CPU 2018-09-18" sheetId="6" r:id="rId16"/>
-    <sheet name="By Cores GPU 2018-09-18" sheetId="16" r:id="rId17"/>
-    <sheet name="Applications GPU 2018-09-18" sheetId="3" r:id="rId18"/>
-    <sheet name="User Walltime GPU 2018-09-18" sheetId="10" r:id="rId19"/>
-    <sheet name="Org HighLevel GPU 2018-09-18" sheetId="8" r:id="rId20"/>
-    <sheet name="Org Breakdown GPU 2018-09-18" sheetId="9" r:id="rId21"/>
-    <sheet name="Largest Jobs GPU 2018-09-18" sheetId="11" r:id="rId22"/>
-    <sheet name="Cumulative 2018-09" sheetId="35" r:id="rId23"/>
+    <sheet name="Queue First Job 2019-01-08" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2019-01-08" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2019-01-08" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2019-01-08" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2019-01-08" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2019-01-08" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage Summary 2019-01-08" sheetId="34" r:id="rId7"/>
+    <sheet name="Storage by Fileset 2019-01-08" sheetId="33" r:id="rId8"/>
+    <sheet name="Storage By Org 2019-01-08" sheetId="19" r:id="rId9"/>
+    <sheet name="Active Users 2019-01-08" sheetId="18" r:id="rId10"/>
+    <sheet name="By Cores CPU 2019-01-08" sheetId="15" r:id="rId11"/>
+    <sheet name="Applications CPU 2019-01-08" sheetId="1" r:id="rId12"/>
+    <sheet name="User Walltime CPU 2019-01-08" sheetId="4" r:id="rId13"/>
+    <sheet name="Org HighLevel CPU 2019-01-08" sheetId="7" r:id="rId14"/>
+    <sheet name="Org Breakdown CPU 2019-01-08" sheetId="5" r:id="rId15"/>
+    <sheet name="Largest Jobs CPU 2019-01-08" sheetId="6" r:id="rId16"/>
+    <sheet name="By Cores GPU 2019-01-08" sheetId="16" r:id="rId17"/>
+    <sheet name="Applications GPU 2019-01-08" sheetId="3" r:id="rId18"/>
+    <sheet name="User Walltime GPU 2019-01-08" sheetId="10" r:id="rId19"/>
+    <sheet name="Org HighLevel GPU 2019-01-08" sheetId="8" r:id="rId20"/>
+    <sheet name="Org Breakdown GPU 2019-01-08" sheetId="9" r:id="rId21"/>
+    <sheet name="Largest Jobs GPU 2019-01-08" sheetId="11" r:id="rId22"/>
+    <sheet name="Cumulative 2019-01" sheetId="35" r:id="rId23"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId24"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>Rank</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Expired</t>
   </si>
   <si>
     <t>Date</t>
@@ -866,7 +875,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,10 +934,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,7 +1036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$B$1</c:f>
+              <c:f>'Cumulative 2019-01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1034,10 +1047,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$A$2:$A$31</c:f>
+              <c:f>'Cumulative 2019-01'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1127,16 +1140,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$B$2:$B$31</c:f>
+              <c:f>'Cumulative 2019-01'!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1222,17 +1247,29 @@
                   <c:v>469270269.675556</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>488706241.62138933</c:v>
+                  <c:v>488578605.44861102</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>503869057.607521</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>520223779.41279799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>537141487.84146202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>551288940.32729495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>551288940.32729495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D24B-49B4-AB45-FDF60374071D}"/>
+              <c16:uniqueId val="{00000000-BD22-4DB5-9150-70C225C60D81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1241,7 +1278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$C$1</c:f>
+              <c:f>'Cumulative 2019-01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,10 +1289,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$A$2:$A$31</c:f>
+              <c:f>'Cumulative 2019-01'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1345,16 +1382,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$C$2:$C$31</c:f>
+              <c:f>'Cumulative 2019-01'!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1440,17 +1489,29 @@
                   <c:v>49511659.351944402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50577905.091944404</c:v>
+                  <c:v>50551178.578611098</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>52039647.698611103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53983630.091944396</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55676373.831944503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56966073.645277798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56966073.645277798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D24B-49B4-AB45-FDF60374071D}"/>
+              <c16:uniqueId val="{00000001-BD22-4DB5-9150-70C225C60D81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1560,7 +1621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$H$1</c:f>
+              <c:f>'Cumulative 2019-01'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1571,10 +1632,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1664,16 +1725,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$H$2:$H$31</c:f>
+              <c:f>'Cumulative 2019-01'!$H$2:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1759,17 +1832,29 @@
                   <c:v>179359531.591389</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>187883964.14583343</c:v>
+                  <c:v>187802462.70194501</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>194280827.72224301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201622699.955576</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>208597023.40868399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>215721309.38229501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215721309.38229501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B42A-4019-B390-FEC487DD91F1}"/>
+              <c16:uniqueId val="{00000000-23C6-4BD4-86FB-A760D00839CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1778,7 +1863,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$I$1</c:f>
+              <c:f>'Cumulative 2019-01'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1789,10 +1874,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -1882,16 +1967,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$I$2:$I$31</c:f>
+              <c:f>'Cumulative 2019-01'!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1977,17 +2074,29 @@
                   <c:v>176869249.916944</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>185464750.9841662</c:v>
+                  <c:v>185465104.533333</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>191644649.90083301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>197224481.51472199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>204109681.002222</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>209412589.87083301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>209412589.87083301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B42A-4019-B390-FEC487DD91F1}"/>
+              <c16:uniqueId val="{00000001-23C6-4BD4-86FB-A760D00839CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1996,7 +2105,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$J$1</c:f>
+              <c:f>'Cumulative 2019-01'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2007,10 +2116,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2100,16 +2209,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$J$2:$J$31</c:f>
+              <c:f>'Cumulative 2019-01'!$J$2:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2195,17 +2316,29 @@
                   <c:v>125884336.710833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>128260702.37666632</c:v>
+                  <c:v>128231045.465278</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>130808713.873889</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>134574538.191111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137740794.86361101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>139787577.966389</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>139787577.966389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B42A-4019-B390-FEC487DD91F1}"/>
+              <c16:uniqueId val="{00000002-23C6-4BD4-86FB-A760D00839CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2214,7 +2347,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$K$1</c:f>
+              <c:f>'Cumulative 2019-01'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2230,10 +2363,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2323,16 +2456,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$K$2:$K$31</c:f>
+              <c:f>'Cumulative 2019-01'!$K$2:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2418,17 +2563,29 @@
                   <c:v>14393674.0033333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14524236.5233333</c:v>
+                  <c:v>14522588.6833333</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>14731818.5133333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14769784.5666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14785840.2466667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14798613.4711111</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14798613.4711111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B42A-4019-B390-FEC487DD91F1}"/>
+              <c16:uniqueId val="{00000003-23C6-4BD4-86FB-A760D00839CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2437,7 +2594,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2018-09'!$L$1</c:f>
+              <c:f>'Cumulative 2019-01'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2448,10 +2605,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$G$2:$G$31</c:f>
+              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42457</c:v>
                 </c:pt>
@@ -2541,16 +2698,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2018-09'!$L$2:$L$31</c:f>
+              <c:f>'Cumulative 2019-01'!$L$2:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,7 +2796,7 @@
                   <c:v>18127682.133889999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19701397.434166599</c:v>
+                  <c:v>19701397.43417</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20735128.747779999</c:v>
@@ -2636,17 +2805,29 @@
                   <c:v>22275136.805</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23150492.68333447</c:v>
+                  <c:v>23108582.64333</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>24442695.29583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26015905.276670001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27584522.15222</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28534923.281939998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28534923.281939998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B42A-4019-B390-FEC487DD91F1}"/>
+              <c16:uniqueId val="{00000004-23C6-4BD4-86FB-A760D00839CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2718,13 +2899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2750,13 +2931,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2785,29 +2966,29 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Queue First Job 2018-09"/>
-      <sheetName val="Core Summary 2018-09"/>
-      <sheetName val="Project Usage 2018-09"/>
-      <sheetName val="Project Stakeholder 2018-09"/>
-      <sheetName val="Project Status 2018-09"/>
-      <sheetName val="Personal Status 2018-09"/>
-      <sheetName val="Storage Summary 2018-09"/>
-      <sheetName val="Storage by Fileset 2018-09"/>
-      <sheetName val="Storage By Org 2018-09"/>
-      <sheetName val="Active Users 2018-09"/>
-      <sheetName val="By Cores CPU 2018-09"/>
-      <sheetName val="Applications CPU 2018-09"/>
-      <sheetName val="User Walltime CPU 2018-09"/>
-      <sheetName val="Org HighLevel CPU 2018-09"/>
-      <sheetName val="Org Breakdown CPU 2018-09"/>
-      <sheetName val="Largest Jobs CPU 2018-09"/>
-      <sheetName val="By Cores GPU 2018-09"/>
-      <sheetName val="Applications GPU 2018-09"/>
-      <sheetName val="User Walltime GPU 2018-09"/>
-      <sheetName val="Org HighLevel GPU 2018-09"/>
-      <sheetName val="Org Breakdown GPU 2018-09"/>
-      <sheetName val="Largest Jobs GPU 2018-09"/>
-      <sheetName val="Cumulative 2018-09"/>
+      <sheetName val="Queue First Job 2018-12"/>
+      <sheetName val="Core Summary 2018-12"/>
+      <sheetName val="Project Usage 2018-12"/>
+      <sheetName val="Project Stakeholder 2018-12"/>
+      <sheetName val="Project Status 2018-12"/>
+      <sheetName val="Personal Status 2018-12"/>
+      <sheetName val="Storage Summary 2018-12"/>
+      <sheetName val="Storage by Fileset 2018-12"/>
+      <sheetName val="Storage By Org 2018-12"/>
+      <sheetName val="Active Users 2018-12"/>
+      <sheetName val="By Cores CPU 2018-12"/>
+      <sheetName val="Applications CPU 2018-12"/>
+      <sheetName val="User Walltime CPU 2018-12"/>
+      <sheetName val="Org HighLevel CPU 2018-12"/>
+      <sheetName val="Org Breakdown CPU 2018-12"/>
+      <sheetName val="Largest Jobs CPU 2018-12"/>
+      <sheetName val="By Cores GPU 2018-12"/>
+      <sheetName val="Applications GPU 2018-12"/>
+      <sheetName val="User Walltime GPU 2018-12"/>
+      <sheetName val="Org HighLevel GPU 2018-12"/>
+      <sheetName val="Org Breakdown GPU 2018-12"/>
+      <sheetName val="Largest Jobs GPU 2018-12"/>
+      <sheetName val="Cumulative 2018-12"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3607,7 +3788,7 @@
             <v>13988384.3458333</v>
           </cell>
           <cell r="L27">
-            <v>19701397.434166599</v>
+            <v>19701397.43417</v>
           </cell>
         </row>
         <row r="28">
@@ -3673,28 +3854,28 @@
             <v>43343</v>
           </cell>
           <cell r="B30">
-            <v>488706241.62138933</v>
+            <v>488578605.44861102</v>
           </cell>
           <cell r="C30">
-            <v>50577905.091944404</v>
+            <v>50551178.578611098</v>
           </cell>
           <cell r="G30">
             <v>43343</v>
           </cell>
           <cell r="H30">
-            <v>187883964.14583343</v>
+            <v>187802462.70194501</v>
           </cell>
           <cell r="I30">
-            <v>185464750.9841662</v>
+            <v>185465104.533333</v>
           </cell>
           <cell r="J30">
-            <v>128260702.37666632</v>
+            <v>128231045.465278</v>
           </cell>
           <cell r="K30">
-            <v>14524236.5233333</v>
+            <v>14522588.6833333</v>
           </cell>
           <cell r="L30">
-            <v>23150492.68333447</v>
+            <v>23108582.64333</v>
           </cell>
         </row>
         <row r="31">
@@ -3724,6 +3905,93 @@
           </cell>
           <cell r="L31">
             <v>24442695.29583</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43404</v>
+          </cell>
+          <cell r="B32">
+            <v>520223779.41279799</v>
+          </cell>
+          <cell r="C32">
+            <v>53983630.091944396</v>
+          </cell>
+          <cell r="G32">
+            <v>43404</v>
+          </cell>
+          <cell r="H32">
+            <v>201622699.955576</v>
+          </cell>
+          <cell r="I32">
+            <v>197224481.51472199</v>
+          </cell>
+          <cell r="J32">
+            <v>134574538.191111</v>
+          </cell>
+          <cell r="K32">
+            <v>14769784.5666667</v>
+          </cell>
+          <cell r="L32">
+            <v>26015905.276670001</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43434</v>
+          </cell>
+          <cell r="B33">
+            <v>537141487.84146202</v>
+          </cell>
+          <cell r="C33">
+            <v>55676373.831944503</v>
+          </cell>
+          <cell r="G33">
+            <v>43434</v>
+          </cell>
+          <cell r="H33">
+            <v>208597023.40868399</v>
+          </cell>
+          <cell r="I33">
+            <v>204109681.002222</v>
+          </cell>
+          <cell r="J33">
+            <v>137740794.86361101</v>
+          </cell>
+          <cell r="K33">
+            <v>14785840.2466667</v>
+          </cell>
+          <cell r="L33">
+            <v>27584522.15222</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43465</v>
+          </cell>
+          <cell r="B34">
+            <v>551288940.32729495</v>
+          </cell>
+          <cell r="C34">
+            <v>56966073.645277798</v>
+          </cell>
+          <cell r="G34">
+            <v>43465</v>
+          </cell>
+          <cell r="H34">
+            <v>215721309.38229501</v>
+          </cell>
+          <cell r="I34">
+            <v>209412589.87083301</v>
+          </cell>
+          <cell r="J34">
+            <v>139787577.966389</v>
+          </cell>
+          <cell r="K34">
+            <v>14798613.4711111</v>
+          </cell>
+          <cell r="L34">
+            <v>28534923.281939998</v>
           </cell>
         </row>
       </sheetData>
@@ -4461,7 +4729,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4483,64 +4751,145 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="43"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="40"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="40"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="43"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,7 +5056,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4744,13 +5093,8 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4923,7 +5267,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4936,7 +5280,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4953,57 +5297,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="1"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
       <c r="E20" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
       <c r="E22" s="31"/>
@@ -5233,8 +5577,13 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
@@ -5347,7 +5696,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5358,7 +5707,7 @@
     <col min="3" max="3" width="17.140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="15" style="31" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="38" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="31" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="32" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="32" customWidth="1"/>
@@ -5369,39 +5718,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>88</v>
+      <c r="A1" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="L1" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
@@ -6313,7 +6662,7 @@
         <v>13988384.3458333</v>
       </c>
       <c r="L27" s="32">
-        <v>19701397.434166599</v>
+        <v>19701397.43417</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
@@ -6333,10 +6682,10 @@
         <v>498639408.009444</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G28" s="21">
         <v>43281</v>
@@ -6372,10 +6721,10 @@
         <v>518781929.02749997</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G29" s="21">
         <v>43312</v>
@@ -6402,37 +6751,37 @@
         <v>43343</v>
       </c>
       <c r="B30" s="32">
-        <v>488706241.62138933</v>
+        <v>488578605.44861102</v>
       </c>
       <c r="C30" s="32">
-        <v>50577905.091944404</v>
+        <v>50551178.578611098</v>
       </c>
       <c r="D30" s="32">
-        <v>539284146.71333373</v>
+        <v>539129784.02722204</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G30" s="21">
         <v>43343</v>
       </c>
       <c r="H30" s="32">
-        <v>187883964.14583343</v>
+        <v>187802462.70194501</v>
       </c>
       <c r="I30" s="32">
-        <v>185464750.9841662</v>
+        <v>185465104.533333</v>
       </c>
       <c r="J30" s="32">
-        <v>128260702.37666632</v>
+        <v>128231045.465278</v>
       </c>
       <c r="K30" s="32">
-        <v>14524236.5233333</v>
+        <v>14522588.6833333</v>
       </c>
       <c r="L30" s="32">
-        <v>23150492.68333447</v>
+        <v>23108582.64333</v>
       </c>
       <c r="N30" s="32"/>
     </row>
@@ -6450,10 +6799,10 @@
         <v>555908705.30613196</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G31" s="21">
         <v>43373</v>
@@ -6475,28 +6824,174 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>43404</v>
+      </c>
+      <c r="B32" s="32">
+        <v>520223779.41279799</v>
+      </c>
+      <c r="C32" s="32">
+        <v>53983630.091944396</v>
+      </c>
+      <c r="D32" s="32">
+        <v>574207409.50474298</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="21">
+        <v>43404</v>
+      </c>
+      <c r="H32" s="32">
+        <v>201622699.955576</v>
+      </c>
+      <c r="I32" s="32">
+        <v>197224481.51472199</v>
+      </c>
+      <c r="J32" s="32">
+        <v>134574538.191111</v>
+      </c>
+      <c r="K32" s="32">
+        <v>14769784.5666667</v>
+      </c>
+      <c r="L32" s="32">
+        <v>26015905.276670001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>43434</v>
+      </c>
+      <c r="B33" s="32">
+        <v>537141487.84146202</v>
+      </c>
+      <c r="C33" s="32">
+        <v>55676373.831944503</v>
+      </c>
+      <c r="D33" s="32">
+        <v>592817861.67340696</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="21">
+        <v>43434</v>
+      </c>
+      <c r="H33" s="32">
+        <v>208597023.40868399</v>
+      </c>
+      <c r="I33" s="32">
+        <v>204109681.002222</v>
+      </c>
+      <c r="J33" s="32">
+        <v>137740794.86361101</v>
+      </c>
+      <c r="K33" s="32">
+        <v>14785840.2466667</v>
+      </c>
+      <c r="L33" s="32">
+        <v>27584522.15222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>43465</v>
+      </c>
+      <c r="B34" s="32">
+        <v>551288940.32729495</v>
+      </c>
+      <c r="C34" s="32">
+        <v>56966073.645277798</v>
+      </c>
+      <c r="D34" s="32">
+        <v>608255013.97257304</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="21">
+        <v>43465</v>
+      </c>
+      <c r="H34" s="32">
+        <v>215721309.38229501</v>
+      </c>
+      <c r="I34" s="32">
+        <v>209412589.87083301</v>
+      </c>
+      <c r="J34" s="32">
+        <v>139787577.966389</v>
+      </c>
+      <c r="K34" s="32">
+        <v>14798613.4711111</v>
+      </c>
+      <c r="L34" s="32">
+        <v>28534923.281939998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>43496</v>
+      </c>
+      <c r="B35" s="32">
+        <v>551288940.32729495</v>
+      </c>
+      <c r="C35" s="32">
+        <v>56966073.645277798</v>
+      </c>
+      <c r="D35" s="32">
+        <v>608255013.97257304</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="21">
+        <v>43465</v>
+      </c>
+      <c r="H35" s="32">
+        <v>215721309.38229501</v>
+      </c>
+      <c r="I35" s="32">
+        <v>209412589.87083301</v>
+      </c>
+      <c r="J35" s="32">
+        <v>139787577.966389</v>
+      </c>
+      <c r="K35" s="32">
+        <v>14798613.4711111</v>
+      </c>
+      <c r="L35" s="32">
+        <v>28534923.281939998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12590,10 +13085,10 @@
       <c r="A3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
@@ -12620,7 +13115,7 @@
       <c r="A15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -12632,7 +13127,7 @@
       <c r="A19" s="20"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -12668,7 +13163,7 @@
       <c r="A31" s="20"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="38"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
@@ -12689,10 +13184,10 @@
       <c r="A40" s="20"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="38"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
@@ -12704,7 +13199,7 @@
       <c r="A49" s="20"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="38"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -12713,10 +13208,10 @@
       <c r="A53" s="20"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="38"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="38"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
@@ -12740,7 +13235,7 @@
       <c r="A63" s="20"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="38"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
@@ -12767,7 +13262,7 @@
       <c r="A75" s="20"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="38"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
@@ -12860,7 +13355,7 @@
       <c r="A109" s="20"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="38"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
@@ -12875,7 +13370,7 @@
       <c r="A116" s="20"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
+      <c r="A117" s="38"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
@@ -12896,7 +13391,7 @@
       <c r="A125" s="20"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="38"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
@@ -12914,7 +13409,7 @@
       <c r="A132" s="20"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
+      <c r="A133" s="38"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
@@ -12947,7 +13442,7 @@
       <c r="A144" s="20"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
+      <c r="A145" s="38"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
@@ -12977,7 +13472,7 @@
       <c r="A155" s="20"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
+      <c r="A156" s="38"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
@@ -12989,10 +13484,10 @@
       <c r="A159" s="20"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
+      <c r="A162" s="38"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
+      <c r="A163" s="38"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
@@ -13055,7 +13550,7 @@
       <c r="A184" s="20"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
+      <c r="A185" s="38"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
@@ -13064,10 +13559,10 @@
       <c r="A188" s="20"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
+      <c r="A190" s="38"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
+      <c r="A191" s="38"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
@@ -13082,7 +13577,7 @@
       <c r="A196" s="20"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
+      <c r="A197" s="38"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
@@ -13109,7 +13604,7 @@
       <c r="A207" s="20"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
+      <c r="A208" s="38"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
@@ -13148,10 +13643,10 @@
       <c r="A223" s="20"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
+      <c r="A224" s="38"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
+      <c r="A225" s="38"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
@@ -13163,19 +13658,19 @@
       <c r="A229" s="20"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="39"/>
+      <c r="A505" s="38"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="39"/>
+      <c r="A517" s="38"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="39"/>
+      <c r="A525" s="38"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="39"/>
+      <c r="A529" s="38"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="39"/>
+      <c r="A531" s="38"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
@@ -17714,682 +18209,682 @@
       <c r="A2271" s="20"/>
     </row>
     <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2272" s="39"/>
+      <c r="A2272" s="38"/>
     </row>
     <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2273" s="39"/>
+      <c r="A2273" s="38"/>
     </row>
     <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2274" s="39"/>
+      <c r="A2274" s="38"/>
     </row>
     <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2275" s="39"/>
+      <c r="A2275" s="38"/>
     </row>
     <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2276" s="39"/>
+      <c r="A2276" s="38"/>
     </row>
     <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2277" s="39"/>
+      <c r="A2277" s="38"/>
     </row>
     <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2278" s="39"/>
+      <c r="A2278" s="38"/>
     </row>
     <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2279" s="39"/>
+      <c r="A2279" s="38"/>
     </row>
     <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2280" s="39"/>
+      <c r="A2280" s="38"/>
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2281" s="39"/>
+      <c r="A2281" s="38"/>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2282" s="39"/>
+      <c r="A2282" s="38"/>
     </row>
     <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2283" s="39"/>
+      <c r="A2283" s="38"/>
     </row>
     <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2284" s="39"/>
+      <c r="A2284" s="38"/>
     </row>
     <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2285" s="39"/>
+      <c r="A2285" s="38"/>
     </row>
     <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2286" s="39"/>
+      <c r="A2286" s="38"/>
     </row>
     <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2287" s="39"/>
+      <c r="A2287" s="38"/>
     </row>
     <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2288" s="39"/>
+      <c r="A2288" s="38"/>
     </row>
     <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2289" s="39"/>
+      <c r="A2289" s="38"/>
     </row>
     <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2290" s="39"/>
+      <c r="A2290" s="38"/>
     </row>
     <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2291" s="39"/>
+      <c r="A2291" s="38"/>
     </row>
     <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2292" s="39"/>
+      <c r="A2292" s="38"/>
     </row>
     <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2293" s="39"/>
+      <c r="A2293" s="38"/>
     </row>
     <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2294" s="39"/>
+      <c r="A2294" s="38"/>
     </row>
     <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2295" s="39"/>
+      <c r="A2295" s="38"/>
     </row>
     <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2296" s="39"/>
+      <c r="A2296" s="38"/>
     </row>
     <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2297" s="39"/>
+      <c r="A2297" s="38"/>
     </row>
     <row r="2298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2298" s="39"/>
+      <c r="A2298" s="38"/>
     </row>
     <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2299" s="39"/>
+      <c r="A2299" s="38"/>
     </row>
     <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2300" s="39"/>
+      <c r="A2300" s="38"/>
     </row>
     <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2301" s="39"/>
+      <c r="A2301" s="38"/>
     </row>
     <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2302" s="39"/>
+      <c r="A2302" s="38"/>
     </row>
     <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2303" s="39"/>
+      <c r="A2303" s="38"/>
     </row>
     <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2304" s="39"/>
+      <c r="A2304" s="38"/>
     </row>
     <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2305" s="39"/>
+      <c r="A2305" s="38"/>
     </row>
     <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2306" s="39"/>
+      <c r="A2306" s="38"/>
     </row>
     <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2307" s="39"/>
+      <c r="A2307" s="38"/>
     </row>
     <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2308" s="39"/>
+      <c r="A2308" s="38"/>
     </row>
     <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2309" s="39"/>
+      <c r="A2309" s="38"/>
     </row>
     <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2310" s="39"/>
+      <c r="A2310" s="38"/>
     </row>
     <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2311" s="39"/>
+      <c r="A2311" s="38"/>
     </row>
     <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2312" s="39"/>
+      <c r="A2312" s="38"/>
     </row>
     <row r="2313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2313" s="39"/>
+      <c r="A2313" s="38"/>
     </row>
     <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2314" s="39"/>
+      <c r="A2314" s="38"/>
     </row>
     <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2315" s="39"/>
+      <c r="A2315" s="38"/>
     </row>
     <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2316" s="39"/>
+      <c r="A2316" s="38"/>
     </row>
     <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2317" s="39"/>
+      <c r="A2317" s="38"/>
     </row>
     <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2318" s="39"/>
+      <c r="A2318" s="38"/>
     </row>
     <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2319" s="39"/>
+      <c r="A2319" s="38"/>
     </row>
     <row r="2320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2320" s="39"/>
+      <c r="A2320" s="38"/>
     </row>
     <row r="2321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2321" s="39"/>
+      <c r="A2321" s="38"/>
     </row>
     <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2322" s="39"/>
+      <c r="A2322" s="38"/>
     </row>
     <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2323" s="39"/>
+      <c r="A2323" s="38"/>
     </row>
     <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2324" s="39"/>
+      <c r="A2324" s="38"/>
     </row>
     <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2325" s="39"/>
+      <c r="A2325" s="38"/>
     </row>
     <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2326" s="39"/>
+      <c r="A2326" s="38"/>
     </row>
     <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2327" s="39"/>
+      <c r="A2327" s="38"/>
     </row>
     <row r="2328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2328" s="39"/>
+      <c r="A2328" s="38"/>
     </row>
     <row r="2329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2329" s="39"/>
+      <c r="A2329" s="38"/>
     </row>
     <row r="2330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2330" s="39"/>
+      <c r="A2330" s="38"/>
     </row>
     <row r="2331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2331" s="39"/>
+      <c r="A2331" s="38"/>
     </row>
     <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2332" s="39"/>
+      <c r="A2332" s="38"/>
     </row>
     <row r="2333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2333" s="39"/>
+      <c r="A2333" s="38"/>
     </row>
     <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2334" s="39"/>
+      <c r="A2334" s="38"/>
     </row>
     <row r="2335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2335" s="39"/>
+      <c r="A2335" s="38"/>
     </row>
     <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2336" s="39"/>
+      <c r="A2336" s="38"/>
     </row>
     <row r="2337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2337" s="39"/>
+      <c r="A2337" s="38"/>
     </row>
     <row r="2338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2338" s="39"/>
+      <c r="A2338" s="38"/>
     </row>
     <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2339" s="39"/>
+      <c r="A2339" s="38"/>
     </row>
     <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2340" s="39"/>
+      <c r="A2340" s="38"/>
     </row>
     <row r="2341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2341" s="39"/>
+      <c r="A2341" s="38"/>
     </row>
     <row r="2342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2342" s="39"/>
+      <c r="A2342" s="38"/>
     </row>
     <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2343" s="39"/>
+      <c r="A2343" s="38"/>
     </row>
     <row r="2344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2344" s="39"/>
+      <c r="A2344" s="38"/>
     </row>
     <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2345" s="39"/>
+      <c r="A2345" s="38"/>
     </row>
     <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2346" s="39"/>
+      <c r="A2346" s="38"/>
     </row>
     <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2347" s="39"/>
+      <c r="A2347" s="38"/>
     </row>
     <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2348" s="39"/>
+      <c r="A2348" s="38"/>
     </row>
     <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2349" s="39"/>
+      <c r="A2349" s="38"/>
     </row>
     <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2350" s="39"/>
+      <c r="A2350" s="38"/>
     </row>
     <row r="2351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2351" s="39"/>
+      <c r="A2351" s="38"/>
     </row>
     <row r="2352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2352" s="39"/>
+      <c r="A2352" s="38"/>
     </row>
     <row r="2353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2353" s="39"/>
+      <c r="A2353" s="38"/>
     </row>
     <row r="2354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2354" s="39"/>
+      <c r="A2354" s="38"/>
     </row>
     <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2355" s="39"/>
+      <c r="A2355" s="38"/>
     </row>
     <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2356" s="39"/>
+      <c r="A2356" s="38"/>
     </row>
     <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2357" s="39"/>
+      <c r="A2357" s="38"/>
     </row>
     <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2358" s="39"/>
+      <c r="A2358" s="38"/>
     </row>
     <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2359" s="39"/>
+      <c r="A2359" s="38"/>
     </row>
     <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2360" s="39"/>
+      <c r="A2360" s="38"/>
     </row>
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2361" s="39"/>
+      <c r="A2361" s="38"/>
     </row>
     <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2362" s="39"/>
+      <c r="A2362" s="38"/>
     </row>
     <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2363" s="39"/>
+      <c r="A2363" s="38"/>
     </row>
     <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2364" s="39"/>
+      <c r="A2364" s="38"/>
     </row>
     <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2365" s="39"/>
+      <c r="A2365" s="38"/>
     </row>
     <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2366" s="39"/>
+      <c r="A2366" s="38"/>
     </row>
     <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2367" s="39"/>
+      <c r="A2367" s="38"/>
     </row>
     <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2368" s="39"/>
+      <c r="A2368" s="38"/>
     </row>
     <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2369" s="39"/>
+      <c r="A2369" s="38"/>
     </row>
     <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2370" s="39"/>
+      <c r="A2370" s="38"/>
     </row>
     <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2371" s="39"/>
+      <c r="A2371" s="38"/>
     </row>
     <row r="2372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2372" s="39"/>
+      <c r="A2372" s="38"/>
     </row>
     <row r="2373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2373" s="39"/>
+      <c r="A2373" s="38"/>
     </row>
     <row r="2374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2374" s="39"/>
+      <c r="A2374" s="38"/>
     </row>
     <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2375" s="39"/>
+      <c r="A2375" s="38"/>
     </row>
     <row r="2376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2376" s="39"/>
+      <c r="A2376" s="38"/>
     </row>
     <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2377" s="39"/>
+      <c r="A2377" s="38"/>
     </row>
     <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2378" s="39"/>
+      <c r="A2378" s="38"/>
     </row>
     <row r="2379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2379" s="39"/>
+      <c r="A2379" s="38"/>
     </row>
     <row r="2380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2380" s="39"/>
+      <c r="A2380" s="38"/>
     </row>
     <row r="2381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2381" s="39"/>
+      <c r="A2381" s="38"/>
     </row>
     <row r="2382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2382" s="39"/>
+      <c r="A2382" s="38"/>
     </row>
     <row r="2383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2383" s="39"/>
+      <c r="A2383" s="38"/>
     </row>
     <row r="2384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2384" s="39"/>
+      <c r="A2384" s="38"/>
     </row>
     <row r="2385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2385" s="39"/>
+      <c r="A2385" s="38"/>
     </row>
     <row r="2386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2386" s="39"/>
+      <c r="A2386" s="38"/>
     </row>
     <row r="2387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2387" s="39"/>
+      <c r="A2387" s="38"/>
     </row>
     <row r="2388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2388" s="39"/>
+      <c r="A2388" s="38"/>
     </row>
     <row r="2389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2389" s="39"/>
+      <c r="A2389" s="38"/>
     </row>
     <row r="2390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2390" s="39"/>
+      <c r="A2390" s="38"/>
     </row>
     <row r="2391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2391" s="39"/>
+      <c r="A2391" s="38"/>
     </row>
     <row r="2392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2392" s="39"/>
+      <c r="A2392" s="38"/>
     </row>
     <row r="2393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2393" s="39"/>
+      <c r="A2393" s="38"/>
     </row>
     <row r="2394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2394" s="39"/>
+      <c r="A2394" s="38"/>
     </row>
     <row r="2395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2395" s="39"/>
+      <c r="A2395" s="38"/>
     </row>
     <row r="2396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2396" s="39"/>
+      <c r="A2396" s="38"/>
     </row>
     <row r="2397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2397" s="39"/>
+      <c r="A2397" s="38"/>
     </row>
     <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2398" s="39"/>
+      <c r="A2398" s="38"/>
     </row>
     <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2399" s="39"/>
+      <c r="A2399" s="38"/>
     </row>
     <row r="2400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2400" s="39"/>
+      <c r="A2400" s="38"/>
     </row>
     <row r="2401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2401" s="39"/>
+      <c r="A2401" s="38"/>
     </row>
     <row r="2402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2402" s="39"/>
+      <c r="A2402" s="38"/>
     </row>
     <row r="2403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2403" s="39"/>
+      <c r="A2403" s="38"/>
     </row>
     <row r="2404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2404" s="39"/>
+      <c r="A2404" s="38"/>
     </row>
     <row r="2405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2405" s="39"/>
+      <c r="A2405" s="38"/>
     </row>
     <row r="2406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2406" s="39"/>
+      <c r="A2406" s="38"/>
     </row>
     <row r="2407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2407" s="39"/>
+      <c r="A2407" s="38"/>
     </row>
     <row r="2408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2408" s="39"/>
+      <c r="A2408" s="38"/>
     </row>
     <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2409" s="39"/>
+      <c r="A2409" s="38"/>
     </row>
     <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2410" s="39"/>
+      <c r="A2410" s="38"/>
     </row>
     <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2411" s="39"/>
+      <c r="A2411" s="38"/>
     </row>
     <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2412" s="39"/>
+      <c r="A2412" s="38"/>
     </row>
     <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2413" s="39"/>
+      <c r="A2413" s="38"/>
     </row>
     <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2414" s="39"/>
+      <c r="A2414" s="38"/>
     </row>
     <row r="2415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2415" s="39"/>
+      <c r="A2415" s="38"/>
     </row>
     <row r="2416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2416" s="39"/>
+      <c r="A2416" s="38"/>
     </row>
     <row r="2417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2417" s="39"/>
+      <c r="A2417" s="38"/>
     </row>
     <row r="2418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2418" s="39"/>
+      <c r="A2418" s="38"/>
     </row>
     <row r="2419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2419" s="39"/>
+      <c r="A2419" s="38"/>
     </row>
     <row r="2420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2420" s="39"/>
+      <c r="A2420" s="38"/>
     </row>
     <row r="2421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2421" s="39"/>
+      <c r="A2421" s="38"/>
     </row>
     <row r="2422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2422" s="39"/>
+      <c r="A2422" s="38"/>
     </row>
     <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2423" s="39"/>
+      <c r="A2423" s="38"/>
     </row>
     <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2424" s="39"/>
+      <c r="A2424" s="38"/>
     </row>
     <row r="2425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2425" s="39"/>
+      <c r="A2425" s="38"/>
     </row>
     <row r="2426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2426" s="39"/>
+      <c r="A2426" s="38"/>
     </row>
     <row r="2427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2427" s="39"/>
+      <c r="A2427" s="38"/>
     </row>
     <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2428" s="39"/>
+      <c r="A2428" s="38"/>
     </row>
     <row r="2429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2429" s="39"/>
+      <c r="A2429" s="38"/>
     </row>
     <row r="2430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2430" s="39"/>
+      <c r="A2430" s="38"/>
     </row>
     <row r="2431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2431" s="39"/>
+      <c r="A2431" s="38"/>
     </row>
     <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2432" s="39"/>
+      <c r="A2432" s="38"/>
     </row>
     <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2433" s="39"/>
+      <c r="A2433" s="38"/>
     </row>
     <row r="2434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2434" s="39"/>
+      <c r="A2434" s="38"/>
     </row>
     <row r="2435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2435" s="39"/>
+      <c r="A2435" s="38"/>
     </row>
     <row r="2436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2436" s="39"/>
+      <c r="A2436" s="38"/>
     </row>
     <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2437" s="39"/>
+      <c r="A2437" s="38"/>
     </row>
     <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2438" s="39"/>
+      <c r="A2438" s="38"/>
     </row>
     <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2439" s="39"/>
+      <c r="A2439" s="38"/>
     </row>
     <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2440" s="39"/>
+      <c r="A2440" s="38"/>
     </row>
     <row r="2441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2441" s="39"/>
+      <c r="A2441" s="38"/>
     </row>
     <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2442" s="39"/>
+      <c r="A2442" s="38"/>
     </row>
     <row r="2443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2443" s="39"/>
+      <c r="A2443" s="38"/>
     </row>
     <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2444" s="39"/>
+      <c r="A2444" s="38"/>
     </row>
     <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2445" s="39"/>
+      <c r="A2445" s="38"/>
     </row>
     <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2446" s="39"/>
+      <c r="A2446" s="38"/>
     </row>
     <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2447" s="39"/>
+      <c r="A2447" s="38"/>
     </row>
     <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2448" s="39"/>
+      <c r="A2448" s="38"/>
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2449" s="39"/>
+      <c r="A2449" s="38"/>
     </row>
     <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2450" s="39"/>
+      <c r="A2450" s="38"/>
     </row>
     <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2451" s="39"/>
+      <c r="A2451" s="38"/>
     </row>
     <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2452" s="39"/>
+      <c r="A2452" s="38"/>
     </row>
     <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2453" s="39"/>
+      <c r="A2453" s="38"/>
     </row>
     <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2454" s="39"/>
+      <c r="A2454" s="38"/>
     </row>
     <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2455" s="39"/>
+      <c r="A2455" s="38"/>
     </row>
     <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2456" s="39"/>
+      <c r="A2456" s="38"/>
     </row>
     <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2457" s="39"/>
+      <c r="A2457" s="38"/>
     </row>
     <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2458" s="39"/>
+      <c r="A2458" s="38"/>
     </row>
     <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2459" s="39"/>
+      <c r="A2459" s="38"/>
     </row>
     <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2460" s="39"/>
+      <c r="A2460" s="38"/>
     </row>
     <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2461" s="39"/>
+      <c r="A2461" s="38"/>
     </row>
     <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2462" s="39"/>
+      <c r="A2462" s="38"/>
     </row>
     <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2463" s="39"/>
+      <c r="A2463" s="38"/>
     </row>
     <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2464" s="39"/>
+      <c r="A2464" s="38"/>
     </row>
     <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2465" s="39"/>
+      <c r="A2465" s="38"/>
     </row>
     <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2466" s="39"/>
+      <c r="A2466" s="38"/>
     </row>
     <row r="2467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2467" s="39"/>
+      <c r="A2467" s="38"/>
     </row>
     <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2468" s="39"/>
+      <c r="A2468" s="38"/>
     </row>
     <row r="2469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2469" s="39"/>
+      <c r="A2469" s="38"/>
     </row>
     <row r="2470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2470" s="39"/>
+      <c r="A2470" s="38"/>
     </row>
     <row r="2471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2471" s="39"/>
+      <c r="A2471" s="38"/>
     </row>
     <row r="2472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2472" s="39"/>
+      <c r="A2472" s="38"/>
     </row>
     <row r="2473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2473" s="39"/>
+      <c r="A2473" s="38"/>
     </row>
     <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2474" s="39"/>
+      <c r="A2474" s="38"/>
     </row>
     <row r="2475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2475" s="39"/>
+      <c r="A2475" s="38"/>
     </row>
     <row r="2476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2476" s="39"/>
+      <c r="A2476" s="38"/>
     </row>
     <row r="2477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2477" s="39"/>
+      <c r="A2477" s="38"/>
     </row>
     <row r="2478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2478" s="39"/>
+      <c r="A2478" s="38"/>
     </row>
     <row r="2479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2479" s="39"/>
+      <c r="A2479" s="38"/>
     </row>
     <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2480" s="39"/>
+      <c r="A2480" s="38"/>
     </row>
     <row r="2481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2481" s="39"/>
+      <c r="A2481" s="38"/>
     </row>
     <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2482" s="39"/>
+      <c r="A2482" s="38"/>
     </row>
     <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2483" s="39"/>
+      <c r="A2483" s="38"/>
     </row>
     <row r="2484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2484" s="39"/>
+      <c r="A2484" s="38"/>
     </row>
     <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2485" s="39"/>
+      <c r="A2485" s="38"/>
     </row>
     <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2486" s="39"/>
+      <c r="A2486" s="38"/>
     </row>
     <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2487" s="39"/>
+      <c r="A2487" s="38"/>
     </row>
     <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2488" s="39"/>
+      <c r="A2488" s="38"/>
     </row>
     <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2489" s="39"/>
+      <c r="A2489" s="38"/>
     </row>
     <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2490" s="39"/>
+      <c r="A2490" s="38"/>
     </row>
     <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2491" s="39"/>
+      <c r="A2491" s="38"/>
     </row>
     <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2492" s="39"/>
+      <c r="A2492" s="38"/>
     </row>
     <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2493" s="39"/>
+      <c r="A2493" s="38"/>
     </row>
     <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2494" s="39"/>
+      <c r="A2494" s="38"/>
     </row>
     <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2495" s="39"/>
+      <c r="A2495" s="38"/>
     </row>
     <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2496" s="39"/>
+      <c r="A2496" s="38"/>
     </row>
     <row r="3957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3957" s="39"/>
+      <c r="A3957" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:F3957">

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -12,39 +12,45 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2019-01-08" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2019-01-08" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2019-01-08" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2019-01-08" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2019-01-08" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2019-01-08" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage Summary 2019-01-08" sheetId="34" r:id="rId7"/>
-    <sheet name="Storage by Fileset 2019-01-08" sheetId="33" r:id="rId8"/>
-    <sheet name="Storage By Org 2019-01-08" sheetId="19" r:id="rId9"/>
-    <sheet name="Active Users 2019-01-08" sheetId="18" r:id="rId10"/>
-    <sheet name="By Cores CPU 2019-01-08" sheetId="15" r:id="rId11"/>
-    <sheet name="Applications CPU 2019-01-08" sheetId="1" r:id="rId12"/>
-    <sheet name="User Walltime CPU 2019-01-08" sheetId="4" r:id="rId13"/>
-    <sheet name="Org HighLevel CPU 2019-01-08" sheetId="7" r:id="rId14"/>
-    <sheet name="Org Breakdown CPU 2019-01-08" sheetId="5" r:id="rId15"/>
-    <sheet name="Largest Jobs CPU 2019-01-08" sheetId="6" r:id="rId16"/>
-    <sheet name="By Cores GPU 2019-01-08" sheetId="16" r:id="rId17"/>
-    <sheet name="Applications GPU 2019-01-08" sheetId="3" r:id="rId18"/>
-    <sheet name="User Walltime GPU 2019-01-08" sheetId="10" r:id="rId19"/>
-    <sheet name="Org HighLevel GPU 2019-01-08" sheetId="8" r:id="rId20"/>
-    <sheet name="Org Breakdown GPU 2019-01-08" sheetId="9" r:id="rId21"/>
-    <sheet name="Largest Jobs GPU 2019-01-08" sheetId="11" r:id="rId22"/>
-    <sheet name="Cumulative 2019-01" sheetId="35" r:id="rId23"/>
+    <sheet name="Queue First Job 2019-02" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary 2019-02" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage 2019-02" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder 2019-02" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status 2019-02" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status 2019-02" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage Summary 2019-02" sheetId="34" r:id="rId7"/>
+    <sheet name="Storage by Fileset 2019-02" sheetId="33" r:id="rId8"/>
+    <sheet name="Storage By Org 2019-02" sheetId="19" r:id="rId9"/>
+    <sheet name="Active Users 2019-02" sheetId="18" r:id="rId10"/>
+    <sheet name="By Cores CPU 2019-02" sheetId="15" r:id="rId11"/>
+    <sheet name="Applications CPU 2019-02" sheetId="1" r:id="rId12"/>
+    <sheet name="User Walltime CPU 2019-02" sheetId="4" r:id="rId13"/>
+    <sheet name="Project CPU 2019-02" sheetId="40" r:id="rId14"/>
+    <sheet name="Org HighLevel CPU 2019-02" sheetId="7" r:id="rId15"/>
+    <sheet name="Org Breakdown CPU 2019-02" sheetId="5" r:id="rId16"/>
+    <sheet name="Largest Jobs CPU 2019-02" sheetId="6" r:id="rId17"/>
+    <sheet name="By Cores GPU 2019-02" sheetId="16" r:id="rId18"/>
+    <sheet name="Applications GPU 2019-02" sheetId="3" r:id="rId19"/>
+    <sheet name="User Walltime GPU 2019-02" sheetId="10" r:id="rId20"/>
+    <sheet name="Project Summary GPU 2019-02" sheetId="41" r:id="rId21"/>
+    <sheet name="Org HighLevel GPU 2019-02" sheetId="8" r:id="rId22"/>
+    <sheet name="Org Breakdown GPU 2019-02" sheetId="9" r:id="rId23"/>
+    <sheet name="Largest Jobs GPU 2019-02" sheetId="11" r:id="rId24"/>
+    <sheet name="Cumulative 2019-02" sheetId="42" r:id="rId25"/>
+    <sheet name="ApplicationsDGX 2019-02" sheetId="36" r:id="rId26"/>
+    <sheet name="User DGX 2019-02" sheetId="37" r:id="rId27"/>
+    <sheet name="Projects DGX 2019-02" sheetId="38" r:id="rId28"/>
+    <sheet name="Org Breakdown DGX 2019-02" sheetId="39" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>Rank</t>
   </si>
@@ -310,15 +316,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Expired</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -334,7 +331,55 @@
     <t>Industry &amp; Other</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>excluding period of downtime for maintenance</t>
+  </si>
+  <si>
+    <t>HOME_PROJECTS</t>
+  </si>
+  <si>
+    <t>HOME_PROJECTS_CSIBIO</t>
+  </si>
+  <si>
+    <t>HOME_NOT_FILESET</t>
+  </si>
+  <si>
+    <t>HOME_PROJECTS_EXPIRED</t>
+  </si>
+  <si>
+    <t>HOME_HOMEDIRS</t>
+  </si>
+  <si>
+    <t>DATA_PROJECTS</t>
+  </si>
+  <si>
+    <t>DATA_NOT_PROJECT</t>
+  </si>
+  <si>
+    <t>GPU hours</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>TCOMS</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Available Core Hours</t>
+  </si>
+  <si>
+    <t>Unused Core Hours</t>
+  </si>
+  <si>
+    <t>Utilisation</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1081,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$B$1</c:f>
+              <c:f>'Cumulative 2019-02'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1047,7 +1092,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$A$2:$A$35</c:f>
+              <c:f>'Cumulative 2019-02'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1158,7 +1203,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$B$2:$B$35</c:f>
+              <c:f>'Cumulative 2019-02'!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1166,110 +1211,110 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41515601.188611098</c:v>
+                  <c:v>40330490.100000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43498600.438611098</c:v>
+                  <c:v>42272318.300000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62390934.264722198</c:v>
+                  <c:v>61272817.900000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81475607.481944397</c:v>
+                  <c:v>80419405.700000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92635599.422777802</c:v>
+                  <c:v>91797570.799999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106419986.16944399</c:v>
+                  <c:v>105082245.89999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122841353.38249999</c:v>
+                  <c:v>121867569.09999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>138637852.47166699</c:v>
+                  <c:v>137922998.09999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157230950.66666701</c:v>
+                  <c:v>156262981.40000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174764740.83388901</c:v>
+                  <c:v>174124928.40000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192916055.90444401</c:v>
+                  <c:v>192602598.40000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>211720916.744167</c:v>
+                  <c:v>211579472.40000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>230919864.221111</c:v>
+                  <c:v>230801372.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>249005189.67611101</c:v>
+                  <c:v>249650891.69999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>266936676.198333</c:v>
+                  <c:v>268139905.69999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>283593104.57305598</c:v>
+                  <c:v>284774855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300152017.509444</c:v>
+                  <c:v>301603182.89999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>315965584.54722202</c:v>
+                  <c:v>317746477.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>333997098.63277799</c:v>
+                  <c:v>335666824.80000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>348846197.60861099</c:v>
+                  <c:v>351335053.10000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>364624503.01027799</c:v>
+                  <c:v>367404348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>381574647.875278</c:v>
+                  <c:v>384486918.80000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>398824226.78027803</c:v>
+                  <c:v>401993359.60000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>416307445.14555597</c:v>
+                  <c:v>420184501.80000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>434557785.78250003</c:v>
+                  <c:v>438698780.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>450423475.024167</c:v>
+                  <c:v>455274763.30000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>469270269.675556</c:v>
+                  <c:v>473757251.19999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>488578605.44861102</c:v>
+                  <c:v>492683086.80000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>503869057.607521</c:v>
+                  <c:v>508491904.90000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>520223779.41279799</c:v>
+                  <c:v>525022269.20000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>537141487.84146202</c:v>
+                  <c:v>542143127.20000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>551288940.32729495</c:v>
+                  <c:v>556472986.30000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>551288940.32729495</c:v>
+                  <c:v>575032138.50000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD22-4DB5-9150-70C225C60D81}"/>
+              <c16:uniqueId val="{00000000-8A1F-4774-8AED-FD9F7EA01B39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1278,7 +1323,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$C$1</c:f>
+              <c:f>'Cumulative 2019-02'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1289,7 +1334,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$A$2:$A$35</c:f>
+              <c:f>'Cumulative 2019-02'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1400,7 +1445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$C$2:$C$35</c:f>
+              <c:f>'Cumulative 2019-02'!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1408,110 +1453,357 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4660208.0666666701</c:v>
+                  <c:v>5033947.1999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4805520.4666666696</c:v>
+                  <c:v>5180111.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6358490.3399999999</c:v>
+                  <c:v>6788200.7999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8241452.8133333297</c:v>
+                  <c:v>8659562.3999999985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10736001.206666701</c:v>
+                  <c:v>11262496.799999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12901314.813333301</c:v>
+                  <c:v>13249156.799999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15094269.893333299</c:v>
+                  <c:v>15551659.199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16949466.5</c:v>
+                  <c:v>17511472.800000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19036381.719999999</c:v>
+                  <c:v>19717274.399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20859964.006666701</c:v>
+                  <c:v>21557515.199999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22772028.053333301</c:v>
+                  <c:v>23544835.199999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24724853.393333301</c:v>
+                  <c:v>25570773.599999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26808345.413333301</c:v>
+                  <c:v>27664571.999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28703917.5666667</c:v>
+                  <c:v>29669392.799999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30758431.2266667</c:v>
+                  <c:v>31794698.399999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32609443.153333299</c:v>
+                  <c:v>33632217.600000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34178264.460000001</c:v>
+                  <c:v>35229088.800000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35718879.32</c:v>
+                  <c:v>36785164.800000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37371036.293333299</c:v>
+                  <c:v>38422783.200000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38729788.68</c:v>
+                  <c:v>39837232.800000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40145114.227222197</c:v>
+                  <c:v>41323586.400000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41917944.731944397</c:v>
+                  <c:v>43112419.200000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43499917.205277801</c:v>
+                  <c:v>44692982.400000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45446290.738611102</c:v>
+                  <c:v>46729183.200000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47136106.211944401</c:v>
+                  <c:v>48448408.800000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48215932.985277802</c:v>
+                  <c:v>49520472.000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49511659.351944402</c:v>
+                  <c:v>50850537.600000009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50551178.578611098</c:v>
+                  <c:v>51916783.20000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52039647.698611103</c:v>
+                  <c:v>53399258.400000013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53983630.091944396</c:v>
+                  <c:v>55356280.800000012</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55676373.831944503</c:v>
+                  <c:v>57067855.20000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56966073.645277798</c:v>
+                  <c:v>58381255.20000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>56966073.645277798</c:v>
+                  <c:v>60175063.20000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD22-4DB5-9150-70C225C60D81}"/>
+              <c16:uniqueId val="{00000001-8A1F-4774-8AED-FD9F7EA01B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative 2019-02'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unused Core Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative 2019-02'!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cumulative 2019-02'!$F$2:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0" formatCode="#,##0.0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15991442.600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16534329.399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18664062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20948193.599999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21687494.699999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29718239.999999985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33180813.399999976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36306571.299999982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39062866.199999988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40407718.599999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43244809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44500868.900000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46167032.49999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47559900.399999976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49427178.099999964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51124503.199999988</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54317448.599999964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59338573.299999952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61774520.599999964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63881855.199999988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64891146.899999976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66021889.399999976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68113664.799999952</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69368745.99999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71227948.799999952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73188218.499999881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76120041.599999905</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79348200.199999928</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80825600.599999905</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82148181.699999928</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83495621.199999928</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84243184.299999952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85730863.999999881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A1F-4774-8AED-FD9F7EA01B39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,8 +1860,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.73845234298983653"/>
           <c:y val="0.37489550297032809"/>
-          <c:w val="0.24908659782013229"/>
-          <c:h val="0.25020899405934388"/>
+          <c:w val="0.20187161234446804"/>
+          <c:h val="0.3126453226777004"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1621,7 +1913,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$H$1</c:f>
+              <c:f>'Cumulative 2019-02'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1632,7 +1924,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
+              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1736,14 +2028,14 @@
                   <c:v>43465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43465</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$H$2:$H$35</c:f>
+              <c:f>'Cumulative 2019-02'!$J$2:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1751,110 +2043,110 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24562569.515277799</c:v>
+                  <c:v>23684370.800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26033013.509166699</c:v>
+                  <c:v>25114494.800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35247387.720833302</c:v>
+                  <c:v>34275807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42825018.751111098</c:v>
+                  <c:v>41874775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46666274.1297222</c:v>
+                  <c:v>45743559.299999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51249853.161666699</c:v>
+                  <c:v>49915318.699999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57154144.860277802</c:v>
+                  <c:v>56129899.399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61703314.560555503</c:v>
+                  <c:v>60554829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67549377.876944393</c:v>
+                  <c:v>66247671.200000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71947097.201944396</c:v>
+                  <c:v>70614611.299999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76357104.516388893</c:v>
+                  <c:v>74901323.099999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81375155.1875</c:v>
+                  <c:v>79776601.699999988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86161436.9491667</c:v>
+                  <c:v>84412925.499999985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91275614.107777804</c:v>
+                  <c:v>89636199.099999979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97287676.206944406</c:v>
+                  <c:v>95812123.799999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>103347500.76222201</c:v>
+                  <c:v>101854264.29999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109591660.463889</c:v>
+                  <c:v>108236551.79999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114790148.4025</c:v>
+                  <c:v>113517650.19999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>121782633.35111099</c:v>
+                  <c:v>120544819.69999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>127386474.815833</c:v>
+                  <c:v>126390083.89999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>134477576.67833301</c:v>
+                  <c:v>133581308.89999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>142794104.42583299</c:v>
+                  <c:v>141944111.29999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>150222427.68472201</c:v>
+                  <c:v>149500935.89999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>157273143.93583301</c:v>
+                  <c:v>156825569.29999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>163186233.11277801</c:v>
+                  <c:v>162921556.19999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>169853770.068333</c:v>
+                  <c:v>170040442.79999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>179359531.591389</c:v>
+                  <c:v>179136304.79999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>187802462.70194501</c:v>
+                  <c:v>187150601.09999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>194280827.72224301</c:v>
+                  <c:v>194110029.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>201622699.955576</c:v>
+                  <c:v>201531829.09999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>208597023.40868399</c:v>
+                  <c:v>208560772</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>215721309.38229501</c:v>
+                  <c:v>215762253</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>215721309.38229501</c:v>
+                  <c:v>223125045.69999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23C6-4BD4-86FB-A760D00839CC}"/>
+              <c16:uniqueId val="{00000000-3C55-4753-A705-32F800C94991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,7 +2155,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$I$1</c:f>
+              <c:f>'Cumulative 2019-02'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1874,7 +2166,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
+              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1978,14 +2270,14 @@
                   <c:v>43465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43465</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$I$2:$I$35</c:f>
+              <c:f>'Cumulative 2019-02'!$K$2:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1993,110 +2285,110 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11228948.621111101</c:v>
+                  <c:v>12013985.699999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11331993.7555556</c:v>
+                  <c:v>12117030.799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16744875.6163889</c:v>
+                  <c:v>17592846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23370843.7341667</c:v>
+                  <c:v>24181683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27266987.3172222</c:v>
+                  <c:v>28231926.399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34068271.007222198</c:v>
+                  <c:v>34904362.899999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39740736.366388902</c:v>
+                  <c:v>40616298.399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46925795.598611102</c:v>
+                  <c:v>48041206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55768722.152777798</c:v>
+                  <c:v>56812091.899999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62004571.033611096</c:v>
+                  <c:v>63487008.100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67740808.998611093</c:v>
+                  <c:v>69310769.299999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74111826.151944295</c:v>
+                  <c:v>75796154.200000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80462450.331666604</c:v>
+                  <c:v>82069870.600000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87141287.7444444</c:v>
+                  <c:v>89185052.000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94531390.963055506</c:v>
+                  <c:v>96838127.700000018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100799107.66722199</c:v>
+                  <c:v>103134596.60000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>107399896.805555</c:v>
+                  <c:v>109714897.90000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113964339.644722</c:v>
+                  <c:v>116524061.70000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119955238.375833</c:v>
+                  <c:v>122462571.80000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>125851241.096111</c:v>
+                  <c:v>128461359.80000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>131696426.081389</c:v>
+                  <c:v>134508396.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>138146044.161111</c:v>
+                  <c:v>140975006.19999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>145921210.45444399</c:v>
+                  <c:v>148796736.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>153957364.223611</c:v>
+                  <c:v>157200197.69999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>163148270.90916699</c:v>
+                  <c:v>166449012.69999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>169781806.67222199</c:v>
+                  <c:v>173235184.09999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>176869249.916944</c:v>
+                  <c:v>180504925.79999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>185465104.533333</c:v>
+                  <c:v>189100426.89999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>191644649.90083301</c:v>
+                  <c:v>195278064.99999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>197224481.51472199</c:v>
+                  <c:v>200937827.29999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>204109681.002222</c:v>
+                  <c:v>207907647.19999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>209412589.87083301</c:v>
+                  <c:v>213298279.39999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>209412589.87083301</c:v>
+                  <c:v>216331728.89999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-23C6-4BD4-86FB-A760D00839CC}"/>
+              <c16:uniqueId val="{00000001-3C55-4753-A705-32F800C94991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2105,7 +2397,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$J$1</c:f>
+              <c:f>'Cumulative 2019-02'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2116,7 +2408,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
+              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2220,14 +2512,14 @@
                   <c:v>43465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43465</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$J$2:$J$35</c:f>
+              <c:f>'Cumulative 2019-02'!$L$2:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2235,110 +2527,110 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7310084.4550000001</c:v>
+                  <c:v>7310391.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7746208.3372222204</c:v>
+                  <c:v>7746515.1000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12579036.4344444</c:v>
+                  <c:v>12743684.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17946711.326388899</c:v>
+                  <c:v>18131719.100000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20640594.2938889</c:v>
+                  <c:v>20946688.700000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24174804.7658333</c:v>
+                  <c:v>24377323.000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29212454.633055601</c:v>
+                  <c:v>29517978.800000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34400492.978888899</c:v>
+                  <c:v>34937705.900000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39697985.619166702</c:v>
+                  <c:v>40292729.800000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47850468.612222202</c:v>
+                  <c:v>48397740.100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56683705.698611103</c:v>
+                  <c:v>57636326.299999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64764006.681111097</c:v>
+                  <c:v>65927763.699999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74105917.465833396</c:v>
+                  <c:v>75502763.399999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81629134.457777798</c:v>
+                  <c:v>83329778.999999985</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87135446.443611205</c:v>
+                  <c:v>89027814.499999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91598582.373611197</c:v>
+                  <c:v>93451950.299999982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94740092.928055599</c:v>
+                  <c:v>96752597.899999976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99203029.090833396</c:v>
+                  <c:v>101213697.09999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103673356.33499999</c:v>
+                  <c:v>105731639.39999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107563684.542778</c:v>
+                  <c:v>109725757.79999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111098146.941945</c:v>
+                  <c:v>113315903.59999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>113915163.38</c:v>
+                  <c:v>116200908.79999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>116192065.97972199</c:v>
+                  <c:v>118513941.29999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118968182.76444501</c:v>
+                  <c:v>121374207.99999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121669606.1925</c:v>
+                  <c:v>124122387.79999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>123969022.83611099</c:v>
+                  <c:v>126458760.99999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>125884336.710833</c:v>
+                  <c:v>128385613.59999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>128231045.465278</c:v>
+                  <c:v>130761979.29999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130808713.873889</c:v>
+                  <c:v>133361333.19999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>134574538.191111</c:v>
+                  <c:v>137152616.09999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>137740794.86361101</c:v>
+                  <c:v>140380954.29999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>139787577.966389</c:v>
+                  <c:v>142463708.79999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>139787577.966389</c:v>
+                  <c:v>149793527.79999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-23C6-4BD4-86FB-A760D00839CC}"/>
+              <c16:uniqueId val="{00000002-3C55-4753-A705-32F800C94991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2347,7 +2639,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$K$1</c:f>
+              <c:f>'Cumulative 2019-02'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2363,7 +2655,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
+              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2467,14 +2759,14 @@
                   <c:v>43465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43465</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$K$2:$K$35</c:f>
+              <c:f>'Cumulative 2019-02'!$M$2:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2482,110 +2774,110 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1537410.0674999999</c:v>
+                  <c:v>1537410.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1574657.4275</c:v>
+                  <c:v>1574657.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2415334.6847222201</c:v>
+                  <c:v>2421318.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3662462.9030555598</c:v>
+                  <c:v>3712510.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4880822.5555555597</c:v>
+                  <c:v>4952789.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5552614.5863888897</c:v>
+                  <c:v>5618095.3999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7232936.4583333302</c:v>
+                  <c:v>7307237.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7695489.9961111099</c:v>
+                  <c:v>7782451.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7789645.5427777804</c:v>
+                  <c:v>7895666.1999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7905387.9894444402</c:v>
+                  <c:v>8005647.2999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8194858.1861111103</c:v>
+                  <c:v>8300878.7999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8472312.8783333302</c:v>
+                  <c:v>8597754.3999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8699092.5716666691</c:v>
+                  <c:v>8837448.7999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8741999.3183333296</c:v>
+                  <c:v>8880355.4999999981</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9206129.6316666696</c:v>
+                  <c:v>9344485.7999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9752514.4116666708</c:v>
+                  <c:v>9890870.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10793443.284166699</c:v>
+                  <c:v>10917355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11056978.467222201</c:v>
+                  <c:v>11197637.300000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12288510.884722199</c:v>
+                  <c:v>12262704.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12709121.3647222</c:v>
+                  <c:v>13080134.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12822636.038055601</c:v>
+                  <c:v>13193649.199999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13019589.838055599</c:v>
+                  <c:v>13392203.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13232770.5391667</c:v>
+                  <c:v>13615030.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13427362.826388899</c:v>
+                  <c:v>13826325.800000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13988384.3458333</c:v>
+                  <c:v>14378660.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14299679.685000001</c:v>
+                  <c:v>14698642.699999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14393674.0033333</c:v>
+                  <c:v>14792637</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14522588.6833333</c:v>
+                  <c:v>14923199.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14731818.5133333</c:v>
+                  <c:v>15132429.300000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14769784.5666667</c:v>
+                  <c:v>15170395.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14785840.2466667</c:v>
+                  <c:v>15191066</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14798613.4711111</c:v>
+                  <c:v>15203839.199999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14798613.4711111</c:v>
+                  <c:v>15228386.799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-23C6-4BD4-86FB-A760D00839CC}"/>
+              <c16:uniqueId val="{00000003-3C55-4753-A705-32F800C94991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2594,7 +2886,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-01'!$L$1</c:f>
+              <c:f>'Cumulative 2019-02'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2605,7 +2897,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$G$2:$G$35</c:f>
+              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2709,14 +3001,14 @@
                   <c:v>43465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43465</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-01'!$L$2:$L$35</c:f>
+              <c:f>'Cumulative 2019-02'!$N$2:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2724,110 +3016,110 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1536796.5963900001</c:v>
+                  <c:v>818279.59999999404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1618247.87583</c:v>
+                  <c:v>899732.39999999851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1762790.14833</c:v>
+                  <c:v>1027361.700000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1912023.5805599999</c:v>
+                  <c:v>1178278.900000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3916922.3330600001</c:v>
+                  <c:v>3185101.8000000268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4275757.4616700001</c:v>
+                  <c:v>3516300.0000000149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4595350.9577799998</c:v>
+                  <c:v>3847812.9000000358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4862225.8375000004</c:v>
+                  <c:v>4118276.7000000179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5461601.1950000003</c:v>
+                  <c:v>4732094.7000000179</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5917180.0033299997</c:v>
+                  <c:v>5177434.599999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6711606.5580599997</c:v>
+                  <c:v>5998133.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7722469.2386100003</c:v>
+                  <c:v>7051969.1000000238</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8299312.31611</c:v>
+                  <c:v>7642933.599999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8921071.6144399997</c:v>
+                  <c:v>8288896.4000000358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9534464.1797199994</c:v>
+                  <c:v>8912049.3000000119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10704842.511670001</c:v>
+                  <c:v>10075387.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11805188.487779999</c:v>
+                  <c:v>11210865.300000072</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12669968.261940001</c:v>
+                  <c:v>12078592.100000024</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13668395.97944</c:v>
+                  <c:v>13087867.800000072</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14065464.46917</c:v>
+                  <c:v>13514946</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14674831.497780001</c:v>
+                  <c:v>14128672.600000083</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15617690.80222</c:v>
+                  <c:v>15087105.600000024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16755669.327500001</c:v>
+                  <c:v>16259694.400000095</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18127682.133889999</c:v>
+                  <c:v>17687380.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19701397.43417</c:v>
+                  <c:v>19275569.300000072</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20735128.747779999</c:v>
+                  <c:v>20362201.50000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22275136.805</c:v>
+                  <c:v>21788305.400000095</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23108582.64333</c:v>
+                  <c:v>22663661.200000048</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24442695.29583</c:v>
+                  <c:v>24009304.200000048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26015905.276670001</c:v>
+                  <c:v>25585879.400000095</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27584522.15222</c:v>
+                  <c:v>27170540.300000072</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28534923.281939998</c:v>
+                  <c:v>28126158.800000072</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28534923.281939998</c:v>
+                  <c:v>30728511.100000143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-23C6-4BD4-86FB-A760D00839CC}"/>
+              <c16:uniqueId val="{00000004-3C55-4753-A705-32F800C94991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2898,15 +3190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2929,16 +3221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2966,29 +3258,35 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Queue First Job 2018-12"/>
-      <sheetName val="Core Summary 2018-12"/>
-      <sheetName val="Project Usage 2018-12"/>
-      <sheetName val="Project Stakeholder 2018-12"/>
-      <sheetName val="Project Status 2018-12"/>
-      <sheetName val="Personal Status 2018-12"/>
-      <sheetName val="Storage Summary 2018-12"/>
-      <sheetName val="Storage by Fileset 2018-12"/>
-      <sheetName val="Storage By Org 2018-12"/>
-      <sheetName val="Active Users 2018-12"/>
-      <sheetName val="By Cores CPU 2018-12"/>
-      <sheetName val="Applications CPU 2018-12"/>
-      <sheetName val="User Walltime CPU 2018-12"/>
-      <sheetName val="Org HighLevel CPU 2018-12"/>
-      <sheetName val="Org Breakdown CPU 2018-12"/>
-      <sheetName val="Largest Jobs CPU 2018-12"/>
-      <sheetName val="By Cores GPU 2018-12"/>
-      <sheetName val="Applications GPU 2018-12"/>
-      <sheetName val="User Walltime GPU 2018-12"/>
-      <sheetName val="Org HighLevel GPU 2018-12"/>
-      <sheetName val="Org Breakdown GPU 2018-12"/>
-      <sheetName val="Largest Jobs GPU 2018-12"/>
-      <sheetName val="Cumulative 2018-12"/>
+      <sheetName val="Queue First Job 2019-01"/>
+      <sheetName val="Core Summary 2019-01"/>
+      <sheetName val="Project Usage 2019-01"/>
+      <sheetName val="Project Stakeholder 2019-01"/>
+      <sheetName val="Project Status 2019-01"/>
+      <sheetName val="Personal Status 2019-01"/>
+      <sheetName val="Storage Summary 2019-01"/>
+      <sheetName val="Storage by Fileset 2019-01"/>
+      <sheetName val="Storage By Org 2019-01"/>
+      <sheetName val="Active Users 2019-01"/>
+      <sheetName val="By Cores CPU 2019-01"/>
+      <sheetName val="Applications CPU 2019-01"/>
+      <sheetName val="User Walltime CPU 2019-01"/>
+      <sheetName val="Project CPU 2019-01"/>
+      <sheetName val="Org HighLevel CPU 2019-01"/>
+      <sheetName val="Org Breakdown CPU 2019-01"/>
+      <sheetName val="Largest Jobs CPU 2019-01"/>
+      <sheetName val="By Cores GPU 2019-01"/>
+      <sheetName val="Applications GPU 2019-01"/>
+      <sheetName val="User Walltime GPU 2019-01"/>
+      <sheetName val="Project Summary GPU 2019-01"/>
+      <sheetName val="Org HighLevel GPU 2019-01"/>
+      <sheetName val="Org Breakdown GPU 2019-01"/>
+      <sheetName val="Largest Jobs GPU 2019-01"/>
+      <sheetName val="Cumulative 2019-01"/>
+      <sheetName val="ApplicationsDGX 2019-01"/>
+      <sheetName val="User DGX 2019-01"/>
+      <sheetName val="Projects DGX 2019-01"/>
+      <sheetName val="Org Breakdown DGX 2019-01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3013,7 +3311,9 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-      <sheetData sheetId="22">
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24">
         <row r="1">
           <cell r="B1" t="str">
             <v>Cumulative Core Hours (CPU nodes)</v>
@@ -3021,19 +3321,22 @@
           <cell r="C1" t="str">
             <v>Cumulative Core Hours (GPU Nodes)</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="F1" t="str">
+            <v>Unused Core Hours</v>
+          </cell>
+          <cell r="J1" t="str">
             <v>A*STAR</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="K1" t="str">
             <v>NUS</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="L1" t="str">
             <v>NTU</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="M1" t="str">
             <v>CREATE</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="N1" t="str">
             <v>Industry &amp; Other</v>
           </cell>
         </row>
@@ -3047,14 +3350,11 @@
           <cell r="C2">
             <v>0</v>
           </cell>
-          <cell r="G2">
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
             <v>42457</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
           </cell>
           <cell r="J2">
             <v>0</v>
@@ -3063,6 +3363,12 @@
             <v>0</v>
           </cell>
           <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
             <v>0</v>
           </cell>
         </row>
@@ -3071,28 +3377,31 @@
             <v>42538</v>
           </cell>
           <cell r="B3">
-            <v>41515601.188611098</v>
+            <v>40330490.100000001</v>
           </cell>
           <cell r="C3">
-            <v>4660208.0666666701</v>
-          </cell>
-          <cell r="G3">
+            <v>5033947.1999999993</v>
+          </cell>
+          <cell r="F3">
+            <v>15991442.600000001</v>
+          </cell>
+          <cell r="I3">
             <v>42538</v>
           </cell>
-          <cell r="H3">
-            <v>24562569.515277799</v>
-          </cell>
-          <cell r="I3">
-            <v>11228948.621111101</v>
-          </cell>
           <cell r="J3">
-            <v>7310084.4550000001</v>
+            <v>23684370.800000001</v>
           </cell>
           <cell r="K3">
-            <v>1537410.0674999999</v>
+            <v>12013985.699999999</v>
           </cell>
           <cell r="L3">
-            <v>1536796.5963900001</v>
+            <v>7310391.2000000002</v>
+          </cell>
+          <cell r="M3">
+            <v>1537410.1</v>
+          </cell>
+          <cell r="N3">
+            <v>818279.59999999404</v>
           </cell>
         </row>
         <row r="4">
@@ -3100,28 +3409,31 @@
             <v>42551</v>
           </cell>
           <cell r="B4">
-            <v>43498600.438611098</v>
+            <v>42272318.300000004</v>
           </cell>
           <cell r="C4">
-            <v>4805520.4666666696</v>
-          </cell>
-          <cell r="G4">
+            <v>5180111.9999999991</v>
+          </cell>
+          <cell r="F4">
+            <v>16534329.399999999</v>
+          </cell>
+          <cell r="I4">
             <v>42551</v>
           </cell>
-          <cell r="H4">
-            <v>26033013.509166699</v>
-          </cell>
-          <cell r="I4">
-            <v>11331993.7555556</v>
-          </cell>
           <cell r="J4">
-            <v>7746208.3372222204</v>
+            <v>25114494.800000001</v>
           </cell>
           <cell r="K4">
-            <v>1574657.4275</v>
+            <v>12117030.799999999</v>
           </cell>
           <cell r="L4">
-            <v>1618247.87583</v>
+            <v>7746515.1000000006</v>
+          </cell>
+          <cell r="M4">
+            <v>1574657.5</v>
+          </cell>
+          <cell r="N4">
+            <v>899732.39999999851</v>
           </cell>
         </row>
         <row r="5">
@@ -3129,28 +3441,31 @@
             <v>42582</v>
           </cell>
           <cell r="B5">
-            <v>62390934.264722198</v>
+            <v>61272817.900000006</v>
           </cell>
           <cell r="C5">
-            <v>6358490.3399999999</v>
-          </cell>
-          <cell r="G5">
+            <v>6788200.7999999989</v>
+          </cell>
+          <cell r="F5">
+            <v>18664062</v>
+          </cell>
+          <cell r="I5">
             <v>42582</v>
           </cell>
-          <cell r="H5">
-            <v>35247387.720833302</v>
-          </cell>
-          <cell r="I5">
-            <v>16744875.6163889</v>
-          </cell>
           <cell r="J5">
-            <v>12579036.4344444</v>
+            <v>34275807</v>
           </cell>
           <cell r="K5">
-            <v>2415334.6847222201</v>
+            <v>17592846</v>
           </cell>
           <cell r="L5">
-            <v>1762790.14833</v>
+            <v>12743684.4</v>
+          </cell>
+          <cell r="M5">
+            <v>2421318.9</v>
+          </cell>
+          <cell r="N5">
+            <v>1027361.700000003</v>
           </cell>
         </row>
         <row r="6">
@@ -3158,28 +3473,31 @@
             <v>42613</v>
           </cell>
           <cell r="B6">
-            <v>81475607.481944397</v>
+            <v>80419405.700000003</v>
           </cell>
           <cell r="C6">
-            <v>8241452.8133333297</v>
-          </cell>
-          <cell r="G6">
+            <v>8659562.3999999985</v>
+          </cell>
+          <cell r="F6">
+            <v>20948193.599999994</v>
+          </cell>
+          <cell r="I6">
             <v>42613</v>
           </cell>
-          <cell r="H6">
-            <v>42825018.751111098</v>
-          </cell>
-          <cell r="I6">
-            <v>23370843.7341667</v>
-          </cell>
           <cell r="J6">
-            <v>17946711.326388899</v>
+            <v>41874775</v>
           </cell>
           <cell r="K6">
-            <v>3662462.9030555598</v>
+            <v>24181683</v>
           </cell>
           <cell r="L6">
-            <v>1912023.5805599999</v>
+            <v>18131719.100000001</v>
+          </cell>
+          <cell r="M6">
+            <v>3712510.4</v>
+          </cell>
+          <cell r="N6">
+            <v>1178278.900000006</v>
           </cell>
         </row>
         <row r="7">
@@ -3187,28 +3505,31 @@
             <v>42643</v>
           </cell>
           <cell r="B7">
-            <v>92635599.422777802</v>
+            <v>91797570.799999997</v>
           </cell>
           <cell r="C7">
-            <v>10736001.206666701</v>
-          </cell>
-          <cell r="G7">
+            <v>11262496.799999999</v>
+          </cell>
+          <cell r="F7">
+            <v>21687494.699999988</v>
+          </cell>
+          <cell r="I7">
             <v>42643</v>
           </cell>
-          <cell r="H7">
-            <v>46666274.1297222</v>
-          </cell>
-          <cell r="I7">
-            <v>27266987.3172222</v>
-          </cell>
           <cell r="J7">
-            <v>20640594.2938889</v>
+            <v>45743559.299999997</v>
           </cell>
           <cell r="K7">
-            <v>4880822.5555555597</v>
+            <v>28231926.399999999</v>
           </cell>
           <cell r="L7">
-            <v>3916922.3330600001</v>
+            <v>20946688.700000003</v>
+          </cell>
+          <cell r="M7">
+            <v>4952789.0999999996</v>
+          </cell>
+          <cell r="N7">
+            <v>3185101.8000000268</v>
           </cell>
         </row>
         <row r="8">
@@ -3216,28 +3537,31 @@
             <v>42674</v>
           </cell>
           <cell r="B8">
-            <v>106419986.16944399</v>
+            <v>105082245.89999999</v>
           </cell>
           <cell r="C8">
-            <v>12901314.813333301</v>
-          </cell>
-          <cell r="G8">
+            <v>13249156.799999999</v>
+          </cell>
+          <cell r="F8">
+            <v>29718239.999999985</v>
+          </cell>
+          <cell r="I8">
             <v>42674</v>
           </cell>
-          <cell r="H8">
-            <v>51249853.161666699</v>
-          </cell>
-          <cell r="I8">
-            <v>34068271.007222198</v>
-          </cell>
           <cell r="J8">
-            <v>24174804.7658333</v>
+            <v>49915318.699999996</v>
           </cell>
           <cell r="K8">
-            <v>5552614.5863888897</v>
+            <v>34904362.899999999</v>
           </cell>
           <cell r="L8">
-            <v>4275757.4616700001</v>
+            <v>24377323.000000004</v>
+          </cell>
+          <cell r="M8">
+            <v>5618095.3999999994</v>
+          </cell>
+          <cell r="N8">
+            <v>3516300.0000000149</v>
           </cell>
         </row>
         <row r="9">
@@ -3245,28 +3569,31 @@
             <v>42704</v>
           </cell>
           <cell r="B9">
-            <v>122841353.38249999</v>
+            <v>121867569.09999999</v>
           </cell>
           <cell r="C9">
-            <v>15094269.893333299</v>
-          </cell>
-          <cell r="G9">
+            <v>15551659.199999999</v>
+          </cell>
+          <cell r="F9">
+            <v>33180813.399999976</v>
+          </cell>
+          <cell r="I9">
             <v>42704</v>
           </cell>
-          <cell r="H9">
-            <v>57154144.860277802</v>
-          </cell>
-          <cell r="I9">
-            <v>39740736.366388902</v>
-          </cell>
           <cell r="J9">
-            <v>29212454.633055601</v>
+            <v>56129899.399999999</v>
           </cell>
           <cell r="K9">
-            <v>7232936.4583333302</v>
+            <v>40616298.399999999</v>
           </cell>
           <cell r="L9">
-            <v>4595350.9577799998</v>
+            <v>29517978.800000004</v>
+          </cell>
+          <cell r="M9">
+            <v>7307237.0999999996</v>
+          </cell>
+          <cell r="N9">
+            <v>3847812.9000000358</v>
           </cell>
         </row>
         <row r="10">
@@ -3274,28 +3601,31 @@
             <v>42735</v>
           </cell>
           <cell r="B10">
-            <v>138637852.47166699</v>
+            <v>137922998.09999999</v>
           </cell>
           <cell r="C10">
-            <v>16949466.5</v>
-          </cell>
-          <cell r="G10">
+            <v>17511472.800000001</v>
+          </cell>
+          <cell r="F10">
+            <v>36306571.299999982</v>
+          </cell>
+          <cell r="I10">
             <v>42735</v>
           </cell>
-          <cell r="H10">
-            <v>61703314.560555503</v>
-          </cell>
-          <cell r="I10">
-            <v>46925795.598611102</v>
-          </cell>
           <cell r="J10">
-            <v>34400492.978888899</v>
+            <v>60554829</v>
           </cell>
           <cell r="K10">
-            <v>7695489.9961111099</v>
+            <v>48041206</v>
           </cell>
           <cell r="L10">
-            <v>4862225.8375000004</v>
+            <v>34937705.900000006</v>
+          </cell>
+          <cell r="M10">
+            <v>7782451.0999999996</v>
+          </cell>
+          <cell r="N10">
+            <v>4118276.7000000179</v>
           </cell>
         </row>
         <row r="11">
@@ -3303,28 +3633,31 @@
             <v>42766</v>
           </cell>
           <cell r="B11">
-            <v>157230950.66666701</v>
+            <v>156262981.40000001</v>
           </cell>
           <cell r="C11">
-            <v>19036381.719999999</v>
-          </cell>
-          <cell r="G11">
+            <v>19717274.399999999</v>
+          </cell>
+          <cell r="F11">
+            <v>39062866.199999988</v>
+          </cell>
+          <cell r="I11">
             <v>42766</v>
           </cell>
-          <cell r="H11">
-            <v>67549377.876944393</v>
-          </cell>
-          <cell r="I11">
-            <v>55768722.152777798</v>
-          </cell>
           <cell r="J11">
-            <v>39697985.619166702</v>
+            <v>66247671.200000003</v>
           </cell>
           <cell r="K11">
-            <v>7789645.5427777804</v>
+            <v>56812091.899999999</v>
           </cell>
           <cell r="L11">
-            <v>5461601.1950000003</v>
+            <v>40292729.800000004</v>
+          </cell>
+          <cell r="M11">
+            <v>7895666.1999999993</v>
+          </cell>
+          <cell r="N11">
+            <v>4732094.7000000179</v>
           </cell>
         </row>
         <row r="12">
@@ -3332,28 +3665,31 @@
             <v>42794</v>
           </cell>
           <cell r="B12">
-            <v>174764740.83388901</v>
+            <v>174124928.40000001</v>
           </cell>
           <cell r="C12">
-            <v>20859964.006666701</v>
-          </cell>
-          <cell r="G12">
+            <v>21557515.199999999</v>
+          </cell>
+          <cell r="F12">
+            <v>40407718.599999994</v>
+          </cell>
+          <cell r="I12">
             <v>42794</v>
           </cell>
-          <cell r="H12">
-            <v>71947097.201944396</v>
-          </cell>
-          <cell r="I12">
-            <v>62004571.033611096</v>
-          </cell>
           <cell r="J12">
-            <v>47850468.612222202</v>
+            <v>70614611.299999997</v>
           </cell>
           <cell r="K12">
-            <v>7905387.9894444402</v>
+            <v>63487008.100000001</v>
           </cell>
           <cell r="L12">
-            <v>5917180.0033299997</v>
+            <v>48397740.100000001</v>
+          </cell>
+          <cell r="M12">
+            <v>8005647.2999999989</v>
+          </cell>
+          <cell r="N12">
+            <v>5177434.599999994</v>
           </cell>
         </row>
         <row r="13">
@@ -3361,28 +3697,31 @@
             <v>42825</v>
           </cell>
           <cell r="B13">
-            <v>192916055.90444401</v>
+            <v>192602598.40000001</v>
           </cell>
           <cell r="C13">
-            <v>22772028.053333301</v>
-          </cell>
-          <cell r="G13">
+            <v>23544835.199999999</v>
+          </cell>
+          <cell r="F13">
+            <v>43244809</v>
+          </cell>
+          <cell r="I13">
             <v>42825</v>
           </cell>
-          <cell r="H13">
-            <v>76357104.516388893</v>
-          </cell>
-          <cell r="I13">
-            <v>67740808.998611093</v>
-          </cell>
           <cell r="J13">
-            <v>56683705.698611103</v>
+            <v>74901323.099999994</v>
           </cell>
           <cell r="K13">
-            <v>8194858.1861111103</v>
+            <v>69310769.299999997</v>
           </cell>
           <cell r="L13">
-            <v>6711606.5580599997</v>
+            <v>57636326.299999997</v>
+          </cell>
+          <cell r="M13">
+            <v>8300878.7999999989</v>
+          </cell>
+          <cell r="N13">
+            <v>5998133.5</v>
           </cell>
         </row>
         <row r="14">
@@ -3390,28 +3729,31 @@
             <v>42855</v>
           </cell>
           <cell r="B14">
-            <v>211720916.744167</v>
+            <v>211579472.40000001</v>
           </cell>
           <cell r="C14">
-            <v>24724853.393333301</v>
-          </cell>
-          <cell r="G14">
+            <v>25570773.599999998</v>
+          </cell>
+          <cell r="F14">
+            <v>44500868.900000006</v>
+          </cell>
+          <cell r="I14">
             <v>42855</v>
           </cell>
-          <cell r="H14">
-            <v>81375155.1875</v>
-          </cell>
-          <cell r="I14">
-            <v>74111826.151944295</v>
-          </cell>
           <cell r="J14">
-            <v>64764006.681111097</v>
+            <v>79776601.699999988</v>
           </cell>
           <cell r="K14">
-            <v>8472312.8783333302</v>
+            <v>75796154.200000003</v>
           </cell>
           <cell r="L14">
-            <v>7722469.2386100003</v>
+            <v>65927763.699999996</v>
+          </cell>
+          <cell r="M14">
+            <v>8597754.3999999985</v>
+          </cell>
+          <cell r="N14">
+            <v>7051969.1000000238</v>
           </cell>
         </row>
         <row r="15">
@@ -3419,28 +3761,31 @@
             <v>42886</v>
           </cell>
           <cell r="B15">
-            <v>230919864.221111</v>
+            <v>230801372.5</v>
           </cell>
           <cell r="C15">
-            <v>26808345.413333301</v>
-          </cell>
-          <cell r="G15">
+            <v>27664571.999999996</v>
+          </cell>
+          <cell r="F15">
+            <v>46167032.49999997</v>
+          </cell>
+          <cell r="I15">
             <v>42886</v>
           </cell>
-          <cell r="H15">
-            <v>86161436.9491667</v>
-          </cell>
-          <cell r="I15">
-            <v>80462450.331666604</v>
-          </cell>
           <cell r="J15">
-            <v>74105917.465833396</v>
+            <v>84412925.499999985</v>
           </cell>
           <cell r="K15">
-            <v>8699092.5716666691</v>
+            <v>82069870.600000009</v>
           </cell>
           <cell r="L15">
-            <v>8299312.31611</v>
+            <v>75502763.399999991</v>
+          </cell>
+          <cell r="M15">
+            <v>8837448.7999999989</v>
+          </cell>
+          <cell r="N15">
+            <v>7642933.599999994</v>
           </cell>
         </row>
         <row r="16">
@@ -3448,28 +3793,31 @@
             <v>42916</v>
           </cell>
           <cell r="B16">
-            <v>249005189.67611101</v>
+            <v>249650891.69999999</v>
           </cell>
           <cell r="C16">
-            <v>28703917.5666667</v>
-          </cell>
-          <cell r="G16">
+            <v>29669392.799999997</v>
+          </cell>
+          <cell r="F16">
+            <v>47559900.399999976</v>
+          </cell>
+          <cell r="I16">
             <v>42916</v>
           </cell>
-          <cell r="H16">
-            <v>91275614.107777804</v>
-          </cell>
-          <cell r="I16">
-            <v>87141287.7444444</v>
-          </cell>
           <cell r="J16">
-            <v>81629134.457777798</v>
+            <v>89636199.099999979</v>
           </cell>
           <cell r="K16">
-            <v>8741999.3183333296</v>
+            <v>89185052.000000015</v>
           </cell>
           <cell r="L16">
-            <v>8921071.6144399997</v>
+            <v>83329778.999999985</v>
+          </cell>
+          <cell r="M16">
+            <v>8880355.4999999981</v>
+          </cell>
+          <cell r="N16">
+            <v>8288896.4000000358</v>
           </cell>
         </row>
         <row r="17">
@@ -3477,28 +3825,31 @@
             <v>42947</v>
           </cell>
           <cell r="B17">
-            <v>266936676.198333</v>
+            <v>268139905.69999999</v>
           </cell>
           <cell r="C17">
-            <v>30758431.2266667</v>
-          </cell>
-          <cell r="G17">
+            <v>31794698.399999999</v>
+          </cell>
+          <cell r="F17">
+            <v>49427178.099999964</v>
+          </cell>
+          <cell r="I17">
             <v>42947</v>
           </cell>
-          <cell r="H17">
-            <v>97287676.206944406</v>
-          </cell>
-          <cell r="I17">
-            <v>94531390.963055506</v>
-          </cell>
           <cell r="J17">
-            <v>87135446.443611205</v>
+            <v>95812123.799999982</v>
           </cell>
           <cell r="K17">
-            <v>9206129.6316666696</v>
+            <v>96838127.700000018</v>
           </cell>
           <cell r="L17">
-            <v>9534464.1797199994</v>
+            <v>89027814.499999985</v>
+          </cell>
+          <cell r="M17">
+            <v>9344485.7999999989</v>
+          </cell>
+          <cell r="N17">
+            <v>8912049.3000000119</v>
           </cell>
         </row>
         <row r="18">
@@ -3506,28 +3857,31 @@
             <v>42978</v>
           </cell>
           <cell r="B18">
-            <v>283593104.57305598</v>
+            <v>284774855</v>
           </cell>
           <cell r="C18">
-            <v>32609443.153333299</v>
-          </cell>
-          <cell r="G18">
+            <v>33632217.600000001</v>
+          </cell>
+          <cell r="F18">
+            <v>51124503.199999988</v>
+          </cell>
+          <cell r="I18">
             <v>42978</v>
           </cell>
-          <cell r="H18">
-            <v>103347500.76222201</v>
-          </cell>
-          <cell r="I18">
-            <v>100799107.66722199</v>
-          </cell>
           <cell r="J18">
-            <v>91598582.373611197</v>
+            <v>101854264.29999998</v>
           </cell>
           <cell r="K18">
-            <v>9752514.4116666708</v>
+            <v>103134596.60000002</v>
           </cell>
           <cell r="L18">
-            <v>10704842.511670001</v>
+            <v>93451950.299999982</v>
+          </cell>
+          <cell r="M18">
+            <v>9890870.5999999996</v>
+          </cell>
+          <cell r="N18">
+            <v>10075387.5</v>
           </cell>
         </row>
         <row r="19">
@@ -3535,28 +3889,31 @@
             <v>43008</v>
           </cell>
           <cell r="B19">
-            <v>300152017.509444</v>
+            <v>301603182.89999998</v>
           </cell>
           <cell r="C19">
-            <v>34178264.460000001</v>
-          </cell>
-          <cell r="G19">
+            <v>35229088.800000004</v>
+          </cell>
+          <cell r="F19">
+            <v>54317448.599999964</v>
+          </cell>
+          <cell r="I19">
             <v>43008</v>
           </cell>
-          <cell r="H19">
-            <v>109591660.463889</v>
-          </cell>
-          <cell r="I19">
-            <v>107399896.805555</v>
-          </cell>
           <cell r="J19">
-            <v>94740092.928055599</v>
+            <v>108236551.79999998</v>
           </cell>
           <cell r="K19">
-            <v>10793443.284166699</v>
+            <v>109714897.90000002</v>
           </cell>
           <cell r="L19">
-            <v>11805188.487779999</v>
+            <v>96752597.899999976</v>
+          </cell>
+          <cell r="M19">
+            <v>10917355</v>
+          </cell>
+          <cell r="N19">
+            <v>11210865.300000072</v>
           </cell>
         </row>
         <row r="20">
@@ -3564,28 +3921,31 @@
             <v>43039</v>
           </cell>
           <cell r="B20">
-            <v>315965584.54722202</v>
+            <v>317746477.5</v>
           </cell>
           <cell r="C20">
-            <v>35718879.32</v>
-          </cell>
-          <cell r="G20">
+            <v>36785164.800000004</v>
+          </cell>
+          <cell r="F20">
+            <v>59338573.299999952</v>
+          </cell>
+          <cell r="I20">
             <v>43039</v>
           </cell>
-          <cell r="H20">
-            <v>114790148.4025</v>
-          </cell>
-          <cell r="I20">
-            <v>113964339.644722</v>
-          </cell>
           <cell r="J20">
-            <v>99203029.090833396</v>
+            <v>113517650.19999999</v>
           </cell>
           <cell r="K20">
-            <v>11056978.467222201</v>
+            <v>116524061.70000002</v>
           </cell>
           <cell r="L20">
-            <v>12669968.261940001</v>
+            <v>101213697.09999998</v>
+          </cell>
+          <cell r="M20">
+            <v>11197637.300000001</v>
+          </cell>
+          <cell r="N20">
+            <v>12078592.100000024</v>
           </cell>
         </row>
         <row r="21">
@@ -3593,28 +3953,31 @@
             <v>43069</v>
           </cell>
           <cell r="B21">
-            <v>333997098.63277799</v>
+            <v>335666824.80000001</v>
           </cell>
           <cell r="C21">
-            <v>37371036.293333299</v>
-          </cell>
-          <cell r="G21">
+            <v>38422783.200000003</v>
+          </cell>
+          <cell r="F21">
+            <v>61774520.599999964</v>
+          </cell>
+          <cell r="I21">
             <v>43069</v>
           </cell>
-          <cell r="H21">
-            <v>121782633.35111099</v>
-          </cell>
-          <cell r="I21">
-            <v>119955238.375833</v>
-          </cell>
           <cell r="J21">
-            <v>103673356.33499999</v>
+            <v>120544819.69999999</v>
           </cell>
           <cell r="K21">
-            <v>12288510.884722199</v>
+            <v>122462571.80000001</v>
           </cell>
           <cell r="L21">
-            <v>13668395.97944</v>
+            <v>105731639.39999998</v>
+          </cell>
+          <cell r="M21">
+            <v>12262704.4</v>
+          </cell>
+          <cell r="N21">
+            <v>13087867.800000072</v>
           </cell>
         </row>
         <row r="22">
@@ -3622,28 +3985,31 @@
             <v>43100</v>
           </cell>
           <cell r="B22">
-            <v>348846197.60861099</v>
+            <v>351335053.10000002</v>
           </cell>
           <cell r="C22">
-            <v>38729788.68</v>
-          </cell>
-          <cell r="G22">
+            <v>39837232.800000004</v>
+          </cell>
+          <cell r="F22">
+            <v>63881855.199999988</v>
+          </cell>
+          <cell r="I22">
             <v>43100</v>
           </cell>
-          <cell r="H22">
-            <v>127386474.815833</v>
-          </cell>
-          <cell r="I22">
-            <v>125851241.096111</v>
-          </cell>
           <cell r="J22">
-            <v>107563684.542778</v>
+            <v>126390083.89999999</v>
           </cell>
           <cell r="K22">
-            <v>12709121.3647222</v>
+            <v>128461359.80000001</v>
           </cell>
           <cell r="L22">
-            <v>14065464.46917</v>
+            <v>109725757.79999998</v>
+          </cell>
+          <cell r="M22">
+            <v>13080134.5</v>
+          </cell>
+          <cell r="N22">
+            <v>13514946</v>
           </cell>
         </row>
         <row r="23">
@@ -3651,28 +4017,31 @@
             <v>43131</v>
           </cell>
           <cell r="B23">
-            <v>364624503.01027799</v>
+            <v>367404348</v>
           </cell>
           <cell r="C23">
-            <v>40145114.227222197</v>
-          </cell>
-          <cell r="G23">
+            <v>41323586.400000006</v>
+          </cell>
+          <cell r="F23">
+            <v>64891146.899999976</v>
+          </cell>
+          <cell r="I23">
             <v>43131</v>
           </cell>
-          <cell r="H23">
-            <v>134477576.67833301</v>
-          </cell>
-          <cell r="I23">
-            <v>131696426.081389</v>
-          </cell>
           <cell r="J23">
-            <v>111098146.941945</v>
+            <v>133581308.89999999</v>
           </cell>
           <cell r="K23">
-            <v>12822636.038055601</v>
+            <v>134508396.5</v>
           </cell>
           <cell r="L23">
-            <v>14674831.497780001</v>
+            <v>113315903.59999998</v>
+          </cell>
+          <cell r="M23">
+            <v>13193649.199999999</v>
+          </cell>
+          <cell r="N23">
+            <v>14128672.600000083</v>
           </cell>
         </row>
         <row r="24">
@@ -3680,28 +4049,31 @@
             <v>43159</v>
           </cell>
           <cell r="B24">
-            <v>381574647.875278</v>
+            <v>384486918.80000001</v>
           </cell>
           <cell r="C24">
-            <v>41917944.731944397</v>
-          </cell>
-          <cell r="G24">
+            <v>43112419.200000003</v>
+          </cell>
+          <cell r="F24">
+            <v>66021889.399999976</v>
+          </cell>
+          <cell r="I24">
             <v>43159</v>
           </cell>
-          <cell r="H24">
-            <v>142794104.42583299</v>
-          </cell>
-          <cell r="I24">
-            <v>138146044.161111</v>
-          </cell>
           <cell r="J24">
-            <v>113915163.38</v>
+            <v>141944111.29999998</v>
           </cell>
           <cell r="K24">
-            <v>13019589.838055599</v>
+            <v>140975006.19999999</v>
           </cell>
           <cell r="L24">
-            <v>15617690.80222</v>
+            <v>116200908.79999998</v>
+          </cell>
+          <cell r="M24">
+            <v>13392203.6</v>
+          </cell>
+          <cell r="N24">
+            <v>15087105.600000024</v>
           </cell>
         </row>
         <row r="25">
@@ -3709,28 +4081,31 @@
             <v>43190</v>
           </cell>
           <cell r="B25">
-            <v>398824226.78027803</v>
+            <v>401993359.60000002</v>
           </cell>
           <cell r="C25">
-            <v>43499917.205277801</v>
-          </cell>
-          <cell r="G25">
+            <v>44692982.400000006</v>
+          </cell>
+          <cell r="F25">
+            <v>68113664.799999952</v>
+          </cell>
+          <cell r="I25">
             <v>43190</v>
           </cell>
-          <cell r="H25">
-            <v>150222427.68472201</v>
-          </cell>
-          <cell r="I25">
-            <v>145921210.45444399</v>
-          </cell>
           <cell r="J25">
-            <v>116192065.97972199</v>
+            <v>149500935.89999998</v>
           </cell>
           <cell r="K25">
-            <v>13232770.5391667</v>
+            <v>148796736.5</v>
           </cell>
           <cell r="L25">
-            <v>16755669.327500001</v>
+            <v>118513941.29999998</v>
+          </cell>
+          <cell r="M25">
+            <v>13615030.4</v>
+          </cell>
+          <cell r="N25">
+            <v>16259694.400000095</v>
           </cell>
         </row>
         <row r="26">
@@ -3738,28 +4113,31 @@
             <v>43220</v>
           </cell>
           <cell r="B26">
-            <v>416307445.14555597</v>
+            <v>420184501.80000001</v>
           </cell>
           <cell r="C26">
-            <v>45446290.738611102</v>
-          </cell>
-          <cell r="G26">
+            <v>46729183.200000003</v>
+          </cell>
+          <cell r="F26">
+            <v>69368745.99999994</v>
+          </cell>
+          <cell r="I26">
             <v>43220</v>
           </cell>
-          <cell r="H26">
-            <v>157273143.93583301</v>
-          </cell>
-          <cell r="I26">
-            <v>153957364.223611</v>
-          </cell>
           <cell r="J26">
-            <v>118968182.76444501</v>
+            <v>156825569.29999998</v>
           </cell>
           <cell r="K26">
-            <v>13427362.826388899</v>
+            <v>157200197.69999999</v>
           </cell>
           <cell r="L26">
-            <v>18127682.133889999</v>
+            <v>121374207.99999999</v>
+          </cell>
+          <cell r="M26">
+            <v>13826325.800000001</v>
+          </cell>
+          <cell r="N26">
+            <v>17687380.5</v>
           </cell>
         </row>
         <row r="27">
@@ -3767,28 +4145,31 @@
             <v>43251</v>
           </cell>
           <cell r="B27">
-            <v>434557785.78250003</v>
+            <v>438698780.5</v>
           </cell>
           <cell r="C27">
-            <v>47136106.211944401</v>
-          </cell>
-          <cell r="G27">
+            <v>48448408.800000004</v>
+          </cell>
+          <cell r="F27">
+            <v>71227948.799999952</v>
+          </cell>
+          <cell r="I27">
             <v>43251</v>
           </cell>
-          <cell r="H27">
-            <v>163186233.11277801</v>
-          </cell>
-          <cell r="I27">
-            <v>163148270.90916699</v>
-          </cell>
           <cell r="J27">
-            <v>121669606.1925</v>
+            <v>162921556.19999999</v>
           </cell>
           <cell r="K27">
-            <v>13988384.3458333</v>
+            <v>166449012.69999999</v>
           </cell>
           <cell r="L27">
-            <v>19701397.43417</v>
+            <v>124122387.79999998</v>
+          </cell>
+          <cell r="M27">
+            <v>14378660.5</v>
+          </cell>
+          <cell r="N27">
+            <v>19275569.300000072</v>
           </cell>
         </row>
         <row r="28">
@@ -3796,28 +4177,31 @@
             <v>43281</v>
           </cell>
           <cell r="B28">
-            <v>450423475.024167</v>
+            <v>455274763.30000001</v>
           </cell>
           <cell r="C28">
-            <v>48215932.985277802</v>
-          </cell>
-          <cell r="G28">
+            <v>49520472.000000007</v>
+          </cell>
+          <cell r="F28">
+            <v>73188218.499999881</v>
+          </cell>
+          <cell r="I28">
             <v>43281</v>
           </cell>
-          <cell r="H28">
-            <v>169853770.068333</v>
-          </cell>
-          <cell r="I28">
-            <v>169781806.67222199</v>
-          </cell>
           <cell r="J28">
-            <v>123969022.83611099</v>
+            <v>170040442.79999998</v>
           </cell>
           <cell r="K28">
-            <v>14299679.685000001</v>
+            <v>173235184.09999999</v>
           </cell>
           <cell r="L28">
-            <v>20735128.747779999</v>
+            <v>126458760.99999999</v>
+          </cell>
+          <cell r="M28">
+            <v>14698642.699999999</v>
+          </cell>
+          <cell r="N28">
+            <v>20362201.50000006</v>
           </cell>
         </row>
         <row r="29">
@@ -3825,28 +4209,31 @@
             <v>43312</v>
           </cell>
           <cell r="B29">
-            <v>469270269.675556</v>
+            <v>473757251.19999999</v>
           </cell>
           <cell r="C29">
-            <v>49511659.351944402</v>
-          </cell>
-          <cell r="G29">
+            <v>50850537.600000009</v>
+          </cell>
+          <cell r="F29">
+            <v>76120041.599999905</v>
+          </cell>
+          <cell r="I29">
             <v>43312</v>
           </cell>
-          <cell r="H29">
-            <v>179359531.591389</v>
-          </cell>
-          <cell r="I29">
-            <v>176869249.916944</v>
-          </cell>
           <cell r="J29">
-            <v>125884336.710833</v>
+            <v>179136304.79999998</v>
           </cell>
           <cell r="K29">
-            <v>14393674.0033333</v>
+            <v>180504925.79999998</v>
           </cell>
           <cell r="L29">
-            <v>22275136.805</v>
+            <v>128385613.59999998</v>
+          </cell>
+          <cell r="M29">
+            <v>14792637</v>
+          </cell>
+          <cell r="N29">
+            <v>21788305.400000095</v>
           </cell>
         </row>
         <row r="30">
@@ -3854,28 +4241,31 @@
             <v>43343</v>
           </cell>
           <cell r="B30">
-            <v>488578605.44861102</v>
+            <v>492683086.80000001</v>
           </cell>
           <cell r="C30">
-            <v>50551178.578611098</v>
-          </cell>
-          <cell r="G30">
+            <v>51916783.20000001</v>
+          </cell>
+          <cell r="F30">
+            <v>79348200.199999928</v>
+          </cell>
+          <cell r="I30">
             <v>43343</v>
           </cell>
-          <cell r="H30">
-            <v>187802462.70194501</v>
-          </cell>
-          <cell r="I30">
-            <v>185465104.533333</v>
-          </cell>
           <cell r="J30">
-            <v>128231045.465278</v>
+            <v>187150601.09999999</v>
           </cell>
           <cell r="K30">
-            <v>14522588.6833333</v>
+            <v>189100426.89999998</v>
           </cell>
           <cell r="L30">
-            <v>23108582.64333</v>
+            <v>130761979.29999998</v>
+          </cell>
+          <cell r="M30">
+            <v>14923199.5</v>
+          </cell>
+          <cell r="N30">
+            <v>22663661.200000048</v>
           </cell>
         </row>
         <row r="31">
@@ -3883,28 +4273,31 @@
             <v>43373</v>
           </cell>
           <cell r="B31">
-            <v>503869057.607521</v>
+            <v>508491904.90000004</v>
           </cell>
           <cell r="C31">
-            <v>52039647.698611103</v>
-          </cell>
-          <cell r="G31">
+            <v>53399258.400000013</v>
+          </cell>
+          <cell r="F31">
+            <v>80825600.599999905</v>
+          </cell>
+          <cell r="I31">
             <v>43373</v>
           </cell>
-          <cell r="H31">
-            <v>194280827.72224301</v>
-          </cell>
-          <cell r="I31">
-            <v>191644649.90083301</v>
-          </cell>
           <cell r="J31">
-            <v>130808713.873889</v>
+            <v>194110029.5</v>
           </cell>
           <cell r="K31">
-            <v>14731818.5133333</v>
+            <v>195278064.99999997</v>
           </cell>
           <cell r="L31">
-            <v>24442695.29583</v>
+            <v>133361333.19999999</v>
+          </cell>
+          <cell r="M31">
+            <v>15132429.300000001</v>
+          </cell>
+          <cell r="N31">
+            <v>24009304.200000048</v>
           </cell>
         </row>
         <row r="32">
@@ -3912,28 +4305,31 @@
             <v>43404</v>
           </cell>
           <cell r="B32">
-            <v>520223779.41279799</v>
+            <v>525022269.20000005</v>
           </cell>
           <cell r="C32">
-            <v>53983630.091944396</v>
-          </cell>
-          <cell r="G32">
+            <v>55356280.800000012</v>
+          </cell>
+          <cell r="F32">
+            <v>82148181.699999928</v>
+          </cell>
+          <cell r="I32">
             <v>43404</v>
           </cell>
-          <cell r="H32">
-            <v>201622699.955576</v>
-          </cell>
-          <cell r="I32">
-            <v>197224481.51472199</v>
-          </cell>
           <cell r="J32">
-            <v>134574538.191111</v>
+            <v>201531829.09999999</v>
           </cell>
           <cell r="K32">
-            <v>14769784.5666667</v>
+            <v>200937827.29999998</v>
           </cell>
           <cell r="L32">
-            <v>26015905.276670001</v>
+            <v>137152616.09999999</v>
+          </cell>
+          <cell r="M32">
+            <v>15170395.4</v>
+          </cell>
+          <cell r="N32">
+            <v>25585879.400000095</v>
           </cell>
         </row>
         <row r="33">
@@ -3941,28 +4337,31 @@
             <v>43434</v>
           </cell>
           <cell r="B33">
-            <v>537141487.84146202</v>
+            <v>542143127.20000005</v>
           </cell>
           <cell r="C33">
-            <v>55676373.831944503</v>
-          </cell>
-          <cell r="G33">
+            <v>57067855.20000001</v>
+          </cell>
+          <cell r="F33">
+            <v>83495621.199999928</v>
+          </cell>
+          <cell r="I33">
             <v>43434</v>
           </cell>
-          <cell r="H33">
-            <v>208597023.40868399</v>
-          </cell>
-          <cell r="I33">
-            <v>204109681.002222</v>
-          </cell>
           <cell r="J33">
-            <v>137740794.86361101</v>
+            <v>208560772</v>
           </cell>
           <cell r="K33">
-            <v>14785840.2466667</v>
+            <v>207907647.19999999</v>
           </cell>
           <cell r="L33">
-            <v>27584522.15222</v>
+            <v>140380954.29999998</v>
+          </cell>
+          <cell r="M33">
+            <v>15191066</v>
+          </cell>
+          <cell r="N33">
+            <v>27170540.300000072</v>
           </cell>
         </row>
         <row r="34">
@@ -3970,31 +4369,70 @@
             <v>43465</v>
           </cell>
           <cell r="B34">
-            <v>551288940.32729495</v>
+            <v>556472986.30000007</v>
           </cell>
           <cell r="C34">
-            <v>56966073.645277798</v>
-          </cell>
-          <cell r="G34">
+            <v>58381255.20000001</v>
+          </cell>
+          <cell r="F34">
+            <v>84243184.299999952</v>
+          </cell>
+          <cell r="I34">
             <v>43465</v>
           </cell>
-          <cell r="H34">
-            <v>215721309.38229501</v>
-          </cell>
-          <cell r="I34">
-            <v>209412589.87083301</v>
-          </cell>
           <cell r="J34">
-            <v>139787577.966389</v>
+            <v>215762253</v>
           </cell>
           <cell r="K34">
-            <v>14798613.4711111</v>
+            <v>213298279.39999998</v>
           </cell>
           <cell r="L34">
-            <v>28534923.281939998</v>
+            <v>142463708.79999998</v>
+          </cell>
+          <cell r="M34">
+            <v>15203839.199999999</v>
+          </cell>
+          <cell r="N34">
+            <v>28126158.800000072</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43496</v>
+          </cell>
+          <cell r="B35">
+            <v>575032138.50000012</v>
+          </cell>
+          <cell r="C35">
+            <v>60175063.20000001</v>
+          </cell>
+          <cell r="F35">
+            <v>85730863.999999881</v>
+          </cell>
+          <cell r="I35">
+            <v>43496</v>
+          </cell>
+          <cell r="J35">
+            <v>223125045.69999999</v>
+          </cell>
+          <cell r="K35">
+            <v>216331728.89999998</v>
+          </cell>
+          <cell r="L35">
+            <v>149793527.79999998</v>
+          </cell>
+          <cell r="M35">
+            <v>15228386.799999999</v>
+          </cell>
+          <cell r="N35">
+            <v>30728511.100000143</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4729,167 +5167,121 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="39"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="40"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="40"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="40"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="40"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="40"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="41"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="41"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="42"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="43"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="40"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="39"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="40"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="43"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
+      <c r="B18" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5056,7 +5448,42 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="19.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5093,8 +5520,13 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5102,7 +5534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -5148,7 +5580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -5202,7 +5634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5265,9 +5697,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5280,7 +5712,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5297,26 +5729,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
@@ -5345,6 +5773,12 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
       <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
@@ -5358,7 +5792,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="25" t="e">
+        <f>B$5/B2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="25" t="e">
+        <f>B$5/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="25" t="e">
+        <f>B$5/B4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="25" t="e">
+        <f>B$13/B10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="25" t="e">
+        <f>B$13/B11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="25" t="e">
+        <f>B$13/B12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -5404,146 +5980,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="19.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="33" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="31"/>
+    <col min="9" max="9" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="25" t="e">
-        <f>B$5/B2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="25" t="e">
-        <f>B$5/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="25" t="e">
-        <f>B$5/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="25" t="e">
-        <f>B$13/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="25" t="e">
-        <f>B$13/B11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="25" t="e">
-        <f>B$13/B12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="32"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -5577,15 +6061,11 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
@@ -5597,7 +6077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -5640,7 +6120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -5694,9 +6174,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5706,53 +6186,60 @@
     <col min="2" max="2" width="22.5703125" style="31" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="15" style="31" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="32" customWidth="1"/>
-    <col min="10" max="12" width="15" style="32" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="31"/>
+    <col min="5" max="6" width="13.7109375" style="31" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="32" customWidth="1"/>
+    <col min="12" max="14" width="15" style="32" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="E1" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
       <c r="O1" s="38"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>42457</v>
       </c>
@@ -5765,15 +6252,14 @@
       <c r="D2" s="32">
         <v>0</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="G2" s="21">
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
         <v>42457</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32">
-        <v>0</v>
       </c>
       <c r="J2" s="32">
         <v>0</v>
@@ -5784,1218 +6270,1719 @@
       <c r="L2" s="32">
         <v>0</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="M2" s="32">
+        <v>0</v>
+      </c>
+      <c r="N2" s="32">
+        <v>0</v>
+      </c>
       <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>42538</v>
       </c>
       <c r="B3" s="32">
-        <v>41515601.188611098</v>
+        <v>40330490.100000001</v>
       </c>
       <c r="C3" s="32">
-        <v>4660208.0666666701</v>
+        <v>5033947.1999999993</v>
       </c>
       <c r="D3" s="32">
-        <v>46175809.255277798</v>
-      </c>
-      <c r="G3" s="21">
+        <v>45364437.399999999</v>
+      </c>
+      <c r="E3" s="33">
+        <v>61355880</v>
+      </c>
+      <c r="F3" s="33">
+        <f>E3-D3</f>
+        <v>15991442.600000001</v>
+      </c>
+      <c r="G3" s="25">
+        <f>D3/E3</f>
+        <v>0.73936576901838913</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="21">
         <v>42538</v>
       </c>
-      <c r="H3" s="32">
-        <v>24562569.515277799</v>
-      </c>
-      <c r="I3" s="32">
-        <v>11228948.621111101</v>
-      </c>
       <c r="J3" s="32">
-        <v>7310084.4550000001</v>
+        <v>23684370.800000001</v>
       </c>
       <c r="K3" s="32">
-        <v>1537410.0674999999</v>
+        <v>12013985.699999999</v>
       </c>
       <c r="L3" s="32">
-        <v>1536796.5963900001</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+        <v>7310391.2000000002</v>
+      </c>
+      <c r="M3" s="32">
+        <v>1537410.1</v>
+      </c>
+      <c r="N3" s="32">
+        <v>818279.59999999404</v>
+      </c>
       <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>42551</v>
       </c>
       <c r="B4" s="32">
-        <v>43498600.438611098</v>
+        <v>42272318.300000004</v>
       </c>
       <c r="C4" s="32">
-        <v>4805520.4666666696</v>
+        <v>5180111.9999999991</v>
       </c>
       <c r="D4" s="32">
-        <v>48304120.905277804</v>
-      </c>
-      <c r="G4" s="21">
+        <v>47452430.600000001</v>
+      </c>
+      <c r="E4" s="33">
+        <v>63986760</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" ref="F4:F35" si="0">E4-D4</f>
+        <v>16534329.399999999</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:G35" si="1">D4/E4</f>
+        <v>0.7415976461380448</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="21">
         <v>42551</v>
       </c>
-      <c r="H4" s="32">
-        <v>26033013.509166699</v>
-      </c>
-      <c r="I4" s="32">
-        <v>11331993.7555556</v>
-      </c>
       <c r="J4" s="32">
-        <v>7746208.3372222204</v>
+        <v>25114494.800000001</v>
       </c>
       <c r="K4" s="32">
-        <v>1574657.4275</v>
+        <v>12117030.799999999</v>
       </c>
       <c r="L4" s="32">
-        <v>1618247.87583</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+        <v>7746515.1000000006</v>
+      </c>
+      <c r="M4" s="32">
+        <v>1574657.5</v>
+      </c>
+      <c r="N4" s="32">
+        <v>899732.39999999851</v>
+      </c>
       <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>42582</v>
       </c>
       <c r="B5" s="32">
-        <v>62390934.264722198</v>
+        <v>61272817.900000006</v>
       </c>
       <c r="C5" s="32">
-        <v>6358490.3399999999</v>
+        <v>6788200.7999999989</v>
       </c>
       <c r="D5" s="32">
-        <v>68749424.604722202</v>
-      </c>
-      <c r="G5" s="21">
+        <v>68061018</v>
+      </c>
+      <c r="E5" s="33">
+        <v>86725080</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
+        <v>18664062</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
+        <v>0.78479048967149989</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="21">
         <v>42582</v>
       </c>
-      <c r="H5" s="32">
-        <v>35247387.720833302</v>
-      </c>
-      <c r="I5" s="32">
-        <v>16744875.6163889</v>
-      </c>
       <c r="J5" s="32">
-        <v>12579036.4344444</v>
+        <v>34275807</v>
       </c>
       <c r="K5" s="32">
-        <v>2415334.6847222201</v>
+        <v>17592846</v>
       </c>
       <c r="L5" s="32">
-        <v>1762790.14833</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+        <v>12743684.4</v>
+      </c>
+      <c r="M5" s="32">
+        <v>2421318.9</v>
+      </c>
+      <c r="N5" s="32">
+        <v>1027361.700000003</v>
+      </c>
       <c r="O5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>42613</v>
       </c>
       <c r="B6" s="32">
-        <v>81475607.481944397</v>
+        <v>80419405.700000003</v>
       </c>
       <c r="C6" s="32">
-        <v>8241452.8133333297</v>
+        <v>8659562.3999999985</v>
       </c>
       <c r="D6" s="32">
-        <v>89717060.295277804</v>
-      </c>
-      <c r="G6" s="21">
+        <v>89078966.400000006</v>
+      </c>
+      <c r="E6" s="33">
+        <v>110027160</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="0"/>
+        <v>20948193.599999994</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
+        <v>0.80960888566059508</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="21">
         <v>42613</v>
       </c>
-      <c r="H6" s="32">
-        <v>42825018.751111098</v>
-      </c>
-      <c r="I6" s="32">
-        <v>23370843.7341667</v>
-      </c>
       <c r="J6" s="32">
-        <v>17946711.326388899</v>
+        <v>41874775</v>
       </c>
       <c r="K6" s="32">
-        <v>3662462.9030555598</v>
+        <v>24181683</v>
       </c>
       <c r="L6" s="32">
-        <v>1912023.5805599999</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+        <v>18131719.100000001</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3712510.4</v>
+      </c>
+      <c r="N6" s="32">
+        <v>1178278.900000006</v>
+      </c>
       <c r="O6" s="32"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>42643</v>
       </c>
       <c r="B7" s="32">
-        <v>92635599.422777802</v>
+        <v>91797570.799999997</v>
       </c>
       <c r="C7" s="32">
-        <v>10736001.206666701</v>
+        <v>11262496.799999999</v>
       </c>
       <c r="D7" s="32">
-        <v>103371600.629444</v>
-      </c>
-      <c r="G7" s="21">
+        <v>103060065.30000001</v>
+      </c>
+      <c r="E7" s="33">
+        <v>124747560</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>21687494.699999988</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.8261489467208819</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="21">
         <v>42643</v>
       </c>
-      <c r="H7" s="32">
-        <v>46666274.1297222</v>
-      </c>
-      <c r="I7" s="32">
-        <v>27266987.3172222</v>
-      </c>
       <c r="J7" s="32">
-        <v>20640594.2938889</v>
+        <v>45743559.299999997</v>
       </c>
       <c r="K7" s="32">
-        <v>4880822.5555555597</v>
+        <v>28231926.399999999</v>
       </c>
       <c r="L7" s="32">
-        <v>3916922.3330600001</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+        <v>20946688.700000003</v>
+      </c>
+      <c r="M7" s="32">
+        <v>4952789.0999999996</v>
+      </c>
+      <c r="N7" s="32">
+        <v>3185101.8000000268</v>
+      </c>
       <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>42674</v>
       </c>
       <c r="B8" s="32">
-        <v>106419986.16944399</v>
+        <v>105082245.89999999</v>
       </c>
       <c r="C8" s="32">
-        <v>12901314.813333301</v>
+        <v>13249156.799999999</v>
       </c>
       <c r="D8" s="32">
-        <v>119321300.982778</v>
-      </c>
-      <c r="G8" s="21">
+        <v>118331400.00000001</v>
+      </c>
+      <c r="E8" s="33">
+        <v>148049640</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="0"/>
+        <v>29718239.999999985</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="1"/>
+        <v>0.79926840754222717</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="21">
         <v>42674</v>
       </c>
-      <c r="H8" s="32">
-        <v>51249853.161666699</v>
-      </c>
-      <c r="I8" s="32">
-        <v>34068271.007222198</v>
-      </c>
       <c r="J8" s="32">
-        <v>24174804.7658333</v>
+        <v>49915318.699999996</v>
       </c>
       <c r="K8" s="32">
-        <v>5552614.5863888897</v>
+        <v>34904362.899999999</v>
       </c>
       <c r="L8" s="32">
-        <v>4275757.4616700001</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+        <v>24377323.000000004</v>
+      </c>
+      <c r="M8" s="32">
+        <v>5618095.3999999994</v>
+      </c>
+      <c r="N8" s="32">
+        <v>3516300.0000000149</v>
+      </c>
       <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>42704</v>
       </c>
       <c r="B9" s="32">
-        <v>122841353.38249999</v>
+        <v>121867569.09999999</v>
       </c>
       <c r="C9" s="32">
-        <v>15094269.893333299</v>
+        <v>15551659.199999999</v>
       </c>
       <c r="D9" s="32">
-        <v>137935623.27583301</v>
-      </c>
-      <c r="G9" s="21">
+        <v>137419226.60000002</v>
+      </c>
+      <c r="E9" s="33">
+        <v>170600040</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="0"/>
+        <v>33180813.399999976</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="1"/>
+        <v>0.80550524255445677</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="21">
         <v>42704</v>
       </c>
-      <c r="H9" s="32">
-        <v>57154144.860277802</v>
-      </c>
-      <c r="I9" s="32">
-        <v>39740736.366388902</v>
-      </c>
       <c r="J9" s="32">
-        <v>29212454.633055601</v>
+        <v>56129899.399999999</v>
       </c>
       <c r="K9" s="32">
-        <v>7232936.4583333302</v>
+        <v>40616298.399999999</v>
       </c>
       <c r="L9" s="32">
-        <v>4595350.9577799998</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+        <v>29517978.800000004</v>
+      </c>
+      <c r="M9" s="32">
+        <v>7307237.0999999996</v>
+      </c>
+      <c r="N9" s="32">
+        <v>3847812.9000000358</v>
+      </c>
       <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>42735</v>
       </c>
       <c r="B10" s="32">
-        <v>138637852.47166699</v>
+        <v>137922998.09999999</v>
       </c>
       <c r="C10" s="32">
-        <v>16949466.5</v>
+        <v>17511472.800000001</v>
       </c>
       <c r="D10" s="32">
-        <v>155587318.97166699</v>
-      </c>
-      <c r="G10" s="21">
+        <v>155434468.70000002</v>
+      </c>
+      <c r="E10" s="33">
+        <v>191741040</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="0"/>
+        <v>36306571.299999982</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="1"/>
+        <v>0.81064788581516001</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="21">
         <v>42735</v>
       </c>
-      <c r="H10" s="32">
-        <v>61703314.560555503</v>
-      </c>
-      <c r="I10" s="32">
-        <v>46925795.598611102</v>
-      </c>
       <c r="J10" s="32">
-        <v>34400492.978888899</v>
+        <v>60554829</v>
       </c>
       <c r="K10" s="32">
-        <v>7695489.9961111099</v>
+        <v>48041206</v>
       </c>
       <c r="L10" s="32">
-        <v>4862225.8375000004</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+        <v>34937705.900000006</v>
+      </c>
+      <c r="M10" s="32">
+        <v>7782451.0999999996</v>
+      </c>
+      <c r="N10" s="32">
+        <v>4118276.7000000179</v>
+      </c>
       <c r="O10" s="32"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>42766</v>
       </c>
       <c r="B11" s="32">
-        <v>157230950.66666701</v>
+        <v>156262981.40000001</v>
       </c>
       <c r="C11" s="32">
-        <v>19036381.719999999</v>
+        <v>19717274.399999999</v>
       </c>
       <c r="D11" s="32">
-        <v>176267332.38666701</v>
-      </c>
-      <c r="G11" s="21">
+        <v>175980253.80000001</v>
+      </c>
+      <c r="E11" s="33">
+        <v>215043120</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="0"/>
+        <v>39062866.199999988</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
+        <v>0.81834868188296384</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="21">
         <v>42766</v>
       </c>
-      <c r="H11" s="32">
-        <v>67549377.876944393</v>
-      </c>
-      <c r="I11" s="32">
-        <v>55768722.152777798</v>
-      </c>
       <c r="J11" s="32">
-        <v>39697985.619166702</v>
+        <v>66247671.200000003</v>
       </c>
       <c r="K11" s="32">
-        <v>7789645.5427777804</v>
+        <v>56812091.899999999</v>
       </c>
       <c r="L11" s="32">
-        <v>5461601.1950000003</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+        <v>40292729.800000004</v>
+      </c>
+      <c r="M11" s="32">
+        <v>7895666.1999999993</v>
+      </c>
+      <c r="N11" s="32">
+        <v>4732094.7000000179</v>
+      </c>
       <c r="O11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>42794</v>
       </c>
       <c r="B12" s="32">
-        <v>174764740.83388901</v>
+        <v>174124928.40000001</v>
       </c>
       <c r="C12" s="32">
-        <v>20859964.006666701</v>
+        <v>21557515.199999999</v>
       </c>
       <c r="D12" s="32">
-        <v>195624704.840556</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="G12" s="21">
+        <v>195682441.40000001</v>
+      </c>
+      <c r="E12" s="33">
+        <v>236090160</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="0"/>
+        <v>40407718.599999994</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>0.82884623992800044</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="21">
         <v>42794</v>
       </c>
-      <c r="H12" s="32">
-        <v>71947097.201944396</v>
-      </c>
-      <c r="I12" s="32">
-        <v>62004571.033611096</v>
-      </c>
       <c r="J12" s="32">
-        <v>47850468.612222202</v>
+        <v>70614611.299999997</v>
       </c>
       <c r="K12" s="32">
-        <v>7905387.9894444402</v>
+        <v>63487008.100000001</v>
       </c>
       <c r="L12" s="32">
-        <v>5917180.0033299997</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+        <v>48397740.100000001</v>
+      </c>
+      <c r="M12" s="32">
+        <v>8005647.2999999989</v>
+      </c>
+      <c r="N12" s="32">
+        <v>5177434.599999994</v>
+      </c>
       <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>42825</v>
       </c>
       <c r="B13" s="32">
-        <v>192916055.90444401</v>
+        <v>192602598.40000001</v>
       </c>
       <c r="C13" s="32">
-        <v>22772028.053333301</v>
+        <v>23544835.199999999</v>
       </c>
       <c r="D13" s="32">
-        <v>215688083.95777801</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="G13" s="21">
+        <v>216147431</v>
+      </c>
+      <c r="E13" s="33">
+        <v>259392240</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="0"/>
+        <v>43244809</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
+        <v>0.83328410672578335</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="21">
         <v>42825</v>
       </c>
-      <c r="H13" s="32">
-        <v>76357104.516388893</v>
-      </c>
-      <c r="I13" s="32">
-        <v>67740808.998611093</v>
-      </c>
       <c r="J13" s="32">
-        <v>56683705.698611103</v>
+        <v>74901323.099999994</v>
       </c>
       <c r="K13" s="32">
-        <v>8194858.1861111103</v>
+        <v>69310769.299999997</v>
       </c>
       <c r="L13" s="32">
-        <v>6711606.5580599997</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+        <v>57636326.299999997</v>
+      </c>
+      <c r="M13" s="32">
+        <v>8300878.7999999989</v>
+      </c>
+      <c r="N13" s="32">
+        <v>5998133.5</v>
+      </c>
       <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>42855</v>
       </c>
       <c r="B14" s="32">
-        <v>211720916.744167</v>
+        <v>211579472.40000001</v>
       </c>
       <c r="C14" s="32">
-        <v>24724853.393333301</v>
+        <v>25570773.599999998</v>
       </c>
       <c r="D14" s="32">
-        <v>236445770.13749999</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="G14" s="21">
+        <v>237150243.09999999</v>
+      </c>
+      <c r="E14" s="33">
+        <v>281651112</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="0"/>
+        <v>44500868.900000006</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>0.8420000241291431</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="21">
         <v>42855</v>
       </c>
-      <c r="H14" s="32">
-        <v>81375155.1875</v>
-      </c>
-      <c r="I14" s="32">
-        <v>74111826.151944295</v>
-      </c>
       <c r="J14" s="32">
-        <v>64764006.681111097</v>
+        <v>79776601.699999988</v>
       </c>
       <c r="K14" s="32">
-        <v>8472312.8783333302</v>
+        <v>75796154.200000003</v>
       </c>
       <c r="L14" s="32">
-        <v>7722469.2386100003</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+        <v>65927763.699999996</v>
+      </c>
+      <c r="M14" s="32">
+        <v>8597754.3999999985</v>
+      </c>
+      <c r="N14" s="32">
+        <v>7051969.1000000238</v>
+      </c>
       <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>42886</v>
       </c>
       <c r="B15" s="32">
-        <v>230919864.221111</v>
+        <v>230801372.5</v>
       </c>
       <c r="C15" s="32">
-        <v>26808345.413333301</v>
+        <v>27664571.999999996</v>
       </c>
       <c r="D15" s="32">
-        <v>257728209.634444</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="G15" s="21">
+        <v>258465941.90000001</v>
+      </c>
+      <c r="E15" s="33">
+        <v>304632974.39999998</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="0"/>
+        <v>46167032.49999997</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="1"/>
+        <v>0.84845031109672286</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="21">
         <v>42886</v>
       </c>
-      <c r="H15" s="32">
-        <v>86161436.9491667</v>
-      </c>
-      <c r="I15" s="32">
-        <v>80462450.331666604</v>
-      </c>
       <c r="J15" s="32">
-        <v>74105917.465833396</v>
+        <v>84412925.499999985</v>
       </c>
       <c r="K15" s="32">
-        <v>8699092.5716666691</v>
+        <v>82069870.600000009</v>
       </c>
       <c r="L15" s="32">
-        <v>8299312.31611</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+        <v>75502763.399999991</v>
+      </c>
+      <c r="M15" s="32">
+        <v>8837448.7999999989</v>
+      </c>
+      <c r="N15" s="32">
+        <v>7642933.599999994</v>
+      </c>
       <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>42916</v>
       </c>
       <c r="B16" s="32">
-        <v>249005189.67611101</v>
+        <v>249650891.69999999</v>
       </c>
       <c r="C16" s="32">
-        <v>28703917.5666667</v>
+        <v>29669392.799999997</v>
       </c>
       <c r="D16" s="32">
-        <v>277709107.242778</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="G16" s="21">
+        <v>279320282</v>
+      </c>
+      <c r="E16" s="33">
+        <v>326880182.39999998</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="0"/>
+        <v>47559900.399999976</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="1"/>
+        <v>0.85450356748210143</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="21">
         <v>42916</v>
       </c>
-      <c r="H16" s="32">
-        <v>91275614.107777804</v>
-      </c>
-      <c r="I16" s="32">
-        <v>87141287.7444444</v>
-      </c>
       <c r="J16" s="32">
-        <v>81629134.457777798</v>
+        <v>89636199.099999979</v>
       </c>
       <c r="K16" s="32">
-        <v>8741999.3183333296</v>
+        <v>89185052.000000015</v>
       </c>
       <c r="L16" s="32">
-        <v>8921071.6144399997</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+        <v>83329778.999999985</v>
+      </c>
+      <c r="M16" s="32">
+        <v>8880355.4999999981</v>
+      </c>
+      <c r="N16" s="32">
+        <v>8288896.4000000358</v>
+      </c>
       <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>42947</v>
       </c>
       <c r="B17" s="32">
-        <v>266936676.198333</v>
+        <v>268139905.69999999</v>
       </c>
       <c r="C17" s="32">
-        <v>30758431.2266667</v>
+        <v>31794698.399999999</v>
       </c>
       <c r="D17" s="32">
-        <v>297695107.42500001</v>
-      </c>
-      <c r="G17" s="21">
+        <v>299934601.10000002</v>
+      </c>
+      <c r="E17" s="33">
+        <v>349361779.19999999</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="0"/>
+        <v>49427178.099999964</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.858521506808264</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="21">
         <v>42947</v>
       </c>
-      <c r="H17" s="32">
-        <v>97287676.206944406</v>
-      </c>
-      <c r="I17" s="32">
-        <v>94531390.963055506</v>
-      </c>
       <c r="J17" s="32">
-        <v>87135446.443611205</v>
+        <v>95812123.799999982</v>
       </c>
       <c r="K17" s="32">
-        <v>9206129.6316666696</v>
+        <v>96838127.700000018</v>
       </c>
       <c r="L17" s="32">
-        <v>9534464.1797199994</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+        <v>89027814.499999985</v>
+      </c>
+      <c r="M17" s="32">
+        <v>9344485.7999999989</v>
+      </c>
+      <c r="N17" s="32">
+        <v>8912049.3000000119</v>
+      </c>
       <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>42978</v>
       </c>
       <c r="B18" s="32">
-        <v>283593104.57305598</v>
+        <v>284774855</v>
       </c>
       <c r="C18" s="32">
-        <v>32609443.153333299</v>
+        <v>33632217.600000001</v>
       </c>
       <c r="D18" s="32">
-        <v>316202547.72638899</v>
-      </c>
-      <c r="G18" s="21">
+        <v>318407069.30000001</v>
+      </c>
+      <c r="E18" s="33">
+        <v>369531572.5</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="0"/>
+        <v>51124503.199999988</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.86165051377308233</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="21">
         <v>42978</v>
       </c>
-      <c r="H18" s="32">
-        <v>103347500.76222201</v>
-      </c>
-      <c r="I18" s="32">
-        <v>100799107.66722199</v>
-      </c>
       <c r="J18" s="32">
-        <v>91598582.373611197</v>
+        <v>101854264.29999998</v>
       </c>
       <c r="K18" s="32">
-        <v>9752514.4116666708</v>
+        <v>103134596.60000002</v>
       </c>
       <c r="L18" s="32">
-        <v>10704842.511670001</v>
-      </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+        <v>93451950.299999982</v>
+      </c>
+      <c r="M18" s="32">
+        <v>9890870.5999999996</v>
+      </c>
+      <c r="N18" s="32">
+        <v>10075387.5</v>
+      </c>
       <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>43008</v>
       </c>
       <c r="B19" s="32">
-        <v>300152017.509444</v>
+        <v>301603182.89999998</v>
       </c>
       <c r="C19" s="32">
-        <v>34178264.460000001</v>
+        <v>35229088.800000004</v>
       </c>
       <c r="D19" s="32">
-        <v>334330281.96944398</v>
-      </c>
-      <c r="G19" s="21">
+        <v>336832267.90000004</v>
+      </c>
+      <c r="E19" s="33">
+        <v>391149716.5</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="0"/>
+        <v>54317448.599999964</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.86113386688342397</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="21">
         <v>43008</v>
       </c>
-      <c r="H19" s="32">
-        <v>109591660.463889</v>
-      </c>
-      <c r="I19" s="32">
-        <v>107399896.805555</v>
-      </c>
       <c r="J19" s="32">
-        <v>94740092.928055599</v>
+        <v>108236551.79999998</v>
       </c>
       <c r="K19" s="32">
-        <v>10793443.284166699</v>
+        <v>109714897.90000002</v>
       </c>
       <c r="L19" s="32">
-        <v>11805188.487779999</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+        <v>96752597.899999976</v>
+      </c>
+      <c r="M19" s="32">
+        <v>10917355</v>
+      </c>
+      <c r="N19" s="32">
+        <v>11210865.300000072</v>
+      </c>
       <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>43039</v>
       </c>
       <c r="B20" s="32">
-        <v>315965584.54722202</v>
+        <v>317746477.5</v>
       </c>
       <c r="C20" s="32">
-        <v>35718879.32</v>
+        <v>36785164.800000004</v>
       </c>
       <c r="D20" s="32">
-        <v>351684463.86722201</v>
-      </c>
-      <c r="G20" s="21">
+        <v>354531638.40000004</v>
+      </c>
+      <c r="E20" s="33">
+        <v>413870211.69999999</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="0"/>
+        <v>59338573.299999952</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>0.85662516503359176</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="21">
         <v>43039</v>
       </c>
-      <c r="H20" s="32">
-        <v>114790148.4025</v>
-      </c>
-      <c r="I20" s="32">
-        <v>113964339.644722</v>
-      </c>
       <c r="J20" s="32">
-        <v>99203029.090833396</v>
+        <v>113517650.19999999</v>
       </c>
       <c r="K20" s="32">
-        <v>11056978.467222201</v>
+        <v>116524061.70000002</v>
       </c>
       <c r="L20" s="32">
-        <v>12669968.261940001</v>
-      </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+        <v>101213697.09999998</v>
+      </c>
+      <c r="M20" s="32">
+        <v>11197637.300000001</v>
+      </c>
+      <c r="N20" s="32">
+        <v>12078592.100000024</v>
+      </c>
       <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>43069</v>
       </c>
       <c r="B21" s="32">
-        <v>333997098.63277799</v>
+        <v>335666824.80000001</v>
       </c>
       <c r="C21" s="32">
-        <v>37371036.293333299</v>
+        <v>38422783.200000003</v>
       </c>
       <c r="D21" s="32">
-        <v>371368134.92611098</v>
-      </c>
-      <c r="G21" s="21">
+        <v>374089603.10000002</v>
+      </c>
+      <c r="E21" s="33">
+        <v>435864123.69999999</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="0"/>
+        <v>61774520.599999964</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.85827115093666528</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="21">
         <v>43069</v>
       </c>
-      <c r="H21" s="32">
-        <v>121782633.35111099</v>
-      </c>
-      <c r="I21" s="32">
-        <v>119955238.375833</v>
-      </c>
       <c r="J21" s="32">
-        <v>103673356.33499999</v>
+        <v>120544819.69999999</v>
       </c>
       <c r="K21" s="32">
-        <v>12288510.884722199</v>
+        <v>122462571.80000001</v>
       </c>
       <c r="L21" s="32">
-        <v>13668395.97944</v>
-      </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+        <v>105731639.39999998</v>
+      </c>
+      <c r="M21" s="32">
+        <v>12262704.4</v>
+      </c>
+      <c r="N21" s="32">
+        <v>13087867.800000072</v>
+      </c>
       <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>43100</v>
       </c>
       <c r="B22" s="32">
-        <v>348846197.60861099</v>
+        <v>351335053.10000002</v>
       </c>
       <c r="C22" s="32">
-        <v>38729788.68</v>
+        <v>39837232.800000004</v>
       </c>
       <c r="D22" s="32">
-        <v>387575986.28861099</v>
-      </c>
-      <c r="G22" s="21">
+        <v>391172282</v>
+      </c>
+      <c r="E22" s="33">
+        <v>455054137.19999999</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="0"/>
+        <v>63881855.199999988</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.85961702140964513</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="21">
         <v>43100</v>
       </c>
-      <c r="H22" s="32">
-        <v>127386474.815833</v>
-      </c>
-      <c r="I22" s="32">
-        <v>125851241.096111</v>
-      </c>
       <c r="J22" s="32">
-        <v>107563684.542778</v>
+        <v>126390083.89999999</v>
       </c>
       <c r="K22" s="32">
-        <v>12709121.3647222</v>
+        <v>128461359.80000001</v>
       </c>
       <c r="L22" s="32">
-        <v>14065464.46917</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+        <v>109725757.79999998</v>
+      </c>
+      <c r="M22" s="32">
+        <v>13080134.5</v>
+      </c>
+      <c r="N22" s="32">
+        <v>13514946</v>
+      </c>
       <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>43131</v>
       </c>
       <c r="B23" s="32">
-        <v>364624503.01027799</v>
+        <v>367404348</v>
       </c>
       <c r="C23" s="32">
-        <v>40145114.227222197</v>
+        <v>41323586.400000006</v>
       </c>
       <c r="D23" s="32">
-        <v>404769617.23750001</v>
-      </c>
-      <c r="G23" s="21">
+        <v>408727930.80000001</v>
+      </c>
+      <c r="E23" s="33">
+        <v>473619077.69999999</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="0"/>
+        <v>64891146.899999976</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="1"/>
+        <v>0.86298873935753206</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="21">
         <v>43131</v>
       </c>
-      <c r="H23" s="32">
-        <v>134477576.67833301</v>
-      </c>
-      <c r="I23" s="32">
-        <v>131696426.081389</v>
-      </c>
       <c r="J23" s="32">
-        <v>111098146.941945</v>
+        <v>133581308.89999999</v>
       </c>
       <c r="K23" s="32">
-        <v>12822636.038055601</v>
+        <v>134508396.5</v>
       </c>
       <c r="L23" s="32">
-        <v>14674831.497780001</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+        <v>113315903.59999998</v>
+      </c>
+      <c r="M23" s="32">
+        <v>13193649.199999999</v>
+      </c>
+      <c r="N23" s="32">
+        <v>14128672.600000083</v>
+      </c>
       <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="32"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>43159</v>
       </c>
       <c r="B24" s="32">
-        <v>381574647.875278</v>
+        <v>384486918.80000001</v>
       </c>
       <c r="C24" s="32">
-        <v>41917944.731944397</v>
+        <v>43112419.200000003</v>
       </c>
       <c r="D24" s="32">
-        <v>423492592.60722202</v>
-      </c>
-      <c r="G24" s="21">
+        <v>427599335.5</v>
+      </c>
+      <c r="E24" s="33">
+        <v>493621224.89999998</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="0"/>
+        <v>66021889.399999976</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
+        <v>0.86624989755378734</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="21">
         <v>43159</v>
       </c>
-      <c r="H24" s="32">
-        <v>142794104.42583299</v>
-      </c>
-      <c r="I24" s="32">
-        <v>138146044.161111</v>
-      </c>
       <c r="J24" s="32">
-        <v>113915163.38</v>
+        <v>141944111.29999998</v>
       </c>
       <c r="K24" s="32">
-        <v>13019589.838055599</v>
+        <v>140975006.19999999</v>
       </c>
       <c r="L24" s="32">
-        <v>15617690.80222</v>
-      </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+        <v>116200908.79999998</v>
+      </c>
+      <c r="M24" s="32">
+        <v>13392203.6</v>
+      </c>
+      <c r="N24" s="32">
+        <v>15087105.600000024</v>
+      </c>
       <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>43190</v>
       </c>
       <c r="B25" s="32">
-        <v>398824226.78027803</v>
+        <v>401993359.60000002</v>
       </c>
       <c r="C25" s="32">
-        <v>43499917.205277801</v>
+        <v>44692982.400000006</v>
       </c>
       <c r="D25" s="32">
-        <v>442324143.98555601</v>
-      </c>
-      <c r="G25" s="21">
+        <v>446686338.5</v>
+      </c>
+      <c r="E25" s="33">
+        <v>514800003.29999995</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="0"/>
+        <v>68113664.799999952</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.86768907466322087</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="21">
         <v>43190</v>
       </c>
-      <c r="H25" s="32">
-        <v>150222427.68472201</v>
-      </c>
-      <c r="I25" s="32">
-        <v>145921210.45444399</v>
-      </c>
       <c r="J25" s="32">
-        <v>116192065.97972199</v>
+        <v>149500935.89999998</v>
       </c>
       <c r="K25" s="32">
-        <v>13232770.5391667</v>
+        <v>148796736.5</v>
       </c>
       <c r="L25" s="32">
-        <v>16755669.327500001</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+        <v>118513941.29999998</v>
+      </c>
+      <c r="M25" s="32">
+        <v>13615030.4</v>
+      </c>
+      <c r="N25" s="32">
+        <v>16259694.400000095</v>
+      </c>
       <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>43220</v>
       </c>
       <c r="B26" s="32">
-        <v>416307445.14555597</v>
+        <v>420184501.80000001</v>
       </c>
       <c r="C26" s="32">
-        <v>45446290.738611102</v>
+        <v>46729183.200000003</v>
       </c>
       <c r="D26" s="32">
-        <v>461753735.88416702</v>
-      </c>
-      <c r="G26" s="21">
+        <v>466913681.30000001</v>
+      </c>
+      <c r="E26" s="33">
+        <v>536282427.29999995</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="0"/>
+        <v>69368745.99999994</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87064885502728839</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="21">
         <v>43220</v>
       </c>
-      <c r="H26" s="32">
-        <v>157273143.93583301</v>
-      </c>
-      <c r="I26" s="32">
-        <v>153957364.223611</v>
-      </c>
       <c r="J26" s="32">
-        <v>118968182.76444501</v>
+        <v>156825569.29999998</v>
       </c>
       <c r="K26" s="32">
-        <v>13427362.826388899</v>
+        <v>157200197.69999999</v>
       </c>
       <c r="L26" s="32">
-        <v>18127682.133889999</v>
-      </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+        <v>121374207.99999999</v>
+      </c>
+      <c r="M26" s="32">
+        <v>13826325.800000001</v>
+      </c>
+      <c r="N26" s="32">
+        <v>17687380.5</v>
+      </c>
       <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>43251</v>
       </c>
       <c r="B27" s="32">
-        <v>434557785.78250003</v>
+        <v>438698780.5</v>
       </c>
       <c r="C27" s="32">
-        <v>47136106.211944401</v>
+        <v>48448408.800000004</v>
       </c>
       <c r="D27" s="32">
-        <v>481693891.99444503</v>
-      </c>
-      <c r="G27" s="21">
+        <v>487147186.5</v>
+      </c>
+      <c r="E27" s="33">
+        <v>558375135.29999995</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="0"/>
+        <v>71227948.799999952</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87243710491920257</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="21">
         <v>43251</v>
       </c>
-      <c r="H27" s="32">
-        <v>163186233.11277801</v>
-      </c>
-      <c r="I27" s="32">
-        <v>163148270.90916699</v>
-      </c>
       <c r="J27" s="32">
-        <v>121669606.1925</v>
+        <v>162921556.19999999</v>
       </c>
       <c r="K27" s="32">
-        <v>13988384.3458333</v>
+        <v>166449012.69999999</v>
       </c>
       <c r="L27" s="32">
-        <v>19701397.43417</v>
-      </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+        <v>124122387.79999998</v>
+      </c>
+      <c r="M27" s="32">
+        <v>14378660.5</v>
+      </c>
+      <c r="N27" s="32">
+        <v>19275569.300000072</v>
+      </c>
       <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>43281</v>
       </c>
       <c r="B28" s="32">
-        <v>450423475.024167</v>
+        <v>455274763.30000001</v>
       </c>
       <c r="C28" s="32">
-        <v>48215932.985277802</v>
+        <v>49520472.000000007</v>
       </c>
       <c r="D28" s="32">
-        <v>498639408.009444</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="21">
+        <v>504795232.10000002</v>
+      </c>
+      <c r="E28" s="33">
+        <v>577983450.5999999</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="0"/>
+        <v>73188218.499999881</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87337315899958068</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="21">
         <v>43281</v>
       </c>
-      <c r="H28" s="32">
-        <v>169853770.068333</v>
-      </c>
-      <c r="I28" s="32">
-        <v>169781806.67222199</v>
-      </c>
       <c r="J28" s="32">
-        <v>123969022.83611099</v>
+        <v>170040442.79999998</v>
       </c>
       <c r="K28" s="32">
-        <v>14299679.685000001</v>
+        <v>173235184.09999999</v>
       </c>
       <c r="L28" s="32">
-        <v>20735128.747779999</v>
-      </c>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>126458760.99999999</v>
+      </c>
+      <c r="M28" s="32">
+        <v>14698642.699999999</v>
+      </c>
+      <c r="N28" s="32">
+        <v>20362201.50000006</v>
+      </c>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>43312</v>
       </c>
       <c r="B29" s="32">
-        <v>469270269.675556</v>
+        <v>473757251.19999999</v>
       </c>
       <c r="C29" s="32">
-        <v>49511659.351944402</v>
+        <v>50850537.600000009</v>
       </c>
       <c r="D29" s="32">
-        <v>518781929.02749997</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="21">
+        <v>524607786.60000002</v>
+      </c>
+      <c r="E29" s="33">
+        <v>600727828.19999993</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="0"/>
+        <v>76120041.599999905</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87328697285743639</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="21">
         <v>43312</v>
       </c>
-      <c r="H29" s="32">
-        <v>179359531.591389</v>
-      </c>
-      <c r="I29" s="32">
-        <v>176869249.916944</v>
-      </c>
       <c r="J29" s="32">
-        <v>125884336.710833</v>
+        <v>179136304.79999998</v>
       </c>
       <c r="K29" s="32">
-        <v>14393674.0033333</v>
+        <v>180504925.79999998</v>
       </c>
       <c r="L29" s="32">
-        <v>22275136.805</v>
-      </c>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128385613.59999998</v>
+      </c>
+      <c r="M29" s="32">
+        <v>14792637</v>
+      </c>
+      <c r="N29" s="32">
+        <v>21788305.400000095</v>
+      </c>
+      <c r="O29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>43343</v>
       </c>
       <c r="B30" s="32">
-        <v>488578605.44861102</v>
+        <v>492683086.80000001</v>
       </c>
       <c r="C30" s="32">
-        <v>50551178.578611098</v>
+        <v>51916783.20000001</v>
       </c>
       <c r="D30" s="32">
-        <v>539129784.02722204</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="21">
+        <v>544599868</v>
+      </c>
+      <c r="E30" s="33">
+        <v>623948068.19999993</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="0"/>
+        <v>79348200.199999928</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87282883905882103</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="21">
         <v>43343</v>
       </c>
-      <c r="H30" s="32">
-        <v>187802462.70194501</v>
-      </c>
-      <c r="I30" s="32">
-        <v>185465104.533333</v>
-      </c>
       <c r="J30" s="32">
-        <v>128231045.465278</v>
+        <v>187150601.09999999</v>
       </c>
       <c r="K30" s="32">
-        <v>14522588.6833333</v>
+        <v>189100426.89999998</v>
       </c>
       <c r="L30" s="32">
-        <v>23108582.64333</v>
-      </c>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>130761979.29999998</v>
+      </c>
+      <c r="M30" s="32">
+        <v>14923199.5</v>
+      </c>
+      <c r="N30" s="32">
+        <v>22663661.200000048</v>
+      </c>
+      <c r="O30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>43373</v>
       </c>
       <c r="B31" s="32">
-        <v>503869057.607521</v>
+        <v>508491904.90000004</v>
       </c>
       <c r="C31" s="32">
-        <v>52039647.698611103</v>
+        <v>53399258.400000013</v>
       </c>
       <c r="D31" s="32">
-        <v>555908705.30613196</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="21">
+        <v>561891161.20000005</v>
+      </c>
+      <c r="E31" s="33">
+        <v>642716761.79999995</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="0"/>
+        <v>80825600.599999905</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87424382651288135</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="21">
         <v>43373</v>
       </c>
-      <c r="H31" s="32">
-        <v>194280827.72224301</v>
-      </c>
-      <c r="I31" s="32">
-        <v>191644649.90083301</v>
-      </c>
       <c r="J31" s="32">
-        <v>130808713.873889</v>
+        <v>194110029.5</v>
       </c>
       <c r="K31" s="32">
-        <v>14731818.5133333</v>
+        <v>195278064.99999997</v>
       </c>
       <c r="L31" s="32">
-        <v>24442695.29583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133361333.19999999</v>
+      </c>
+      <c r="M31" s="32">
+        <v>15132429.300000001</v>
+      </c>
+      <c r="N31" s="32">
+        <v>24009304.200000048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>43404</v>
       </c>
       <c r="B32" s="32">
-        <v>520223779.41279799</v>
+        <v>525022269.20000005</v>
       </c>
       <c r="C32" s="32">
-        <v>53983630.091944396</v>
+        <v>55356280.800000012</v>
       </c>
       <c r="D32" s="32">
-        <v>574207409.50474298</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="21">
+        <v>580378547.30000007</v>
+      </c>
+      <c r="E32" s="33">
+        <v>662526729</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="0"/>
+        <v>82148181.699999928</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87600774715309648</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="21">
         <v>43404</v>
       </c>
-      <c r="H32" s="32">
-        <v>201622699.955576</v>
-      </c>
-      <c r="I32" s="32">
-        <v>197224481.51472199</v>
-      </c>
       <c r="J32" s="32">
-        <v>134574538.191111</v>
+        <v>201531829.09999999</v>
       </c>
       <c r="K32" s="32">
-        <v>14769784.5666667</v>
+        <v>200937827.29999998</v>
       </c>
       <c r="L32" s="32">
-        <v>26015905.276670001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>137152616.09999999</v>
+      </c>
+      <c r="M32" s="32">
+        <v>15170395.4</v>
+      </c>
+      <c r="N32" s="32">
+        <v>25585879.400000095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>43434</v>
       </c>
       <c r="B33" s="32">
-        <v>537141487.84146202</v>
+        <v>542143127.20000005</v>
       </c>
       <c r="C33" s="32">
-        <v>55676373.831944503</v>
+        <v>57067855.20000001</v>
       </c>
       <c r="D33" s="32">
-        <v>592817861.67340696</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="21">
+        <v>599210979.80000007</v>
+      </c>
+      <c r="E33" s="33">
+        <v>682706601</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="0"/>
+        <v>83495621.199999928</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87769911543597345</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="21">
         <v>43434</v>
       </c>
-      <c r="H33" s="32">
-        <v>208597023.40868399</v>
-      </c>
-      <c r="I33" s="32">
-        <v>204109681.002222</v>
-      </c>
       <c r="J33" s="32">
-        <v>137740794.86361101</v>
+        <v>208560772</v>
       </c>
       <c r="K33" s="32">
-        <v>14785840.2466667</v>
+        <v>207907647.19999999</v>
       </c>
       <c r="L33" s="32">
-        <v>27584522.15222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140380954.29999998</v>
+      </c>
+      <c r="M33" s="32">
+        <v>15191066</v>
+      </c>
+      <c r="N33" s="32">
+        <v>27170540.300000072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>43465</v>
       </c>
       <c r="B34" s="32">
-        <v>551288940.32729495</v>
+        <v>556472986.30000007</v>
       </c>
       <c r="C34" s="32">
-        <v>56966073.645277798</v>
+        <v>58381255.20000001</v>
       </c>
       <c r="D34" s="32">
-        <v>608255013.97257304</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="21">
+        <v>614854239.20000005</v>
+      </c>
+      <c r="E34" s="33">
+        <v>699097423.5</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="0"/>
+        <v>84243184.299999952</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87949721817276882</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="21">
         <v>43465</v>
       </c>
-      <c r="H34" s="32">
-        <v>215721309.38229501</v>
-      </c>
-      <c r="I34" s="32">
-        <v>209412589.87083301</v>
-      </c>
       <c r="J34" s="32">
-        <v>139787577.966389</v>
+        <v>215762253</v>
       </c>
       <c r="K34" s="32">
-        <v>14798613.4711111</v>
+        <v>213298279.39999998</v>
       </c>
       <c r="L34" s="32">
-        <v>28534923.281939998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142463708.79999998</v>
+      </c>
+      <c r="M34" s="32">
+        <v>15203839.199999999</v>
+      </c>
+      <c r="N34" s="32">
+        <v>28126158.800000072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>43496</v>
       </c>
       <c r="B35" s="32">
-        <v>551288940.32729495</v>
+        <v>575032138.50000012</v>
       </c>
       <c r="C35" s="32">
-        <v>56966073.645277798</v>
+        <v>60175063.20000001</v>
       </c>
       <c r="D35" s="32">
-        <v>608255013.97257304</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="21">
-        <v>43465</v>
-      </c>
-      <c r="H35" s="32">
-        <v>215721309.38229501</v>
-      </c>
-      <c r="I35" s="32">
-        <v>209412589.87083301</v>
+        <v>635207200.30000007</v>
+      </c>
+      <c r="E35" s="33">
+        <v>720938064.29999995</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="0"/>
+        <v>85730863.999999881</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="1"/>
+        <v>0.8810842869238138</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="21">
+        <v>43496</v>
       </c>
       <c r="J35" s="32">
-        <v>139787577.966389</v>
+        <v>223125045.69999999</v>
       </c>
       <c r="K35" s="32">
-        <v>14798613.4711111</v>
+        <v>216331728.89999998</v>
       </c>
       <c r="L35" s="32">
-        <v>28534923.281939998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>149793527.79999998</v>
+      </c>
+      <c r="M35" s="32">
+        <v>15228386.799999999</v>
+      </c>
+      <c r="N35" s="32">
+        <v>30728511.100000143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
+    <col min="2" max="2" width="58" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="14" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="32"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="21.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="19.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="33" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="31"/>
+    <col min="9" max="9" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="32"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18897,7 +19884,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18916,6 +19903,41 @@
       </c>
       <c r="C1" s="14" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -18955,7 +19977,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19004,7 +20026,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="16" t="e">
-        <f t="shared" ref="H2:H10" si="0">G2/G$11</f>
+        <f t="shared" ref="H2:H11" si="0">G2/G$12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19040,7 +20062,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -19055,7 +20077,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -19070,7 +20092,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -19085,7 +20107,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -19100,7 +20122,7 @@
     </row>
     <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -19115,13 +20137,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="e">
         <f t="shared" si="0"/>
@@ -19130,33 +20152,48 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18">
-        <f t="shared" ref="B11:G11" si="1">SUM(B2:B10)</f>
+      <c r="B12" s="18">
+        <f t="shared" ref="B12:G12" si="1">SUM(B2:B11)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Queue First Job 2019-02" sheetId="26" r:id="rId1"/>
@@ -42,15 +42,12 @@
     <sheet name="Projects DGX 2019-02" sheetId="38" r:id="rId28"/>
     <sheet name="Org Breakdown DGX 2019-02" sheetId="39" r:id="rId29"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId30"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>Rank</t>
   </si>
@@ -226,9 +223,6 @@
     <t>Cores available</t>
   </si>
   <si>
-    <t>Cores used</t>
-  </si>
-  <si>
     <t>%used (total)</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
   </si>
   <si>
     <t>GPUs available</t>
-  </si>
-  <si>
-    <t>GPUs used</t>
   </si>
   <si>
     <t>Averages based on sampling node status every hour</t>
@@ -331,9 +322,6 @@
     <t>Industry &amp; Other</t>
   </si>
   <si>
-    <t>excluding period of downtime for maintenance</t>
-  </si>
-  <si>
     <t>HOME_PROJECTS</t>
   </si>
   <si>
@@ -381,6 +369,24 @@
   <si>
     <t>Utilisation</t>
   </si>
+  <si>
+    <t>Cores used (sampling)</t>
+  </si>
+  <si>
+    <t>Uptime  (hours)</t>
+  </si>
+  <si>
+    <t>Excludes scheduled maintenance, includes P1 incident downtime</t>
+  </si>
+  <si>
+    <t>Total job core hours</t>
+  </si>
+  <si>
+    <t>GPUs used (sampling)</t>
+  </si>
+  <si>
+    <t>Total GPU hours</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +397,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +538,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -920,7 +946,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -987,6 +1013,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3170,7 +3205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3252,1190 +3286,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Queue First Job 2019-01"/>
-      <sheetName val="Core Summary 2019-01"/>
-      <sheetName val="Project Usage 2019-01"/>
-      <sheetName val="Project Stakeholder 2019-01"/>
-      <sheetName val="Project Status 2019-01"/>
-      <sheetName val="Personal Status 2019-01"/>
-      <sheetName val="Storage Summary 2019-01"/>
-      <sheetName val="Storage by Fileset 2019-01"/>
-      <sheetName val="Storage By Org 2019-01"/>
-      <sheetName val="Active Users 2019-01"/>
-      <sheetName val="By Cores CPU 2019-01"/>
-      <sheetName val="Applications CPU 2019-01"/>
-      <sheetName val="User Walltime CPU 2019-01"/>
-      <sheetName val="Project CPU 2019-01"/>
-      <sheetName val="Org HighLevel CPU 2019-01"/>
-      <sheetName val="Org Breakdown CPU 2019-01"/>
-      <sheetName val="Largest Jobs CPU 2019-01"/>
-      <sheetName val="By Cores GPU 2019-01"/>
-      <sheetName val="Applications GPU 2019-01"/>
-      <sheetName val="User Walltime GPU 2019-01"/>
-      <sheetName val="Project Summary GPU 2019-01"/>
-      <sheetName val="Org HighLevel GPU 2019-01"/>
-      <sheetName val="Org Breakdown GPU 2019-01"/>
-      <sheetName val="Largest Jobs GPU 2019-01"/>
-      <sheetName val="Cumulative 2019-01"/>
-      <sheetName val="ApplicationsDGX 2019-01"/>
-      <sheetName val="User DGX 2019-01"/>
-      <sheetName val="Projects DGX 2019-01"/>
-      <sheetName val="Org Breakdown DGX 2019-01"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Cumulative Core Hours (CPU nodes)</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Cumulative Core Hours (GPU Nodes)</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Unused Core Hours</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>A*STAR</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>NUS</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>NTU</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>CREATE</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>Industry &amp; Other</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>42457</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>42457</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
-          </cell>
-          <cell r="N2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>42538</v>
-          </cell>
-          <cell r="B3">
-            <v>40330490.100000001</v>
-          </cell>
-          <cell r="C3">
-            <v>5033947.1999999993</v>
-          </cell>
-          <cell r="F3">
-            <v>15991442.600000001</v>
-          </cell>
-          <cell r="I3">
-            <v>42538</v>
-          </cell>
-          <cell r="J3">
-            <v>23684370.800000001</v>
-          </cell>
-          <cell r="K3">
-            <v>12013985.699999999</v>
-          </cell>
-          <cell r="L3">
-            <v>7310391.2000000002</v>
-          </cell>
-          <cell r="M3">
-            <v>1537410.1</v>
-          </cell>
-          <cell r="N3">
-            <v>818279.59999999404</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>42551</v>
-          </cell>
-          <cell r="B4">
-            <v>42272318.300000004</v>
-          </cell>
-          <cell r="C4">
-            <v>5180111.9999999991</v>
-          </cell>
-          <cell r="F4">
-            <v>16534329.399999999</v>
-          </cell>
-          <cell r="I4">
-            <v>42551</v>
-          </cell>
-          <cell r="J4">
-            <v>25114494.800000001</v>
-          </cell>
-          <cell r="K4">
-            <v>12117030.799999999</v>
-          </cell>
-          <cell r="L4">
-            <v>7746515.1000000006</v>
-          </cell>
-          <cell r="M4">
-            <v>1574657.5</v>
-          </cell>
-          <cell r="N4">
-            <v>899732.39999999851</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>42582</v>
-          </cell>
-          <cell r="B5">
-            <v>61272817.900000006</v>
-          </cell>
-          <cell r="C5">
-            <v>6788200.7999999989</v>
-          </cell>
-          <cell r="F5">
-            <v>18664062</v>
-          </cell>
-          <cell r="I5">
-            <v>42582</v>
-          </cell>
-          <cell r="J5">
-            <v>34275807</v>
-          </cell>
-          <cell r="K5">
-            <v>17592846</v>
-          </cell>
-          <cell r="L5">
-            <v>12743684.4</v>
-          </cell>
-          <cell r="M5">
-            <v>2421318.9</v>
-          </cell>
-          <cell r="N5">
-            <v>1027361.700000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>42613</v>
-          </cell>
-          <cell r="B6">
-            <v>80419405.700000003</v>
-          </cell>
-          <cell r="C6">
-            <v>8659562.3999999985</v>
-          </cell>
-          <cell r="F6">
-            <v>20948193.599999994</v>
-          </cell>
-          <cell r="I6">
-            <v>42613</v>
-          </cell>
-          <cell r="J6">
-            <v>41874775</v>
-          </cell>
-          <cell r="K6">
-            <v>24181683</v>
-          </cell>
-          <cell r="L6">
-            <v>18131719.100000001</v>
-          </cell>
-          <cell r="M6">
-            <v>3712510.4</v>
-          </cell>
-          <cell r="N6">
-            <v>1178278.900000006</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>42643</v>
-          </cell>
-          <cell r="B7">
-            <v>91797570.799999997</v>
-          </cell>
-          <cell r="C7">
-            <v>11262496.799999999</v>
-          </cell>
-          <cell r="F7">
-            <v>21687494.699999988</v>
-          </cell>
-          <cell r="I7">
-            <v>42643</v>
-          </cell>
-          <cell r="J7">
-            <v>45743559.299999997</v>
-          </cell>
-          <cell r="K7">
-            <v>28231926.399999999</v>
-          </cell>
-          <cell r="L7">
-            <v>20946688.700000003</v>
-          </cell>
-          <cell r="M7">
-            <v>4952789.0999999996</v>
-          </cell>
-          <cell r="N7">
-            <v>3185101.8000000268</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>42674</v>
-          </cell>
-          <cell r="B8">
-            <v>105082245.89999999</v>
-          </cell>
-          <cell r="C8">
-            <v>13249156.799999999</v>
-          </cell>
-          <cell r="F8">
-            <v>29718239.999999985</v>
-          </cell>
-          <cell r="I8">
-            <v>42674</v>
-          </cell>
-          <cell r="J8">
-            <v>49915318.699999996</v>
-          </cell>
-          <cell r="K8">
-            <v>34904362.899999999</v>
-          </cell>
-          <cell r="L8">
-            <v>24377323.000000004</v>
-          </cell>
-          <cell r="M8">
-            <v>5618095.3999999994</v>
-          </cell>
-          <cell r="N8">
-            <v>3516300.0000000149</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>42704</v>
-          </cell>
-          <cell r="B9">
-            <v>121867569.09999999</v>
-          </cell>
-          <cell r="C9">
-            <v>15551659.199999999</v>
-          </cell>
-          <cell r="F9">
-            <v>33180813.399999976</v>
-          </cell>
-          <cell r="I9">
-            <v>42704</v>
-          </cell>
-          <cell r="J9">
-            <v>56129899.399999999</v>
-          </cell>
-          <cell r="K9">
-            <v>40616298.399999999</v>
-          </cell>
-          <cell r="L9">
-            <v>29517978.800000004</v>
-          </cell>
-          <cell r="M9">
-            <v>7307237.0999999996</v>
-          </cell>
-          <cell r="N9">
-            <v>3847812.9000000358</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>42735</v>
-          </cell>
-          <cell r="B10">
-            <v>137922998.09999999</v>
-          </cell>
-          <cell r="C10">
-            <v>17511472.800000001</v>
-          </cell>
-          <cell r="F10">
-            <v>36306571.299999982</v>
-          </cell>
-          <cell r="I10">
-            <v>42735</v>
-          </cell>
-          <cell r="J10">
-            <v>60554829</v>
-          </cell>
-          <cell r="K10">
-            <v>48041206</v>
-          </cell>
-          <cell r="L10">
-            <v>34937705.900000006</v>
-          </cell>
-          <cell r="M10">
-            <v>7782451.0999999996</v>
-          </cell>
-          <cell r="N10">
-            <v>4118276.7000000179</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>42766</v>
-          </cell>
-          <cell r="B11">
-            <v>156262981.40000001</v>
-          </cell>
-          <cell r="C11">
-            <v>19717274.399999999</v>
-          </cell>
-          <cell r="F11">
-            <v>39062866.199999988</v>
-          </cell>
-          <cell r="I11">
-            <v>42766</v>
-          </cell>
-          <cell r="J11">
-            <v>66247671.200000003</v>
-          </cell>
-          <cell r="K11">
-            <v>56812091.899999999</v>
-          </cell>
-          <cell r="L11">
-            <v>40292729.800000004</v>
-          </cell>
-          <cell r="M11">
-            <v>7895666.1999999993</v>
-          </cell>
-          <cell r="N11">
-            <v>4732094.7000000179</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>42794</v>
-          </cell>
-          <cell r="B12">
-            <v>174124928.40000001</v>
-          </cell>
-          <cell r="C12">
-            <v>21557515.199999999</v>
-          </cell>
-          <cell r="F12">
-            <v>40407718.599999994</v>
-          </cell>
-          <cell r="I12">
-            <v>42794</v>
-          </cell>
-          <cell r="J12">
-            <v>70614611.299999997</v>
-          </cell>
-          <cell r="K12">
-            <v>63487008.100000001</v>
-          </cell>
-          <cell r="L12">
-            <v>48397740.100000001</v>
-          </cell>
-          <cell r="M12">
-            <v>8005647.2999999989</v>
-          </cell>
-          <cell r="N12">
-            <v>5177434.599999994</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>42825</v>
-          </cell>
-          <cell r="B13">
-            <v>192602598.40000001</v>
-          </cell>
-          <cell r="C13">
-            <v>23544835.199999999</v>
-          </cell>
-          <cell r="F13">
-            <v>43244809</v>
-          </cell>
-          <cell r="I13">
-            <v>42825</v>
-          </cell>
-          <cell r="J13">
-            <v>74901323.099999994</v>
-          </cell>
-          <cell r="K13">
-            <v>69310769.299999997</v>
-          </cell>
-          <cell r="L13">
-            <v>57636326.299999997</v>
-          </cell>
-          <cell r="M13">
-            <v>8300878.7999999989</v>
-          </cell>
-          <cell r="N13">
-            <v>5998133.5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>42855</v>
-          </cell>
-          <cell r="B14">
-            <v>211579472.40000001</v>
-          </cell>
-          <cell r="C14">
-            <v>25570773.599999998</v>
-          </cell>
-          <cell r="F14">
-            <v>44500868.900000006</v>
-          </cell>
-          <cell r="I14">
-            <v>42855</v>
-          </cell>
-          <cell r="J14">
-            <v>79776601.699999988</v>
-          </cell>
-          <cell r="K14">
-            <v>75796154.200000003</v>
-          </cell>
-          <cell r="L14">
-            <v>65927763.699999996</v>
-          </cell>
-          <cell r="M14">
-            <v>8597754.3999999985</v>
-          </cell>
-          <cell r="N14">
-            <v>7051969.1000000238</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>42886</v>
-          </cell>
-          <cell r="B15">
-            <v>230801372.5</v>
-          </cell>
-          <cell r="C15">
-            <v>27664571.999999996</v>
-          </cell>
-          <cell r="F15">
-            <v>46167032.49999997</v>
-          </cell>
-          <cell r="I15">
-            <v>42886</v>
-          </cell>
-          <cell r="J15">
-            <v>84412925.499999985</v>
-          </cell>
-          <cell r="K15">
-            <v>82069870.600000009</v>
-          </cell>
-          <cell r="L15">
-            <v>75502763.399999991</v>
-          </cell>
-          <cell r="M15">
-            <v>8837448.7999999989</v>
-          </cell>
-          <cell r="N15">
-            <v>7642933.599999994</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>42916</v>
-          </cell>
-          <cell r="B16">
-            <v>249650891.69999999</v>
-          </cell>
-          <cell r="C16">
-            <v>29669392.799999997</v>
-          </cell>
-          <cell r="F16">
-            <v>47559900.399999976</v>
-          </cell>
-          <cell r="I16">
-            <v>42916</v>
-          </cell>
-          <cell r="J16">
-            <v>89636199.099999979</v>
-          </cell>
-          <cell r="K16">
-            <v>89185052.000000015</v>
-          </cell>
-          <cell r="L16">
-            <v>83329778.999999985</v>
-          </cell>
-          <cell r="M16">
-            <v>8880355.4999999981</v>
-          </cell>
-          <cell r="N16">
-            <v>8288896.4000000358</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>42947</v>
-          </cell>
-          <cell r="B17">
-            <v>268139905.69999999</v>
-          </cell>
-          <cell r="C17">
-            <v>31794698.399999999</v>
-          </cell>
-          <cell r="F17">
-            <v>49427178.099999964</v>
-          </cell>
-          <cell r="I17">
-            <v>42947</v>
-          </cell>
-          <cell r="J17">
-            <v>95812123.799999982</v>
-          </cell>
-          <cell r="K17">
-            <v>96838127.700000018</v>
-          </cell>
-          <cell r="L17">
-            <v>89027814.499999985</v>
-          </cell>
-          <cell r="M17">
-            <v>9344485.7999999989</v>
-          </cell>
-          <cell r="N17">
-            <v>8912049.3000000119</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>42978</v>
-          </cell>
-          <cell r="B18">
-            <v>284774855</v>
-          </cell>
-          <cell r="C18">
-            <v>33632217.600000001</v>
-          </cell>
-          <cell r="F18">
-            <v>51124503.199999988</v>
-          </cell>
-          <cell r="I18">
-            <v>42978</v>
-          </cell>
-          <cell r="J18">
-            <v>101854264.29999998</v>
-          </cell>
-          <cell r="K18">
-            <v>103134596.60000002</v>
-          </cell>
-          <cell r="L18">
-            <v>93451950.299999982</v>
-          </cell>
-          <cell r="M18">
-            <v>9890870.5999999996</v>
-          </cell>
-          <cell r="N18">
-            <v>10075387.5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>43008</v>
-          </cell>
-          <cell r="B19">
-            <v>301603182.89999998</v>
-          </cell>
-          <cell r="C19">
-            <v>35229088.800000004</v>
-          </cell>
-          <cell r="F19">
-            <v>54317448.599999964</v>
-          </cell>
-          <cell r="I19">
-            <v>43008</v>
-          </cell>
-          <cell r="J19">
-            <v>108236551.79999998</v>
-          </cell>
-          <cell r="K19">
-            <v>109714897.90000002</v>
-          </cell>
-          <cell r="L19">
-            <v>96752597.899999976</v>
-          </cell>
-          <cell r="M19">
-            <v>10917355</v>
-          </cell>
-          <cell r="N19">
-            <v>11210865.300000072</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>43039</v>
-          </cell>
-          <cell r="B20">
-            <v>317746477.5</v>
-          </cell>
-          <cell r="C20">
-            <v>36785164.800000004</v>
-          </cell>
-          <cell r="F20">
-            <v>59338573.299999952</v>
-          </cell>
-          <cell r="I20">
-            <v>43039</v>
-          </cell>
-          <cell r="J20">
-            <v>113517650.19999999</v>
-          </cell>
-          <cell r="K20">
-            <v>116524061.70000002</v>
-          </cell>
-          <cell r="L20">
-            <v>101213697.09999998</v>
-          </cell>
-          <cell r="M20">
-            <v>11197637.300000001</v>
-          </cell>
-          <cell r="N20">
-            <v>12078592.100000024</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>43069</v>
-          </cell>
-          <cell r="B21">
-            <v>335666824.80000001</v>
-          </cell>
-          <cell r="C21">
-            <v>38422783.200000003</v>
-          </cell>
-          <cell r="F21">
-            <v>61774520.599999964</v>
-          </cell>
-          <cell r="I21">
-            <v>43069</v>
-          </cell>
-          <cell r="J21">
-            <v>120544819.69999999</v>
-          </cell>
-          <cell r="K21">
-            <v>122462571.80000001</v>
-          </cell>
-          <cell r="L21">
-            <v>105731639.39999998</v>
-          </cell>
-          <cell r="M21">
-            <v>12262704.4</v>
-          </cell>
-          <cell r="N21">
-            <v>13087867.800000072</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>43100</v>
-          </cell>
-          <cell r="B22">
-            <v>351335053.10000002</v>
-          </cell>
-          <cell r="C22">
-            <v>39837232.800000004</v>
-          </cell>
-          <cell r="F22">
-            <v>63881855.199999988</v>
-          </cell>
-          <cell r="I22">
-            <v>43100</v>
-          </cell>
-          <cell r="J22">
-            <v>126390083.89999999</v>
-          </cell>
-          <cell r="K22">
-            <v>128461359.80000001</v>
-          </cell>
-          <cell r="L22">
-            <v>109725757.79999998</v>
-          </cell>
-          <cell r="M22">
-            <v>13080134.5</v>
-          </cell>
-          <cell r="N22">
-            <v>13514946</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>43131</v>
-          </cell>
-          <cell r="B23">
-            <v>367404348</v>
-          </cell>
-          <cell r="C23">
-            <v>41323586.400000006</v>
-          </cell>
-          <cell r="F23">
-            <v>64891146.899999976</v>
-          </cell>
-          <cell r="I23">
-            <v>43131</v>
-          </cell>
-          <cell r="J23">
-            <v>133581308.89999999</v>
-          </cell>
-          <cell r="K23">
-            <v>134508396.5</v>
-          </cell>
-          <cell r="L23">
-            <v>113315903.59999998</v>
-          </cell>
-          <cell r="M23">
-            <v>13193649.199999999</v>
-          </cell>
-          <cell r="N23">
-            <v>14128672.600000083</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>43159</v>
-          </cell>
-          <cell r="B24">
-            <v>384486918.80000001</v>
-          </cell>
-          <cell r="C24">
-            <v>43112419.200000003</v>
-          </cell>
-          <cell r="F24">
-            <v>66021889.399999976</v>
-          </cell>
-          <cell r="I24">
-            <v>43159</v>
-          </cell>
-          <cell r="J24">
-            <v>141944111.29999998</v>
-          </cell>
-          <cell r="K24">
-            <v>140975006.19999999</v>
-          </cell>
-          <cell r="L24">
-            <v>116200908.79999998</v>
-          </cell>
-          <cell r="M24">
-            <v>13392203.6</v>
-          </cell>
-          <cell r="N24">
-            <v>15087105.600000024</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>43190</v>
-          </cell>
-          <cell r="B25">
-            <v>401993359.60000002</v>
-          </cell>
-          <cell r="C25">
-            <v>44692982.400000006</v>
-          </cell>
-          <cell r="F25">
-            <v>68113664.799999952</v>
-          </cell>
-          <cell r="I25">
-            <v>43190</v>
-          </cell>
-          <cell r="J25">
-            <v>149500935.89999998</v>
-          </cell>
-          <cell r="K25">
-            <v>148796736.5</v>
-          </cell>
-          <cell r="L25">
-            <v>118513941.29999998</v>
-          </cell>
-          <cell r="M25">
-            <v>13615030.4</v>
-          </cell>
-          <cell r="N25">
-            <v>16259694.400000095</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>43220</v>
-          </cell>
-          <cell r="B26">
-            <v>420184501.80000001</v>
-          </cell>
-          <cell r="C26">
-            <v>46729183.200000003</v>
-          </cell>
-          <cell r="F26">
-            <v>69368745.99999994</v>
-          </cell>
-          <cell r="I26">
-            <v>43220</v>
-          </cell>
-          <cell r="J26">
-            <v>156825569.29999998</v>
-          </cell>
-          <cell r="K26">
-            <v>157200197.69999999</v>
-          </cell>
-          <cell r="L26">
-            <v>121374207.99999999</v>
-          </cell>
-          <cell r="M26">
-            <v>13826325.800000001</v>
-          </cell>
-          <cell r="N26">
-            <v>17687380.5</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>43251</v>
-          </cell>
-          <cell r="B27">
-            <v>438698780.5</v>
-          </cell>
-          <cell r="C27">
-            <v>48448408.800000004</v>
-          </cell>
-          <cell r="F27">
-            <v>71227948.799999952</v>
-          </cell>
-          <cell r="I27">
-            <v>43251</v>
-          </cell>
-          <cell r="J27">
-            <v>162921556.19999999</v>
-          </cell>
-          <cell r="K27">
-            <v>166449012.69999999</v>
-          </cell>
-          <cell r="L27">
-            <v>124122387.79999998</v>
-          </cell>
-          <cell r="M27">
-            <v>14378660.5</v>
-          </cell>
-          <cell r="N27">
-            <v>19275569.300000072</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>43281</v>
-          </cell>
-          <cell r="B28">
-            <v>455274763.30000001</v>
-          </cell>
-          <cell r="C28">
-            <v>49520472.000000007</v>
-          </cell>
-          <cell r="F28">
-            <v>73188218.499999881</v>
-          </cell>
-          <cell r="I28">
-            <v>43281</v>
-          </cell>
-          <cell r="J28">
-            <v>170040442.79999998</v>
-          </cell>
-          <cell r="K28">
-            <v>173235184.09999999</v>
-          </cell>
-          <cell r="L28">
-            <v>126458760.99999999</v>
-          </cell>
-          <cell r="M28">
-            <v>14698642.699999999</v>
-          </cell>
-          <cell r="N28">
-            <v>20362201.50000006</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>43312</v>
-          </cell>
-          <cell r="B29">
-            <v>473757251.19999999</v>
-          </cell>
-          <cell r="C29">
-            <v>50850537.600000009</v>
-          </cell>
-          <cell r="F29">
-            <v>76120041.599999905</v>
-          </cell>
-          <cell r="I29">
-            <v>43312</v>
-          </cell>
-          <cell r="J29">
-            <v>179136304.79999998</v>
-          </cell>
-          <cell r="K29">
-            <v>180504925.79999998</v>
-          </cell>
-          <cell r="L29">
-            <v>128385613.59999998</v>
-          </cell>
-          <cell r="M29">
-            <v>14792637</v>
-          </cell>
-          <cell r="N29">
-            <v>21788305.400000095</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>43343</v>
-          </cell>
-          <cell r="B30">
-            <v>492683086.80000001</v>
-          </cell>
-          <cell r="C30">
-            <v>51916783.20000001</v>
-          </cell>
-          <cell r="F30">
-            <v>79348200.199999928</v>
-          </cell>
-          <cell r="I30">
-            <v>43343</v>
-          </cell>
-          <cell r="J30">
-            <v>187150601.09999999</v>
-          </cell>
-          <cell r="K30">
-            <v>189100426.89999998</v>
-          </cell>
-          <cell r="L30">
-            <v>130761979.29999998</v>
-          </cell>
-          <cell r="M30">
-            <v>14923199.5</v>
-          </cell>
-          <cell r="N30">
-            <v>22663661.200000048</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>43373</v>
-          </cell>
-          <cell r="B31">
-            <v>508491904.90000004</v>
-          </cell>
-          <cell r="C31">
-            <v>53399258.400000013</v>
-          </cell>
-          <cell r="F31">
-            <v>80825600.599999905</v>
-          </cell>
-          <cell r="I31">
-            <v>43373</v>
-          </cell>
-          <cell r="J31">
-            <v>194110029.5</v>
-          </cell>
-          <cell r="K31">
-            <v>195278064.99999997</v>
-          </cell>
-          <cell r="L31">
-            <v>133361333.19999999</v>
-          </cell>
-          <cell r="M31">
-            <v>15132429.300000001</v>
-          </cell>
-          <cell r="N31">
-            <v>24009304.200000048</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>43404</v>
-          </cell>
-          <cell r="B32">
-            <v>525022269.20000005</v>
-          </cell>
-          <cell r="C32">
-            <v>55356280.800000012</v>
-          </cell>
-          <cell r="F32">
-            <v>82148181.699999928</v>
-          </cell>
-          <cell r="I32">
-            <v>43404</v>
-          </cell>
-          <cell r="J32">
-            <v>201531829.09999999</v>
-          </cell>
-          <cell r="K32">
-            <v>200937827.29999998</v>
-          </cell>
-          <cell r="L32">
-            <v>137152616.09999999</v>
-          </cell>
-          <cell r="M32">
-            <v>15170395.4</v>
-          </cell>
-          <cell r="N32">
-            <v>25585879.400000095</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>43434</v>
-          </cell>
-          <cell r="B33">
-            <v>542143127.20000005</v>
-          </cell>
-          <cell r="C33">
-            <v>57067855.20000001</v>
-          </cell>
-          <cell r="F33">
-            <v>83495621.199999928</v>
-          </cell>
-          <cell r="I33">
-            <v>43434</v>
-          </cell>
-          <cell r="J33">
-            <v>208560772</v>
-          </cell>
-          <cell r="K33">
-            <v>207907647.19999999</v>
-          </cell>
-          <cell r="L33">
-            <v>140380954.29999998</v>
-          </cell>
-          <cell r="M33">
-            <v>15191066</v>
-          </cell>
-          <cell r="N33">
-            <v>27170540.300000072</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>43465</v>
-          </cell>
-          <cell r="B34">
-            <v>556472986.30000007</v>
-          </cell>
-          <cell r="C34">
-            <v>58381255.20000001</v>
-          </cell>
-          <cell r="F34">
-            <v>84243184.299999952</v>
-          </cell>
-          <cell r="I34">
-            <v>43465</v>
-          </cell>
-          <cell r="J34">
-            <v>215762253</v>
-          </cell>
-          <cell r="K34">
-            <v>213298279.39999998</v>
-          </cell>
-          <cell r="L34">
-            <v>142463708.79999998</v>
-          </cell>
-          <cell r="M34">
-            <v>15203839.199999999</v>
-          </cell>
-          <cell r="N34">
-            <v>28126158.800000072</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>43496</v>
-          </cell>
-          <cell r="B35">
-            <v>575032138.50000012</v>
-          </cell>
-          <cell r="C35">
-            <v>60175063.20000001</v>
-          </cell>
-          <cell r="F35">
-            <v>85730863.999999881</v>
-          </cell>
-          <cell r="I35">
-            <v>43496</v>
-          </cell>
-          <cell r="J35">
-            <v>223125045.69999999</v>
-          </cell>
-          <cell r="K35">
-            <v>216331728.89999998</v>
-          </cell>
-          <cell r="L35">
-            <v>149793527.79999998</v>
-          </cell>
-          <cell r="M35">
-            <v>15228386.799999999</v>
-          </cell>
-          <cell r="N35">
-            <v>30728511.100000143</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4727,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5215,7 +4065,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="40"/>
     </row>
@@ -5227,7 +4077,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="41"/>
     </row>
@@ -5245,13 +4095,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="43"/>
     </row>
@@ -5261,25 +4111,25 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="43"/>
     </row>
@@ -5323,37 +4173,37 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5466,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -5668,27 +4518,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5794,9 +4644,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5805,129 +4655,232 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="25" t="e">
+      <c r="B6" s="48" t="e">
         <f>B$5/B2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="25" t="e">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="48" t="e">
         <f>B$5/B3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="25" t="e">
+      <c r="A8" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="48" t="e">
         <f>B$5/B4</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="52" t="e">
+        <f>B10/(B3*B9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="48" t="e">
+        <f>B$17/B14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="48" t="e">
+        <f>B$17/B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="48" t="e">
+        <f>B$17/B16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="52" t="e">
+        <f>B21/(B15*B9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="25" t="e">
-        <f>B$13/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="25" t="e">
-        <f>B$13/B11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="25" t="e">
-        <f>B$13/B12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6002,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>31</v>
@@ -6198,28 +5151,28 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>16</v>
@@ -6234,7 +5187,7 @@
         <v>21</v>
       </c>
       <c r="N1" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -7832,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -7927,7 +6880,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -7964,7 +6917,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -7990,7 +6943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19896,48 +18851,48 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -19960,13 +18915,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -20077,7 +19032,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -20107,7 +19062,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -20152,7 +19107,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Queue First Job 2019-02" sheetId="26" r:id="rId1"/>
@@ -202,13 +202,7 @@
     <t xml:space="preserve"> 1st Job Queue Time (min) </t>
   </si>
   <si>
-    <t xml:space="preserve"> # 1st Jobs &lt; 10 mins </t>
-  </si>
-  <si>
     <t xml:space="preserve">% 1st Jobs &lt; 10 mins </t>
-  </si>
-  <si>
-    <t># 2nd Jobs &lt; 120 mins</t>
   </si>
   <si>
     <t>% 2nd Jobs &lt; 120 mins</t>
@@ -386,6 +380,12 @@
   </si>
   <si>
     <t>Total GPU hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # 1st Jobs &gt; 10 mins </t>
+  </si>
+  <si>
+    <t># 2nd Jobs &gt; 120 mins</t>
   </si>
 </sst>
 </file>
@@ -3577,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3605,16 +3605,16 @@
         <v>50</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="40"/>
     </row>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="41"/>
     </row>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="43"/>
     </row>
@@ -4111,25 +4111,25 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="43"/>
     </row>
@@ -4173,37 +4173,37 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -4518,27 +4518,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4656,7 +4656,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="31"/>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="31"/>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="31"/>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="31"/>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="48" t="e">
         <f>B$5/B2</f>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="48" t="e">
         <f>B$5/B3</f>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="48" t="e">
         <f>B$5/B4</f>
@@ -4721,17 +4721,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="31"/>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="52" t="e">
         <f>B10/(B3*B9)</f>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="31"/>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="31"/>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="31"/>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="48" t="e">
         <f>B$17/B14</f>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="48" t="e">
         <f>B$17/B15</f>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="48" t="e">
         <f>B$17/B16</f>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="31"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="52" t="e">
         <f>B21/(B15*B9)</f>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>31</v>
@@ -5151,28 +5151,28 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>106</v>
-      </c>
       <c r="I1" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>16</v>
@@ -5187,7 +5187,7 @@
         <v>21</v>
       </c>
       <c r="N1" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6880,7 +6880,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6917,7 +6917,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -18851,48 +18851,48 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -18915,13 +18915,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -19032,7 +19032,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -19062,7 +19062,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -19107,7 +19107,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>

--- a/application_usage-template.xlsx
+++ b/application_usage-template.xlsx
@@ -12,35 +12,35 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Queue First Job 2019-02" sheetId="26" r:id="rId1"/>
-    <sheet name="Core Summary 2019-02" sheetId="30" r:id="rId2"/>
-    <sheet name="Project Usage 2019-02" sheetId="23" r:id="rId3"/>
-    <sheet name="Project Stakeholder 2019-02" sheetId="31" r:id="rId4"/>
-    <sheet name="Project Status 2019-02" sheetId="25" r:id="rId5"/>
-    <sheet name="Personal Status 2019-02" sheetId="24" r:id="rId6"/>
-    <sheet name="Storage Summary 2019-02" sheetId="34" r:id="rId7"/>
-    <sheet name="Storage by Fileset 2019-02" sheetId="33" r:id="rId8"/>
-    <sheet name="Storage By Org 2019-02" sheetId="19" r:id="rId9"/>
-    <sheet name="Active Users 2019-02" sheetId="18" r:id="rId10"/>
-    <sheet name="By Cores CPU 2019-02" sheetId="15" r:id="rId11"/>
-    <sheet name="Applications CPU 2019-02" sheetId="1" r:id="rId12"/>
-    <sheet name="User Walltime CPU 2019-02" sheetId="4" r:id="rId13"/>
-    <sheet name="Project CPU 2019-02" sheetId="40" r:id="rId14"/>
-    <sheet name="Org HighLevel CPU 2019-02" sheetId="7" r:id="rId15"/>
-    <sheet name="Org Breakdown CPU 2019-02" sheetId="5" r:id="rId16"/>
-    <sheet name="Largest Jobs CPU 2019-02" sheetId="6" r:id="rId17"/>
-    <sheet name="By Cores GPU 2019-02" sheetId="16" r:id="rId18"/>
-    <sheet name="Applications GPU 2019-02" sheetId="3" r:id="rId19"/>
-    <sheet name="User Walltime GPU 2019-02" sheetId="10" r:id="rId20"/>
-    <sheet name="Project Summary GPU 2019-02" sheetId="41" r:id="rId21"/>
-    <sheet name="Org HighLevel GPU 2019-02" sheetId="8" r:id="rId22"/>
-    <sheet name="Org Breakdown GPU 2019-02" sheetId="9" r:id="rId23"/>
-    <sheet name="Largest Jobs GPU 2019-02" sheetId="11" r:id="rId24"/>
-    <sheet name="Cumulative 2019-02" sheetId="42" r:id="rId25"/>
-    <sheet name="ApplicationsDGX 2019-02" sheetId="36" r:id="rId26"/>
-    <sheet name="User DGX 2019-02" sheetId="37" r:id="rId27"/>
-    <sheet name="Projects DGX 2019-02" sheetId="38" r:id="rId28"/>
-    <sheet name="Org Breakdown DGX 2019-02" sheetId="39" r:id="rId29"/>
+    <sheet name="Queue First Job" sheetId="26" r:id="rId1"/>
+    <sheet name="Core Summary" sheetId="30" r:id="rId2"/>
+    <sheet name="Project Usage" sheetId="23" r:id="rId3"/>
+    <sheet name="Project Stakeholder" sheetId="31" r:id="rId4"/>
+    <sheet name="Project Status" sheetId="25" r:id="rId5"/>
+    <sheet name="Personal Status" sheetId="24" r:id="rId6"/>
+    <sheet name="Storage Summary" sheetId="34" r:id="rId7"/>
+    <sheet name="Storage by Fileset" sheetId="33" r:id="rId8"/>
+    <sheet name="Storage By Org" sheetId="19" r:id="rId9"/>
+    <sheet name="Active Users" sheetId="18" r:id="rId10"/>
+    <sheet name="By Cores CPU" sheetId="15" r:id="rId11"/>
+    <sheet name="Applications CPU" sheetId="1" r:id="rId12"/>
+    <sheet name="User Walltime CPU" sheetId="4" r:id="rId13"/>
+    <sheet name="Project CPU" sheetId="40" r:id="rId14"/>
+    <sheet name="Org HighLevel CPU" sheetId="7" r:id="rId15"/>
+    <sheet name="Org Breakdown CPU" sheetId="5" r:id="rId16"/>
+    <sheet name="Largest Jobs CPU" sheetId="6" r:id="rId17"/>
+    <sheet name="By Cores GPU" sheetId="16" r:id="rId18"/>
+    <sheet name="Applications GPU" sheetId="3" r:id="rId19"/>
+    <sheet name="User Walltime GPU" sheetId="10" r:id="rId20"/>
+    <sheet name="Project GPU" sheetId="41" r:id="rId21"/>
+    <sheet name="Org HighLevel GPU" sheetId="8" r:id="rId22"/>
+    <sheet name="Org Breakdown GPU" sheetId="9" r:id="rId23"/>
+    <sheet name="Largest Jobs GPU" sheetId="11" r:id="rId24"/>
+    <sheet name="Cumulative" sheetId="42" r:id="rId25"/>
+    <sheet name="ApplicationsDGX" sheetId="36" r:id="rId26"/>
+    <sheet name="User DGX" sheetId="37" r:id="rId27"/>
+    <sheet name="Projects DGX" sheetId="38" r:id="rId28"/>
+    <sheet name="Org Breakdown DGX" sheetId="39" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1116,7 +1116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$B$1</c:f>
+              <c:f>Cumulative!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1127,7 +1127,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$A$2:$A$35</c:f>
+              <c:f>Cumulative!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1238,7 +1238,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$B$2:$B$35</c:f>
+              <c:f>Cumulative!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1358,7 +1358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$C$1</c:f>
+              <c:f>Cumulative!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1369,7 +1369,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$A$2:$A$35</c:f>
+              <c:f>Cumulative!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1480,7 +1480,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$C$2:$C$35</c:f>
+              <c:f>Cumulative!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1600,7 +1600,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$F$1</c:f>
+              <c:f>Cumulative!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1616,7 +1616,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$A$2:$A$35</c:f>
+              <c:f>Cumulative!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1727,7 +1727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$F$2:$F$35</c:f>
+              <c:f>Cumulative!$F$2:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1948,7 +1948,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$J$1</c:f>
+              <c:f>Cumulative!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1959,7 +1959,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
+              <c:f>Cumulative!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2070,7 +2070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$J$2:$J$35</c:f>
+              <c:f>Cumulative!$J$2:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2190,7 +2190,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$K$1</c:f>
+              <c:f>Cumulative!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2201,7 +2201,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
+              <c:f>Cumulative!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2312,7 +2312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$K$2:$K$35</c:f>
+              <c:f>Cumulative!$K$2:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2432,7 +2432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$L$1</c:f>
+              <c:f>Cumulative!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2443,7 +2443,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
+              <c:f>Cumulative!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2554,7 +2554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$L$2:$L$35</c:f>
+              <c:f>Cumulative!$L$2:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2674,7 +2674,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$M$1</c:f>
+              <c:f>Cumulative!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2690,7 +2690,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
+              <c:f>Cumulative!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2801,7 +2801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$M$2:$M$35</c:f>
+              <c:f>Cumulative!$M$2:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2921,7 +2921,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2019-02'!$N$1</c:f>
+              <c:f>Cumulative!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2932,7 +2932,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$I$2:$I$35</c:f>
+              <c:f>Cumulative!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
@@ -3043,7 +3043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2019-02'!$N$2:$N$35</c:f>
+              <c:f>Cumulative!$N$2:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -6943,9 +6943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
